--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">敬語を正しく使い分けられる。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">×</t>
   </si>
   <si>
     <t xml:space="preserve">名刺の出し方を他の受講生に向けて実践できる。</t>
@@ -1766,21 +1769,21 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="メイリオ"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1955,79 +1958,79 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="5" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2178,9 +2181,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
+      <xdr:colOff>307800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2190,7 +2193,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5012640" cy="1626840"/>
+          <a:ext cx="5012280" cy="1626480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2356,9 +2359,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
+      <xdr:colOff>307800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2368,7 +2371,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5012640" cy="1626840"/>
+          <a:ext cx="5012280" cy="1626480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2528,15 +2531,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>308160</xdr:colOff>
+      <xdr:colOff>336240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>181080</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2545,8 +2548,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11620440" y="145080"/>
-          <a:ext cx="5013000" cy="1626840"/>
+          <a:off x="11648880" y="116280"/>
+          <a:ext cx="5012640" cy="1626480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2712,9 +2715,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>267480</xdr:colOff>
+      <xdr:colOff>267120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2724,7 +2727,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5070600" cy="1664280"/>
+          <a:ext cx="5070240" cy="1663920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2885,9 +2888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>81000</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2897,7 +2900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="200520" cy="2231280"/>
+          <a:ext cx="200160" cy="2230920"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2937,9 +2940,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>410040</xdr:colOff>
+      <xdr:colOff>409680</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2949,7 +2952,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4622760" cy="1162440"/>
+          <a:ext cx="4622400" cy="1162080"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3050,9 +3053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>245160</xdr:colOff>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>6120</xdr:rowOff>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3062,7 +3065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5034240" cy="1647720"/>
+          <a:ext cx="5033880" cy="1647360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3228,9 +3231,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319680</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>209160</xdr:rowOff>
+      <xdr:rowOff>208800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3240,7 +3243,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5070240" cy="3109680"/>
+          <a:ext cx="5069880" cy="3109320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3406,9 +3409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319680</xdr:colOff>
+      <xdr:colOff>319320</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>209160</xdr:rowOff>
+      <xdr:rowOff>208800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3418,7 +3421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5070240" cy="2690640"/>
+          <a:ext cx="5069880" cy="2690280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3768,8 +3771,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18:C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3834,9 +3837,11 @@
       <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>2</v>
@@ -3845,9 +3850,11 @@
       <c r="C8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>3</v>
@@ -3856,9 +3863,11 @@
       <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>4</v>
@@ -3867,9 +3876,11 @@
       <c r="C10" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>5</v>
@@ -3878,9 +3889,11 @@
       <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>6</v>
@@ -3889,9 +3902,11 @@
       <c r="C12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>7</v>
@@ -3900,9 +3915,11 @@
       <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>8</v>
@@ -3911,161 +3928,191 @@
       <c r="C14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>17</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>18</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>25</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>27</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>28</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>29</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D28" s="9"/>
+        <v>30</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4105,8 +4152,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C18:C21 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4121,7 +4168,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4165,104 +4212,124 @@
         <v>1</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>34</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>37</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="9"/>
+        <v>43</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4303,8 +4370,8 @@
   </sheetPr>
   <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C18:C21 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4319,7 +4386,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4358,591 +4425,705 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>46</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>47</v>
+      </c>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>48</v>
+      </c>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
       <c r="B10" s="16"/>
       <c r="C10" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>49</v>
+      </c>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>51</v>
+      </c>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>53</v>
+      </c>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>55</v>
+      </c>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>57</v>
+      </c>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>59</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>61</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>63</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>64</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>68</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>69</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>71</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>73</v>
+      </c>
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>74</v>
+      </c>
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>75</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>76</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>77</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>79</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>80</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>81</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
       <c r="B38" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>83</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>85</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>87</v>
+      </c>
+      <c r="D42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="D43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="D44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>89</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="D45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>90</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="D46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>91</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="D48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>93</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>94</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>95</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>98</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="D53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>99</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>100</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>101</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>103</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>104</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="D59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>105</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
       <c r="B60" s="16"/>
       <c r="C60" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>106</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>107</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="D63" s="9"/>
+        <v>109</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -4988,8 +5169,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C18:C21 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5004,7 +5185,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5048,10 +5229,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -5061,7 +5242,7 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -5071,7 +5252,7 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -5081,7 +5262,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -5090,10 +5271,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -5103,7 +5284,7 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -5113,7 +5294,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="17" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -5123,7 +5304,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -5132,10 +5313,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -5145,7 +5326,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -5155,7 +5336,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -5165,7 +5346,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -5175,7 +5356,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="17" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -5185,7 +5366,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -5194,10 +5375,10 @@
         <v>15</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -5207,7 +5388,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -5216,10 +5397,10 @@
         <v>17</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -5229,7 +5410,7 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -5239,7 +5420,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="17" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -5249,7 +5430,7 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -5259,7 +5440,7 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="17" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -5269,7 +5450,7 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -5279,7 +5460,7 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -5288,10 +5469,10 @@
         <v>24</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -5301,7 +5482,7 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -5310,10 +5491,10 @@
         <v>26</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -5323,7 +5504,7 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -5333,7 +5514,7 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -5342,10 +5523,10 @@
         <v>29</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -5355,7 +5536,7 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -5365,7 +5546,7 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -5375,7 +5556,7 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -5385,7 +5566,7 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D39" s="9"/>
     </row>
@@ -5395,7 +5576,7 @@
       </c>
       <c r="B40" s="16"/>
       <c r="C40" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D40" s="9"/>
     </row>
@@ -5404,10 +5585,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -5417,7 +5598,7 @@
       </c>
       <c r="B42" s="16"/>
       <c r="C42" s="17" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D42" s="9"/>
     </row>
@@ -5427,7 +5608,7 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="17" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -5437,7 +5618,7 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -5447,7 +5628,7 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="17" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D45" s="9"/>
     </row>
@@ -5457,7 +5638,7 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="17" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D46" s="9"/>
     </row>
@@ -5467,7 +5648,7 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D47" s="9"/>
     </row>
@@ -5477,7 +5658,7 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D48" s="9"/>
     </row>
@@ -5487,7 +5668,7 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="17" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D49" s="9"/>
     </row>
@@ -5497,7 +5678,7 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D50" s="9"/>
     </row>
@@ -5506,10 +5687,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D51" s="9"/>
     </row>
@@ -5519,7 +5700,7 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D52" s="9"/>
     </row>
@@ -5529,7 +5710,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="17" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D53" s="9"/>
     </row>
@@ -5539,7 +5720,7 @@
       </c>
       <c r="B54" s="16"/>
       <c r="C54" s="17" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="9"/>
     </row>
@@ -5549,7 +5730,7 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="9"/>
     </row>
@@ -5558,10 +5739,10 @@
         <v>50</v>
       </c>
       <c r="B56" s="16" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="9"/>
     </row>
@@ -5571,7 +5752,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D57" s="9"/>
     </row>
@@ -5581,7 +5762,7 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D58" s="9"/>
     </row>
@@ -5591,7 +5772,7 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -5600,10 +5781,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -5613,7 +5794,7 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="17" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D61" s="9"/>
     </row>
@@ -5622,10 +5803,10 @@
         <v>56</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -5635,7 +5816,7 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D63" s="9"/>
     </row>
@@ -5645,7 +5826,7 @@
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D64" s="9"/>
     </row>
@@ -5655,7 +5836,7 @@
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D65" s="9"/>
     </row>
@@ -5664,10 +5845,10 @@
         <v>60</v>
       </c>
       <c r="B66" s="16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -5677,7 +5858,7 @@
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="17" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D67" s="9"/>
     </row>
@@ -5687,7 +5868,7 @@
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D68" s="9"/>
     </row>
@@ -5697,7 +5878,7 @@
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D69" s="9"/>
     </row>
@@ -5706,10 +5887,10 @@
         <v>64</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D70" s="9"/>
     </row>
@@ -5719,7 +5900,7 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="17" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D71" s="9"/>
     </row>
@@ -5728,10 +5909,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D72" s="9"/>
     </row>
@@ -5741,7 +5922,7 @@
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -5751,7 +5932,7 @@
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D74" s="9"/>
     </row>
@@ -5761,7 +5942,7 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D75" s="9"/>
     </row>
@@ -5770,10 +5951,10 @@
         <v>70</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D76" s="9"/>
     </row>
@@ -5782,10 +5963,10 @@
         <v>71</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D77" s="9"/>
     </row>
@@ -5795,7 +5976,7 @@
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="17" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -5805,7 +5986,7 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D79" s="9"/>
     </row>
@@ -5814,10 +5995,10 @@
         <v>74</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D80" s="9"/>
     </row>
@@ -5827,7 +6008,7 @@
       </c>
       <c r="B81" s="16"/>
       <c r="C81" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -5836,10 +6017,10 @@
         <v>76</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D82" s="9"/>
     </row>
@@ -5848,10 +6029,10 @@
         <v>77</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D83" s="9"/>
     </row>
@@ -5860,10 +6041,10 @@
         <v>78</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D84" s="9"/>
     </row>
@@ -5872,10 +6053,10 @@
         <v>79</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D85" s="9"/>
     </row>
@@ -5884,10 +6065,10 @@
         <v>80</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D86" s="9"/>
     </row>
@@ -5946,8 +6127,8 @@
   </sheetPr>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C18:C21 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5962,7 +6143,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6006,10 +6187,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -6019,7 +6200,7 @@
       </c>
       <c r="B8" s="16"/>
       <c r="C8" s="17" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -6029,7 +6210,7 @@
       </c>
       <c r="B9" s="16"/>
       <c r="C9" s="17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -6038,10 +6219,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -6051,7 +6232,7 @@
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="17" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -6061,7 +6242,7 @@
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -6071,7 +6252,7 @@
       </c>
       <c r="B13" s="16"/>
       <c r="C13" s="18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -6081,7 +6262,7 @@
       </c>
       <c r="B14" s="16"/>
       <c r="C14" s="18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -6091,7 +6272,7 @@
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="18" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -6101,7 +6282,7 @@
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -6111,7 +6292,7 @@
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -6121,7 +6302,7 @@
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -6131,7 +6312,7 @@
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -6141,7 +6322,7 @@
       </c>
       <c r="B20" s="16"/>
       <c r="C20" s="18" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -6151,7 +6332,7 @@
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -6161,7 +6342,7 @@
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -6171,7 +6352,7 @@
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="18" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -6181,7 +6362,7 @@
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="18" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -6191,7 +6372,7 @@
       </c>
       <c r="B25" s="16"/>
       <c r="C25" s="18" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -6201,7 +6382,7 @@
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -6211,7 +6392,7 @@
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="18" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -6221,7 +6402,7 @@
       </c>
       <c r="B28" s="16"/>
       <c r="C28" s="18" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -6231,7 +6412,7 @@
       </c>
       <c r="B29" s="16"/>
       <c r="C29" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -6241,7 +6422,7 @@
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="18" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -6251,7 +6432,7 @@
       </c>
       <c r="B31" s="16"/>
       <c r="C31" s="18" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -6260,10 +6441,10 @@
         <v>27</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -6273,7 +6454,7 @@
       </c>
       <c r="B33" s="16"/>
       <c r="C33" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -6283,7 +6464,7 @@
       </c>
       <c r="B34" s="16"/>
       <c r="C34" s="18" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -6293,7 +6474,7 @@
       </c>
       <c r="B35" s="16"/>
       <c r="C35" s="18" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -6303,7 +6484,7 @@
       </c>
       <c r="B36" s="16"/>
       <c r="C36" s="18" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -6313,7 +6494,7 @@
       </c>
       <c r="B37" s="16"/>
       <c r="C37" s="18" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -6323,7 +6504,7 @@
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="18" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -6333,7 +6514,7 @@
       </c>
       <c r="B39" s="16"/>
       <c r="C39" s="18" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D39" s="9"/>
     </row>
@@ -6342,10 +6523,10 @@
         <v>35</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D40" s="9"/>
     </row>
@@ -6355,7 +6536,7 @@
       </c>
       <c r="B41" s="16"/>
       <c r="C41" s="18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -6364,10 +6545,10 @@
         <v>37</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D42" s="9"/>
     </row>
@@ -6377,7 +6558,7 @@
       </c>
       <c r="B43" s="16"/>
       <c r="C43" s="18" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -6387,7 +6568,7 @@
       </c>
       <c r="B44" s="16"/>
       <c r="C44" s="18" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -6397,7 +6578,7 @@
       </c>
       <c r="B45" s="16"/>
       <c r="C45" s="18" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D45" s="9"/>
     </row>
@@ -6407,7 +6588,7 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="18" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D46" s="9"/>
     </row>
@@ -6417,7 +6598,7 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="18" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D47" s="9"/>
     </row>
@@ -6427,7 +6608,7 @@
       </c>
       <c r="B48" s="16"/>
       <c r="C48" s="18" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D48" s="9"/>
     </row>
@@ -6437,7 +6618,7 @@
       </c>
       <c r="B49" s="16"/>
       <c r="C49" s="18" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D49" s="9"/>
     </row>
@@ -6447,7 +6628,7 @@
       </c>
       <c r="B50" s="16"/>
       <c r="C50" s="18" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D50" s="9"/>
     </row>
@@ -6457,7 +6638,7 @@
       </c>
       <c r="B51" s="16"/>
       <c r="C51" s="18" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D51" s="9"/>
     </row>
@@ -6467,7 +6648,7 @@
       </c>
       <c r="B52" s="16"/>
       <c r="C52" s="18" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D52" s="9"/>
     </row>
@@ -6477,7 +6658,7 @@
       </c>
       <c r="B53" s="16"/>
       <c r="C53" s="18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D53" s="9"/>
     </row>
@@ -6486,10 +6667,10 @@
         <v>49</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D54" s="9"/>
     </row>
@@ -6499,7 +6680,7 @@
       </c>
       <c r="B55" s="16"/>
       <c r="C55" s="18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D55" s="9"/>
     </row>
@@ -6509,7 +6690,7 @@
       </c>
       <c r="B56" s="16"/>
       <c r="C56" s="18" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D56" s="9"/>
     </row>
@@ -6519,7 +6700,7 @@
       </c>
       <c r="B57" s="16"/>
       <c r="C57" s="18" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D57" s="9"/>
     </row>
@@ -6529,7 +6710,7 @@
       </c>
       <c r="B58" s="16"/>
       <c r="C58" s="18" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D58" s="9"/>
     </row>
@@ -6539,7 +6720,7 @@
       </c>
       <c r="B59" s="16"/>
       <c r="C59" s="18" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -6548,10 +6729,10 @@
         <v>55</v>
       </c>
       <c r="B60" s="16" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -6561,7 +6742,7 @@
       </c>
       <c r="B61" s="16"/>
       <c r="C61" s="18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D61" s="9"/>
     </row>
@@ -6571,7 +6752,7 @@
       </c>
       <c r="B62" s="16"/>
       <c r="C62" s="18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -6581,7 +6762,7 @@
       </c>
       <c r="B63" s="16"/>
       <c r="C63" s="18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D63" s="9"/>
     </row>
@@ -6591,7 +6772,7 @@
       </c>
       <c r="B64" s="16"/>
       <c r="C64" s="18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D64" s="9"/>
     </row>
@@ -6601,7 +6782,7 @@
       </c>
       <c r="B65" s="16"/>
       <c r="C65" s="18" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D65" s="9"/>
     </row>
@@ -6611,7 +6792,7 @@
       </c>
       <c r="B66" s="16"/>
       <c r="C66" s="18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -6621,7 +6802,7 @@
       </c>
       <c r="B67" s="16"/>
       <c r="C67" s="18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D67" s="9"/>
     </row>
@@ -6631,7 +6812,7 @@
       </c>
       <c r="B68" s="16"/>
       <c r="C68" s="18" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D68" s="9"/>
     </row>
@@ -6641,7 +6822,7 @@
       </c>
       <c r="B69" s="16"/>
       <c r="C69" s="18" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D69" s="9"/>
     </row>
@@ -6651,7 +6832,7 @@
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="18" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D70" s="9"/>
     </row>
@@ -6661,7 +6842,7 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="18" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D71" s="9"/>
     </row>
@@ -6671,7 +6852,7 @@
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="18" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D72" s="9"/>
     </row>
@@ -6680,10 +6861,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -6693,7 +6874,7 @@
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="18" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D74" s="9"/>
     </row>
@@ -6703,7 +6884,7 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="18" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D75" s="9"/>
     </row>
@@ -6713,7 +6894,7 @@
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="18" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D76" s="9"/>
     </row>
@@ -6723,7 +6904,7 @@
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="18" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D77" s="9"/>
     </row>
@@ -6733,7 +6914,7 @@
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="18" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -6743,7 +6924,7 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="18" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D79" s="9"/>
     </row>
@@ -6753,7 +6934,7 @@
       </c>
       <c r="B80" s="16"/>
       <c r="C80" s="18" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D80" s="9"/>
     </row>
@@ -6762,10 +6943,10 @@
         <v>76</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D81" s="9"/>
     </row>
@@ -6774,10 +6955,10 @@
         <v>77</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D82" s="9"/>
     </row>
@@ -6787,7 +6968,7 @@
       </c>
       <c r="B83" s="16"/>
       <c r="C83" s="18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D83" s="9"/>
     </row>
@@ -6797,7 +6978,7 @@
       </c>
       <c r="B84" s="16"/>
       <c r="C84" s="18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D84" s="9"/>
     </row>
@@ -6807,7 +6988,7 @@
       </c>
       <c r="B85" s="16"/>
       <c r="C85" s="18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D85" s="9"/>
     </row>
@@ -6817,7 +6998,7 @@
       </c>
       <c r="B86" s="16"/>
       <c r="C86" s="18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D86" s="9"/>
     </row>
@@ -6827,7 +7008,7 @@
       </c>
       <c r="B87" s="16"/>
       <c r="C87" s="18" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D87" s="9"/>
     </row>
@@ -6836,10 +7017,10 @@
         <v>83</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D88" s="9"/>
     </row>
@@ -6849,7 +7030,7 @@
       </c>
       <c r="B89" s="16"/>
       <c r="C89" s="18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D89" s="9"/>
     </row>
@@ -6859,7 +7040,7 @@
       </c>
       <c r="B90" s="16"/>
       <c r="C90" s="18" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D90" s="9"/>
     </row>
@@ -6869,7 +7050,7 @@
       </c>
       <c r="B91" s="16"/>
       <c r="C91" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D91" s="9"/>
     </row>
@@ -6879,7 +7060,7 @@
       </c>
       <c r="B92" s="16"/>
       <c r="C92" s="18" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D92" s="9"/>
     </row>
@@ -6889,7 +7070,7 @@
       </c>
       <c r="B93" s="16"/>
       <c r="C93" s="18" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D93" s="9"/>
     </row>
@@ -6898,10 +7079,10 @@
         <v>89</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D94" s="9"/>
     </row>
@@ -6911,7 +7092,7 @@
       </c>
       <c r="B95" s="16"/>
       <c r="C95" s="18" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D95" s="9"/>
     </row>
@@ -6921,7 +7102,7 @@
       </c>
       <c r="B96" s="16"/>
       <c r="C96" s="18" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D96" s="9"/>
     </row>
@@ -6931,7 +7112,7 @@
       </c>
       <c r="B97" s="16"/>
       <c r="C97" s="18" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D97" s="9"/>
     </row>
@@ -6941,7 +7122,7 @@
       </c>
       <c r="B98" s="16"/>
       <c r="C98" s="18" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D98" s="9"/>
     </row>
@@ -6951,7 +7132,7 @@
       </c>
       <c r="B99" s="16"/>
       <c r="C99" s="18" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D99" s="9"/>
     </row>
@@ -6961,7 +7142,7 @@
       </c>
       <c r="B100" s="16"/>
       <c r="C100" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D100" s="9"/>
     </row>
@@ -6971,7 +7152,7 @@
       </c>
       <c r="B101" s="16"/>
       <c r="C101" s="18" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D101" s="9"/>
     </row>
@@ -6980,10 +7161,10 @@
         <v>97</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D102" s="9"/>
     </row>
@@ -6993,7 +7174,7 @@
       </c>
       <c r="B103" s="16"/>
       <c r="C103" s="18" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D103" s="9"/>
     </row>
@@ -7003,7 +7184,7 @@
       </c>
       <c r="B104" s="16"/>
       <c r="C104" s="18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D104" s="9"/>
     </row>
@@ -7013,7 +7194,7 @@
       </c>
       <c r="B105" s="16"/>
       <c r="C105" s="18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D105" s="9"/>
     </row>
@@ -7022,10 +7203,10 @@
         <v>101</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D106" s="9"/>
     </row>
@@ -7035,7 +7216,7 @@
       </c>
       <c r="B107" s="16"/>
       <c r="C107" s="18" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D107" s="9"/>
     </row>
@@ -7044,10 +7225,10 @@
         <v>103</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D108" s="9"/>
     </row>
@@ -7057,7 +7238,7 @@
       </c>
       <c r="B109" s="16"/>
       <c r="C109" s="18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D109" s="9"/>
     </row>
@@ -7067,7 +7248,7 @@
       </c>
       <c r="B110" s="16"/>
       <c r="C110" s="18" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D110" s="9"/>
     </row>
@@ -7077,7 +7258,7 @@
       </c>
       <c r="B111" s="16"/>
       <c r="C111" s="18" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D111" s="9"/>
     </row>
@@ -7087,7 +7268,7 @@
       </c>
       <c r="B112" s="16"/>
       <c r="C112" s="18" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D112" s="9"/>
     </row>
@@ -7097,7 +7278,7 @@
       </c>
       <c r="B113" s="16"/>
       <c r="C113" s="18" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D113" s="9"/>
     </row>
@@ -7106,10 +7287,10 @@
         <v>109</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D114" s="9"/>
     </row>
@@ -7119,7 +7300,7 @@
       </c>
       <c r="B115" s="16"/>
       <c r="C115" s="18" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D115" s="9"/>
     </row>
@@ -7129,7 +7310,7 @@
       </c>
       <c r="B116" s="16"/>
       <c r="C116" s="18" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D116" s="9"/>
     </row>
@@ -7139,7 +7320,7 @@
       </c>
       <c r="B117" s="16"/>
       <c r="C117" s="18" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D117" s="9"/>
     </row>
@@ -7149,7 +7330,7 @@
       </c>
       <c r="B118" s="16"/>
       <c r="C118" s="18" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D118" s="9"/>
     </row>
@@ -7158,10 +7339,10 @@
         <v>114</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D119" s="9"/>
     </row>
@@ -7171,7 +7352,7 @@
       </c>
       <c r="B120" s="16"/>
       <c r="C120" s="18" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D120" s="9"/>
     </row>
@@ -7181,7 +7362,7 @@
       </c>
       <c r="B121" s="16"/>
       <c r="C121" s="18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D121" s="9"/>
     </row>
@@ -7191,7 +7372,7 @@
       </c>
       <c r="B122" s="16"/>
       <c r="C122" s="18" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D122" s="9"/>
     </row>
@@ -7201,7 +7382,7 @@
       </c>
       <c r="B123" s="16"/>
       <c r="C123" s="18" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D123" s="9"/>
     </row>
@@ -7210,10 +7391,10 @@
         <v>119</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D124" s="9"/>
     </row>
@@ -7223,7 +7404,7 @@
       </c>
       <c r="B125" s="16"/>
       <c r="C125" s="18" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D125" s="9"/>
     </row>
@@ -7233,7 +7414,7 @@
       </c>
       <c r="B126" s="16"/>
       <c r="C126" s="18" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D126" s="9"/>
     </row>
@@ -7243,7 +7424,7 @@
       </c>
       <c r="B127" s="16"/>
       <c r="C127" s="18" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D127" s="9"/>
     </row>
@@ -7253,7 +7434,7 @@
       </c>
       <c r="B128" s="16"/>
       <c r="C128" s="18" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D128" s="9"/>
     </row>
@@ -7263,7 +7444,7 @@
       </c>
       <c r="B129" s="16"/>
       <c r="C129" s="18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D129" s="9"/>
     </row>
@@ -7273,7 +7454,7 @@
       </c>
       <c r="B130" s="16"/>
       <c r="C130" s="18" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D130" s="9"/>
     </row>
@@ -7283,7 +7464,7 @@
       </c>
       <c r="B131" s="16"/>
       <c r="C131" s="18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D131" s="9"/>
     </row>
@@ -7293,7 +7474,7 @@
       </c>
       <c r="B132" s="16"/>
       <c r="C132" s="18" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D132" s="9"/>
     </row>
@@ -7303,7 +7484,7 @@
       </c>
       <c r="B133" s="16"/>
       <c r="C133" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D133" s="9"/>
     </row>
@@ -7313,7 +7494,7 @@
       </c>
       <c r="B134" s="16"/>
       <c r="C134" s="18" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D134" s="9"/>
     </row>
@@ -7323,7 +7504,7 @@
       </c>
       <c r="B135" s="16"/>
       <c r="C135" s="18" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D135" s="9"/>
     </row>
@@ -7333,7 +7514,7 @@
       </c>
       <c r="B136" s="16"/>
       <c r="C136" s="18" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D136" s="9"/>
     </row>
@@ -7343,7 +7524,7 @@
       </c>
       <c r="B137" s="16"/>
       <c r="C137" s="18" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D137" s="9"/>
     </row>
@@ -7353,7 +7534,7 @@
       </c>
       <c r="B138" s="16"/>
       <c r="C138" s="18" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D138" s="9"/>
     </row>
@@ -7362,10 +7543,10 @@
         <v>134</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C139" s="18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D139" s="9"/>
     </row>
@@ -7375,7 +7556,7 @@
       </c>
       <c r="B140" s="16"/>
       <c r="C140" s="18" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D140" s="9"/>
     </row>
@@ -7385,7 +7566,7 @@
       </c>
       <c r="B141" s="16"/>
       <c r="C141" s="18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D141" s="9"/>
     </row>
@@ -7394,10 +7575,10 @@
         <v>137</v>
       </c>
       <c r="B142" s="16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C142" s="18" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D142" s="9"/>
     </row>
@@ -7407,7 +7588,7 @@
       </c>
       <c r="B143" s="16"/>
       <c r="C143" s="18" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D143" s="9"/>
     </row>
@@ -7417,7 +7598,7 @@
       </c>
       <c r="B144" s="16"/>
       <c r="C144" s="18" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D144" s="9"/>
     </row>
@@ -7427,7 +7608,7 @@
       </c>
       <c r="B145" s="16"/>
       <c r="C145" s="18" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D145" s="9"/>
     </row>
@@ -7437,7 +7618,7 @@
       </c>
       <c r="B146" s="16"/>
       <c r="C146" s="18" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D146" s="9"/>
     </row>
@@ -7447,7 +7628,7 @@
       </c>
       <c r="B147" s="16"/>
       <c r="C147" s="18" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D147" s="9"/>
     </row>
@@ -7456,10 +7637,10 @@
         <v>143</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C148" s="18" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D148" s="9"/>
     </row>
@@ -7469,7 +7650,7 @@
       </c>
       <c r="B149" s="16"/>
       <c r="C149" s="18" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D149" s="9"/>
     </row>
@@ -7479,7 +7660,7 @@
       </c>
       <c r="B150" s="16"/>
       <c r="C150" s="18" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D150" s="9"/>
     </row>
@@ -7488,10 +7669,10 @@
         <v>146</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C151" s="18" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D151" s="9"/>
     </row>
@@ -7501,7 +7682,7 @@
       </c>
       <c r="B152" s="16"/>
       <c r="C152" s="18" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D152" s="9"/>
     </row>
@@ -7511,7 +7692,7 @@
       </c>
       <c r="B153" s="16"/>
       <c r="C153" s="18" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D153" s="9"/>
     </row>
@@ -7521,7 +7702,7 @@
       </c>
       <c r="B154" s="16"/>
       <c r="C154" s="18" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D154" s="9"/>
     </row>
@@ -7530,10 +7711,10 @@
         <v>150</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C155" s="18" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D155" s="9"/>
     </row>
@@ -7543,7 +7724,7 @@
       </c>
       <c r="B156" s="16"/>
       <c r="C156" s="18" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D156" s="9"/>
     </row>
@@ -7553,7 +7734,7 @@
       </c>
       <c r="B157" s="16"/>
       <c r="C157" s="18" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D157" s="9"/>
     </row>
@@ -7563,7 +7744,7 @@
       </c>
       <c r="B158" s="16"/>
       <c r="C158" s="18" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D158" s="9"/>
     </row>
@@ -7573,7 +7754,7 @@
       </c>
       <c r="B159" s="16"/>
       <c r="C159" s="18" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D159" s="9"/>
     </row>
@@ -7583,7 +7764,7 @@
       </c>
       <c r="B160" s="16"/>
       <c r="C160" s="18" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D160" s="9"/>
     </row>
@@ -7593,7 +7774,7 @@
       </c>
       <c r="B161" s="16"/>
       <c r="C161" s="18" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D161" s="9"/>
     </row>
@@ -7603,7 +7784,7 @@
       </c>
       <c r="B162" s="16"/>
       <c r="C162" s="18" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D162" s="9"/>
     </row>
@@ -7612,10 +7793,10 @@
         <v>158</v>
       </c>
       <c r="B163" s="16" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C163" s="18" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D163" s="9"/>
     </row>
@@ -7625,7 +7806,7 @@
       </c>
       <c r="B164" s="16"/>
       <c r="C164" s="18" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D164" s="9"/>
     </row>
@@ -7635,7 +7816,7 @@
       </c>
       <c r="B165" s="16"/>
       <c r="C165" s="18" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D165" s="9"/>
     </row>
@@ -7645,7 +7826,7 @@
       </c>
       <c r="B166" s="16"/>
       <c r="C166" s="18" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D166" s="9"/>
     </row>
@@ -7655,7 +7836,7 @@
       </c>
       <c r="B167" s="16"/>
       <c r="C167" s="18" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D167" s="9"/>
     </row>
@@ -7665,7 +7846,7 @@
       </c>
       <c r="B168" s="16"/>
       <c r="C168" s="18" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D168" s="9"/>
     </row>
@@ -7674,10 +7855,10 @@
         <v>164</v>
       </c>
       <c r="B169" s="16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C169" s="18" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D169" s="9"/>
     </row>
@@ -7687,7 +7868,7 @@
       </c>
       <c r="B170" s="16"/>
       <c r="C170" s="18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D170" s="9"/>
     </row>
@@ -7696,10 +7877,10 @@
         <v>166</v>
       </c>
       <c r="B171" s="16" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C171" s="18" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D171" s="9"/>
     </row>
@@ -7709,7 +7890,7 @@
       </c>
       <c r="B172" s="16"/>
       <c r="C172" s="18" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D172" s="9"/>
     </row>
@@ -7775,8 +7956,8 @@
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="C18:C21 C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7791,7 +7972,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7836,10 +8017,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -7850,7 +8031,7 @@
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="17" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -7861,7 +8042,7 @@
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="17" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -7872,7 +8053,7 @@
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="17" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -7883,7 +8064,7 @@
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="17" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -7894,7 +8075,7 @@
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="17" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -7905,7 +8086,7 @@
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="17" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -7916,7 +8097,7 @@
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="17" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -7926,10 +8107,10 @@
         <v>9</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -7940,7 +8121,7 @@
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -7951,7 +8132,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="17" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -7962,7 +8143,7 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -7973,7 +8154,7 @@
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -7984,7 +8165,7 @@
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="17" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -7995,7 +8176,7 @@
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="17" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -8006,7 +8187,7 @@
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="17" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -8017,7 +8198,7 @@
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="17" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -8028,7 +8209,7 @@
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -8039,7 +8220,7 @@
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="17" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -8050,7 +8231,7 @@
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="17" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -8061,7 +8242,7 @@
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="17" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -8071,10 +8252,10 @@
         <v>22</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -8085,7 +8266,7 @@
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="17" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -8096,7 +8277,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="17" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -8106,10 +8287,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -8120,7 +8301,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -8131,7 +8312,7 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="17" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -8142,7 +8323,7 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="17" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D34" s="9"/>
     </row>
@@ -8153,7 +8334,7 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="17" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D35" s="9"/>
     </row>
@@ -8164,7 +8345,7 @@
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="17" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D36" s="9"/>
     </row>
@@ -8175,7 +8356,7 @@
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="17" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D37" s="9"/>
     </row>
@@ -8186,7 +8367,7 @@
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="17" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D38" s="9"/>
     </row>
@@ -8196,10 +8377,10 @@
         <v>33</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D39" s="9"/>
     </row>
@@ -8210,7 +8391,7 @@
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="17" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D40" s="9"/>
     </row>
@@ -8221,7 +8402,7 @@
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="17" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D41" s="9"/>
     </row>
@@ -8232,7 +8413,7 @@
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="17" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D42" s="9"/>
     </row>
@@ -8243,7 +8424,7 @@
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="17" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D43" s="9"/>
     </row>
@@ -8254,7 +8435,7 @@
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="17" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D44" s="9"/>
     </row>
@@ -8264,10 +8445,10 @@
         <v>39</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D45" s="9"/>
     </row>
@@ -8278,7 +8459,7 @@
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="17" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D46" s="9"/>
     </row>
@@ -8289,7 +8470,7 @@
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="17" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D47" s="9"/>
     </row>
@@ -8300,7 +8481,7 @@
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="17" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D48" s="9"/>
     </row>
@@ -8311,7 +8492,7 @@
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="17" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D49" s="9"/>
     </row>
@@ -8322,7 +8503,7 @@
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="17" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D50" s="9"/>
     </row>
@@ -8333,7 +8514,7 @@
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="17" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D51" s="9"/>
     </row>
@@ -8344,7 +8525,7 @@
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="17" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D52" s="9"/>
     </row>
@@ -8355,7 +8536,7 @@
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="17" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D53" s="9"/>
     </row>
@@ -8366,7 +8547,7 @@
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="17" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D54" s="9"/>
     </row>
@@ -8376,10 +8557,10 @@
         <v>49</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D55" s="9"/>
     </row>
@@ -8390,7 +8571,7 @@
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="17" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D56" s="9"/>
     </row>
@@ -8401,7 +8582,7 @@
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="17" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D57" s="9"/>
     </row>
@@ -8412,7 +8593,7 @@
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="17" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D58" s="9"/>
     </row>
@@ -8423,7 +8604,7 @@
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="17" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D59" s="9"/>
     </row>
@@ -8433,10 +8614,10 @@
         <v>54</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D60" s="9"/>
     </row>
@@ -8447,7 +8628,7 @@
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="18" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D61" s="9"/>
     </row>
@@ -8458,7 +8639,7 @@
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="18" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D62" s="9"/>
     </row>
@@ -8469,7 +8650,7 @@
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="18" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D63" s="9"/>
     </row>
@@ -8480,7 +8661,7 @@
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="18" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D64" s="9"/>
     </row>
@@ -8491,7 +8672,7 @@
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="18" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D65" s="9"/>
     </row>
@@ -8502,7 +8683,7 @@
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="18" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D66" s="9"/>
     </row>
@@ -8513,7 +8694,7 @@
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="18" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D67" s="9"/>
     </row>
@@ -8523,10 +8704,10 @@
         <v>62</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D68" s="9"/>
     </row>
@@ -8536,10 +8717,10 @@
         <v>63</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D69" s="9"/>
     </row>
@@ -8550,7 +8731,7 @@
       </c>
       <c r="B70" s="16"/>
       <c r="C70" s="18" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D70" s="9"/>
     </row>
@@ -8561,7 +8742,7 @@
       </c>
       <c r="B71" s="16"/>
       <c r="C71" s="18" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D71" s="9"/>
     </row>
@@ -8572,7 +8753,7 @@
       </c>
       <c r="B72" s="16"/>
       <c r="C72" s="18" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D72" s="9"/>
     </row>
@@ -8583,7 +8764,7 @@
       </c>
       <c r="B73" s="16"/>
       <c r="C73" s="18" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D73" s="9"/>
     </row>
@@ -8594,7 +8775,7 @@
       </c>
       <c r="B74" s="16"/>
       <c r="C74" s="18" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D74" s="9"/>
     </row>
@@ -8605,7 +8786,7 @@
       </c>
       <c r="B75" s="16"/>
       <c r="C75" s="18" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D75" s="9"/>
     </row>
@@ -8616,7 +8797,7 @@
       </c>
       <c r="B76" s="16"/>
       <c r="C76" s="18" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D76" s="9"/>
     </row>
@@ -8627,7 +8808,7 @@
       </c>
       <c r="B77" s="16"/>
       <c r="C77" s="18" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D77" s="9"/>
     </row>
@@ -8638,7 +8819,7 @@
       </c>
       <c r="B78" s="16"/>
       <c r="C78" s="18" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D78" s="9"/>
     </row>
@@ -8649,7 +8830,7 @@
       </c>
       <c r="B79" s="16"/>
       <c r="C79" s="18" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D79" s="9"/>
     </row>
@@ -8699,8 +8880,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C18:C21 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8715,7 +8896,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8760,10 +8941,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D7" s="9"/>
     </row>
@@ -8774,7 +8955,7 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="17" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D8" s="9"/>
     </row>
@@ -8785,7 +8966,7 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="17" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D9" s="9"/>
     </row>
@@ -8796,7 +8977,7 @@
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="17" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D10" s="9"/>
     </row>
@@ -8807,7 +8988,7 @@
       </c>
       <c r="B11" s="19"/>
       <c r="C11" s="17" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D11" s="9"/>
     </row>
@@ -8818,7 +8999,7 @@
       </c>
       <c r="B12" s="19"/>
       <c r="C12" s="17" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -8828,10 +9009,10 @@
         <v>7</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D13" s="9"/>
     </row>
@@ -8842,7 +9023,7 @@
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="17" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D14" s="9"/>
     </row>
@@ -8853,7 +9034,7 @@
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="17" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D15" s="9"/>
     </row>
@@ -8864,7 +9045,7 @@
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="17" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D16" s="9"/>
     </row>
@@ -8875,7 +9056,7 @@
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="17" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D17" s="9"/>
     </row>
@@ -8886,7 +9067,7 @@
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="17" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D18" s="9"/>
     </row>
@@ -8896,10 +9077,10 @@
         <v>13</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D19" s="9"/>
     </row>
@@ -8910,7 +9091,7 @@
       </c>
       <c r="B20" s="19"/>
       <c r="C20" s="17" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D20" s="9"/>
     </row>
@@ -8921,7 +9102,7 @@
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="17" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D21" s="9"/>
     </row>
@@ -8932,7 +9113,7 @@
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="17" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D22" s="9"/>
     </row>
@@ -8943,7 +9124,7 @@
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="17" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D23" s="9"/>
     </row>
@@ -8954,7 +9135,7 @@
       </c>
       <c r="B24" s="19"/>
       <c r="C24" s="17" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D24" s="9"/>
     </row>
@@ -8964,10 +9145,10 @@
         <v>19</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D25" s="9"/>
     </row>
@@ -8978,7 +9159,7 @@
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="17" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D26" s="9"/>
     </row>
@@ -8988,10 +9169,10 @@
         <v>21</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D27" s="9"/>
     </row>
@@ -9002,7 +9183,7 @@
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="17" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D28" s="9"/>
     </row>
@@ -9012,10 +9193,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D29" s="9"/>
     </row>
@@ -9026,7 +9207,7 @@
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="17" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D30" s="9"/>
     </row>
@@ -9036,10 +9217,10 @@
         <v>25</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D31" s="9"/>
     </row>
@@ -9050,7 +9231,7 @@
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="18" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D32" s="9"/>
     </row>
@@ -9061,7 +9242,7 @@
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="18" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D33" s="9"/>
     </row>
@@ -9072,7 +9253,7 @@
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="18" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D34" s="9"/>
     </row>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,11 +1632,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1953,7 +1954,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2016,6 +2017,14 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="6" xfId="28" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2181,9 +2190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307800</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2193,7 +2202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5012280" cy="1626480"/>
+          <a:ext cx="5011920" cy="1626120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2359,9 +2368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307800</xdr:colOff>
+      <xdr:colOff>307440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180720</xdr:rowOff>
+      <xdr:rowOff>180360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2371,7 +2380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5012280" cy="1626480"/>
+          <a:ext cx="5011920" cy="1626120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2530,16 +2539,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>246240</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>412200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>116280</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>336240</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>461160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>151920</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2548,8 +2557,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11648880" y="116280"/>
-          <a:ext cx="5012640" cy="1626480"/>
+          <a:off x="17952840" y="0"/>
+          <a:ext cx="5011920" cy="1626120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2715,9 +2724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>267120</xdr:colOff>
+      <xdr:colOff>266760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2727,7 +2736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5070240" cy="1663920"/>
+          <a:ext cx="5069880" cy="1663560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2888,9 +2897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>81000</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2900,7 +2909,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="200160" cy="2230920"/>
+          <a:ext cx="199800" cy="2230560"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2940,9 +2949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>409680</xdr:colOff>
+      <xdr:colOff>409320</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2952,7 +2961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4622400" cy="1162080"/>
+          <a:ext cx="4622040" cy="1161720"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3053,9 +3062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244800</xdr:colOff>
+      <xdr:colOff>244440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>5400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3065,7 +3074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5033880" cy="1647360"/>
+          <a:ext cx="5033520" cy="1647000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3231,9 +3240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3243,7 +3252,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069880" cy="3109320"/>
+          <a:ext cx="5069520" cy="3108960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3409,9 +3418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>319320</xdr:colOff>
+      <xdr:colOff>318960</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3421,7 +3430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069880" cy="2690280"/>
+          <a:ext cx="5069520" cy="2689920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3771,8 +3780,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="F7:F51 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4152,8 +4161,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="F7:F51 D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4368,10 +4377,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A10" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C1" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7:F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4380,7 +4389,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1002" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -4424,12 +4434,18 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="16" t="n">
+        <v>45398</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4438,690 +4454,1032 @@
       <c r="D7" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E12" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="17" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="17" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D35" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="17" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D43" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D44" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D49" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="17" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="16" t="s">
+      <c r="B52" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D54" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="17" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="17" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="19" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="17" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="19" t="s">
         <v>108</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5139,13 +5497,13 @@
     <mergeCell ref="B38:B51"/>
     <mergeCell ref="B52:B63"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D63">
+  <conditionalFormatting sqref="D7:F63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:D63" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F63" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5169,8 +5527,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7:F51 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5231,7 +5589,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="9"/>
@@ -5241,7 +5599,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="9"/>
@@ -5251,7 +5609,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="9"/>
@@ -5261,7 +5619,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="9"/>
@@ -5273,7 +5631,7 @@
       <c r="B11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="9"/>
@@ -5283,7 +5641,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="9"/>
@@ -5293,7 +5651,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="9"/>
@@ -5303,7 +5661,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="9"/>
@@ -5312,10 +5670,10 @@
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="9"/>
@@ -5324,8 +5682,8 @@
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
       <c r="D16" s="9"/>
@@ -5334,8 +5692,8 @@
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="9"/>
@@ -5344,8 +5702,8 @@
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="9"/>
@@ -5354,8 +5712,8 @@
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="9"/>
@@ -5364,8 +5722,8 @@
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="9"/>
@@ -5374,10 +5732,10 @@
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D21" s="9"/>
@@ -5386,8 +5744,8 @@
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D22" s="9"/>
@@ -5396,10 +5754,10 @@
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="9"/>
@@ -5408,8 +5766,8 @@
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="9"/>
@@ -5418,8 +5776,8 @@
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="17" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="9"/>
@@ -5428,8 +5786,8 @@
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="9"/>
@@ -5438,8 +5796,8 @@
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="17" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="9"/>
@@ -5448,8 +5806,8 @@
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="9"/>
@@ -5458,8 +5816,8 @@
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="9"/>
@@ -5468,10 +5826,10 @@
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D30" s="9"/>
@@ -5480,8 +5838,8 @@
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D31" s="9"/>
@@ -5490,10 +5848,10 @@
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="9"/>
@@ -5502,8 +5860,8 @@
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="17" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="9"/>
@@ -5512,8 +5870,8 @@
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="9"/>
@@ -5522,10 +5880,10 @@
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="9"/>
@@ -5534,8 +5892,8 @@
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="17" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="9"/>
@@ -5544,8 +5902,8 @@
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="17" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D37" s="9"/>
@@ -5554,8 +5912,8 @@
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="17" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D38" s="9"/>
@@ -5564,8 +5922,8 @@
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="17" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
         <v>151</v>
       </c>
       <c r="D39" s="9"/>
@@ -5574,8 +5932,8 @@
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="17" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D40" s="9"/>
@@ -5584,10 +5942,10 @@
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D41" s="9"/>
@@ -5596,8 +5954,8 @@
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="17" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
         <v>155</v>
       </c>
       <c r="D42" s="9"/>
@@ -5606,8 +5964,8 @@
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="17" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D43" s="9"/>
@@ -5616,8 +5974,8 @@
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="9"/>
@@ -5626,8 +5984,8 @@
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="17" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
         <v>158</v>
       </c>
       <c r="D45" s="9"/>
@@ -5636,8 +5994,8 @@
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="17" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D46" s="9"/>
@@ -5646,8 +6004,8 @@
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="17" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D47" s="9"/>
@@ -5656,8 +6014,8 @@
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="17" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D48" s="9"/>
@@ -5666,8 +6024,8 @@
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="17" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D49" s="9"/>
@@ -5676,8 +6034,8 @@
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="17" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
         <v>163</v>
       </c>
       <c r="D50" s="9"/>
@@ -5686,10 +6044,10 @@
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="16" t="s">
+      <c r="B51" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="9"/>
@@ -5698,8 +6056,8 @@
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D52" s="9"/>
@@ -5708,8 +6066,8 @@
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D53" s="9"/>
@@ -5718,8 +6076,8 @@
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="16"/>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D54" s="9"/>
@@ -5728,8 +6086,8 @@
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="17" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D55" s="9"/>
@@ -5738,10 +6096,10 @@
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="16" t="s">
+      <c r="B56" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D56" s="9"/>
@@ -5750,8 +6108,8 @@
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="17" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D57" s="9"/>
@@ -5760,8 +6118,8 @@
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="17" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D58" s="9"/>
@@ -5770,8 +6128,8 @@
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="17" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="19" t="s">
         <v>174</v>
       </c>
       <c r="D59" s="9"/>
@@ -5780,10 +6138,10 @@
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="19" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="9"/>
@@ -5792,8 +6150,8 @@
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="17" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="19" t="s">
         <v>177</v>
       </c>
       <c r="D61" s="9"/>
@@ -5802,10 +6160,10 @@
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="16" t="s">
+      <c r="B62" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="19" t="s">
         <v>179</v>
       </c>
       <c r="D62" s="9"/>
@@ -5814,8 +6172,8 @@
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="17" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D63" s="9"/>
@@ -5824,8 +6182,8 @@
       <c r="A64" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="17" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D64" s="9"/>
@@ -5834,8 +6192,8 @@
       <c r="A65" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="17" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="19" t="s">
         <v>182</v>
       </c>
       <c r="D65" s="9"/>
@@ -5844,10 +6202,10 @@
       <c r="A66" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B66" s="16" t="s">
+      <c r="B66" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D66" s="9"/>
@@ -5856,8 +6214,8 @@
       <c r="A67" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="17" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="19" t="s">
         <v>185</v>
       </c>
       <c r="D67" s="9"/>
@@ -5866,8 +6224,8 @@
       <c r="A68" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="17" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="19" t="s">
         <v>186</v>
       </c>
       <c r="D68" s="9"/>
@@ -5876,8 +6234,8 @@
       <c r="A69" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="17" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D69" s="9"/>
@@ -5886,10 +6244,10 @@
       <c r="A70" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B70" s="16" t="s">
+      <c r="B70" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="19" t="s">
         <v>189</v>
       </c>
       <c r="D70" s="9"/>
@@ -5898,8 +6256,8 @@
       <c r="A71" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="17" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19" t="s">
         <v>190</v>
       </c>
       <c r="D71" s="9"/>
@@ -5908,10 +6266,10 @@
       <c r="A72" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B72" s="16" t="s">
+      <c r="B72" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="19" t="s">
         <v>192</v>
       </c>
       <c r="D72" s="9"/>
@@ -5920,8 +6278,8 @@
       <c r="A73" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="17" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D73" s="9"/>
@@ -5930,8 +6288,8 @@
       <c r="A74" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="17" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="9"/>
@@ -5940,8 +6298,8 @@
       <c r="A75" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="17" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19" t="s">
         <v>195</v>
       </c>
       <c r="D75" s="9"/>
@@ -5953,7 +6311,7 @@
       <c r="B76" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="19" t="s">
         <v>197</v>
       </c>
       <c r="D76" s="9"/>
@@ -5962,10 +6320,10 @@
       <c r="A77" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B77" s="16" t="s">
+      <c r="B77" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="19" t="s">
         <v>199</v>
       </c>
       <c r="D77" s="9"/>
@@ -5974,8 +6332,8 @@
       <c r="A78" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="17" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D78" s="9"/>
@@ -5984,8 +6342,8 @@
       <c r="A79" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="17" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D79" s="9"/>
@@ -5994,10 +6352,10 @@
       <c r="A80" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B80" s="16" t="s">
+      <c r="B80" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="19" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="9"/>
@@ -6006,8 +6364,8 @@
       <c r="A81" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="17" t="s">
+      <c r="B81" s="18"/>
+      <c r="C81" s="19" t="s">
         <v>204</v>
       </c>
       <c r="D81" s="9"/>
@@ -6019,7 +6377,7 @@
       <c r="B82" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="19" t="s">
         <v>206</v>
       </c>
       <c r="D82" s="9"/>
@@ -6031,7 +6389,7 @@
       <c r="B83" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D83" s="9"/>
@@ -6043,7 +6401,7 @@
       <c r="B84" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D84" s="9"/>
@@ -6055,7 +6413,7 @@
       <c r="B85" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="19" t="s">
         <v>212</v>
       </c>
       <c r="D85" s="9"/>
@@ -6067,7 +6425,7 @@
       <c r="B86" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="19" t="s">
         <v>214</v>
       </c>
       <c r="D86" s="9"/>
@@ -6127,8 +6485,8 @@
   </sheetPr>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="85" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7:F51 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6186,10 +6544,10 @@
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="19" t="s">
         <v>217</v>
       </c>
       <c r="D7" s="9"/>
@@ -6198,8 +6556,8 @@
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>218</v>
       </c>
       <c r="D8" s="9"/>
@@ -6208,8 +6566,8 @@
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>219</v>
       </c>
       <c r="D9" s="9"/>
@@ -6218,10 +6576,10 @@
       <c r="A10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>221</v>
       </c>
       <c r="D10" s="9"/>
@@ -6230,8 +6588,8 @@
       <c r="A11" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>222</v>
       </c>
       <c r="D11" s="9"/>
@@ -6240,8 +6598,8 @@
       <c r="A12" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="9"/>
@@ -6250,8 +6608,8 @@
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="18" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9"/>
@@ -6260,8 +6618,8 @@
       <c r="A14" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="18" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9"/>
@@ -6270,8 +6628,8 @@
       <c r="A15" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="18" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9"/>
@@ -6280,8 +6638,8 @@
       <c r="A16" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="18" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9"/>
@@ -6290,8 +6648,8 @@
       <c r="A17" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="18" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9"/>
@@ -6300,8 +6658,8 @@
       <c r="A18" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="18" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9"/>
@@ -6310,8 +6668,8 @@
       <c r="A19" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="18" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9"/>
@@ -6320,8 +6678,8 @@
       <c r="A20" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="18" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9"/>
@@ -6330,8 +6688,8 @@
       <c r="A21" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="18" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="20" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9"/>
@@ -6340,8 +6698,8 @@
       <c r="A22" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9"/>
@@ -6350,8 +6708,8 @@
       <c r="A23" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="18" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9"/>
@@ -6360,8 +6718,8 @@
       <c r="A24" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="18" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9"/>
@@ -6370,8 +6728,8 @@
       <c r="A25" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="18" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="20" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9"/>
@@ -6380,8 +6738,8 @@
       <c r="A26" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="18" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="20" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9"/>
@@ -6390,8 +6748,8 @@
       <c r="A27" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="18" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9"/>
@@ -6400,8 +6758,8 @@
       <c r="A28" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B28" s="16"/>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9"/>
@@ -6410,8 +6768,8 @@
       <c r="A29" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="18" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9"/>
@@ -6420,8 +6778,8 @@
       <c r="A30" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="18" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="20" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9"/>
@@ -6430,8 +6788,8 @@
       <c r="A31" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B31" s="16"/>
-      <c r="C31" s="18" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="20" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9"/>
@@ -6440,10 +6798,10 @@
       <c r="A32" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="20" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9"/>
@@ -6452,8 +6810,8 @@
       <c r="A33" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="18" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="20" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9"/>
@@ -6462,8 +6820,8 @@
       <c r="A34" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B34" s="16"/>
-      <c r="C34" s="18" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9"/>
@@ -6472,8 +6830,8 @@
       <c r="A35" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="18" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9"/>
@@ -6482,8 +6840,8 @@
       <c r="A36" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9"/>
@@ -6492,8 +6850,8 @@
       <c r="A37" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="18" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9"/>
@@ -6502,8 +6860,8 @@
       <c r="A38" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="18" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9"/>
@@ -6512,8 +6870,8 @@
       <c r="A39" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B39" s="16"/>
-      <c r="C39" s="18" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9"/>
@@ -6522,10 +6880,10 @@
       <c r="A40" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9"/>
@@ -6534,8 +6892,8 @@
       <c r="A41" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="18" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9"/>
@@ -6544,10 +6902,10 @@
       <c r="A42" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -6556,8 +6914,8 @@
       <c r="A43" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B43" s="16"/>
-      <c r="C43" s="18" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -6566,8 +6924,8 @@
       <c r="A44" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="18" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -6576,8 +6934,8 @@
       <c r="A45" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="18" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -6586,8 +6944,8 @@
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="18" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -6596,8 +6954,8 @@
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="18" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="20" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -6606,8 +6964,8 @@
       <c r="A48" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="18" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -6616,8 +6974,8 @@
       <c r="A49" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="18" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -6626,8 +6984,8 @@
       <c r="A50" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B50" s="16"/>
-      <c r="C50" s="18" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -6636,8 +6994,8 @@
       <c r="A51" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="18" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="20" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -6646,8 +7004,8 @@
       <c r="A52" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B52" s="16"/>
-      <c r="C52" s="18" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -6656,8 +7014,8 @@
       <c r="A53" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B53" s="16"/>
-      <c r="C53" s="18" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -6666,10 +7024,10 @@
       <c r="A54" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C54" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -6678,8 +7036,8 @@
       <c r="A55" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="18" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -6688,8 +7046,8 @@
       <c r="A56" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="18" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -6698,8 +7056,8 @@
       <c r="A57" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="18" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -6708,8 +7066,8 @@
       <c r="A58" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="18" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -6718,8 +7076,8 @@
       <c r="A59" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="18" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -6728,10 +7086,10 @@
       <c r="A60" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -6740,8 +7098,8 @@
       <c r="A61" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="18" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -6750,8 +7108,8 @@
       <c r="A62" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="18" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -6760,8 +7118,8 @@
       <c r="A63" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="18" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -6770,8 +7128,8 @@
       <c r="A64" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="18" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -6780,8 +7138,8 @@
       <c r="A65" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="18" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -6790,8 +7148,8 @@
       <c r="A66" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="18" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="20" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -6800,8 +7158,8 @@
       <c r="A67" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B67" s="16"/>
-      <c r="C67" s="18" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -6810,8 +7168,8 @@
       <c r="A68" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B68" s="16"/>
-      <c r="C68" s="18" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="20" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -6820,8 +7178,8 @@
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B69" s="16"/>
-      <c r="C69" s="18" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="20" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -6830,8 +7188,8 @@
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="18" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="20" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -6840,8 +7198,8 @@
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -6850,8 +7208,8 @@
       <c r="A72" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="18" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="20" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -6860,10 +7218,10 @@
       <c r="A73" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -6872,8 +7230,8 @@
       <c r="A74" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="18" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -6882,8 +7240,8 @@
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -6892,8 +7250,8 @@
       <c r="A76" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="18" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="20" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -6902,8 +7260,8 @@
       <c r="A77" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -6912,8 +7270,8 @@
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="18" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -6922,8 +7280,8 @@
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="18" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="20" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -6932,8 +7290,8 @@
       <c r="A80" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="18" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="20" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -6945,7 +7303,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="18" t="s">
+      <c r="C81" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -6954,10 +7312,10 @@
       <c r="A82" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B82" s="16" t="s">
+      <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="18" t="s">
+      <c r="C82" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -6966,8 +7324,8 @@
       <c r="A83" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="B83" s="16"/>
-      <c r="C83" s="18" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -6976,8 +7334,8 @@
       <c r="A84" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="B84" s="16"/>
-      <c r="C84" s="18" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -6986,8 +7344,8 @@
       <c r="A85" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="B85" s="16"/>
-      <c r="C85" s="18" t="s">
+      <c r="B85" s="18"/>
+      <c r="C85" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -6996,8 +7354,8 @@
       <c r="A86" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B86" s="16"/>
-      <c r="C86" s="18" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -7006,8 +7364,8 @@
       <c r="A87" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="B87" s="16"/>
-      <c r="C87" s="18" t="s">
+      <c r="B87" s="18"/>
+      <c r="C87" s="20" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -7016,10 +7374,10 @@
       <c r="A88" s="6" t="n">
         <v>83</v>
       </c>
-      <c r="B88" s="16" t="s">
+      <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="C88" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -7028,8 +7386,8 @@
       <c r="A89" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="B89" s="16"/>
-      <c r="C89" s="18" t="s">
+      <c r="B89" s="18"/>
+      <c r="C89" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -7038,8 +7396,8 @@
       <c r="A90" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="B90" s="16"/>
-      <c r="C90" s="18" t="s">
+      <c r="B90" s="18"/>
+      <c r="C90" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -7048,8 +7406,8 @@
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="B91" s="16"/>
-      <c r="C91" s="18" t="s">
+      <c r="B91" s="18"/>
+      <c r="C91" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -7058,8 +7416,8 @@
       <c r="A92" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="B92" s="16"/>
-      <c r="C92" s="18" t="s">
+      <c r="B92" s="18"/>
+      <c r="C92" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -7068,8 +7426,8 @@
       <c r="A93" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="B93" s="16"/>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -7078,10 +7436,10 @@
       <c r="A94" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="B94" s="16" t="s">
+      <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -7090,8 +7448,8 @@
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="B95" s="16"/>
-      <c r="C95" s="18" t="s">
+      <c r="B95" s="18"/>
+      <c r="C95" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -7100,8 +7458,8 @@
       <c r="A96" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="B96" s="16"/>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="18"/>
+      <c r="C96" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -7110,8 +7468,8 @@
       <c r="A97" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="18" t="s">
+      <c r="B97" s="18"/>
+      <c r="C97" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -7120,8 +7478,8 @@
       <c r="A98" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="18"/>
+      <c r="C98" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -7130,8 +7488,8 @@
       <c r="A99" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="B99" s="16"/>
-      <c r="C99" s="18" t="s">
+      <c r="B99" s="18"/>
+      <c r="C99" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -7140,8 +7498,8 @@
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="B100" s="16"/>
-      <c r="C100" s="18" t="s">
+      <c r="B100" s="18"/>
+      <c r="C100" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -7150,8 +7508,8 @@
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="B101" s="16"/>
-      <c r="C101" s="18" t="s">
+      <c r="B101" s="18"/>
+      <c r="C101" s="20" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -7160,10 +7518,10 @@
       <c r="A102" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="B102" s="16" t="s">
+      <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="18" t="s">
+      <c r="C102" s="20" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -7172,8 +7530,8 @@
       <c r="A103" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="B103" s="16"/>
-      <c r="C103" s="18" t="s">
+      <c r="B103" s="18"/>
+      <c r="C103" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -7182,8 +7540,8 @@
       <c r="A104" s="6" t="n">
         <v>99</v>
       </c>
-      <c r="B104" s="16"/>
-      <c r="C104" s="18" t="s">
+      <c r="B104" s="18"/>
+      <c r="C104" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -7192,8 +7550,8 @@
       <c r="A105" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="B105" s="16"/>
-      <c r="C105" s="18" t="s">
+      <c r="B105" s="18"/>
+      <c r="C105" s="20" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -7202,10 +7560,10 @@
       <c r="A106" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="B106" s="16" t="s">
+      <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="C106" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -7214,8 +7572,8 @@
       <c r="A107" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="B107" s="16"/>
-      <c r="C107" s="18" t="s">
+      <c r="B107" s="18"/>
+      <c r="C107" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -7224,10 +7582,10 @@
       <c r="A108" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="B108" s="16" t="s">
+      <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C108" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -7236,8 +7594,8 @@
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="B109" s="16"/>
-      <c r="C109" s="18" t="s">
+      <c r="B109" s="18"/>
+      <c r="C109" s="20" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -7246,8 +7604,8 @@
       <c r="A110" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="B110" s="16"/>
-      <c r="C110" s="18" t="s">
+      <c r="B110" s="18"/>
+      <c r="C110" s="20" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -7256,8 +7614,8 @@
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="B111" s="16"/>
-      <c r="C111" s="18" t="s">
+      <c r="B111" s="18"/>
+      <c r="C111" s="20" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -7266,8 +7624,8 @@
       <c r="A112" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="B112" s="16"/>
-      <c r="C112" s="18" t="s">
+      <c r="B112" s="18"/>
+      <c r="C112" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -7276,8 +7634,8 @@
       <c r="A113" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="B113" s="16"/>
-      <c r="C113" s="18" t="s">
+      <c r="B113" s="18"/>
+      <c r="C113" s="20" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -7286,10 +7644,10 @@
       <c r="A114" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="B114" s="16" t="s">
+      <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="18" t="s">
+      <c r="C114" s="20" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -7298,8 +7656,8 @@
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="B115" s="16"/>
-      <c r="C115" s="18" t="s">
+      <c r="B115" s="18"/>
+      <c r="C115" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -7308,8 +7666,8 @@
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="B116" s="16"/>
-      <c r="C116" s="18" t="s">
+      <c r="B116" s="18"/>
+      <c r="C116" s="20" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -7318,8 +7676,8 @@
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="B117" s="16"/>
-      <c r="C117" s="18" t="s">
+      <c r="B117" s="18"/>
+      <c r="C117" s="20" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -7328,8 +7686,8 @@
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
-      <c r="B118" s="16"/>
-      <c r="C118" s="18" t="s">
+      <c r="B118" s="18"/>
+      <c r="C118" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -7338,10 +7696,10 @@
       <c r="A119" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="B119" s="16" t="s">
+      <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="18" t="s">
+      <c r="C119" s="20" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -7350,8 +7708,8 @@
       <c r="A120" s="6" t="n">
         <v>115</v>
       </c>
-      <c r="B120" s="16"/>
-      <c r="C120" s="18" t="s">
+      <c r="B120" s="18"/>
+      <c r="C120" s="20" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -7360,8 +7718,8 @@
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
-      <c r="B121" s="16"/>
-      <c r="C121" s="18" t="s">
+      <c r="B121" s="18"/>
+      <c r="C121" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -7370,8 +7728,8 @@
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
-      <c r="B122" s="16"/>
-      <c r="C122" s="18" t="s">
+      <c r="B122" s="18"/>
+      <c r="C122" s="20" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -7380,8 +7738,8 @@
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="B123" s="16"/>
-      <c r="C123" s="18" t="s">
+      <c r="B123" s="18"/>
+      <c r="C123" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -7390,10 +7748,10 @@
       <c r="A124" s="6" t="n">
         <v>119</v>
       </c>
-      <c r="B124" s="16" t="s">
+      <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
@@ -7402,8 +7760,8 @@
       <c r="A125" s="6" t="n">
         <v>120</v>
       </c>
-      <c r="B125" s="16"/>
-      <c r="C125" s="18" t="s">
+      <c r="B125" s="18"/>
+      <c r="C125" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
@@ -7412,8 +7770,8 @@
       <c r="A126" s="6" t="n">
         <v>121</v>
       </c>
-      <c r="B126" s="16"/>
-      <c r="C126" s="18" t="s">
+      <c r="B126" s="18"/>
+      <c r="C126" s="20" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
@@ -7422,8 +7780,8 @@
       <c r="A127" s="6" t="n">
         <v>122</v>
       </c>
-      <c r="B127" s="16"/>
-      <c r="C127" s="18" t="s">
+      <c r="B127" s="18"/>
+      <c r="C127" s="20" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
@@ -7432,8 +7790,8 @@
       <c r="A128" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="B128" s="16"/>
-      <c r="C128" s="18" t="s">
+      <c r="B128" s="18"/>
+      <c r="C128" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
@@ -7442,8 +7800,8 @@
       <c r="A129" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="B129" s="16"/>
-      <c r="C129" s="18" t="s">
+      <c r="B129" s="18"/>
+      <c r="C129" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
@@ -7452,8 +7810,8 @@
       <c r="A130" s="6" t="n">
         <v>125</v>
       </c>
-      <c r="B130" s="16"/>
-      <c r="C130" s="18" t="s">
+      <c r="B130" s="18"/>
+      <c r="C130" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
@@ -7462,8 +7820,8 @@
       <c r="A131" s="6" t="n">
         <v>126</v>
       </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="18" t="s">
+      <c r="B131" s="18"/>
+      <c r="C131" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
@@ -7472,8 +7830,8 @@
       <c r="A132" s="6" t="n">
         <v>127</v>
       </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="18" t="s">
+      <c r="B132" s="18"/>
+      <c r="C132" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
@@ -7482,8 +7840,8 @@
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="B133" s="16"/>
-      <c r="C133" s="18" t="s">
+      <c r="B133" s="18"/>
+      <c r="C133" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
@@ -7492,8 +7850,8 @@
       <c r="A134" s="6" t="n">
         <v>129</v>
       </c>
-      <c r="B134" s="16"/>
-      <c r="C134" s="18" t="s">
+      <c r="B134" s="18"/>
+      <c r="C134" s="20" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
@@ -7502,8 +7860,8 @@
       <c r="A135" s="6" t="n">
         <v>130</v>
       </c>
-      <c r="B135" s="16"/>
-      <c r="C135" s="18" t="s">
+      <c r="B135" s="18"/>
+      <c r="C135" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
@@ -7512,8 +7870,8 @@
       <c r="A136" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="B136" s="16"/>
-      <c r="C136" s="18" t="s">
+      <c r="B136" s="18"/>
+      <c r="C136" s="20" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
@@ -7522,8 +7880,8 @@
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
-      <c r="B137" s="16"/>
-      <c r="C137" s="18" t="s">
+      <c r="B137" s="18"/>
+      <c r="C137" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
@@ -7532,8 +7890,8 @@
       <c r="A138" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="B138" s="16"/>
-      <c r="C138" s="18" t="s">
+      <c r="B138" s="18"/>
+      <c r="C138" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
@@ -7542,10 +7900,10 @@
       <c r="A139" s="6" t="n">
         <v>134</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="18" t="s">
+      <c r="C139" s="20" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
@@ -7554,8 +7912,8 @@
       <c r="A140" s="6" t="n">
         <v>135</v>
       </c>
-      <c r="B140" s="16"/>
-      <c r="C140" s="18" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
@@ -7564,8 +7922,8 @@
       <c r="A141" s="6" t="n">
         <v>136</v>
       </c>
-      <c r="B141" s="16"/>
-      <c r="C141" s="18" t="s">
+      <c r="B141" s="18"/>
+      <c r="C141" s="20" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
@@ -7574,10 +7932,10 @@
       <c r="A142" s="6" t="n">
         <v>137</v>
       </c>
-      <c r="B142" s="16" t="s">
+      <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="18" t="s">
+      <c r="C142" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
@@ -7586,8 +7944,8 @@
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
-      <c r="B143" s="16"/>
-      <c r="C143" s="18" t="s">
+      <c r="B143" s="18"/>
+      <c r="C143" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
@@ -7596,8 +7954,8 @@
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
-      <c r="B144" s="16"/>
-      <c r="C144" s="18" t="s">
+      <c r="B144" s="18"/>
+      <c r="C144" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
@@ -7606,8 +7964,8 @@
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
-      <c r="B145" s="16"/>
-      <c r="C145" s="18" t="s">
+      <c r="B145" s="18"/>
+      <c r="C145" s="20" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
@@ -7616,8 +7974,8 @@
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
-      <c r="B146" s="16"/>
-      <c r="C146" s="18" t="s">
+      <c r="B146" s="18"/>
+      <c r="C146" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
@@ -7626,8 +7984,8 @@
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
-      <c r="B147" s="16"/>
-      <c r="C147" s="18" t="s">
+      <c r="B147" s="18"/>
+      <c r="C147" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
@@ -7636,10 +7994,10 @@
       <c r="A148" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="B148" s="16" t="s">
+      <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="18" t="s">
+      <c r="C148" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
@@ -7648,8 +8006,8 @@
       <c r="A149" s="6" t="n">
         <v>144</v>
       </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="18" t="s">
+      <c r="B149" s="18"/>
+      <c r="C149" s="20" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
@@ -7658,8 +8016,8 @@
       <c r="A150" s="6" t="n">
         <v>145</v>
       </c>
-      <c r="B150" s="16"/>
-      <c r="C150" s="18" t="s">
+      <c r="B150" s="18"/>
+      <c r="C150" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
@@ -7668,10 +8026,10 @@
       <c r="A151" s="6" t="n">
         <v>146</v>
       </c>
-      <c r="B151" s="16" t="s">
+      <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="18" t="s">
+      <c r="C151" s="20" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
@@ -7680,8 +8038,8 @@
       <c r="A152" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="B152" s="16"/>
-      <c r="C152" s="18" t="s">
+      <c r="B152" s="18"/>
+      <c r="C152" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
@@ -7690,8 +8048,8 @@
       <c r="A153" s="6" t="n">
         <v>148</v>
       </c>
-      <c r="B153" s="16"/>
-      <c r="C153" s="18" t="s">
+      <c r="B153" s="18"/>
+      <c r="C153" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
@@ -7700,8 +8058,8 @@
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
-      <c r="B154" s="16"/>
-      <c r="C154" s="18" t="s">
+      <c r="B154" s="18"/>
+      <c r="C154" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
@@ -7710,10 +8068,10 @@
       <c r="A155" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="B155" s="16" t="s">
+      <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="18" t="s">
+      <c r="C155" s="20" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
@@ -7722,8 +8080,8 @@
       <c r="A156" s="6" t="n">
         <v>151</v>
       </c>
-      <c r="B156" s="16"/>
-      <c r="C156" s="18" t="s">
+      <c r="B156" s="18"/>
+      <c r="C156" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
@@ -7732,8 +8090,8 @@
       <c r="A157" s="6" t="n">
         <v>152</v>
       </c>
-      <c r="B157" s="16"/>
-      <c r="C157" s="18" t="s">
+      <c r="B157" s="18"/>
+      <c r="C157" s="20" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
@@ -7742,8 +8100,8 @@
       <c r="A158" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="B158" s="16"/>
-      <c r="C158" s="18" t="s">
+      <c r="B158" s="18"/>
+      <c r="C158" s="20" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
@@ -7752,8 +8110,8 @@
       <c r="A159" s="6" t="n">
         <v>154</v>
       </c>
-      <c r="B159" s="16"/>
-      <c r="C159" s="18" t="s">
+      <c r="B159" s="18"/>
+      <c r="C159" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
@@ -7762,8 +8120,8 @@
       <c r="A160" s="6" t="n">
         <v>155</v>
       </c>
-      <c r="B160" s="16"/>
-      <c r="C160" s="18" t="s">
+      <c r="B160" s="18"/>
+      <c r="C160" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
@@ -7772,8 +8130,8 @@
       <c r="A161" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="B161" s="16"/>
-      <c r="C161" s="18" t="s">
+      <c r="B161" s="18"/>
+      <c r="C161" s="20" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
@@ -7782,8 +8140,8 @@
       <c r="A162" s="6" t="n">
         <v>157</v>
       </c>
-      <c r="B162" s="16"/>
-      <c r="C162" s="18" t="s">
+      <c r="B162" s="18"/>
+      <c r="C162" s="20" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
@@ -7792,10 +8150,10 @@
       <c r="A163" s="6" t="n">
         <v>158</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="18" t="s">
+      <c r="C163" s="20" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
@@ -7804,8 +8162,8 @@
       <c r="A164" s="6" t="n">
         <v>159</v>
       </c>
-      <c r="B164" s="16"/>
-      <c r="C164" s="18" t="s">
+      <c r="B164" s="18"/>
+      <c r="C164" s="20" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
@@ -7814,8 +8172,8 @@
       <c r="A165" s="6" t="n">
         <v>160</v>
       </c>
-      <c r="B165" s="16"/>
-      <c r="C165" s="18" t="s">
+      <c r="B165" s="18"/>
+      <c r="C165" s="20" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
@@ -7824,8 +8182,8 @@
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
-      <c r="B166" s="16"/>
-      <c r="C166" s="18" t="s">
+      <c r="B166" s="18"/>
+      <c r="C166" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
@@ -7834,8 +8192,8 @@
       <c r="A167" s="6" t="n">
         <v>162</v>
       </c>
-      <c r="B167" s="16"/>
-      <c r="C167" s="18" t="s">
+      <c r="B167" s="18"/>
+      <c r="C167" s="20" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
@@ -7844,8 +8202,8 @@
       <c r="A168" s="6" t="n">
         <v>163</v>
       </c>
-      <c r="B168" s="16"/>
-      <c r="C168" s="18" t="s">
+      <c r="B168" s="18"/>
+      <c r="C168" s="20" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
@@ -7854,10 +8212,10 @@
       <c r="A169" s="6" t="n">
         <v>164</v>
       </c>
-      <c r="B169" s="16" t="s">
+      <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="18" t="s">
+      <c r="C169" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
@@ -7866,8 +8224,8 @@
       <c r="A170" s="6" t="n">
         <v>165</v>
       </c>
-      <c r="B170" s="16"/>
-      <c r="C170" s="18" t="s">
+      <c r="B170" s="18"/>
+      <c r="C170" s="20" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
@@ -7876,10 +8234,10 @@
       <c r="A171" s="6" t="n">
         <v>166</v>
       </c>
-      <c r="B171" s="16" t="s">
+      <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="18" t="s">
+      <c r="C171" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
@@ -7888,8 +8246,8 @@
       <c r="A172" s="6" t="n">
         <v>167</v>
       </c>
-      <c r="B172" s="16"/>
-      <c r="C172" s="18" t="s">
+      <c r="B172" s="18"/>
+      <c r="C172" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
@@ -7956,8 +8314,8 @@
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="85" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="F7:F51 C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8019,7 +8377,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="20" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -8030,7 +8388,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="19" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="9"/>
@@ -8041,7 +8399,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="19" t="s">
         <v>410</v>
       </c>
       <c r="D9" s="9"/>
@@ -8052,7 +8410,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="19" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="9"/>
@@ -8063,7 +8421,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="19" t="s">
         <v>412</v>
       </c>
       <c r="D11" s="9"/>
@@ -8074,7 +8432,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="19" t="s">
         <v>413</v>
       </c>
       <c r="D12" s="9"/>
@@ -8085,7 +8443,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>414</v>
       </c>
       <c r="D13" s="9"/>
@@ -8096,7 +8454,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="19" t="s">
         <v>415</v>
       </c>
       <c r="D14" s="9"/>
@@ -8109,7 +8467,7 @@
       <c r="B15" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="19" t="s">
         <v>417</v>
       </c>
       <c r="D15" s="9"/>
@@ -8120,7 +8478,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>418</v>
       </c>
       <c r="D16" s="9"/>
@@ -8131,7 +8489,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="9"/>
@@ -8142,7 +8500,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="9"/>
@@ -8153,7 +8511,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>421</v>
       </c>
       <c r="D19" s="9"/>
@@ -8164,7 +8522,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>422</v>
       </c>
       <c r="D20" s="9"/>
@@ -8175,7 +8533,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>423</v>
       </c>
       <c r="D21" s="9"/>
@@ -8186,7 +8544,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>424</v>
       </c>
       <c r="D22" s="9"/>
@@ -8197,7 +8555,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D23" s="9"/>
@@ -8208,7 +8566,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>426</v>
       </c>
       <c r="D24" s="9"/>
@@ -8219,7 +8577,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="9"/>
@@ -8230,7 +8588,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>428</v>
       </c>
       <c r="D26" s="9"/>
@@ -8241,7 +8599,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>429</v>
       </c>
       <c r="D27" s="9"/>
@@ -8254,7 +8612,7 @@
       <c r="B28" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="19" t="s">
         <v>431</v>
       </c>
       <c r="D28" s="9"/>
@@ -8265,7 +8623,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>432</v>
       </c>
       <c r="D29" s="9"/>
@@ -8276,7 +8634,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>433</v>
       </c>
       <c r="D30" s="9"/>
@@ -8289,7 +8647,7 @@
       <c r="B31" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>435</v>
       </c>
       <c r="D31" s="9"/>
@@ -8300,7 +8658,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>436</v>
       </c>
       <c r="D32" s="9"/>
@@ -8311,7 +8669,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="19" t="s">
         <v>437</v>
       </c>
       <c r="D33" s="9"/>
@@ -8322,7 +8680,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="19" t="s">
         <v>438</v>
       </c>
       <c r="D34" s="9"/>
@@ -8333,7 +8691,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>439</v>
       </c>
       <c r="D35" s="9"/>
@@ -8344,7 +8702,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="19" t="s">
         <v>440</v>
       </c>
       <c r="D36" s="9"/>
@@ -8355,7 +8713,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="19" t="s">
         <v>441</v>
       </c>
       <c r="D37" s="9"/>
@@ -8366,7 +8724,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>442</v>
       </c>
       <c r="D38" s="9"/>
@@ -8379,7 +8737,7 @@
       <c r="B39" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="19" t="s">
         <v>444</v>
       </c>
       <c r="D39" s="9"/>
@@ -8390,7 +8748,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="19" t="s">
         <v>445</v>
       </c>
       <c r="D40" s="9"/>
@@ -8401,7 +8759,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>446</v>
       </c>
       <c r="D41" s="9"/>
@@ -8412,7 +8770,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="19" t="s">
         <v>447</v>
       </c>
       <c r="D42" s="9"/>
@@ -8423,7 +8781,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="9"/>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="19" t="s">
         <v>448</v>
       </c>
       <c r="D43" s="9"/>
@@ -8434,7 +8792,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="19" t="s">
         <v>449</v>
       </c>
       <c r="D44" s="9"/>
@@ -8447,7 +8805,7 @@
       <c r="B45" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="19" t="s">
         <v>451</v>
       </c>
       <c r="D45" s="9"/>
@@ -8458,7 +8816,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="19" t="s">
         <v>452</v>
       </c>
       <c r="D46" s="9"/>
@@ -8469,7 +8827,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>453</v>
       </c>
       <c r="D47" s="9"/>
@@ -8480,7 +8838,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>454</v>
       </c>
       <c r="D48" s="9"/>
@@ -8491,7 +8849,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="9"/>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="19" t="s">
         <v>455</v>
       </c>
       <c r="D49" s="9"/>
@@ -8502,7 +8860,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="19" t="s">
         <v>456</v>
       </c>
       <c r="D50" s="9"/>
@@ -8513,7 +8871,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="9"/>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>457</v>
       </c>
       <c r="D51" s="9"/>
@@ -8524,7 +8882,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="9"/>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="19" t="s">
         <v>458</v>
       </c>
       <c r="D52" s="9"/>
@@ -8535,7 +8893,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="19" t="s">
         <v>459</v>
       </c>
       <c r="D53" s="9"/>
@@ -8546,7 +8904,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="19" t="s">
         <v>460</v>
       </c>
       <c r="D54" s="9"/>
@@ -8559,7 +8917,7 @@
       <c r="B55" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="19" t="s">
         <v>462</v>
       </c>
       <c r="D55" s="9"/>
@@ -8570,7 +8928,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="9"/>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D56" s="9"/>
@@ -8581,7 +8939,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="19" t="s">
         <v>464</v>
       </c>
       <c r="D57" s="9"/>
@@ -8592,7 +8950,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D58" s="9"/>
@@ -8603,7 +8961,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>466</v>
       </c>
       <c r="D59" s="9"/>
@@ -8616,7 +8974,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="18" t="s">
+      <c r="C60" s="20" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -8627,7 +8985,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="20" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -8638,7 +8996,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="20" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -8649,7 +9007,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="20" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -8660,7 +9018,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="18" t="s">
+      <c r="C64" s="20" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -8671,7 +9029,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="20" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -8682,7 +9040,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="18" t="s">
+      <c r="C66" s="20" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -8693,7 +9051,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="20" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -8706,7 +9064,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="C68" s="20" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -8716,10 +9074,10 @@
         <f aca="false">ROW()-6</f>
         <v>63</v>
       </c>
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="20" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -8729,8 +9087,8 @@
         <f aca="false">ROW()-6</f>
         <v>64</v>
       </c>
-      <c r="B70" s="16"/>
-      <c r="C70" s="18" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="20" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -8740,8 +9098,8 @@
         <f aca="false">ROW()-6</f>
         <v>65</v>
       </c>
-      <c r="B71" s="16"/>
-      <c r="C71" s="18" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="20" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -8751,8 +9109,8 @@
         <f aca="false">ROW()-6</f>
         <v>66</v>
       </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="18" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="20" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -8762,8 +9120,8 @@
         <f aca="false">ROW()-6</f>
         <v>67</v>
       </c>
-      <c r="B73" s="16"/>
-      <c r="C73" s="18" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="20" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -8773,8 +9131,8 @@
         <f aca="false">ROW()-6</f>
         <v>68</v>
       </c>
-      <c r="B74" s="16"/>
-      <c r="C74" s="18" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="20" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -8784,8 +9142,8 @@
         <f aca="false">ROW()-6</f>
         <v>69</v>
       </c>
-      <c r="B75" s="16"/>
-      <c r="C75" s="18" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="20" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -8795,8 +9153,8 @@
         <f aca="false">ROW()-6</f>
         <v>70</v>
       </c>
-      <c r="B76" s="16"/>
-      <c r="C76" s="18" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="20" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -8806,8 +9164,8 @@
         <f aca="false">ROW()-6</f>
         <v>71</v>
       </c>
-      <c r="B77" s="16"/>
-      <c r="C77" s="18" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="20" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -8817,8 +9175,8 @@
         <f aca="false">ROW()-6</f>
         <v>72</v>
       </c>
-      <c r="B78" s="16"/>
-      <c r="C78" s="18" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="20" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -8828,8 +9186,8 @@
         <f aca="false">ROW()-6</f>
         <v>73</v>
       </c>
-      <c r="B79" s="16"/>
-      <c r="C79" s="18" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="20" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -8880,8 +9238,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="85" zoomScalePageLayoutView="94" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7:F51 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8940,7 +9298,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="21" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -8953,8 +9311,8 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
       <c r="D8" s="9"/>
@@ -8964,8 +9322,8 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
       <c r="D9" s="9"/>
@@ -8975,8 +9333,8 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
       <c r="D10" s="9"/>
@@ -8986,8 +9344,8 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="17" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
       <c r="D11" s="9"/>
@@ -8997,8 +9355,8 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="17" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
       <c r="D12" s="9"/>
@@ -9008,10 +9366,10 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>499</v>
       </c>
       <c r="D13" s="9"/>
@@ -9021,8 +9379,8 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="17" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
       <c r="D14" s="9"/>
@@ -9032,8 +9390,8 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="17" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
       <c r="D15" s="9"/>
@@ -9043,8 +9401,8 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="17" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
       <c r="D16" s="9"/>
@@ -9054,8 +9412,8 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="17" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
       <c r="D17" s="9"/>
@@ -9065,8 +9423,8 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
       <c r="D18" s="9"/>
@@ -9076,10 +9434,10 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>506</v>
       </c>
       <c r="D19" s="9"/>
@@ -9089,8 +9447,8 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D20" s="9"/>
@@ -9100,8 +9458,8 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
       <c r="D21" s="9"/>
@@ -9111,8 +9469,8 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
       <c r="D22" s="9"/>
@@ -9122,8 +9480,8 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="17" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
       <c r="D23" s="9"/>
@@ -9133,8 +9491,8 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="17" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="9"/>
@@ -9144,10 +9502,10 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>513</v>
       </c>
       <c r="D25" s="9"/>
@@ -9157,8 +9515,8 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="17" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
       <c r="D26" s="9"/>
@@ -9168,10 +9526,10 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>516</v>
       </c>
       <c r="D27" s="9"/>
@@ -9181,8 +9539,8 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="17" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
       <c r="D28" s="9"/>
@@ -9195,7 +9553,7 @@
       <c r="B29" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>519</v>
       </c>
       <c r="D29" s="9"/>
@@ -9206,7 +9564,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>520</v>
       </c>
       <c r="D30" s="9"/>
@@ -9219,7 +9577,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="20" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -9230,7 +9588,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -9241,7 +9599,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="20" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -9252,7 +9610,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="20" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,12 +1632,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1954,7 +1955,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2024,6 +2025,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2190,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307440</xdr:colOff>
+      <xdr:colOff>307080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2202,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011920" cy="1626120"/>
+          <a:ext cx="5011560" cy="1625760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2368,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307440</xdr:colOff>
+      <xdr:colOff>307080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>180000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2380,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011920" cy="1626120"/>
+          <a:ext cx="5011560" cy="1625760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2546,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>461160</xdr:colOff>
+      <xdr:colOff>460800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2557,8 +2562,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="17952840" y="0"/>
-          <a:ext cx="5011920" cy="1626120"/>
+          <a:off x="18145800" y="0"/>
+          <a:ext cx="5011920" cy="1625760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2724,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266760</xdr:colOff>
+      <xdr:colOff>266400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2736,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5069880" cy="1663560"/>
+          <a:ext cx="5069520" cy="1663200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2897,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>80280</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2909,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="199800" cy="2230560"/>
+          <a:ext cx="199440" cy="2230200"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2949,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>409320</xdr:colOff>
+      <xdr:colOff>408960</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>131760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2961,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4622040" cy="1161720"/>
+          <a:ext cx="4621680" cy="1161360"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3062,9 +3067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244440</xdr:colOff>
+      <xdr:colOff>244080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3074,7 +3079,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5033520" cy="1647000"/>
+          <a:ext cx="5033160" cy="1646640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3240,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318960</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3252,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069520" cy="3108960"/>
+          <a:ext cx="5069160" cy="3108600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3418,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318960</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:rowOff>208080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3430,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069520" cy="2689920"/>
+          <a:ext cx="5069160" cy="2689560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3780,8 +3785,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="F7:F51 D12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4161,8 +4166,8 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="F7:F51 D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4377,10 +4382,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="C1" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7:F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4390,7 +4395,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1002" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -4440,12 +4446,15 @@
       <c r="F6" s="17" t="n">
         <v>45399</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G6" s="18" t="n">
+        <v>45400</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4460,13 +4469,16 @@
       <c r="F7" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="9" t="n">
@@ -4478,13 +4490,16 @@
       <c r="F8" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9" t="n">
@@ -4496,13 +4511,16 @@
       <c r="F9" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="19"/>
+      <c r="C10" s="20" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="9" t="n">
@@ -4514,13 +4532,16 @@
       <c r="F10" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="9" t="n">
@@ -4532,13 +4553,16 @@
       <c r="F11" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="9" t="n">
@@ -4550,13 +4574,16 @@
       <c r="F12" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="19" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="9" t="n">
@@ -4568,13 +4595,16 @@
       <c r="F13" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="9" t="n">
@@ -4586,13 +4616,16 @@
       <c r="F14" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="9" t="n">
@@ -4604,13 +4637,16 @@
       <c r="F15" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -4622,15 +4658,18 @@
       <c r="F16" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -4642,13 +4681,16 @@
       <c r="F17" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -4660,13 +4702,16 @@
       <c r="F18" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -4678,15 +4723,18 @@
       <c r="F19" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -4698,15 +4746,18 @@
       <c r="F20" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="9" t="n">
@@ -4718,13 +4769,16 @@
       <c r="F21" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="9" t="n">
@@ -4736,13 +4790,16 @@
       <c r="F22" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="20" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -4754,15 +4811,18 @@
       <c r="F23" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="9" t="n">
@@ -4774,13 +4834,16 @@
       <c r="F24" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="9" t="n">
@@ -4792,13 +4855,16 @@
       <c r="F25" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="9" t="n">
@@ -4810,15 +4876,18 @@
       <c r="F26" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="9" t="n">
@@ -4830,13 +4899,16 @@
       <c r="F27" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="9" t="n">
@@ -4848,13 +4920,16 @@
       <c r="F28" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="9" t="n">
@@ -4866,13 +4941,16 @@
       <c r="F29" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="20" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="9" t="n">
@@ -4884,13 +4962,16 @@
       <c r="F30" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="9" t="n">
@@ -4902,13 +4983,16 @@
       <c r="F31" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="19" t="s">
+      <c r="B32" s="19"/>
+      <c r="C32" s="20" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="9" t="n">
@@ -4920,13 +5004,16 @@
       <c r="F32" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="9" t="n">
@@ -4938,13 +5025,16 @@
       <c r="F33" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="9" t="n">
@@ -4956,13 +5046,16 @@
       <c r="F34" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="19" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="20" t="s">
         <v>79</v>
       </c>
       <c r="D35" s="9" t="n">
@@ -4974,13 +5067,16 @@
       <c r="F35" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="9" t="n">
@@ -4992,13 +5088,16 @@
       <c r="F36" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="9" t="n">
@@ -5010,15 +5109,18 @@
       <c r="F37" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="9" t="n">
@@ -5030,13 +5132,16 @@
       <c r="F38" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G38" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="9" t="n">
@@ -5048,13 +5153,16 @@
       <c r="F39" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="20" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="9" t="n">
@@ -5066,13 +5174,16 @@
       <c r="F40" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="19" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="20" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="9" t="n">
@@ -5084,13 +5195,16 @@
       <c r="F41" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="9" t="n">
@@ -5102,13 +5216,16 @@
       <c r="F42" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="20" t="s">
         <v>88</v>
       </c>
       <c r="D43" s="9" t="n">
@@ -5120,13 +5237,16 @@
       <c r="F43" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="20" t="s">
         <v>89</v>
       </c>
       <c r="D44" s="9" t="n">
@@ -5138,13 +5258,16 @@
       <c r="F44" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="20" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="9" t="n">
@@ -5156,13 +5279,16 @@
       <c r="F45" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="20" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="9" t="n">
@@ -5174,13 +5300,16 @@
       <c r="F46" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="20" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="9" t="n">
@@ -5192,13 +5321,16 @@
       <c r="F47" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="20" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="9" t="n">
@@ -5210,13 +5342,16 @@
       <c r="F48" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G48" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20" t="s">
         <v>94</v>
       </c>
       <c r="D49" s="9" t="n">
@@ -5228,13 +5363,16 @@
       <c r="F49" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="20" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="9" t="n">
@@ -5246,13 +5384,16 @@
       <c r="F50" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="19" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="20" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="9" t="n">
@@ -5264,15 +5405,18 @@
       <c r="F51" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>98</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -5284,13 +5428,16 @@
       <c r="F52" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G52" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20" t="s">
         <v>99</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -5302,13 +5449,16 @@
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G53" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="20" t="s">
         <v>100</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -5320,13 +5470,16 @@
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20" t="s">
         <v>101</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -5338,13 +5491,16 @@
       <c r="F55" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G55" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="19" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="20" t="s">
         <v>102</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -5356,13 +5512,16 @@
       <c r="F56" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G56" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -5374,13 +5533,16 @@
       <c r="F57" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G57" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20" t="s">
         <v>104</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -5392,13 +5554,16 @@
       <c r="F58" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G58" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="20" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -5410,13 +5575,16 @@
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G59" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="18"/>
-      <c r="C60" s="19" t="s">
+      <c r="B60" s="19"/>
+      <c r="C60" s="20" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -5428,13 +5596,16 @@
       <c r="F60" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="20" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -5446,13 +5617,16 @@
       <c r="F61" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="19" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="20" t="s">
         <v>108</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -5464,13 +5638,16 @@
       <c r="F62" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G62" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="20" t="s">
         <v>109</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -5481,6 +5658,9 @@
       </c>
       <c r="F63" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5497,13 +5677,13 @@
     <mergeCell ref="B38:B51"/>
     <mergeCell ref="B52:B63"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:F63">
+  <conditionalFormatting sqref="D7:G63">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F63" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:G63" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -5527,8 +5707,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="70" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7:F51 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5589,7 +5769,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="9"/>
@@ -5599,7 +5779,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="9"/>
@@ -5609,7 +5789,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="9"/>
@@ -5619,7 +5799,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="9"/>
@@ -5631,7 +5811,7 @@
       <c r="B11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="9"/>
@@ -5641,7 +5821,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="9"/>
@@ -5651,7 +5831,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="9"/>
@@ -5661,7 +5841,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="9"/>
@@ -5670,10 +5850,10 @@
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="9"/>
@@ -5682,8 +5862,8 @@
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>123</v>
       </c>
       <c r="D16" s="9"/>
@@ -5692,8 +5872,8 @@
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="20" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="9"/>
@@ -5702,8 +5882,8 @@
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="9"/>
@@ -5712,8 +5892,8 @@
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="20" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="9"/>
@@ -5722,8 +5902,8 @@
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="20" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="9"/>
@@ -5732,10 +5912,10 @@
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>129</v>
       </c>
       <c r="D21" s="9"/>
@@ -5744,8 +5924,8 @@
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="20" t="s">
         <v>130</v>
       </c>
       <c r="D22" s="9"/>
@@ -5754,10 +5934,10 @@
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="9"/>
@@ -5766,8 +5946,8 @@
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="20" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="9"/>
@@ -5776,8 +5956,8 @@
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="20" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="9"/>
@@ -5786,8 +5966,8 @@
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="20" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="9"/>
@@ -5796,8 +5976,8 @@
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="9"/>
@@ -5806,8 +5986,8 @@
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="20" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="9"/>
@@ -5816,8 +5996,8 @@
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="20" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="9"/>
@@ -5826,10 +6006,10 @@
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>140</v>
       </c>
       <c r="D30" s="9"/>
@@ -5838,8 +6018,8 @@
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="20" t="s">
         <v>141</v>
       </c>
       <c r="D31" s="9"/>
@@ -5848,10 +6028,10 @@
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="9"/>
@@ -5860,8 +6040,8 @@
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="19" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="20" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="9"/>
@@ -5870,8 +6050,8 @@
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="19" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="20" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="9"/>
@@ -5880,10 +6060,10 @@
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="9"/>
@@ -5892,8 +6072,8 @@
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="20" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="9"/>
@@ -5902,8 +6082,8 @@
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="19" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="20" t="s">
         <v>149</v>
       </c>
       <c r="D37" s="9"/>
@@ -5912,8 +6092,8 @@
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="20" t="s">
         <v>150</v>
       </c>
       <c r="D38" s="9"/>
@@ -5922,8 +6102,8 @@
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="19" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="20" t="s">
         <v>151</v>
       </c>
       <c r="D39" s="9"/>
@@ -5932,8 +6112,8 @@
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="18"/>
-      <c r="C40" s="19" t="s">
+      <c r="B40" s="19"/>
+      <c r="C40" s="20" t="s">
         <v>152</v>
       </c>
       <c r="D40" s="9"/>
@@ -5942,10 +6122,10 @@
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>154</v>
       </c>
       <c r="D41" s="9"/>
@@ -5954,8 +6134,8 @@
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="18"/>
-      <c r="C42" s="19" t="s">
+      <c r="B42" s="19"/>
+      <c r="C42" s="20" t="s">
         <v>155</v>
       </c>
       <c r="D42" s="9"/>
@@ -5964,8 +6144,8 @@
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="19" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="20" t="s">
         <v>156</v>
       </c>
       <c r="D43" s="9"/>
@@ -5974,8 +6154,8 @@
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="19" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="20" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="9"/>
@@ -5984,8 +6164,8 @@
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="19" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="20" t="s">
         <v>158</v>
       </c>
       <c r="D45" s="9"/>
@@ -5994,8 +6174,8 @@
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="19" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="20" t="s">
         <v>159</v>
       </c>
       <c r="D46" s="9"/>
@@ -6004,8 +6184,8 @@
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="19" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="20" t="s">
         <v>160</v>
       </c>
       <c r="D47" s="9"/>
@@ -6014,8 +6194,8 @@
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="19" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="20" t="s">
         <v>161</v>
       </c>
       <c r="D48" s="9"/>
@@ -6024,8 +6204,8 @@
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="19" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="20" t="s">
         <v>162</v>
       </c>
       <c r="D49" s="9"/>
@@ -6034,8 +6214,8 @@
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="19" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="20" t="s">
         <v>163</v>
       </c>
       <c r="D50" s="9"/>
@@ -6044,10 +6224,10 @@
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="9"/>
@@ -6056,8 +6236,8 @@
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="19" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="20" t="s">
         <v>166</v>
       </c>
       <c r="D52" s="9"/>
@@ -6066,8 +6246,8 @@
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="19" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="20" t="s">
         <v>167</v>
       </c>
       <c r="D53" s="9"/>
@@ -6076,8 +6256,8 @@
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="18"/>
-      <c r="C54" s="19" t="s">
+      <c r="B54" s="19"/>
+      <c r="C54" s="20" t="s">
         <v>168</v>
       </c>
       <c r="D54" s="9"/>
@@ -6086,8 +6266,8 @@
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="19" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20" t="s">
         <v>169</v>
       </c>
       <c r="D55" s="9"/>
@@ -6096,10 +6276,10 @@
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="19" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>171</v>
       </c>
       <c r="D56" s="9"/>
@@ -6108,8 +6288,8 @@
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="19" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="20" t="s">
         <v>172</v>
       </c>
       <c r="D57" s="9"/>
@@ -6118,8 +6298,8 @@
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="19" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="20" t="s">
         <v>173</v>
       </c>
       <c r="D58" s="9"/>
@@ -6128,8 +6308,8 @@
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="19" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="20" t="s">
         <v>174</v>
       </c>
       <c r="D59" s="9"/>
@@ -6138,10 +6318,10 @@
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C60" s="20" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="9"/>
@@ -6150,8 +6330,8 @@
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="19" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="20" t="s">
         <v>177</v>
       </c>
       <c r="D61" s="9"/>
@@ -6160,10 +6340,10 @@
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="18" t="s">
+      <c r="B62" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="19" t="s">
+      <c r="C62" s="20" t="s">
         <v>179</v>
       </c>
       <c r="D62" s="9"/>
@@ -6172,8 +6352,8 @@
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="19" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="20" t="s">
         <v>180</v>
       </c>
       <c r="D63" s="9"/>
@@ -6182,8 +6362,8 @@
       <c r="A64" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="19" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="20" t="s">
         <v>181</v>
       </c>
       <c r="D64" s="9"/>
@@ -6192,8 +6372,8 @@
       <c r="A65" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="20" t="s">
         <v>182</v>
       </c>
       <c r="D65" s="9"/>
@@ -6202,10 +6382,10 @@
       <c r="A66" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B66" s="18" t="s">
+      <c r="B66" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C66" s="20" t="s">
         <v>184</v>
       </c>
       <c r="D66" s="9"/>
@@ -6214,8 +6394,8 @@
       <c r="A67" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="19" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="20" t="s">
         <v>185</v>
       </c>
       <c r="D67" s="9"/>
@@ -6224,8 +6404,8 @@
       <c r="A68" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="19" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="20" t="s">
         <v>186</v>
       </c>
       <c r="D68" s="9"/>
@@ -6234,8 +6414,8 @@
       <c r="A69" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="19" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="20" t="s">
         <v>187</v>
       </c>
       <c r="D69" s="9"/>
@@ -6244,10 +6424,10 @@
       <c r="A70" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B70" s="18" t="s">
+      <c r="B70" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C70" s="20" t="s">
         <v>189</v>
       </c>
       <c r="D70" s="9"/>
@@ -6256,8 +6436,8 @@
       <c r="A71" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="19" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D71" s="9"/>
@@ -6266,10 +6446,10 @@
       <c r="A72" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B72" s="18" t="s">
+      <c r="B72" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C72" s="20" t="s">
         <v>192</v>
       </c>
       <c r="D72" s="9"/>
@@ -6278,8 +6458,8 @@
       <c r="A73" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="19" t="s">
+      <c r="B73" s="19"/>
+      <c r="C73" s="20" t="s">
         <v>193</v>
       </c>
       <c r="D73" s="9"/>
@@ -6288,8 +6468,8 @@
       <c r="A74" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="19" t="s">
+      <c r="B74" s="19"/>
+      <c r="C74" s="20" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="9"/>
@@ -6298,8 +6478,8 @@
       <c r="A75" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="19" t="s">
+      <c r="B75" s="19"/>
+      <c r="C75" s="20" t="s">
         <v>195</v>
       </c>
       <c r="D75" s="9"/>
@@ -6311,7 +6491,7 @@
       <c r="B76" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C76" s="20" t="s">
         <v>197</v>
       </c>
       <c r="D76" s="9"/>
@@ -6320,10 +6500,10 @@
       <c r="A77" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B77" s="18" t="s">
+      <c r="B77" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="19" t="s">
+      <c r="C77" s="20" t="s">
         <v>199</v>
       </c>
       <c r="D77" s="9"/>
@@ -6332,8 +6512,8 @@
       <c r="A78" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="19" t="s">
+      <c r="B78" s="19"/>
+      <c r="C78" s="20" t="s">
         <v>200</v>
       </c>
       <c r="D78" s="9"/>
@@ -6342,8 +6522,8 @@
       <c r="A79" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="19" t="s">
+      <c r="B79" s="19"/>
+      <c r="C79" s="20" t="s">
         <v>201</v>
       </c>
       <c r="D79" s="9"/>
@@ -6352,10 +6532,10 @@
       <c r="A80" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B80" s="18" t="s">
+      <c r="B80" s="19" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C80" s="20" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="9"/>
@@ -6364,8 +6544,8 @@
       <c r="A81" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="19" t="s">
+      <c r="B81" s="19"/>
+      <c r="C81" s="20" t="s">
         <v>204</v>
       </c>
       <c r="D81" s="9"/>
@@ -6377,7 +6557,7 @@
       <c r="B82" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C82" s="20" t="s">
         <v>206</v>
       </c>
       <c r="D82" s="9"/>
@@ -6389,7 +6569,7 @@
       <c r="B83" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="19" t="s">
+      <c r="C83" s="20" t="s">
         <v>208</v>
       </c>
       <c r="D83" s="9"/>
@@ -6401,7 +6581,7 @@
       <c r="B84" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C84" s="20" t="s">
         <v>210</v>
       </c>
       <c r="D84" s="9"/>
@@ -6413,7 +6593,7 @@
       <c r="B85" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C85" s="19" t="s">
+      <c r="C85" s="20" t="s">
         <v>212</v>
       </c>
       <c r="D85" s="9"/>
@@ -6425,7 +6605,7 @@
       <c r="B86" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C86" s="20" t="s">
         <v>214</v>
       </c>
       <c r="D86" s="9"/>
@@ -6485,8 +6665,8 @@
   </sheetPr>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="85" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7:F51 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6544,10 +6724,10 @@
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>217</v>
       </c>
       <c r="D7" s="9"/>
@@ -6556,8 +6736,8 @@
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="19"/>
+      <c r="C8" s="20" t="s">
         <v>218</v>
       </c>
       <c r="D8" s="9"/>
@@ -6566,8 +6746,8 @@
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="19"/>
+      <c r="C9" s="20" t="s">
         <v>219</v>
       </c>
       <c r="D9" s="9"/>
@@ -6576,10 +6756,10 @@
       <c r="A10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>221</v>
       </c>
       <c r="D10" s="9"/>
@@ -6588,8 +6768,8 @@
       <c r="A11" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="20" t="s">
         <v>222</v>
       </c>
       <c r="D11" s="9"/>
@@ -6598,8 +6778,8 @@
       <c r="A12" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>223</v>
       </c>
       <c r="D12" s="9"/>
@@ -6608,8 +6788,8 @@
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="21" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9"/>
@@ -6618,8 +6798,8 @@
       <c r="A14" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="21" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9"/>
@@ -6628,8 +6808,8 @@
       <c r="A15" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="21" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9"/>
@@ -6638,8 +6818,8 @@
       <c r="A16" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="21" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9"/>
@@ -6648,8 +6828,8 @@
       <c r="A17" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="19"/>
+      <c r="C17" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9"/>
@@ -6658,8 +6838,8 @@
       <c r="A18" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="21" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9"/>
@@ -6668,8 +6848,8 @@
       <c r="A19" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="19"/>
+      <c r="C19" s="21" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9"/>
@@ -6678,8 +6858,8 @@
       <c r="A20" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9"/>
@@ -6688,8 +6868,8 @@
       <c r="A21" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="21" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9"/>
@@ -6698,8 +6878,8 @@
       <c r="A22" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="19"/>
+      <c r="C22" s="21" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9"/>
@@ -6708,8 +6888,8 @@
       <c r="A23" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="19"/>
+      <c r="C23" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9"/>
@@ -6718,8 +6898,8 @@
       <c r="A24" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9"/>
@@ -6728,8 +6908,8 @@
       <c r="A25" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="21" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9"/>
@@ -6738,8 +6918,8 @@
       <c r="A26" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="19"/>
+      <c r="C26" s="21" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9"/>
@@ -6748,8 +6928,8 @@
       <c r="A27" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="21" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9"/>
@@ -6758,8 +6938,8 @@
       <c r="A28" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="19"/>
+      <c r="C28" s="21" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9"/>
@@ -6768,8 +6948,8 @@
       <c r="A29" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="19"/>
+      <c r="C29" s="21" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9"/>
@@ -6778,8 +6958,8 @@
       <c r="A30" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="19"/>
+      <c r="C30" s="21" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9"/>
@@ -6788,8 +6968,8 @@
       <c r="A31" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="19"/>
+      <c r="C31" s="21" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9"/>
@@ -6798,10 +6978,10 @@
       <c r="A32" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9"/>
@@ -6810,8 +6990,8 @@
       <c r="A33" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B33" s="18"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="19"/>
+      <c r="C33" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9"/>
@@ -6820,8 +7000,8 @@
       <c r="A34" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B34" s="18"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="19"/>
+      <c r="C34" s="21" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9"/>
@@ -6830,8 +7010,8 @@
       <c r="A35" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B35" s="18"/>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="19"/>
+      <c r="C35" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9"/>
@@ -6840,8 +7020,8 @@
       <c r="A36" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="19"/>
+      <c r="C36" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9"/>
@@ -6850,8 +7030,8 @@
       <c r="A37" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="19"/>
+      <c r="C37" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9"/>
@@ -6860,8 +7040,8 @@
       <c r="A38" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B38" s="18"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="19"/>
+      <c r="C38" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9"/>
@@ -6870,8 +7050,8 @@
       <c r="A39" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="19"/>
+      <c r="C39" s="21" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9"/>
@@ -6880,10 +7060,10 @@
       <c r="A40" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9"/>
@@ -6892,8 +7072,8 @@
       <c r="A41" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B41" s="18"/>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="19"/>
+      <c r="C41" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9"/>
@@ -6902,10 +7082,10 @@
       <c r="A42" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -6914,8 +7094,8 @@
       <c r="A43" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="19"/>
+      <c r="C43" s="21" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -6924,8 +7104,8 @@
       <c r="A44" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B44" s="18"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="19"/>
+      <c r="C44" s="21" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -6934,8 +7114,8 @@
       <c r="A45" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B45" s="18"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="19"/>
+      <c r="C45" s="21" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -6944,8 +7124,8 @@
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B46" s="18"/>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="19"/>
+      <c r="C46" s="21" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -6954,8 +7134,8 @@
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B47" s="18"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="19"/>
+      <c r="C47" s="21" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -6964,8 +7144,8 @@
       <c r="A48" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="19"/>
+      <c r="C48" s="21" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -6974,8 +7154,8 @@
       <c r="A49" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="19"/>
+      <c r="C49" s="21" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -6984,8 +7164,8 @@
       <c r="A50" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B50" s="18"/>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="19"/>
+      <c r="C50" s="21" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -6994,8 +7174,8 @@
       <c r="A51" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B51" s="18"/>
-      <c r="C51" s="20" t="s">
+      <c r="B51" s="19"/>
+      <c r="C51" s="21" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -7004,8 +7184,8 @@
       <c r="A52" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B52" s="18"/>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="19"/>
+      <c r="C52" s="21" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -7014,8 +7194,8 @@
       <c r="A53" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="19"/>
+      <c r="C53" s="21" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -7024,10 +7204,10 @@
       <c r="A54" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="21" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -7036,8 +7216,8 @@
       <c r="A55" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="19"/>
+      <c r="C55" s="21" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -7046,8 +7226,8 @@
       <c r="A56" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B56" s="18"/>
-      <c r="C56" s="20" t="s">
+      <c r="B56" s="19"/>
+      <c r="C56" s="21" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -7056,8 +7236,8 @@
       <c r="A57" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B57" s="18"/>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="19"/>
+      <c r="C57" s="21" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -7066,8 +7246,8 @@
       <c r="A58" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B58" s="18"/>
-      <c r="C58" s="20" t="s">
+      <c r="B58" s="19"/>
+      <c r="C58" s="21" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -7076,8 +7256,8 @@
       <c r="A59" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B59" s="18"/>
-      <c r="C59" s="20" t="s">
+      <c r="B59" s="19"/>
+      <c r="C59" s="21" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -7086,10 +7266,10 @@
       <c r="A60" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B60" s="18" t="s">
+      <c r="B60" s="19" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -7098,8 +7278,8 @@
       <c r="A61" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B61" s="18"/>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="21" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -7108,8 +7288,8 @@
       <c r="A62" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B62" s="18"/>
-      <c r="C62" s="20" t="s">
+      <c r="B62" s="19"/>
+      <c r="C62" s="21" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -7118,8 +7298,8 @@
       <c r="A63" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B63" s="18"/>
-      <c r="C63" s="20" t="s">
+      <c r="B63" s="19"/>
+      <c r="C63" s="21" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -7128,8 +7308,8 @@
       <c r="A64" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B64" s="18"/>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="19"/>
+      <c r="C64" s="21" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -7138,8 +7318,8 @@
       <c r="A65" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="19"/>
+      <c r="C65" s="21" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -7148,8 +7328,8 @@
       <c r="A66" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="20" t="s">
+      <c r="B66" s="19"/>
+      <c r="C66" s="21" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -7158,8 +7338,8 @@
       <c r="A67" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B67" s="18"/>
-      <c r="C67" s="20" t="s">
+      <c r="B67" s="19"/>
+      <c r="C67" s="21" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -7168,8 +7348,8 @@
       <c r="A68" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B68" s="18"/>
-      <c r="C68" s="20" t="s">
+      <c r="B68" s="19"/>
+      <c r="C68" s="21" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -7178,8 +7358,8 @@
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B69" s="18"/>
-      <c r="C69" s="20" t="s">
+      <c r="B69" s="19"/>
+      <c r="C69" s="21" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -7188,8 +7368,8 @@
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="21" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -7198,8 +7378,8 @@
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="21" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -7208,8 +7388,8 @@
       <c r="A72" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="21" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -7218,10 +7398,10 @@
       <c r="A73" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B73" s="18" t="s">
+      <c r="B73" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -7230,8 +7410,8 @@
       <c r="A74" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="B74" s="19"/>
+      <c r="C74" s="21" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -7240,8 +7420,8 @@
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="B75" s="19"/>
+      <c r="C75" s="21" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -7250,8 +7430,8 @@
       <c r="A76" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="B76" s="19"/>
+      <c r="C76" s="21" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -7260,8 +7440,8 @@
       <c r="A77" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="B77" s="19"/>
+      <c r="C77" s="21" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -7270,8 +7450,8 @@
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="B78" s="19"/>
+      <c r="C78" s="21" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -7280,8 +7460,8 @@
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="B79" s="19"/>
+      <c r="C79" s="21" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -7290,8 +7470,8 @@
       <c r="A80" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="20" t="s">
+      <c r="B80" s="19"/>
+      <c r="C80" s="21" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -7303,7 +7483,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -7312,10 +7492,10 @@
       <c r="A82" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B82" s="18" t="s">
+      <c r="B82" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -7324,8 +7504,8 @@
       <c r="A83" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="20" t="s">
+      <c r="B83" s="19"/>
+      <c r="C83" s="21" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -7334,8 +7514,8 @@
       <c r="A84" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="B84" s="18"/>
-      <c r="C84" s="20" t="s">
+      <c r="B84" s="19"/>
+      <c r="C84" s="21" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -7344,8 +7524,8 @@
       <c r="A85" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="B85" s="18"/>
-      <c r="C85" s="20" t="s">
+      <c r="B85" s="19"/>
+      <c r="C85" s="21" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -7354,8 +7534,8 @@
       <c r="A86" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B86" s="18"/>
-      <c r="C86" s="20" t="s">
+      <c r="B86" s="19"/>
+      <c r="C86" s="21" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -7364,8 +7544,8 @@
       <c r="A87" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="B87" s="18"/>
-      <c r="C87" s="20" t="s">
+      <c r="B87" s="19"/>
+      <c r="C87" s="21" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -7374,10 +7554,10 @@
       <c r="A88" s="6" t="n">
         <v>83</v>
       </c>
-      <c r="B88" s="18" t="s">
+      <c r="B88" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -7386,8 +7566,8 @@
       <c r="A89" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="B89" s="18"/>
-      <c r="C89" s="20" t="s">
+      <c r="B89" s="19"/>
+      <c r="C89" s="21" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -7396,8 +7576,8 @@
       <c r="A90" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="20" t="s">
+      <c r="B90" s="19"/>
+      <c r="C90" s="21" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -7406,8 +7586,8 @@
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="20" t="s">
+      <c r="B91" s="19"/>
+      <c r="C91" s="21" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -7416,8 +7596,8 @@
       <c r="A92" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="B92" s="18"/>
-      <c r="C92" s="20" t="s">
+      <c r="B92" s="19"/>
+      <c r="C92" s="21" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -7426,8 +7606,8 @@
       <c r="A93" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="B93" s="18"/>
-      <c r="C93" s="20" t="s">
+      <c r="B93" s="19"/>
+      <c r="C93" s="21" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -7436,10 +7616,10 @@
       <c r="A94" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="B94" s="18" t="s">
+      <c r="B94" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="21" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -7448,8 +7628,8 @@
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="B95" s="18"/>
-      <c r="C95" s="20" t="s">
+      <c r="B95" s="19"/>
+      <c r="C95" s="21" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -7458,8 +7638,8 @@
       <c r="A96" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="B96" s="18"/>
-      <c r="C96" s="20" t="s">
+      <c r="B96" s="19"/>
+      <c r="C96" s="21" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -7468,8 +7648,8 @@
       <c r="A97" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="B97" s="18"/>
-      <c r="C97" s="20" t="s">
+      <c r="B97" s="19"/>
+      <c r="C97" s="21" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -7478,8 +7658,8 @@
       <c r="A98" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="B98" s="18"/>
-      <c r="C98" s="20" t="s">
+      <c r="B98" s="19"/>
+      <c r="C98" s="21" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -7488,8 +7668,8 @@
       <c r="A99" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="20" t="s">
+      <c r="B99" s="19"/>
+      <c r="C99" s="21" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -7498,8 +7678,8 @@
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="20" t="s">
+      <c r="B100" s="19"/>
+      <c r="C100" s="21" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -7508,8 +7688,8 @@
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="B101" s="18"/>
-      <c r="C101" s="20" t="s">
+      <c r="B101" s="19"/>
+      <c r="C101" s="21" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -7518,10 +7698,10 @@
       <c r="A102" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="B102" s="18" t="s">
+      <c r="B102" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="21" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -7530,8 +7710,8 @@
       <c r="A103" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="B103" s="18"/>
-      <c r="C103" s="20" t="s">
+      <c r="B103" s="19"/>
+      <c r="C103" s="21" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -7540,8 +7720,8 @@
       <c r="A104" s="6" t="n">
         <v>99</v>
       </c>
-      <c r="B104" s="18"/>
-      <c r="C104" s="20" t="s">
+      <c r="B104" s="19"/>
+      <c r="C104" s="21" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -7550,8 +7730,8 @@
       <c r="A105" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="B105" s="18"/>
-      <c r="C105" s="20" t="s">
+      <c r="B105" s="19"/>
+      <c r="C105" s="21" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -7560,10 +7740,10 @@
       <c r="A106" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="B106" s="18" t="s">
+      <c r="B106" s="19" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="21" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -7572,8 +7752,8 @@
       <c r="A107" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="B107" s="18"/>
-      <c r="C107" s="20" t="s">
+      <c r="B107" s="19"/>
+      <c r="C107" s="21" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -7582,10 +7762,10 @@
       <c r="A108" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="21" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -7594,8 +7774,8 @@
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="B109" s="18"/>
-      <c r="C109" s="20" t="s">
+      <c r="B109" s="19"/>
+      <c r="C109" s="21" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -7604,8 +7784,8 @@
       <c r="A110" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="B110" s="18"/>
-      <c r="C110" s="20" t="s">
+      <c r="B110" s="19"/>
+      <c r="C110" s="21" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -7614,8 +7794,8 @@
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="B111" s="18"/>
-      <c r="C111" s="20" t="s">
+      <c r="B111" s="19"/>
+      <c r="C111" s="21" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -7624,8 +7804,8 @@
       <c r="A112" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="B112" s="18"/>
-      <c r="C112" s="20" t="s">
+      <c r="B112" s="19"/>
+      <c r="C112" s="21" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -7634,8 +7814,8 @@
       <c r="A113" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="B113" s="18"/>
-      <c r="C113" s="20" t="s">
+      <c r="B113" s="19"/>
+      <c r="C113" s="21" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -7644,10 +7824,10 @@
       <c r="A114" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="21" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -7656,8 +7836,8 @@
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="B115" s="18"/>
-      <c r="C115" s="20" t="s">
+      <c r="B115" s="19"/>
+      <c r="C115" s="21" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -7666,8 +7846,8 @@
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="20" t="s">
+      <c r="B116" s="19"/>
+      <c r="C116" s="21" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -7676,8 +7856,8 @@
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="20" t="s">
+      <c r="B117" s="19"/>
+      <c r="C117" s="21" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -7686,8 +7866,8 @@
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
-      <c r="B118" s="18"/>
-      <c r="C118" s="20" t="s">
+      <c r="B118" s="19"/>
+      <c r="C118" s="21" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -7696,10 +7876,10 @@
       <c r="A119" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="21" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -7708,8 +7888,8 @@
       <c r="A120" s="6" t="n">
         <v>115</v>
       </c>
-      <c r="B120" s="18"/>
-      <c r="C120" s="20" t="s">
+      <c r="B120" s="19"/>
+      <c r="C120" s="21" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -7718,8 +7898,8 @@
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
-      <c r="B121" s="18"/>
-      <c r="C121" s="20" t="s">
+      <c r="B121" s="19"/>
+      <c r="C121" s="21" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -7728,8 +7908,8 @@
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
-      <c r="B122" s="18"/>
-      <c r="C122" s="20" t="s">
+      <c r="B122" s="19"/>
+      <c r="C122" s="21" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -7738,8 +7918,8 @@
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="B123" s="18"/>
-      <c r="C123" s="20" t="s">
+      <c r="B123" s="19"/>
+      <c r="C123" s="21" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -7748,10 +7928,10 @@
       <c r="A124" s="6" t="n">
         <v>119</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="21" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
@@ -7760,8 +7940,8 @@
       <c r="A125" s="6" t="n">
         <v>120</v>
       </c>
-      <c r="B125" s="18"/>
-      <c r="C125" s="20" t="s">
+      <c r="B125" s="19"/>
+      <c r="C125" s="21" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
@@ -7770,8 +7950,8 @@
       <c r="A126" s="6" t="n">
         <v>121</v>
       </c>
-      <c r="B126" s="18"/>
-      <c r="C126" s="20" t="s">
+      <c r="B126" s="19"/>
+      <c r="C126" s="21" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
@@ -7780,8 +7960,8 @@
       <c r="A127" s="6" t="n">
         <v>122</v>
       </c>
-      <c r="B127" s="18"/>
-      <c r="C127" s="20" t="s">
+      <c r="B127" s="19"/>
+      <c r="C127" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
@@ -7790,8 +7970,8 @@
       <c r="A128" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="B128" s="18"/>
-      <c r="C128" s="20" t="s">
+      <c r="B128" s="19"/>
+      <c r="C128" s="21" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
@@ -7800,8 +7980,8 @@
       <c r="A129" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="B129" s="18"/>
-      <c r="C129" s="20" t="s">
+      <c r="B129" s="19"/>
+      <c r="C129" s="21" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
@@ -7810,8 +7990,8 @@
       <c r="A130" s="6" t="n">
         <v>125</v>
       </c>
-      <c r="B130" s="18"/>
-      <c r="C130" s="20" t="s">
+      <c r="B130" s="19"/>
+      <c r="C130" s="21" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
@@ -7820,8 +8000,8 @@
       <c r="A131" s="6" t="n">
         <v>126</v>
       </c>
-      <c r="B131" s="18"/>
-      <c r="C131" s="20" t="s">
+      <c r="B131" s="19"/>
+      <c r="C131" s="21" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
@@ -7830,8 +8010,8 @@
       <c r="A132" s="6" t="n">
         <v>127</v>
       </c>
-      <c r="B132" s="18"/>
-      <c r="C132" s="20" t="s">
+      <c r="B132" s="19"/>
+      <c r="C132" s="21" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
@@ -7840,8 +8020,8 @@
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="B133" s="18"/>
-      <c r="C133" s="20" t="s">
+      <c r="B133" s="19"/>
+      <c r="C133" s="21" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
@@ -7850,8 +8030,8 @@
       <c r="A134" s="6" t="n">
         <v>129</v>
       </c>
-      <c r="B134" s="18"/>
-      <c r="C134" s="20" t="s">
+      <c r="B134" s="19"/>
+      <c r="C134" s="21" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
@@ -7860,8 +8040,8 @@
       <c r="A135" s="6" t="n">
         <v>130</v>
       </c>
-      <c r="B135" s="18"/>
-      <c r="C135" s="20" t="s">
+      <c r="B135" s="19"/>
+      <c r="C135" s="21" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
@@ -7870,8 +8050,8 @@
       <c r="A136" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="B136" s="18"/>
-      <c r="C136" s="20" t="s">
+      <c r="B136" s="19"/>
+      <c r="C136" s="21" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
@@ -7880,8 +8060,8 @@
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
-      <c r="B137" s="18"/>
-      <c r="C137" s="20" t="s">
+      <c r="B137" s="19"/>
+      <c r="C137" s="21" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
@@ -7890,8 +8070,8 @@
       <c r="A138" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="B138" s="18"/>
-      <c r="C138" s="20" t="s">
+      <c r="B138" s="19"/>
+      <c r="C138" s="21" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
@@ -7900,10 +8080,10 @@
       <c r="A139" s="6" t="n">
         <v>134</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="21" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
@@ -7912,8 +8092,8 @@
       <c r="A140" s="6" t="n">
         <v>135</v>
       </c>
-      <c r="B140" s="18"/>
-      <c r="C140" s="20" t="s">
+      <c r="B140" s="19"/>
+      <c r="C140" s="21" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
@@ -7922,8 +8102,8 @@
       <c r="A141" s="6" t="n">
         <v>136</v>
       </c>
-      <c r="B141" s="18"/>
-      <c r="C141" s="20" t="s">
+      <c r="B141" s="19"/>
+      <c r="C141" s="21" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
@@ -7932,10 +8112,10 @@
       <c r="A142" s="6" t="n">
         <v>137</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="21" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
@@ -7944,8 +8124,8 @@
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
-      <c r="B143" s="18"/>
-      <c r="C143" s="20" t="s">
+      <c r="B143" s="19"/>
+      <c r="C143" s="21" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
@@ -7954,8 +8134,8 @@
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
-      <c r="B144" s="18"/>
-      <c r="C144" s="20" t="s">
+      <c r="B144" s="19"/>
+      <c r="C144" s="21" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
@@ -7964,8 +8144,8 @@
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
-      <c r="B145" s="18"/>
-      <c r="C145" s="20" t="s">
+      <c r="B145" s="19"/>
+      <c r="C145" s="21" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
@@ -7974,8 +8154,8 @@
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
-      <c r="B146" s="18"/>
-      <c r="C146" s="20" t="s">
+      <c r="B146" s="19"/>
+      <c r="C146" s="21" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
@@ -7984,8 +8164,8 @@
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
-      <c r="B147" s="18"/>
-      <c r="C147" s="20" t="s">
+      <c r="B147" s="19"/>
+      <c r="C147" s="21" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
@@ -7994,10 +8174,10 @@
       <c r="A148" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="21" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
@@ -8006,8 +8186,8 @@
       <c r="A149" s="6" t="n">
         <v>144</v>
       </c>
-      <c r="B149" s="18"/>
-      <c r="C149" s="20" t="s">
+      <c r="B149" s="19"/>
+      <c r="C149" s="21" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
@@ -8016,8 +8196,8 @@
       <c r="A150" s="6" t="n">
         <v>145</v>
       </c>
-      <c r="B150" s="18"/>
-      <c r="C150" s="20" t="s">
+      <c r="B150" s="19"/>
+      <c r="C150" s="21" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
@@ -8026,10 +8206,10 @@
       <c r="A151" s="6" t="n">
         <v>146</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="21" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
@@ -8038,8 +8218,8 @@
       <c r="A152" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="B152" s="18"/>
-      <c r="C152" s="20" t="s">
+      <c r="B152" s="19"/>
+      <c r="C152" s="21" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
@@ -8048,8 +8228,8 @@
       <c r="A153" s="6" t="n">
         <v>148</v>
       </c>
-      <c r="B153" s="18"/>
-      <c r="C153" s="20" t="s">
+      <c r="B153" s="19"/>
+      <c r="C153" s="21" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
@@ -8058,8 +8238,8 @@
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
-      <c r="B154" s="18"/>
-      <c r="C154" s="20" t="s">
+      <c r="B154" s="19"/>
+      <c r="C154" s="21" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
@@ -8068,10 +8248,10 @@
       <c r="A155" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="21" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
@@ -8080,8 +8260,8 @@
       <c r="A156" s="6" t="n">
         <v>151</v>
       </c>
-      <c r="B156" s="18"/>
-      <c r="C156" s="20" t="s">
+      <c r="B156" s="19"/>
+      <c r="C156" s="21" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
@@ -8090,8 +8270,8 @@
       <c r="A157" s="6" t="n">
         <v>152</v>
       </c>
-      <c r="B157" s="18"/>
-      <c r="C157" s="20" t="s">
+      <c r="B157" s="19"/>
+      <c r="C157" s="21" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
@@ -8100,8 +8280,8 @@
       <c r="A158" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="B158" s="18"/>
-      <c r="C158" s="20" t="s">
+      <c r="B158" s="19"/>
+      <c r="C158" s="21" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
@@ -8110,8 +8290,8 @@
       <c r="A159" s="6" t="n">
         <v>154</v>
       </c>
-      <c r="B159" s="18"/>
-      <c r="C159" s="20" t="s">
+      <c r="B159" s="19"/>
+      <c r="C159" s="21" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
@@ -8120,8 +8300,8 @@
       <c r="A160" s="6" t="n">
         <v>155</v>
       </c>
-      <c r="B160" s="18"/>
-      <c r="C160" s="20" t="s">
+      <c r="B160" s="19"/>
+      <c r="C160" s="21" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
@@ -8130,8 +8310,8 @@
       <c r="A161" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="B161" s="18"/>
-      <c r="C161" s="20" t="s">
+      <c r="B161" s="19"/>
+      <c r="C161" s="21" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
@@ -8140,8 +8320,8 @@
       <c r="A162" s="6" t="n">
         <v>157</v>
       </c>
-      <c r="B162" s="18"/>
-      <c r="C162" s="20" t="s">
+      <c r="B162" s="19"/>
+      <c r="C162" s="21" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
@@ -8150,10 +8330,10 @@
       <c r="A163" s="6" t="n">
         <v>158</v>
       </c>
-      <c r="B163" s="18" t="s">
+      <c r="B163" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="21" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
@@ -8162,8 +8342,8 @@
       <c r="A164" s="6" t="n">
         <v>159</v>
       </c>
-      <c r="B164" s="18"/>
-      <c r="C164" s="20" t="s">
+      <c r="B164" s="19"/>
+      <c r="C164" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
@@ -8172,8 +8352,8 @@
       <c r="A165" s="6" t="n">
         <v>160</v>
       </c>
-      <c r="B165" s="18"/>
-      <c r="C165" s="20" t="s">
+      <c r="B165" s="19"/>
+      <c r="C165" s="21" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
@@ -8182,8 +8362,8 @@
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
-      <c r="B166" s="18"/>
-      <c r="C166" s="20" t="s">
+      <c r="B166" s="19"/>
+      <c r="C166" s="21" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
@@ -8192,8 +8372,8 @@
       <c r="A167" s="6" t="n">
         <v>162</v>
       </c>
-      <c r="B167" s="18"/>
-      <c r="C167" s="20" t="s">
+      <c r="B167" s="19"/>
+      <c r="C167" s="21" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
@@ -8202,8 +8382,8 @@
       <c r="A168" s="6" t="n">
         <v>163</v>
       </c>
-      <c r="B168" s="18"/>
-      <c r="C168" s="20" t="s">
+      <c r="B168" s="19"/>
+      <c r="C168" s="21" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
@@ -8212,10 +8392,10 @@
       <c r="A169" s="6" t="n">
         <v>164</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B169" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="21" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
@@ -8224,8 +8404,8 @@
       <c r="A170" s="6" t="n">
         <v>165</v>
       </c>
-      <c r="B170" s="18"/>
-      <c r="C170" s="20" t="s">
+      <c r="B170" s="19"/>
+      <c r="C170" s="21" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
@@ -8234,10 +8414,10 @@
       <c r="A171" s="6" t="n">
         <v>166</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="21" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
@@ -8246,8 +8426,8 @@
       <c r="A172" s="6" t="n">
         <v>167</v>
       </c>
-      <c r="B172" s="18"/>
-      <c r="C172" s="20" t="s">
+      <c r="B172" s="19"/>
+      <c r="C172" s="21" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
@@ -8314,8 +8494,8 @@
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="85" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="1" sqref="F7:F51 C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8377,7 +8557,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -8388,7 +8568,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="9"/>
@@ -8399,7 +8579,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>410</v>
       </c>
       <c r="D9" s="9"/>
@@ -8410,7 +8590,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="20" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="9"/>
@@ -8421,7 +8601,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="20" t="s">
         <v>412</v>
       </c>
       <c r="D11" s="9"/>
@@ -8432,7 +8612,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="20" t="s">
         <v>413</v>
       </c>
       <c r="D12" s="9"/>
@@ -8443,7 +8623,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>414</v>
       </c>
       <c r="D13" s="9"/>
@@ -8454,7 +8634,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="20" t="s">
         <v>415</v>
       </c>
       <c r="D14" s="9"/>
@@ -8467,7 +8647,7 @@
       <c r="B15" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="19" t="s">
+      <c r="C15" s="20" t="s">
         <v>417</v>
       </c>
       <c r="D15" s="9"/>
@@ -8478,7 +8658,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="20" t="s">
         <v>418</v>
       </c>
       <c r="D16" s="9"/>
@@ -8489,7 +8669,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="20" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="9"/>
@@ -8500,7 +8680,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="20" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="9"/>
@@ -8511,7 +8691,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>421</v>
       </c>
       <c r="D19" s="9"/>
@@ -8522,7 +8702,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="20" t="s">
         <v>422</v>
       </c>
       <c r="D20" s="9"/>
@@ -8533,7 +8713,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="20" t="s">
         <v>423</v>
       </c>
       <c r="D21" s="9"/>
@@ -8544,7 +8724,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="20" t="s">
         <v>424</v>
       </c>
       <c r="D22" s="9"/>
@@ -8555,7 +8735,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="19" t="s">
+      <c r="C23" s="20" t="s">
         <v>425</v>
       </c>
       <c r="D23" s="9"/>
@@ -8566,7 +8746,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="20" t="s">
         <v>426</v>
       </c>
       <c r="D24" s="9"/>
@@ -8577,7 +8757,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="9"/>
@@ -8588,7 +8768,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="20" t="s">
         <v>428</v>
       </c>
       <c r="D26" s="9"/>
@@ -8599,7 +8779,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>429</v>
       </c>
       <c r="D27" s="9"/>
@@ -8612,7 +8792,7 @@
       <c r="B28" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="20" t="s">
         <v>431</v>
       </c>
       <c r="D28" s="9"/>
@@ -8623,7 +8803,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>432</v>
       </c>
       <c r="D29" s="9"/>
@@ -8634,7 +8814,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>433</v>
       </c>
       <c r="D30" s="9"/>
@@ -8647,7 +8827,7 @@
       <c r="B31" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="20" t="s">
         <v>435</v>
       </c>
       <c r="D31" s="9"/>
@@ -8658,7 +8838,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="20" t="s">
         <v>436</v>
       </c>
       <c r="D32" s="9"/>
@@ -8669,7 +8849,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="20" t="s">
         <v>437</v>
       </c>
       <c r="D33" s="9"/>
@@ -8680,7 +8860,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="20" t="s">
         <v>438</v>
       </c>
       <c r="D34" s="9"/>
@@ -8691,7 +8871,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="20" t="s">
         <v>439</v>
       </c>
       <c r="D35" s="9"/>
@@ -8702,7 +8882,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="19" t="s">
+      <c r="C36" s="20" t="s">
         <v>440</v>
       </c>
       <c r="D36" s="9"/>
@@ -8713,7 +8893,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="20" t="s">
         <v>441</v>
       </c>
       <c r="D37" s="9"/>
@@ -8724,7 +8904,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="19" t="s">
+      <c r="C38" s="20" t="s">
         <v>442</v>
       </c>
       <c r="D38" s="9"/>
@@ -8737,7 +8917,7 @@
       <c r="B39" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="19" t="s">
+      <c r="C39" s="20" t="s">
         <v>444</v>
       </c>
       <c r="D39" s="9"/>
@@ -8748,7 +8928,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="20" t="s">
         <v>445</v>
       </c>
       <c r="D40" s="9"/>
@@ -8759,7 +8939,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="20" t="s">
         <v>446</v>
       </c>
       <c r="D41" s="9"/>
@@ -8770,7 +8950,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="19" t="s">
+      <c r="C42" s="20" t="s">
         <v>447</v>
       </c>
       <c r="D42" s="9"/>
@@ -8781,7 +8961,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="9"/>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="20" t="s">
         <v>448</v>
       </c>
       <c r="D43" s="9"/>
@@ -8792,7 +8972,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="20" t="s">
         <v>449</v>
       </c>
       <c r="D44" s="9"/>
@@ -8805,7 +8985,7 @@
       <c r="B45" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="C45" s="20" t="s">
         <v>451</v>
       </c>
       <c r="D45" s="9"/>
@@ -8816,7 +8996,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="19" t="s">
+      <c r="C46" s="20" t="s">
         <v>452</v>
       </c>
       <c r="D46" s="9"/>
@@ -8827,7 +9007,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="19" t="s">
+      <c r="C47" s="20" t="s">
         <v>453</v>
       </c>
       <c r="D47" s="9"/>
@@ -8838,7 +9018,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="19" t="s">
+      <c r="C48" s="20" t="s">
         <v>454</v>
       </c>
       <c r="D48" s="9"/>
@@ -8849,7 +9029,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="9"/>
-      <c r="C49" s="19" t="s">
+      <c r="C49" s="20" t="s">
         <v>455</v>
       </c>
       <c r="D49" s="9"/>
@@ -8860,7 +9040,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="19" t="s">
+      <c r="C50" s="20" t="s">
         <v>456</v>
       </c>
       <c r="D50" s="9"/>
@@ -8871,7 +9051,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="9"/>
-      <c r="C51" s="19" t="s">
+      <c r="C51" s="20" t="s">
         <v>457</v>
       </c>
       <c r="D51" s="9"/>
@@ -8882,7 +9062,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="9"/>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="20" t="s">
         <v>458</v>
       </c>
       <c r="D52" s="9"/>
@@ -8893,7 +9073,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="19" t="s">
+      <c r="C53" s="20" t="s">
         <v>459</v>
       </c>
       <c r="D53" s="9"/>
@@ -8904,7 +9084,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="19" t="s">
+      <c r="C54" s="20" t="s">
         <v>460</v>
       </c>
       <c r="D54" s="9"/>
@@ -8917,7 +9097,7 @@
       <c r="B55" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C55" s="20" t="s">
         <v>462</v>
       </c>
       <c r="D55" s="9"/>
@@ -8928,7 +9108,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="9"/>
-      <c r="C56" s="19" t="s">
+      <c r="C56" s="20" t="s">
         <v>463</v>
       </c>
       <c r="D56" s="9"/>
@@ -8939,7 +9119,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="19" t="s">
+      <c r="C57" s="20" t="s">
         <v>464</v>
       </c>
       <c r="D57" s="9"/>
@@ -8950,7 +9130,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="19" t="s">
+      <c r="C58" s="20" t="s">
         <v>465</v>
       </c>
       <c r="D58" s="9"/>
@@ -8961,7 +9141,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="19" t="s">
+      <c r="C59" s="20" t="s">
         <v>466</v>
       </c>
       <c r="D59" s="9"/>
@@ -8974,7 +9154,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -8985,7 +9165,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -8996,7 +9176,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -9007,7 +9187,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -9018,7 +9198,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -9029,7 +9209,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -9040,7 +9220,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -9051,7 +9231,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -9064,7 +9244,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -9074,10 +9254,10 @@
         <f aca="false">ROW()-6</f>
         <v>63</v>
       </c>
-      <c r="B69" s="18" t="s">
+      <c r="B69" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -9087,8 +9267,8 @@
         <f aca="false">ROW()-6</f>
         <v>64</v>
       </c>
-      <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="B70" s="19"/>
+      <c r="C70" s="21" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -9098,8 +9278,8 @@
         <f aca="false">ROW()-6</f>
         <v>65</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="B71" s="19"/>
+      <c r="C71" s="21" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -9109,8 +9289,8 @@
         <f aca="false">ROW()-6</f>
         <v>66</v>
       </c>
-      <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="B72" s="19"/>
+      <c r="C72" s="21" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -9120,8 +9300,8 @@
         <f aca="false">ROW()-6</f>
         <v>67</v>
       </c>
-      <c r="B73" s="18"/>
-      <c r="C73" s="20" t="s">
+      <c r="B73" s="19"/>
+      <c r="C73" s="21" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -9131,8 +9311,8 @@
         <f aca="false">ROW()-6</f>
         <v>68</v>
       </c>
-      <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="B74" s="19"/>
+      <c r="C74" s="21" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -9142,8 +9322,8 @@
         <f aca="false">ROW()-6</f>
         <v>69</v>
       </c>
-      <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="B75" s="19"/>
+      <c r="C75" s="21" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -9153,8 +9333,8 @@
         <f aca="false">ROW()-6</f>
         <v>70</v>
       </c>
-      <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="B76" s="19"/>
+      <c r="C76" s="21" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -9164,8 +9344,8 @@
         <f aca="false">ROW()-6</f>
         <v>71</v>
       </c>
-      <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="B77" s="19"/>
+      <c r="C77" s="21" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -9175,8 +9355,8 @@
         <f aca="false">ROW()-6</f>
         <v>72</v>
       </c>
-      <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="B78" s="19"/>
+      <c r="C78" s="21" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -9186,8 +9366,8 @@
         <f aca="false">ROW()-6</f>
         <v>73</v>
       </c>
-      <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="B79" s="19"/>
+      <c r="C79" s="21" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -9238,8 +9418,8 @@
   </sheetPr>
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="94" zoomScaleNormal="85" zoomScalePageLayoutView="94" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F7:F51 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9298,7 +9478,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -9311,8 +9491,8 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="19" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="20" t="s">
         <v>493</v>
       </c>
       <c r="D8" s="9"/>
@@ -9322,8 +9502,8 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="19" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="20" t="s">
         <v>494</v>
       </c>
       <c r="D9" s="9"/>
@@ -9333,8 +9513,8 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="22"/>
+      <c r="C10" s="20" t="s">
         <v>495</v>
       </c>
       <c r="D10" s="9"/>
@@ -9344,8 +9524,8 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="20" t="s">
         <v>496</v>
       </c>
       <c r="D11" s="9"/>
@@ -9355,8 +9535,8 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="22"/>
+      <c r="C12" s="20" t="s">
         <v>497</v>
       </c>
       <c r="D12" s="9"/>
@@ -9366,10 +9546,10 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>498</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="20" t="s">
         <v>499</v>
       </c>
       <c r="D13" s="9"/>
@@ -9379,8 +9559,8 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="19" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="20" t="s">
         <v>500</v>
       </c>
       <c r="D14" s="9"/>
@@ -9390,8 +9570,8 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="21"/>
-      <c r="C15" s="19" t="s">
+      <c r="B15" s="22"/>
+      <c r="C15" s="20" t="s">
         <v>501</v>
       </c>
       <c r="D15" s="9"/>
@@ -9401,8 +9581,8 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="19" t="s">
+      <c r="B16" s="22"/>
+      <c r="C16" s="20" t="s">
         <v>502</v>
       </c>
       <c r="D16" s="9"/>
@@ -9412,8 +9592,8 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="19" t="s">
+      <c r="B17" s="22"/>
+      <c r="C17" s="20" t="s">
         <v>503</v>
       </c>
       <c r="D17" s="9"/>
@@ -9423,8 +9603,8 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="20" t="s">
         <v>504</v>
       </c>
       <c r="D18" s="9"/>
@@ -9434,10 +9614,10 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>505</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="20" t="s">
         <v>506</v>
       </c>
       <c r="D19" s="9"/>
@@ -9447,8 +9627,8 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="20" t="s">
         <v>507</v>
       </c>
       <c r="D20" s="9"/>
@@ -9458,8 +9638,8 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="20" t="s">
         <v>508</v>
       </c>
       <c r="D21" s="9"/>
@@ -9469,8 +9649,8 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="19" t="s">
+      <c r="B22" s="22"/>
+      <c r="C22" s="20" t="s">
         <v>509</v>
       </c>
       <c r="D22" s="9"/>
@@ -9480,8 +9660,8 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="19" t="s">
+      <c r="B23" s="22"/>
+      <c r="C23" s="20" t="s">
         <v>510</v>
       </c>
       <c r="D23" s="9"/>
@@ -9491,8 +9671,8 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="19" t="s">
+      <c r="B24" s="22"/>
+      <c r="C24" s="20" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="9"/>
@@ -9502,10 +9682,10 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="20" t="s">
         <v>513</v>
       </c>
       <c r="D25" s="9"/>
@@ -9515,8 +9695,8 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="21"/>
-      <c r="C26" s="19" t="s">
+      <c r="B26" s="22"/>
+      <c r="C26" s="20" t="s">
         <v>514</v>
       </c>
       <c r="D26" s="9"/>
@@ -9526,10 +9706,10 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>515</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="20" t="s">
         <v>516</v>
       </c>
       <c r="D27" s="9"/>
@@ -9539,8 +9719,8 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="19" t="s">
+      <c r="B28" s="22"/>
+      <c r="C28" s="20" t="s">
         <v>517</v>
       </c>
       <c r="D28" s="9"/>
@@ -9553,7 +9733,7 @@
       <c r="B29" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="20" t="s">
         <v>519</v>
       </c>
       <c r="D29" s="9"/>
@@ -9564,7 +9744,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="20" t="s">
         <v>520</v>
       </c>
       <c r="D30" s="9"/>
@@ -9577,7 +9757,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -9588,7 +9768,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -9599,7 +9779,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -9610,7 +9790,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,13 +1632,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1955,7 +1954,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2025,10 +2024,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2195,9 +2190,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
+      <xdr:colOff>306720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2202,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011560" cy="1625760"/>
+          <a:ext cx="5011200" cy="1625400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>307080</xdr:colOff>
+      <xdr:colOff>306720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>180000</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011560" cy="1625760"/>
+          <a:ext cx="5011200" cy="1625400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>460800</xdr:colOff>
+      <xdr:colOff>460440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>34560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5011920" cy="1625760"/>
+          <a:ext cx="5011560" cy="1625400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266400</xdr:colOff>
+      <xdr:colOff>266040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5069520" cy="1663200"/>
+          <a:ext cx="5069160" cy="1662840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>80280</xdr:colOff>
+      <xdr:colOff>79920</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2909,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="199440" cy="2230200"/>
+          <a:ext cx="199080" cy="2229840"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408960</xdr:colOff>
+      <xdr:colOff>408600</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4621680" cy="1161360"/>
+          <a:ext cx="4621320" cy="1161000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3062,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>244080</xdr:colOff>
+      <xdr:colOff>243720</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3079,7 +3074,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10479960" y="158760"/>
-          <a:ext cx="5033160" cy="1646640"/>
+          <a:ext cx="5032800" cy="1648080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3240,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318600</xdr:colOff>
+      <xdr:colOff>318240</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>208080</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3252,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069160" cy="3108600"/>
+          <a:ext cx="5068800" cy="3108240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318600</xdr:colOff>
+      <xdr:colOff>318240</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>208080</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3430,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5069160" cy="2689560"/>
+          <a:ext cx="5068800" cy="2689200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -4384,7 +4379,7 @@
   </sheetPr>
   <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
@@ -4446,7 +4441,7 @@
       <c r="F6" s="17" t="n">
         <v>45399</v>
       </c>
-      <c r="G6" s="18" t="n">
+      <c r="G6" s="17" t="n">
         <v>45400</v>
       </c>
     </row>
@@ -4454,7 +4449,7 @@
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4477,8 +4472,8 @@
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="9" t="n">
@@ -4498,8 +4493,8 @@
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="9" t="n">
@@ -4519,8 +4514,8 @@
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="19" t="s">
         <v>49</v>
       </c>
       <c r="D10" s="9" t="n">
@@ -4540,8 +4535,8 @@
       <c r="A11" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="9" t="n">
@@ -4561,8 +4556,8 @@
       <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D12" s="9" t="n">
@@ -4582,8 +4577,8 @@
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19" t="s">
         <v>52</v>
       </c>
       <c r="D13" s="9" t="n">
@@ -4603,8 +4598,8 @@
       <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19" t="s">
         <v>53</v>
       </c>
       <c r="D14" s="9" t="n">
@@ -4624,8 +4619,8 @@
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D15" s="9" t="n">
@@ -4645,8 +4640,8 @@
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -4666,10 +4661,10 @@
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -4689,8 +4684,8 @@
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>58</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -4710,8 +4705,8 @@
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>59</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -4734,7 +4729,7 @@
       <c r="B20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -4754,10 +4749,10 @@
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="9" t="n">
@@ -4777,8 +4772,8 @@
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="9" t="n">
@@ -4798,8 +4793,8 @@
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -4819,10 +4814,10 @@
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="9" t="n">
@@ -4842,8 +4837,8 @@
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="9" t="n">
@@ -4863,8 +4858,8 @@
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="9" t="n">
@@ -4884,10 +4879,10 @@
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D27" s="9" t="n">
@@ -4907,8 +4902,8 @@
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="9" t="n">
@@ -4928,8 +4923,8 @@
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="9" t="n">
@@ -4949,8 +4944,8 @@
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="19" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="9" t="n">
@@ -4970,8 +4965,8 @@
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="9" t="n">
@@ -4991,8 +4986,8 @@
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="20" t="s">
+      <c r="B32" s="18"/>
+      <c r="C32" s="19" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="9" t="n">
@@ -5012,8 +5007,8 @@
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="9" t="n">
@@ -5033,8 +5028,8 @@
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="9" t="n">
@@ -5054,8 +5049,8 @@
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="20" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="19" t="s">
         <v>79</v>
       </c>
       <c r="D35" s="9" t="n">
@@ -5075,8 +5070,8 @@
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
         <v>80</v>
       </c>
       <c r="D36" s="9" t="n">
@@ -5096,8 +5091,8 @@
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>81</v>
       </c>
       <c r="D37" s="9" t="n">
@@ -5117,10 +5112,10 @@
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>83</v>
       </c>
       <c r="D38" s="9" t="n">
@@ -5140,8 +5135,8 @@
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
         <v>84</v>
       </c>
       <c r="D39" s="9" t="n">
@@ -5161,8 +5156,8 @@
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
         <v>85</v>
       </c>
       <c r="D40" s="9" t="n">
@@ -5182,8 +5177,8 @@
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="19" t="s">
         <v>86</v>
       </c>
       <c r="D41" s="9" t="n">
@@ -5203,8 +5198,8 @@
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="9" t="n">
@@ -5224,8 +5219,8 @@
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>88</v>
       </c>
       <c r="D43" s="9" t="n">
@@ -5245,8 +5240,8 @@
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
         <v>89</v>
       </c>
       <c r="D44" s="9" t="n">
@@ -5266,8 +5261,8 @@
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
         <v>90</v>
       </c>
       <c r="D45" s="9" t="n">
@@ -5287,8 +5282,8 @@
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="s">
         <v>91</v>
       </c>
       <c r="D46" s="9" t="n">
@@ -5308,8 +5303,8 @@
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="9" t="n">
@@ -5329,8 +5324,8 @@
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="s">
         <v>93</v>
       </c>
       <c r="D48" s="9" t="n">
@@ -5350,8 +5345,8 @@
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
         <v>94</v>
       </c>
       <c r="D49" s="9" t="n">
@@ -5371,8 +5366,8 @@
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="9" t="n">
@@ -5392,8 +5387,8 @@
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="20" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="19" t="s">
         <v>96</v>
       </c>
       <c r="D51" s="9" t="n">
@@ -5413,10 +5408,10 @@
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>98</v>
       </c>
       <c r="D52" s="9" t="s">
@@ -5436,8 +5431,8 @@
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
         <v>99</v>
       </c>
       <c r="D53" s="9" t="s">
@@ -5457,8 +5452,8 @@
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="s">
         <v>100</v>
       </c>
       <c r="D54" s="9" t="s">
@@ -5478,8 +5473,8 @@
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
         <v>101</v>
       </c>
       <c r="D55" s="9" t="s">
@@ -5499,8 +5494,8 @@
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="20" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="19" t="s">
         <v>102</v>
       </c>
       <c r="D56" s="9" t="s">
@@ -5520,8 +5515,8 @@
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
         <v>103</v>
       </c>
       <c r="D57" s="9" t="s">
@@ -5541,8 +5536,8 @@
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="s">
         <v>104</v>
       </c>
       <c r="D58" s="9" t="s">
@@ -5562,8 +5557,8 @@
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="9" t="s">
@@ -5583,8 +5578,8 @@
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="19"/>
-      <c r="C60" s="20" t="s">
+      <c r="B60" s="18"/>
+      <c r="C60" s="19" t="s">
         <v>106</v>
       </c>
       <c r="D60" s="9" t="s">
@@ -5604,8 +5599,8 @@
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="19" t="s">
         <v>107</v>
       </c>
       <c r="D61" s="9" t="s">
@@ -5625,8 +5620,8 @@
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="20" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="19" t="s">
         <v>108</v>
       </c>
       <c r="D62" s="9" t="s">
@@ -5646,8 +5641,8 @@
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19" t="s">
         <v>109</v>
       </c>
       <c r="D63" s="9" t="s">
@@ -5769,7 +5764,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>112</v>
       </c>
       <c r="D7" s="9"/>
@@ -5779,7 +5774,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D8" s="9"/>
@@ -5789,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>114</v>
       </c>
       <c r="D9" s="9"/>
@@ -5799,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>115</v>
       </c>
       <c r="D10" s="9"/>
@@ -5811,7 +5806,7 @@
       <c r="B11" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>117</v>
       </c>
       <c r="D11" s="9"/>
@@ -5821,7 +5816,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>118</v>
       </c>
       <c r="D12" s="9"/>
@@ -5831,7 +5826,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="9"/>
@@ -5841,7 +5836,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>120</v>
       </c>
       <c r="D14" s="9"/>
@@ -5850,10 +5845,10 @@
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>122</v>
       </c>
       <c r="D15" s="9"/>
@@ -5862,8 +5857,8 @@
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
       <c r="D16" s="9"/>
@@ -5872,8 +5867,8 @@
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="9"/>
@@ -5882,8 +5877,8 @@
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19" t="s">
         <v>125</v>
       </c>
       <c r="D18" s="9"/>
@@ -5892,8 +5887,8 @@
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>126</v>
       </c>
       <c r="D19" s="9"/>
@@ -5902,8 +5897,8 @@
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="19" t="s">
         <v>127</v>
       </c>
       <c r="D20" s="9"/>
@@ -5912,10 +5907,10 @@
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>129</v>
       </c>
       <c r="D21" s="9"/>
@@ -5924,8 +5919,8 @@
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D22" s="9"/>
@@ -5934,10 +5929,10 @@
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>132</v>
       </c>
       <c r="D23" s="9"/>
@@ -5946,8 +5941,8 @@
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19" t="s">
         <v>133</v>
       </c>
       <c r="D24" s="9"/>
@@ -5956,8 +5951,8 @@
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="20" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>134</v>
       </c>
       <c r="D25" s="9"/>
@@ -5966,8 +5961,8 @@
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="19" t="s">
         <v>135</v>
       </c>
       <c r="D26" s="9"/>
@@ -5976,8 +5971,8 @@
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="20" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>136</v>
       </c>
       <c r="D27" s="9"/>
@@ -5986,8 +5981,8 @@
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="19" t="s">
         <v>137</v>
       </c>
       <c r="D28" s="9"/>
@@ -5996,8 +5991,8 @@
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="20" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="19" t="s">
         <v>138</v>
       </c>
       <c r="D29" s="9"/>
@@ -6006,10 +6001,10 @@
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>140</v>
       </c>
       <c r="D30" s="9"/>
@@ -6018,8 +6013,8 @@
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="19" t="s">
         <v>141</v>
       </c>
       <c r="D31" s="9"/>
@@ -6028,10 +6023,10 @@
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>143</v>
       </c>
       <c r="D32" s="9"/>
@@ -6040,8 +6035,8 @@
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D33" s="9"/>
@@ -6050,8 +6045,8 @@
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="20" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="19" t="s">
         <v>145</v>
       </c>
       <c r="D34" s="9"/>
@@ -6060,10 +6055,10 @@
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>147</v>
       </c>
       <c r="D35" s="9"/>
@@ -6072,8 +6067,8 @@
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="19" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="9"/>
@@ -6082,8 +6077,8 @@
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="19" t="s">
         <v>149</v>
       </c>
       <c r="D37" s="9"/>
@@ -6092,8 +6087,8 @@
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="20" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>150</v>
       </c>
       <c r="D38" s="9"/>
@@ -6102,8 +6097,8 @@
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="20" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="19" t="s">
         <v>151</v>
       </c>
       <c r="D39" s="9"/>
@@ -6112,8 +6107,8 @@
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="20" t="s">
+      <c r="B40" s="18"/>
+      <c r="C40" s="19" t="s">
         <v>152</v>
       </c>
       <c r="D40" s="9"/>
@@ -6122,10 +6117,10 @@
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D41" s="9"/>
@@ -6134,8 +6129,8 @@
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B42" s="19"/>
-      <c r="C42" s="20" t="s">
+      <c r="B42" s="18"/>
+      <c r="C42" s="19" t="s">
         <v>155</v>
       </c>
       <c r="D42" s="9"/>
@@ -6144,8 +6139,8 @@
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="20" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="19" t="s">
         <v>156</v>
       </c>
       <c r="D43" s="9"/>
@@ -6154,8 +6149,8 @@
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="19" t="s">
         <v>157</v>
       </c>
       <c r="D44" s="9"/>
@@ -6164,8 +6159,8 @@
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="20" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="19" t="s">
         <v>158</v>
       </c>
       <c r="D45" s="9"/>
@@ -6174,8 +6169,8 @@
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="20" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="19" t="s">
         <v>159</v>
       </c>
       <c r="D46" s="9"/>
@@ -6184,8 +6179,8 @@
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="20" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="19" t="s">
         <v>160</v>
       </c>
       <c r="D47" s="9"/>
@@ -6194,8 +6189,8 @@
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="20" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="19" t="s">
         <v>161</v>
       </c>
       <c r="D48" s="9"/>
@@ -6204,8 +6199,8 @@
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="20" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="19" t="s">
         <v>162</v>
       </c>
       <c r="D49" s="9"/>
@@ -6214,8 +6209,8 @@
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19" t="s">
         <v>163</v>
       </c>
       <c r="D50" s="9"/>
@@ -6224,10 +6219,10 @@
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>165</v>
       </c>
       <c r="D51" s="9"/>
@@ -6236,8 +6231,8 @@
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="20" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="19" t="s">
         <v>166</v>
       </c>
       <c r="D52" s="9"/>
@@ -6246,8 +6241,8 @@
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="20" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D53" s="9"/>
@@ -6256,8 +6251,8 @@
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="20" t="s">
+      <c r="B54" s="18"/>
+      <c r="C54" s="19" t="s">
         <v>168</v>
       </c>
       <c r="D54" s="9"/>
@@ -6266,8 +6261,8 @@
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="20" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="19" t="s">
         <v>169</v>
       </c>
       <c r="D55" s="9"/>
@@ -6276,10 +6271,10 @@
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>171</v>
       </c>
       <c r="D56" s="9"/>
@@ -6288,8 +6283,8 @@
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="20" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="19" t="s">
         <v>172</v>
       </c>
       <c r="D57" s="9"/>
@@ -6298,8 +6293,8 @@
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="20" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="19" t="s">
         <v>173</v>
       </c>
       <c r="D58" s="9"/>
@@ -6308,8 +6303,8 @@
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="20" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="19" t="s">
         <v>174</v>
       </c>
       <c r="D59" s="9"/>
@@ -6318,10 +6313,10 @@
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>176</v>
       </c>
       <c r="D60" s="9"/>
@@ -6330,8 +6325,8 @@
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="19" t="s">
         <v>177</v>
       </c>
       <c r="D61" s="9"/>
@@ -6340,10 +6335,10 @@
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="19" t="s">
         <v>179</v>
       </c>
       <c r="D62" s="9"/>
@@ -6352,8 +6347,8 @@
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="20" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="19" t="s">
         <v>180</v>
       </c>
       <c r="D63" s="9"/>
@@ -6362,8 +6357,8 @@
       <c r="A64" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="20" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D64" s="9"/>
@@ -6372,8 +6367,8 @@
       <c r="A65" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="20" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="19" t="s">
         <v>182</v>
       </c>
       <c r="D65" s="9"/>
@@ -6382,10 +6377,10 @@
       <c r="A66" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="18" t="s">
         <v>183</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="19" t="s">
         <v>184</v>
       </c>
       <c r="D66" s="9"/>
@@ -6394,8 +6389,8 @@
       <c r="A67" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="20" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="19" t="s">
         <v>185</v>
       </c>
       <c r="D67" s="9"/>
@@ -6404,8 +6399,8 @@
       <c r="A68" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="20" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="19" t="s">
         <v>186</v>
       </c>
       <c r="D68" s="9"/>
@@ -6414,8 +6409,8 @@
       <c r="A69" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="20" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="19" t="s">
         <v>187</v>
       </c>
       <c r="D69" s="9"/>
@@ -6424,10 +6419,10 @@
       <c r="A70" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="19" t="s">
         <v>189</v>
       </c>
       <c r="D70" s="9"/>
@@ -6436,8 +6431,8 @@
       <c r="A71" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="20" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="19" t="s">
         <v>190</v>
       </c>
       <c r="D71" s="9"/>
@@ -6446,10 +6441,10 @@
       <c r="A72" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="18" t="s">
         <v>191</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="19" t="s">
         <v>192</v>
       </c>
       <c r="D72" s="9"/>
@@ -6458,8 +6453,8 @@
       <c r="A73" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="20" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="19" t="s">
         <v>193</v>
       </c>
       <c r="D73" s="9"/>
@@ -6468,8 +6463,8 @@
       <c r="A74" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="20" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="19" t="s">
         <v>194</v>
       </c>
       <c r="D74" s="9"/>
@@ -6478,8 +6473,8 @@
       <c r="A75" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="20" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="19" t="s">
         <v>195</v>
       </c>
       <c r="D75" s="9"/>
@@ -6491,7 +6486,7 @@
       <c r="B76" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="19" t="s">
         <v>197</v>
       </c>
       <c r="D76" s="9"/>
@@ -6500,10 +6495,10 @@
       <c r="A77" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>199</v>
       </c>
       <c r="D77" s="9"/>
@@ -6512,8 +6507,8 @@
       <c r="A78" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="20" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D78" s="9"/>
@@ -6522,8 +6517,8 @@
       <c r="A79" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="20" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="19" t="s">
         <v>201</v>
       </c>
       <c r="D79" s="9"/>
@@ -6532,10 +6527,10 @@
       <c r="A80" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="19" t="s">
         <v>203</v>
       </c>
       <c r="D80" s="9"/>
@@ -6544,8 +6539,8 @@
       <c r="A81" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="20" t="s">
+      <c r="B81" s="18"/>
+      <c r="C81" s="19" t="s">
         <v>204</v>
       </c>
       <c r="D81" s="9"/>
@@ -6557,7 +6552,7 @@
       <c r="B82" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>206</v>
       </c>
       <c r="D82" s="9"/>
@@ -6569,7 +6564,7 @@
       <c r="B83" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>208</v>
       </c>
       <c r="D83" s="9"/>
@@ -6581,7 +6576,7 @@
       <c r="B84" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="19" t="s">
         <v>210</v>
       </c>
       <c r="D84" s="9"/>
@@ -6593,7 +6588,7 @@
       <c r="B85" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="19" t="s">
         <v>212</v>
       </c>
       <c r="D85" s="9"/>
@@ -6605,7 +6600,7 @@
       <c r="B86" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="19" t="s">
         <v>214</v>
       </c>
       <c r="D86" s="9"/>
@@ -6665,8 +6660,8 @@
   </sheetPr>
   <dimension ref="A1:D172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6720,372 +6715,442 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>220</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19" t="s">
         <v>222</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19" t="s">
         <v>223</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="21" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="18"/>
+      <c r="C16" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="21" t="s">
+      <c r="B18" s="18"/>
+      <c r="C18" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="21" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="21" t="s">
+      <c r="B20" s="18"/>
+      <c r="C20" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="21" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="18"/>
+      <c r="C22" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="18"/>
+      <c r="C24" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>21</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="18"/>
+      <c r="C26" s="20" t="s">
         <v>237</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="18"/>
+      <c r="C27" s="20" t="s">
         <v>238</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="18"/>
+      <c r="C28" s="20" t="s">
         <v>239</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>24</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="20" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="21" t="s">
+      <c r="B30" s="18"/>
+      <c r="C30" s="20" t="s">
         <v>241</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="21" t="s">
+      <c r="B31" s="18"/>
+      <c r="C31" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>27</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>28</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="21" t="s">
+      <c r="B34" s="18"/>
+      <c r="C34" s="20" t="s">
         <v>246</v>
       </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>30</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="21" t="s">
+      <c r="B35" s="18"/>
+      <c r="C35" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>31</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="21" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>32</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="21" t="s">
+      <c r="B37" s="18"/>
+      <c r="C37" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>33</v>
       </c>
-      <c r="B38" s="19"/>
-      <c r="C38" s="21" t="s">
+      <c r="B38" s="18"/>
+      <c r="C38" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="21" t="s">
+      <c r="B39" s="18"/>
+      <c r="C39" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="D39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>35</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="D40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D40" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>36</v>
       </c>
-      <c r="B41" s="19"/>
-      <c r="C41" s="21" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D41" s="9"/>
+      <c r="D41" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>37</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -7094,8 +7159,8 @@
       <c r="A43" s="6" t="n">
         <v>38</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="21" t="s">
+      <c r="B43" s="18"/>
+      <c r="C43" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -7104,8 +7169,8 @@
       <c r="A44" s="6" t="n">
         <v>39</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="21" t="s">
+      <c r="B44" s="18"/>
+      <c r="C44" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -7114,8 +7179,8 @@
       <c r="A45" s="6" t="n">
         <v>40</v>
       </c>
-      <c r="B45" s="19"/>
-      <c r="C45" s="21" t="s">
+      <c r="B45" s="18"/>
+      <c r="C45" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -7124,8 +7189,8 @@
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="21" t="s">
+      <c r="B46" s="18"/>
+      <c r="C46" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -7134,8 +7199,8 @@
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="21" t="s">
+      <c r="B47" s="18"/>
+      <c r="C47" s="20" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -7144,8 +7209,8 @@
       <c r="A48" s="6" t="n">
         <v>43</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="21" t="s">
+      <c r="B48" s="18"/>
+      <c r="C48" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -7154,8 +7219,8 @@
       <c r="A49" s="6" t="n">
         <v>44</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="21" t="s">
+      <c r="B49" s="18"/>
+      <c r="C49" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -7164,8 +7229,8 @@
       <c r="A50" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="21" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -7174,8 +7239,8 @@
       <c r="A51" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B51" s="19"/>
-      <c r="C51" s="21" t="s">
+      <c r="B51" s="18"/>
+      <c r="C51" s="20" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -7184,8 +7249,8 @@
       <c r="A52" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="21" t="s">
+      <c r="B52" s="18"/>
+      <c r="C52" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -7194,8 +7259,8 @@
       <c r="A53" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="21" t="s">
+      <c r="B53" s="18"/>
+      <c r="C53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -7204,10 +7269,10 @@
       <c r="A54" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -7216,8 +7281,8 @@
       <c r="A55" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="B55" s="19"/>
-      <c r="C55" s="21" t="s">
+      <c r="B55" s="18"/>
+      <c r="C55" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -7226,8 +7291,8 @@
       <c r="A56" s="6" t="n">
         <v>51</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="21" t="s">
+      <c r="B56" s="18"/>
+      <c r="C56" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -7236,8 +7301,8 @@
       <c r="A57" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B57" s="19"/>
-      <c r="C57" s="21" t="s">
+      <c r="B57" s="18"/>
+      <c r="C57" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -7246,8 +7311,8 @@
       <c r="A58" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B58" s="19"/>
-      <c r="C58" s="21" t="s">
+      <c r="B58" s="18"/>
+      <c r="C58" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -7256,8 +7321,8 @@
       <c r="A59" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="21" t="s">
+      <c r="B59" s="18"/>
+      <c r="C59" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -7266,10 +7331,10 @@
       <c r="A60" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -7278,8 +7343,8 @@
       <c r="A61" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="21" t="s">
+      <c r="B61" s="18"/>
+      <c r="C61" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -7288,8 +7353,8 @@
       <c r="A62" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B62" s="19"/>
-      <c r="C62" s="21" t="s">
+      <c r="B62" s="18"/>
+      <c r="C62" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -7298,8 +7363,8 @@
       <c r="A63" s="6" t="n">
         <v>58</v>
       </c>
-      <c r="B63" s="19"/>
-      <c r="C63" s="21" t="s">
+      <c r="B63" s="18"/>
+      <c r="C63" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -7308,8 +7373,8 @@
       <c r="A64" s="6" t="n">
         <v>59</v>
       </c>
-      <c r="B64" s="19"/>
-      <c r="C64" s="21" t="s">
+      <c r="B64" s="18"/>
+      <c r="C64" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -7318,8 +7383,8 @@
       <c r="A65" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="21" t="s">
+      <c r="B65" s="18"/>
+      <c r="C65" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -7328,8 +7393,8 @@
       <c r="A66" s="6" t="n">
         <v>61</v>
       </c>
-      <c r="B66" s="19"/>
-      <c r="C66" s="21" t="s">
+      <c r="B66" s="18"/>
+      <c r="C66" s="20" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -7338,8 +7403,8 @@
       <c r="A67" s="6" t="n">
         <v>62</v>
       </c>
-      <c r="B67" s="19"/>
-      <c r="C67" s="21" t="s">
+      <c r="B67" s="18"/>
+      <c r="C67" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -7348,8 +7413,8 @@
       <c r="A68" s="6" t="n">
         <v>63</v>
       </c>
-      <c r="B68" s="19"/>
-      <c r="C68" s="21" t="s">
+      <c r="B68" s="18"/>
+      <c r="C68" s="20" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -7358,8 +7423,8 @@
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="21" t="s">
+      <c r="B69" s="18"/>
+      <c r="C69" s="20" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -7368,8 +7433,8 @@
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="20" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -7378,8 +7443,8 @@
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -7388,8 +7453,8 @@
       <c r="A72" s="6" t="n">
         <v>67</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="20" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -7398,10 +7463,10 @@
       <c r="A73" s="6" t="n">
         <v>68</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -7410,8 +7475,8 @@
       <c r="A74" s="6" t="n">
         <v>69</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -7420,8 +7485,8 @@
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -7430,8 +7495,8 @@
       <c r="A76" s="6" t="n">
         <v>71</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="20" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -7440,8 +7505,8 @@
       <c r="A77" s="6" t="n">
         <v>72</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -7450,8 +7515,8 @@
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -7460,8 +7525,8 @@
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="20" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -7470,8 +7535,8 @@
       <c r="A80" s="6" t="n">
         <v>75</v>
       </c>
-      <c r="B80" s="19"/>
-      <c r="C80" s="21" t="s">
+      <c r="B80" s="18"/>
+      <c r="C80" s="20" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -7483,7 +7548,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -7492,10 +7557,10 @@
       <c r="A82" s="6" t="n">
         <v>77</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -7504,8 +7569,8 @@
       <c r="A83" s="6" t="n">
         <v>78</v>
       </c>
-      <c r="B83" s="19"/>
-      <c r="C83" s="21" t="s">
+      <c r="B83" s="18"/>
+      <c r="C83" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -7514,8 +7579,8 @@
       <c r="A84" s="6" t="n">
         <v>79</v>
       </c>
-      <c r="B84" s="19"/>
-      <c r="C84" s="21" t="s">
+      <c r="B84" s="18"/>
+      <c r="C84" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -7524,8 +7589,8 @@
       <c r="A85" s="6" t="n">
         <v>80</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="21" t="s">
+      <c r="B85" s="18"/>
+      <c r="C85" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -7534,8 +7599,8 @@
       <c r="A86" s="6" t="n">
         <v>81</v>
       </c>
-      <c r="B86" s="19"/>
-      <c r="C86" s="21" t="s">
+      <c r="B86" s="18"/>
+      <c r="C86" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -7544,8 +7609,8 @@
       <c r="A87" s="6" t="n">
         <v>82</v>
       </c>
-      <c r="B87" s="19"/>
-      <c r="C87" s="21" t="s">
+      <c r="B87" s="18"/>
+      <c r="C87" s="20" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -7554,10 +7619,10 @@
       <c r="A88" s="6" t="n">
         <v>83</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -7566,8 +7631,8 @@
       <c r="A89" s="6" t="n">
         <v>84</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="21" t="s">
+      <c r="B89" s="18"/>
+      <c r="C89" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -7576,8 +7641,8 @@
       <c r="A90" s="6" t="n">
         <v>85</v>
       </c>
-      <c r="B90" s="19"/>
-      <c r="C90" s="21" t="s">
+      <c r="B90" s="18"/>
+      <c r="C90" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -7586,8 +7651,8 @@
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
-      <c r="B91" s="19"/>
-      <c r="C91" s="21" t="s">
+      <c r="B91" s="18"/>
+      <c r="C91" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -7596,8 +7661,8 @@
       <c r="A92" s="6" t="n">
         <v>87</v>
       </c>
-      <c r="B92" s="19"/>
-      <c r="C92" s="21" t="s">
+      <c r="B92" s="18"/>
+      <c r="C92" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -7606,8 +7671,8 @@
       <c r="A93" s="6" t="n">
         <v>88</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="21" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -7616,10 +7681,10 @@
       <c r="A94" s="6" t="n">
         <v>89</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -7628,8 +7693,8 @@
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
-      <c r="B95" s="19"/>
-      <c r="C95" s="21" t="s">
+      <c r="B95" s="18"/>
+      <c r="C95" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -7638,8 +7703,8 @@
       <c r="A96" s="6" t="n">
         <v>91</v>
       </c>
-      <c r="B96" s="19"/>
-      <c r="C96" s="21" t="s">
+      <c r="B96" s="18"/>
+      <c r="C96" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -7648,8 +7713,8 @@
       <c r="A97" s="6" t="n">
         <v>92</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="21" t="s">
+      <c r="B97" s="18"/>
+      <c r="C97" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -7658,8 +7723,8 @@
       <c r="A98" s="6" t="n">
         <v>93</v>
       </c>
-      <c r="B98" s="19"/>
-      <c r="C98" s="21" t="s">
+      <c r="B98" s="18"/>
+      <c r="C98" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -7668,8 +7733,8 @@
       <c r="A99" s="6" t="n">
         <v>94</v>
       </c>
-      <c r="B99" s="19"/>
-      <c r="C99" s="21" t="s">
+      <c r="B99" s="18"/>
+      <c r="C99" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -7678,8 +7743,8 @@
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
-      <c r="B100" s="19"/>
-      <c r="C100" s="21" t="s">
+      <c r="B100" s="18"/>
+      <c r="C100" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -7688,8 +7753,8 @@
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="21" t="s">
+      <c r="B101" s="18"/>
+      <c r="C101" s="20" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -7698,10 +7763,10 @@
       <c r="A102" s="6" t="n">
         <v>97</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="20" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -7710,8 +7775,8 @@
       <c r="A103" s="6" t="n">
         <v>98</v>
       </c>
-      <c r="B103" s="19"/>
-      <c r="C103" s="21" t="s">
+      <c r="B103" s="18"/>
+      <c r="C103" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -7720,8 +7785,8 @@
       <c r="A104" s="6" t="n">
         <v>99</v>
       </c>
-      <c r="B104" s="19"/>
-      <c r="C104" s="21" t="s">
+      <c r="B104" s="18"/>
+      <c r="C104" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -7730,8 +7795,8 @@
       <c r="A105" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="21" t="s">
+      <c r="B105" s="18"/>
+      <c r="C105" s="20" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -7740,10 +7805,10 @@
       <c r="A106" s="6" t="n">
         <v>101</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -7752,8 +7817,8 @@
       <c r="A107" s="6" t="n">
         <v>102</v>
       </c>
-      <c r="B107" s="19"/>
-      <c r="C107" s="21" t="s">
+      <c r="B107" s="18"/>
+      <c r="C107" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -7762,10 +7827,10 @@
       <c r="A108" s="6" t="n">
         <v>103</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -7774,8 +7839,8 @@
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="21" t="s">
+      <c r="B109" s="18"/>
+      <c r="C109" s="20" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -7784,8 +7849,8 @@
       <c r="A110" s="6" t="n">
         <v>105</v>
       </c>
-      <c r="B110" s="19"/>
-      <c r="C110" s="21" t="s">
+      <c r="B110" s="18"/>
+      <c r="C110" s="20" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -7794,8 +7859,8 @@
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
-      <c r="B111" s="19"/>
-      <c r="C111" s="21" t="s">
+      <c r="B111" s="18"/>
+      <c r="C111" s="20" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -7804,8 +7869,8 @@
       <c r="A112" s="6" t="n">
         <v>107</v>
       </c>
-      <c r="B112" s="19"/>
-      <c r="C112" s="21" t="s">
+      <c r="B112" s="18"/>
+      <c r="C112" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -7814,8 +7879,8 @@
       <c r="A113" s="6" t="n">
         <v>108</v>
       </c>
-      <c r="B113" s="19"/>
-      <c r="C113" s="21" t="s">
+      <c r="B113" s="18"/>
+      <c r="C113" s="20" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -7824,10 +7889,10 @@
       <c r="A114" s="6" t="n">
         <v>109</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="20" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -7836,8 +7901,8 @@
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="B115" s="19"/>
-      <c r="C115" s="21" t="s">
+      <c r="B115" s="18"/>
+      <c r="C115" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -7846,8 +7911,8 @@
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="21" t="s">
+      <c r="B116" s="18"/>
+      <c r="C116" s="20" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -7856,8 +7921,8 @@
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
-      <c r="B117" s="19"/>
-      <c r="C117" s="21" t="s">
+      <c r="B117" s="18"/>
+      <c r="C117" s="20" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -7866,8 +7931,8 @@
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
-      <c r="B118" s="19"/>
-      <c r="C118" s="21" t="s">
+      <c r="B118" s="18"/>
+      <c r="C118" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -7876,10 +7941,10 @@
       <c r="A119" s="6" t="n">
         <v>114</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="20" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -7888,8 +7953,8 @@
       <c r="A120" s="6" t="n">
         <v>115</v>
       </c>
-      <c r="B120" s="19"/>
-      <c r="C120" s="21" t="s">
+      <c r="B120" s="18"/>
+      <c r="C120" s="20" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -7898,8 +7963,8 @@
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
-      <c r="B121" s="19"/>
-      <c r="C121" s="21" t="s">
+      <c r="B121" s="18"/>
+      <c r="C121" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -7908,8 +7973,8 @@
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
-      <c r="B122" s="19"/>
-      <c r="C122" s="21" t="s">
+      <c r="B122" s="18"/>
+      <c r="C122" s="20" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -7918,8 +7983,8 @@
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
-      <c r="B123" s="19"/>
-      <c r="C123" s="21" t="s">
+      <c r="B123" s="18"/>
+      <c r="C123" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -7928,10 +7993,10 @@
       <c r="A124" s="6" t="n">
         <v>119</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
@@ -7940,8 +8005,8 @@
       <c r="A125" s="6" t="n">
         <v>120</v>
       </c>
-      <c r="B125" s="19"/>
-      <c r="C125" s="21" t="s">
+      <c r="B125" s="18"/>
+      <c r="C125" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
@@ -7950,8 +8015,8 @@
       <c r="A126" s="6" t="n">
         <v>121</v>
       </c>
-      <c r="B126" s="19"/>
-      <c r="C126" s="21" t="s">
+      <c r="B126" s="18"/>
+      <c r="C126" s="20" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
@@ -7960,8 +8025,8 @@
       <c r="A127" s="6" t="n">
         <v>122</v>
       </c>
-      <c r="B127" s="19"/>
-      <c r="C127" s="21" t="s">
+      <c r="B127" s="18"/>
+      <c r="C127" s="20" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
@@ -7970,8 +8035,8 @@
       <c r="A128" s="6" t="n">
         <v>123</v>
       </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="21" t="s">
+      <c r="B128" s="18"/>
+      <c r="C128" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
@@ -7980,8 +8045,8 @@
       <c r="A129" s="6" t="n">
         <v>124</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="21" t="s">
+      <c r="B129" s="18"/>
+      <c r="C129" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
@@ -7990,8 +8055,8 @@
       <c r="A130" s="6" t="n">
         <v>125</v>
       </c>
-      <c r="B130" s="19"/>
-      <c r="C130" s="21" t="s">
+      <c r="B130" s="18"/>
+      <c r="C130" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
@@ -8000,8 +8065,8 @@
       <c r="A131" s="6" t="n">
         <v>126</v>
       </c>
-      <c r="B131" s="19"/>
-      <c r="C131" s="21" t="s">
+      <c r="B131" s="18"/>
+      <c r="C131" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
@@ -8010,8 +8075,8 @@
       <c r="A132" s="6" t="n">
         <v>127</v>
       </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="21" t="s">
+      <c r="B132" s="18"/>
+      <c r="C132" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
@@ -8020,8 +8085,8 @@
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
-      <c r="B133" s="19"/>
-      <c r="C133" s="21" t="s">
+      <c r="B133" s="18"/>
+      <c r="C133" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
@@ -8030,8 +8095,8 @@
       <c r="A134" s="6" t="n">
         <v>129</v>
       </c>
-      <c r="B134" s="19"/>
-      <c r="C134" s="21" t="s">
+      <c r="B134" s="18"/>
+      <c r="C134" s="20" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
@@ -8040,8 +8105,8 @@
       <c r="A135" s="6" t="n">
         <v>130</v>
       </c>
-      <c r="B135" s="19"/>
-      <c r="C135" s="21" t="s">
+      <c r="B135" s="18"/>
+      <c r="C135" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
@@ -8050,8 +8115,8 @@
       <c r="A136" s="6" t="n">
         <v>131</v>
       </c>
-      <c r="B136" s="19"/>
-      <c r="C136" s="21" t="s">
+      <c r="B136" s="18"/>
+      <c r="C136" s="20" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
@@ -8060,8 +8125,8 @@
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
-      <c r="B137" s="19"/>
-      <c r="C137" s="21" t="s">
+      <c r="B137" s="18"/>
+      <c r="C137" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
@@ -8070,8 +8135,8 @@
       <c r="A138" s="6" t="n">
         <v>133</v>
       </c>
-      <c r="B138" s="19"/>
-      <c r="C138" s="21" t="s">
+      <c r="B138" s="18"/>
+      <c r="C138" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
@@ -8080,10 +8145,10 @@
       <c r="A139" s="6" t="n">
         <v>134</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="20" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
@@ -8092,8 +8157,8 @@
       <c r="A140" s="6" t="n">
         <v>135</v>
       </c>
-      <c r="B140" s="19"/>
-      <c r="C140" s="21" t="s">
+      <c r="B140" s="18"/>
+      <c r="C140" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
@@ -8102,8 +8167,8 @@
       <c r="A141" s="6" t="n">
         <v>136</v>
       </c>
-      <c r="B141" s="19"/>
-      <c r="C141" s="21" t="s">
+      <c r="B141" s="18"/>
+      <c r="C141" s="20" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
@@ -8112,10 +8177,10 @@
       <c r="A142" s="6" t="n">
         <v>137</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
@@ -8124,8 +8189,8 @@
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
-      <c r="B143" s="19"/>
-      <c r="C143" s="21" t="s">
+      <c r="B143" s="18"/>
+      <c r="C143" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
@@ -8134,8 +8199,8 @@
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
-      <c r="B144" s="19"/>
-      <c r="C144" s="21" t="s">
+      <c r="B144" s="18"/>
+      <c r="C144" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
@@ -8144,8 +8209,8 @@
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
-      <c r="B145" s="19"/>
-      <c r="C145" s="21" t="s">
+      <c r="B145" s="18"/>
+      <c r="C145" s="20" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
@@ -8154,8 +8219,8 @@
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
-      <c r="B146" s="19"/>
-      <c r="C146" s="21" t="s">
+      <c r="B146" s="18"/>
+      <c r="C146" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
@@ -8164,8 +8229,8 @@
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
-      <c r="B147" s="19"/>
-      <c r="C147" s="21" t="s">
+      <c r="B147" s="18"/>
+      <c r="C147" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
@@ -8174,10 +8239,10 @@
       <c r="A148" s="6" t="n">
         <v>143</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
@@ -8186,8 +8251,8 @@
       <c r="A149" s="6" t="n">
         <v>144</v>
       </c>
-      <c r="B149" s="19"/>
-      <c r="C149" s="21" t="s">
+      <c r="B149" s="18"/>
+      <c r="C149" s="20" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
@@ -8196,8 +8261,8 @@
       <c r="A150" s="6" t="n">
         <v>145</v>
       </c>
-      <c r="B150" s="19"/>
-      <c r="C150" s="21" t="s">
+      <c r="B150" s="18"/>
+      <c r="C150" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
@@ -8206,10 +8271,10 @@
       <c r="A151" s="6" t="n">
         <v>146</v>
       </c>
-      <c r="B151" s="19" t="s">
+      <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="20" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
@@ -8218,8 +8283,8 @@
       <c r="A152" s="6" t="n">
         <v>147</v>
       </c>
-      <c r="B152" s="19"/>
-      <c r="C152" s="21" t="s">
+      <c r="B152" s="18"/>
+      <c r="C152" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
@@ -8228,8 +8293,8 @@
       <c r="A153" s="6" t="n">
         <v>148</v>
       </c>
-      <c r="B153" s="19"/>
-      <c r="C153" s="21" t="s">
+      <c r="B153" s="18"/>
+      <c r="C153" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
@@ -8238,8 +8303,8 @@
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
-      <c r="B154" s="19"/>
-      <c r="C154" s="21" t="s">
+      <c r="B154" s="18"/>
+      <c r="C154" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
@@ -8248,10 +8313,10 @@
       <c r="A155" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="20" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
@@ -8260,8 +8325,8 @@
       <c r="A156" s="6" t="n">
         <v>151</v>
       </c>
-      <c r="B156" s="19"/>
-      <c r="C156" s="21" t="s">
+      <c r="B156" s="18"/>
+      <c r="C156" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
@@ -8270,8 +8335,8 @@
       <c r="A157" s="6" t="n">
         <v>152</v>
       </c>
-      <c r="B157" s="19"/>
-      <c r="C157" s="21" t="s">
+      <c r="B157" s="18"/>
+      <c r="C157" s="20" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
@@ -8280,8 +8345,8 @@
       <c r="A158" s="6" t="n">
         <v>153</v>
       </c>
-      <c r="B158" s="19"/>
-      <c r="C158" s="21" t="s">
+      <c r="B158" s="18"/>
+      <c r="C158" s="20" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
@@ -8290,8 +8355,8 @@
       <c r="A159" s="6" t="n">
         <v>154</v>
       </c>
-      <c r="B159" s="19"/>
-      <c r="C159" s="21" t="s">
+      <c r="B159" s="18"/>
+      <c r="C159" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
@@ -8300,8 +8365,8 @@
       <c r="A160" s="6" t="n">
         <v>155</v>
       </c>
-      <c r="B160" s="19"/>
-      <c r="C160" s="21" t="s">
+      <c r="B160" s="18"/>
+      <c r="C160" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
@@ -8310,8 +8375,8 @@
       <c r="A161" s="6" t="n">
         <v>156</v>
       </c>
-      <c r="B161" s="19"/>
-      <c r="C161" s="21" t="s">
+      <c r="B161" s="18"/>
+      <c r="C161" s="20" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
@@ -8320,8 +8385,8 @@
       <c r="A162" s="6" t="n">
         <v>157</v>
       </c>
-      <c r="B162" s="19"/>
-      <c r="C162" s="21" t="s">
+      <c r="B162" s="18"/>
+      <c r="C162" s="20" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
@@ -8330,10 +8395,10 @@
       <c r="A163" s="6" t="n">
         <v>158</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="20" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
@@ -8342,8 +8407,8 @@
       <c r="A164" s="6" t="n">
         <v>159</v>
       </c>
-      <c r="B164" s="19"/>
-      <c r="C164" s="21" t="s">
+      <c r="B164" s="18"/>
+      <c r="C164" s="20" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
@@ -8352,8 +8417,8 @@
       <c r="A165" s="6" t="n">
         <v>160</v>
       </c>
-      <c r="B165" s="19"/>
-      <c r="C165" s="21" t="s">
+      <c r="B165" s="18"/>
+      <c r="C165" s="20" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
@@ -8362,8 +8427,8 @@
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
-      <c r="B166" s="19"/>
-      <c r="C166" s="21" t="s">
+      <c r="B166" s="18"/>
+      <c r="C166" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
@@ -8372,8 +8437,8 @@
       <c r="A167" s="6" t="n">
         <v>162</v>
       </c>
-      <c r="B167" s="19"/>
-      <c r="C167" s="21" t="s">
+      <c r="B167" s="18"/>
+      <c r="C167" s="20" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
@@ -8382,8 +8447,8 @@
       <c r="A168" s="6" t="n">
         <v>163</v>
       </c>
-      <c r="B168" s="19"/>
-      <c r="C168" s="21" t="s">
+      <c r="B168" s="18"/>
+      <c r="C168" s="20" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
@@ -8392,10 +8457,10 @@
       <c r="A169" s="6" t="n">
         <v>164</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
@@ -8404,8 +8469,8 @@
       <c r="A170" s="6" t="n">
         <v>165</v>
       </c>
-      <c r="B170" s="19"/>
-      <c r="C170" s="21" t="s">
+      <c r="B170" s="18"/>
+      <c r="C170" s="20" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
@@ -8414,10 +8479,10 @@
       <c r="A171" s="6" t="n">
         <v>166</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
@@ -8426,8 +8491,8 @@
       <c r="A172" s="6" t="n">
         <v>167</v>
       </c>
-      <c r="B172" s="19"/>
-      <c r="C172" s="21" t="s">
+      <c r="B172" s="18"/>
+      <c r="C172" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
@@ -8557,7 +8622,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -8568,7 +8633,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>409</v>
       </c>
       <c r="D8" s="9"/>
@@ -8579,7 +8644,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>410</v>
       </c>
       <c r="D9" s="9"/>
@@ -8590,7 +8655,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9"/>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>411</v>
       </c>
       <c r="D10" s="9"/>
@@ -8601,7 +8666,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="9"/>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>412</v>
       </c>
       <c r="D11" s="9"/>
@@ -8612,7 +8677,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="9"/>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>413</v>
       </c>
       <c r="D12" s="9"/>
@@ -8623,7 +8688,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>414</v>
       </c>
       <c r="D13" s="9"/>
@@ -8634,7 +8699,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="9"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>415</v>
       </c>
       <c r="D14" s="9"/>
@@ -8647,7 +8712,7 @@
       <c r="B15" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>417</v>
       </c>
       <c r="D15" s="9"/>
@@ -8658,7 +8723,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="9"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>418</v>
       </c>
       <c r="D16" s="9"/>
@@ -8669,7 +8734,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="9"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>419</v>
       </c>
       <c r="D17" s="9"/>
@@ -8680,7 +8745,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="9"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>420</v>
       </c>
       <c r="D18" s="9"/>
@@ -8691,7 +8756,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="9"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>421</v>
       </c>
       <c r="D19" s="9"/>
@@ -8702,7 +8767,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>422</v>
       </c>
       <c r="D20" s="9"/>
@@ -8713,7 +8778,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="9"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>423</v>
       </c>
       <c r="D21" s="9"/>
@@ -8724,7 +8789,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="9"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>424</v>
       </c>
       <c r="D22" s="9"/>
@@ -8735,7 +8800,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="9"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D23" s="9"/>
@@ -8746,7 +8811,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="9"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>426</v>
       </c>
       <c r="D24" s="9"/>
@@ -8757,7 +8822,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="9"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>427</v>
       </c>
       <c r="D25" s="9"/>
@@ -8768,7 +8833,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="9"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="19" t="s">
         <v>428</v>
       </c>
       <c r="D26" s="9"/>
@@ -8779,7 +8844,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="9"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>429</v>
       </c>
       <c r="D27" s="9"/>
@@ -8792,7 +8857,7 @@
       <c r="B28" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="19" t="s">
         <v>431</v>
       </c>
       <c r="D28" s="9"/>
@@ -8803,7 +8868,7 @@
         <v>23</v>
       </c>
       <c r="B29" s="9"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>432</v>
       </c>
       <c r="D29" s="9"/>
@@ -8814,7 +8879,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>433</v>
       </c>
       <c r="D30" s="9"/>
@@ -8827,7 +8892,7 @@
       <c r="B31" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="19" t="s">
         <v>435</v>
       </c>
       <c r="D31" s="9"/>
@@ -8838,7 +8903,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>436</v>
       </c>
       <c r="D32" s="9"/>
@@ -8849,7 +8914,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>437</v>
       </c>
       <c r="D33" s="9"/>
@@ -8860,7 +8925,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>438</v>
       </c>
       <c r="D34" s="9"/>
@@ -8871,7 +8936,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="9"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>439</v>
       </c>
       <c r="D35" s="9"/>
@@ -8882,7 +8947,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="9"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="19" t="s">
         <v>440</v>
       </c>
       <c r="D36" s="9"/>
@@ -8893,7 +8958,7 @@
         <v>31</v>
       </c>
       <c r="B37" s="9"/>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>441</v>
       </c>
       <c r="D37" s="9"/>
@@ -8904,7 +8969,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="9"/>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="19" t="s">
         <v>442</v>
       </c>
       <c r="D38" s="9"/>
@@ -8917,7 +8982,7 @@
       <c r="B39" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="19" t="s">
         <v>444</v>
       </c>
       <c r="D39" s="9"/>
@@ -8928,7 +8993,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="9"/>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="19" t="s">
         <v>445</v>
       </c>
       <c r="D40" s="9"/>
@@ -8939,7 +9004,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="9"/>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>446</v>
       </c>
       <c r="D41" s="9"/>
@@ -8950,7 +9015,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="9"/>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="19" t="s">
         <v>447</v>
       </c>
       <c r="D42" s="9"/>
@@ -8961,7 +9026,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="9"/>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>448</v>
       </c>
       <c r="D43" s="9"/>
@@ -8972,7 +9037,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="9"/>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>449</v>
       </c>
       <c r="D44" s="9"/>
@@ -8985,7 +9050,7 @@
       <c r="B45" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>451</v>
       </c>
       <c r="D45" s="9"/>
@@ -8996,7 +9061,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="9"/>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>452</v>
       </c>
       <c r="D46" s="9"/>
@@ -9007,7 +9072,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="9"/>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>453</v>
       </c>
       <c r="D47" s="9"/>
@@ -9018,7 +9083,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="9"/>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>454</v>
       </c>
       <c r="D48" s="9"/>
@@ -9029,7 +9094,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="9"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>455</v>
       </c>
       <c r="D49" s="9"/>
@@ -9040,7 +9105,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="9"/>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="19" t="s">
         <v>456</v>
       </c>
       <c r="D50" s="9"/>
@@ -9051,7 +9116,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="9"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="19" t="s">
         <v>457</v>
       </c>
       <c r="D51" s="9"/>
@@ -9062,7 +9127,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="9"/>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>458</v>
       </c>
       <c r="D52" s="9"/>
@@ -9073,7 +9138,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="9"/>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="19" t="s">
         <v>459</v>
       </c>
       <c r="D53" s="9"/>
@@ -9084,7 +9149,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="9"/>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>460</v>
       </c>
       <c r="D54" s="9"/>
@@ -9097,7 +9162,7 @@
       <c r="B55" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>462</v>
       </c>
       <c r="D55" s="9"/>
@@ -9108,7 +9173,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="9"/>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>463</v>
       </c>
       <c r="D56" s="9"/>
@@ -9119,7 +9184,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="9"/>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="19" t="s">
         <v>464</v>
       </c>
       <c r="D57" s="9"/>
@@ -9130,7 +9195,7 @@
         <v>52</v>
       </c>
       <c r="B58" s="9"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D58" s="9"/>
@@ -9141,7 +9206,7 @@
         <v>53</v>
       </c>
       <c r="B59" s="9"/>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>466</v>
       </c>
       <c r="D59" s="9"/>
@@ -9154,7 +9219,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -9165,7 +9230,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -9176,7 +9241,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -9187,7 +9252,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -9198,7 +9263,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -9209,7 +9274,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -9220,7 +9285,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -9231,7 +9296,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -9244,7 +9309,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -9254,10 +9319,10 @@
         <f aca="false">ROW()-6</f>
         <v>63</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -9267,8 +9332,8 @@
         <f aca="false">ROW()-6</f>
         <v>64</v>
       </c>
-      <c r="B70" s="19"/>
-      <c r="C70" s="21" t="s">
+      <c r="B70" s="18"/>
+      <c r="C70" s="20" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -9278,8 +9343,8 @@
         <f aca="false">ROW()-6</f>
         <v>65</v>
       </c>
-      <c r="B71" s="19"/>
-      <c r="C71" s="21" t="s">
+      <c r="B71" s="18"/>
+      <c r="C71" s="20" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -9289,8 +9354,8 @@
         <f aca="false">ROW()-6</f>
         <v>66</v>
       </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="21" t="s">
+      <c r="B72" s="18"/>
+      <c r="C72" s="20" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -9300,8 +9365,8 @@
         <f aca="false">ROW()-6</f>
         <v>67</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="21" t="s">
+      <c r="B73" s="18"/>
+      <c r="C73" s="20" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -9311,8 +9376,8 @@
         <f aca="false">ROW()-6</f>
         <v>68</v>
       </c>
-      <c r="B74" s="19"/>
-      <c r="C74" s="21" t="s">
+      <c r="B74" s="18"/>
+      <c r="C74" s="20" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -9322,8 +9387,8 @@
         <f aca="false">ROW()-6</f>
         <v>69</v>
       </c>
-      <c r="B75" s="19"/>
-      <c r="C75" s="21" t="s">
+      <c r="B75" s="18"/>
+      <c r="C75" s="20" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -9333,8 +9398,8 @@
         <f aca="false">ROW()-6</f>
         <v>70</v>
       </c>
-      <c r="B76" s="19"/>
-      <c r="C76" s="21" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="20" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -9344,8 +9409,8 @@
         <f aca="false">ROW()-6</f>
         <v>71</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="21" t="s">
+      <c r="B77" s="18"/>
+      <c r="C77" s="20" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -9355,8 +9420,8 @@
         <f aca="false">ROW()-6</f>
         <v>72</v>
       </c>
-      <c r="B78" s="19"/>
-      <c r="C78" s="21" t="s">
+      <c r="B78" s="18"/>
+      <c r="C78" s="20" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -9366,8 +9431,8 @@
         <f aca="false">ROW()-6</f>
         <v>73</v>
       </c>
-      <c r="B79" s="19"/>
-      <c r="C79" s="21" t="s">
+      <c r="B79" s="18"/>
+      <c r="C79" s="20" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -9478,7 +9543,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -9491,8 +9556,8 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
       <c r="D8" s="9"/>
@@ -9502,8 +9567,8 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="21"/>
+      <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
       <c r="D9" s="9"/>
@@ -9513,8 +9578,8 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
       <c r="D10" s="9"/>
@@ -9524,8 +9589,8 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="20" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
       <c r="D11" s="9"/>
@@ -9535,8 +9600,8 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20" t="s">
+      <c r="B12" s="21"/>
+      <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
       <c r="D12" s="9"/>
@@ -9546,10 +9611,10 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>499</v>
       </c>
       <c r="D13" s="9"/>
@@ -9559,8 +9624,8 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="20" t="s">
+      <c r="B14" s="21"/>
+      <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
       <c r="D14" s="9"/>
@@ -9570,8 +9635,8 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="21"/>
+      <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
       <c r="D15" s="9"/>
@@ -9581,8 +9646,8 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="20" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
       <c r="D16" s="9"/>
@@ -9592,8 +9657,8 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="20" t="s">
+      <c r="B17" s="21"/>
+      <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
       <c r="D17" s="9"/>
@@ -9603,8 +9668,8 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="20" t="s">
+      <c r="B18" s="21"/>
+      <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
       <c r="D18" s="9"/>
@@ -9614,10 +9679,10 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>505</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>506</v>
       </c>
       <c r="D19" s="9"/>
@@ -9627,8 +9692,8 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="20" t="s">
+      <c r="B20" s="21"/>
+      <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
       <c r="D20" s="9"/>
@@ -9638,8 +9703,8 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="20" t="s">
+      <c r="B21" s="21"/>
+      <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
       <c r="D21" s="9"/>
@@ -9649,8 +9714,8 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="20" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
       <c r="D22" s="9"/>
@@ -9660,8 +9725,8 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="20" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
       <c r="D23" s="9"/>
@@ -9671,8 +9736,8 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="20" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
       <c r="D24" s="9"/>
@@ -9682,10 +9747,10 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>512</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>513</v>
       </c>
       <c r="D25" s="9"/>
@@ -9695,8 +9760,8 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="20" t="s">
+      <c r="B26" s="21"/>
+      <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
       <c r="D26" s="9"/>
@@ -9706,10 +9771,10 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>515</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="19" t="s">
         <v>516</v>
       </c>
       <c r="D27" s="9"/>
@@ -9719,8 +9784,8 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="20" t="s">
+      <c r="B28" s="21"/>
+      <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
       <c r="D28" s="9"/>
@@ -9733,7 +9798,7 @@
       <c r="B29" s="9" t="s">
         <v>518</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="19" t="s">
         <v>519</v>
       </c>
       <c r="D29" s="9"/>
@@ -9744,7 +9809,7 @@
         <v>24</v>
       </c>
       <c r="B30" s="9"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="19" t="s">
         <v>520</v>
       </c>
       <c r="D30" s="9"/>
@@ -9757,7 +9822,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -9768,7 +9833,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -9779,7 +9844,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -9790,7 +9855,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,12 +1632,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1954,7 +1955,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2033,6 +2034,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2190,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306720</xdr:colOff>
+      <xdr:colOff>306360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2202,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011200" cy="1625400"/>
+          <a:ext cx="5010840" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2368,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306720</xdr:colOff>
+      <xdr:colOff>306360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2380,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5011200" cy="1625400"/>
+          <a:ext cx="5010840" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2546,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>460440</xdr:colOff>
+      <xdr:colOff>460080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34560</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2558,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5011560" cy="1625400"/>
+          <a:ext cx="5011200" cy="1625040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2724,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266040</xdr:colOff>
+      <xdr:colOff>265680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2736,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5069160" cy="1662840"/>
+          <a:ext cx="5068800" cy="1662480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2897,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2909,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="199080" cy="2229840"/>
+          <a:ext cx="198720" cy="2229480"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2949,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408600</xdr:colOff>
+      <xdr:colOff>408240</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2961,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4621320" cy="1161000"/>
+          <a:ext cx="4620960" cy="1160640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3055,16 +3060,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>133200</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>243720</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>284760</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3073,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10479960" y="158760"/>
-          <a:ext cx="5032800" cy="1648080"/>
+          <a:off x="14216760" y="0"/>
+          <a:ext cx="5032440" cy="1647720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3240,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318240</xdr:colOff>
+      <xdr:colOff>317880</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3252,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068800" cy="3108240"/>
+          <a:ext cx="5068440" cy="3107880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3418,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318240</xdr:colOff>
+      <xdr:colOff>317880</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3430,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068800" cy="2689200"/>
+          <a:ext cx="5068440" cy="2688840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6658,10 +6663,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A7" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A46" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6670,7 +6675,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="106.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6714,6 +6720,9 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
+      <c r="E6" s="20" t="n">
+        <v>45404</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -6728,6 +6737,9 @@
       <c r="D7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6740,6 +6752,9 @@
       <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6752,8 +6767,11 @@
       <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>5</v>
       </c>
@@ -6764,6 +6782,9 @@
         <v>221</v>
       </c>
       <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6778,6 +6799,9 @@
       <c r="D11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6790,16 +6814,22 @@
       <c r="D12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6808,10 +6838,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6820,10 +6853,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6832,10 +6868,13 @@
         <v>11</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6844,10 +6883,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6856,10 +6898,13 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6868,10 +6913,13 @@
         <v>14</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6880,10 +6928,13 @@
         <v>15</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6892,10 +6943,13 @@
         <v>16</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6904,10 +6958,13 @@
         <v>17</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6916,10 +6973,13 @@
         <v>18</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6928,10 +6988,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6940,10 +7003,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6952,10 +7018,13 @@
         <v>21</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6964,10 +7033,13 @@
         <v>22</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6976,10 +7048,13 @@
         <v>23</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6988,10 +7063,13 @@
         <v>24</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7000,10 +7078,13 @@
         <v>25</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7012,10 +7093,13 @@
         <v>26</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7026,10 +7110,13 @@
       <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7038,10 +7125,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7050,10 +7140,13 @@
         <v>29</v>
       </c>
       <c r="B34" s="18"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7062,10 +7155,13 @@
         <v>30</v>
       </c>
       <c r="B35" s="18"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7074,10 +7170,13 @@
         <v>31</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7086,10 +7185,13 @@
         <v>32</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7098,10 +7200,13 @@
         <v>33</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7110,10 +7215,13 @@
         <v>34</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7124,340 +7232,439 @@
       <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>36</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>37</v>
       </c>
       <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>38</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>39</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>40</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>43</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>44</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>45</v>
       </c>
       <c r="B50" s="18"/>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>46</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>47</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>48</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>49</v>
       </c>
       <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="21" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>50</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>51</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>52</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>53</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="21" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>54</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="21" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>55</v>
       </c>
       <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>56</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>57</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>58</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>59</v>
       </c>
       <c r="B64" s="18"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>60</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>61</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>62</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>63</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="21" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
-    </row>
-    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E71" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>67</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
+      <c r="E72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -7466,7 +7673,7 @@
       <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -7476,7 +7683,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -7486,7 +7693,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -7496,7 +7703,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -7506,7 +7713,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -7516,7 +7723,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -7526,7 +7733,7 @@
         <v>74</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -7536,7 +7743,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="18"/>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -7548,7 +7755,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -7560,7 +7767,7 @@
       <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -7570,7 +7777,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="18"/>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="21" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -7580,7 +7787,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="18"/>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="21" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -7590,7 +7797,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="18"/>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="21" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -7600,7 +7807,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="18"/>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -7610,7 +7817,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18"/>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="21" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -7622,7 +7829,7 @@
       <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -7632,7 +7839,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="18"/>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="21" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -7642,7 +7849,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="18"/>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -7652,7 +7859,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="18"/>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="21" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -7662,7 +7869,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="18"/>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -7672,7 +7879,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="18"/>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="21" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -7684,7 +7891,7 @@
       <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="21" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -7694,7 +7901,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="18"/>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="21" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -7704,7 +7911,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="18"/>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="21" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -7714,7 +7921,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="18"/>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="21" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -7724,7 +7931,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="18"/>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -7734,7 +7941,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="18"/>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="21" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -7744,7 +7951,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="18"/>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="21" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -7754,7 +7961,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="18"/>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="21" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -7766,7 +7973,7 @@
       <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="21" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -7776,7 +7983,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="18"/>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="21" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -7786,7 +7993,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="18"/>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="21" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -7796,7 +8003,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="18"/>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="21" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -7808,7 +8015,7 @@
       <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="21" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -7818,7 +8025,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="18"/>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="21" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -7830,7 +8037,7 @@
       <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="21" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -7840,7 +8047,7 @@
         <v>104</v>
       </c>
       <c r="B109" s="18"/>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="21" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -7850,7 +8057,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="18"/>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="21" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -7860,7 +8067,7 @@
         <v>106</v>
       </c>
       <c r="B111" s="18"/>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="21" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -7870,7 +8077,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="18"/>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="21" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -7880,7 +8087,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="18"/>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="21" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -7892,7 +8099,7 @@
       <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="21" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -7902,7 +8109,7 @@
         <v>110</v>
       </c>
       <c r="B115" s="18"/>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="21" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -7912,7 +8119,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="18"/>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="21" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -7922,7 +8129,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="18"/>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="21" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -7932,7 +8139,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="18"/>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="21" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -7944,7 +8151,7 @@
       <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="21" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -7954,7 +8161,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="18"/>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="21" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -7964,7 +8171,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="18"/>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="21" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -7974,7 +8181,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="18"/>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="21" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -7984,7 +8191,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="18"/>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="21" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -7996,7 +8203,7 @@
       <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="21" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
@@ -8006,7 +8213,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="18"/>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="21" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
@@ -8016,7 +8223,7 @@
         <v>121</v>
       </c>
       <c r="B126" s="18"/>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="21" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
@@ -8026,7 +8233,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="18"/>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
@@ -8036,7 +8243,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="18"/>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="21" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
@@ -8046,7 +8253,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="18"/>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="21" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
@@ -8056,7 +8263,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="18"/>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="21" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
@@ -8066,7 +8273,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="18"/>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="21" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
@@ -8076,7 +8283,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="18"/>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="21" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
@@ -8086,7 +8293,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="18"/>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="21" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
@@ -8096,7 +8303,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="18"/>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="21" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
@@ -8106,7 +8313,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="18"/>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="21" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
@@ -8116,7 +8323,7 @@
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="21" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
@@ -8126,7 +8333,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="21" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
@@ -8136,7 +8343,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="21" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
@@ -8148,7 +8355,7 @@
       <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="21" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
@@ -8158,7 +8365,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="21" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
@@ -8168,7 +8375,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="21" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
@@ -8180,7 +8387,7 @@
       <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="21" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
@@ -8190,7 +8397,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="18"/>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="21" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
@@ -8200,7 +8407,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="18"/>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="21" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
@@ -8210,7 +8417,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="18"/>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="21" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
@@ -8220,7 +8427,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="18"/>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="21" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
@@ -8230,7 +8437,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="18"/>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="21" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
@@ -8242,7 +8449,7 @@
       <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="21" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
@@ -8252,7 +8459,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="18"/>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="21" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
@@ -8262,7 +8469,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="18"/>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="21" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
@@ -8274,7 +8481,7 @@
       <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="21" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
@@ -8284,7 +8491,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="18"/>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="21" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
@@ -8294,7 +8501,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="18"/>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="21" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
@@ -8304,7 +8511,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="18"/>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="21" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
@@ -8316,7 +8523,7 @@
       <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="21" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
@@ -8326,7 +8533,7 @@
         <v>151</v>
       </c>
       <c r="B156" s="18"/>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="21" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
@@ -8336,7 +8543,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="21" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
@@ -8346,7 +8553,7 @@
         <v>153</v>
       </c>
       <c r="B158" s="18"/>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="21" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
@@ -8356,7 +8563,7 @@
         <v>154</v>
       </c>
       <c r="B159" s="18"/>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="21" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
@@ -8366,7 +8573,7 @@
         <v>155</v>
       </c>
       <c r="B160" s="18"/>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="21" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
@@ -8376,7 +8583,7 @@
         <v>156</v>
       </c>
       <c r="B161" s="18"/>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="21" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
@@ -8386,7 +8593,7 @@
         <v>157</v>
       </c>
       <c r="B162" s="18"/>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="21" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
@@ -8398,7 +8605,7 @@
       <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="21" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
@@ -8408,7 +8615,7 @@
         <v>159</v>
       </c>
       <c r="B164" s="18"/>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
@@ -8418,7 +8625,7 @@
         <v>160</v>
       </c>
       <c r="B165" s="18"/>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="21" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
@@ -8428,7 +8635,7 @@
         <v>161</v>
       </c>
       <c r="B166" s="18"/>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="21" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
@@ -8438,7 +8645,7 @@
         <v>162</v>
       </c>
       <c r="B167" s="18"/>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="21" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
@@ -8448,7 +8655,7 @@
         <v>163</v>
       </c>
       <c r="B168" s="18"/>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="21" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
@@ -8460,7 +8667,7 @@
       <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="21" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
@@ -8470,7 +8677,7 @@
         <v>165</v>
       </c>
       <c r="B170" s="18"/>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="21" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
@@ -8482,7 +8689,7 @@
       <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="21" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
@@ -8492,7 +8699,7 @@
         <v>167</v>
       </c>
       <c r="B172" s="18"/>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="21" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
@@ -8529,13 +8736,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172">
+  <conditionalFormatting sqref="D7:D172 E7:E72">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:E72 D73:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -8622,7 +8829,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -9219,7 +9426,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -9230,7 +9437,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -9241,7 +9448,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -9252,7 +9459,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -9263,7 +9470,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -9274,7 +9481,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -9285,7 +9492,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -9296,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -9309,7 +9516,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -9322,7 +9529,7 @@
       <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -9333,7 +9540,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -9344,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="21" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -9355,7 +9562,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -9366,7 +9573,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -9377,7 +9584,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -9388,7 +9595,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -9399,7 +9606,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -9410,7 +9617,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -9421,7 +9628,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -9432,7 +9639,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -9543,7 +9750,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -9556,7 +9763,7 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -9567,7 +9774,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -9578,7 +9785,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -9589,7 +9796,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -9600,7 +9807,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -9611,7 +9818,7 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="22" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -9624,7 +9831,7 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
@@ -9635,7 +9842,7 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
@@ -9646,7 +9853,7 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
@@ -9657,7 +9864,7 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
@@ -9668,7 +9875,7 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
@@ -9679,7 +9886,7 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="22" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -9692,7 +9899,7 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="21"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
@@ -9703,7 +9910,7 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
@@ -9714,7 +9921,7 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
@@ -9725,7 +9932,7 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="21"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
@@ -9736,7 +9943,7 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
@@ -9747,7 +9954,7 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="22" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -9760,7 +9967,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -9771,7 +9978,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="22" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -9784,7 +9991,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
@@ -9822,7 +10029,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -9833,7 +10040,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -9844,7 +10051,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -9855,7 +10062,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2195,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306360</xdr:colOff>
+      <xdr:colOff>306000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010840" cy="1625040"/>
+          <a:ext cx="5010480" cy="1624680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306360</xdr:colOff>
+      <xdr:colOff>306000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010840" cy="1625040"/>
+          <a:ext cx="5010480" cy="1624680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>460080</xdr:colOff>
+      <xdr:colOff>459720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5011200" cy="1625040"/>
+          <a:ext cx="5010840" cy="1624680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>265680</xdr:colOff>
+      <xdr:colOff>265320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5068800" cy="1662480"/>
+          <a:ext cx="5068440" cy="1662120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="198720" cy="2229480"/>
+          <a:ext cx="198360" cy="2229120"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>408240</xdr:colOff>
+      <xdr:colOff>407880</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4620960" cy="1160640"/>
+          <a:ext cx="4620600" cy="1160280"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14216760" y="0"/>
-          <a:ext cx="5032440" cy="1647720"/>
+          <a:off x="14399640" y="0"/>
+          <a:ext cx="5032080" cy="1647360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068440" cy="3107880"/>
+          <a:ext cx="5068080" cy="3107520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317880</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>207000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068440" cy="2688840"/>
+          <a:ext cx="5068080" cy="2688480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6663,10 +6663,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A46" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E70" activeCellId="0" sqref="E70"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F74" activeCellId="0" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6675,8 +6675,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="106.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6720,8 +6720,11 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="17" t="n">
         <v>45404</v>
+      </c>
+      <c r="F6" s="20" t="n">
+        <v>45405</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6740,6 +6743,9 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6755,6 +6761,9 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6770,6 +6779,9 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6787,6 +6799,9 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6802,6 +6817,9 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6817,6 +6835,9 @@
       <c r="E12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -6832,6 +6853,9 @@
       <c r="E13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -6847,6 +6871,9 @@
       <c r="E14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -6862,6 +6889,9 @@
       <c r="E15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -6877,6 +6907,9 @@
       <c r="E16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -6892,6 +6925,9 @@
       <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -6907,6 +6943,9 @@
       <c r="E18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -6922,6 +6961,9 @@
       <c r="E19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -6937,6 +6979,9 @@
       <c r="E20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -6952,6 +6997,9 @@
       <c r="E21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -6967,6 +7015,9 @@
       <c r="E22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -6982,6 +7033,9 @@
       <c r="E23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -6997,6 +7051,9 @@
       <c r="E24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -7012,6 +7069,9 @@
       <c r="E25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -7027,6 +7087,9 @@
       <c r="E26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -7042,6 +7105,9 @@
       <c r="E27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -7057,6 +7123,9 @@
       <c r="E28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -7072,6 +7141,9 @@
       <c r="E29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -7087,6 +7159,9 @@
       <c r="E30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -7102,6 +7177,9 @@
       <c r="E31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -7119,6 +7197,9 @@
       <c r="E32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -7134,6 +7215,9 @@
       <c r="E33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -7149,6 +7233,9 @@
       <c r="E34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -7164,6 +7251,9 @@
       <c r="E35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -7179,6 +7269,9 @@
       <c r="E36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -7194,6 +7287,9 @@
       <c r="E37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -7209,6 +7305,9 @@
       <c r="E38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -7224,8 +7323,11 @@
       <c r="E39" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>35</v>
       </c>
@@ -7240,6 +7342,9 @@
       </c>
       <c r="E40" s="9" t="s">
         <v>16</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,6 +7361,9 @@
       <c r="E41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -7271,6 +7379,9 @@
       <c r="E42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -7284,6 +7395,9 @@
       <c r="E43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -7297,8 +7411,11 @@
       <c r="E44" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>40</v>
       </c>
@@ -7310,8 +7427,11 @@
       <c r="E45" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
@@ -7323,6 +7443,9 @@
       <c r="E46" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -7336,6 +7459,9 @@
       <c r="E47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -7349,6 +7475,9 @@
       <c r="E48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -7362,6 +7491,9 @@
       <c r="E49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -7375,6 +7507,9 @@
       <c r="E50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -7388,6 +7523,9 @@
       <c r="E51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -7401,6 +7539,9 @@
       <c r="E52" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -7414,6 +7555,9 @@
       <c r="E53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -7429,6 +7573,9 @@
       <c r="E54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -7442,6 +7589,9 @@
       <c r="E55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -7455,6 +7605,9 @@
       <c r="E56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -7468,6 +7621,9 @@
       <c r="E57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -7481,6 +7637,9 @@
       <c r="E58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -7494,6 +7653,9 @@
       <c r="E59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -7509,6 +7671,9 @@
       <c r="E60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -7522,6 +7687,9 @@
       <c r="E61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -7535,6 +7703,9 @@
       <c r="E62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -7548,6 +7719,9 @@
       <c r="E63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -7561,6 +7735,9 @@
       <c r="E64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -7574,6 +7751,9 @@
       <c r="E65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -7587,6 +7767,9 @@
       <c r="E66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -7600,8 +7783,11 @@
       <c r="E67" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>63</v>
       </c>
@@ -7613,8 +7799,11 @@
       <c r="E68" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
@@ -7626,8 +7815,11 @@
       <c r="E69" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
@@ -7639,6 +7831,9 @@
       <c r="E70" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -7652,6 +7847,9 @@
       <c r="E71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -7665,8 +7863,11 @@
       <c r="E72" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>68</v>
       </c>
@@ -7677,8 +7878,11 @@
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>69</v>
       </c>
@@ -7687,8 +7891,11 @@
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
@@ -7697,8 +7904,11 @@
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>71</v>
       </c>
@@ -7707,8 +7917,11 @@
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>72</v>
       </c>
@@ -7717,8 +7930,11 @@
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
@@ -7727,8 +7943,11 @@
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
@@ -7737,8 +7956,11 @@
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>75</v>
       </c>
@@ -7747,8 +7969,11 @@
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>76</v>
       </c>
@@ -7759,6 +7984,9 @@
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
+      <c r="F81" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -8736,13 +8964,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:E72">
+  <conditionalFormatting sqref="D7:D172 E7:F72 F73:F81">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:E72 D73:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F72 D73:D82 F73:F81 D83:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2195,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
+      <xdr:colOff>305640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010480" cy="1624680"/>
+          <a:ext cx="5010120" cy="1624320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>306000</xdr:colOff>
+      <xdr:colOff>305640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010480" cy="1624680"/>
+          <a:ext cx="5010120" cy="1624320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>459720</xdr:colOff>
+      <xdr:colOff>459360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5010840" cy="1624680"/>
+          <a:ext cx="5010480" cy="1624320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>265320</xdr:colOff>
+      <xdr:colOff>264960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5068440" cy="1662120"/>
+          <a:ext cx="5068080" cy="1661760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
+      <xdr:colOff>78840</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="198360" cy="2229120"/>
+          <a:ext cx="198000" cy="2228760"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>407880</xdr:colOff>
+      <xdr:colOff>407520</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>130680</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4620600" cy="1160280"/>
+          <a:ext cx="4620240" cy="1159920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>284400</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14399640" y="0"/>
-          <a:ext cx="5032080" cy="1647360"/>
+          <a:off x="14582520" y="0"/>
+          <a:ext cx="5031720" cy="1647000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>207000</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068080" cy="3107520"/>
+          <a:ext cx="5067720" cy="3107160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>207000</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5068080" cy="2688480"/>
+          <a:ext cx="5067720" cy="2688120"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6663,10 +6663,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:G172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F74" activeCellId="0" sqref="F74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A58" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6675,8 +6675,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="106.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6723,8 +6723,11 @@
       <c r="E6" s="17" t="n">
         <v>45404</v>
       </c>
-      <c r="F6" s="20" t="n">
+      <c r="F6" s="17" t="n">
         <v>45405</v>
+      </c>
+      <c r="G6" s="20" t="n">
+        <v>45406</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6746,6 +6749,9 @@
       <c r="F7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6764,6 +6770,9 @@
       <c r="F8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6782,6 +6791,9 @@
       <c r="F9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6802,6 +6814,9 @@
       <c r="F10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6820,6 +6835,9 @@
       <c r="F11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6838,6 +6856,9 @@
       <c r="F12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -6856,6 +6877,9 @@
       <c r="F13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -6874,6 +6898,9 @@
       <c r="F14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -6892,6 +6919,9 @@
       <c r="F15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -6910,6 +6940,9 @@
       <c r="F16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -6928,6 +6961,9 @@
       <c r="F17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -6946,6 +6982,9 @@
       <c r="F18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -6964,6 +7003,9 @@
       <c r="F19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -6982,6 +7024,9 @@
       <c r="F20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -7000,6 +7045,9 @@
       <c r="F21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -7018,6 +7066,9 @@
       <c r="F22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -7036,6 +7087,9 @@
       <c r="F23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -7054,6 +7108,9 @@
       <c r="F24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -7072,6 +7129,9 @@
       <c r="F25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -7090,6 +7150,9 @@
       <c r="F26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -7108,6 +7171,9 @@
       <c r="F27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -7126,6 +7192,9 @@
       <c r="F28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -7144,6 +7213,9 @@
       <c r="F29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -7162,6 +7234,9 @@
       <c r="F30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -7180,6 +7255,9 @@
       <c r="F31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -7200,6 +7278,9 @@
       <c r="F32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -7218,6 +7299,9 @@
       <c r="F33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -7236,6 +7320,9 @@
       <c r="F34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -7254,6 +7341,9 @@
       <c r="F35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -7272,6 +7362,9 @@
       <c r="F36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -7290,6 +7383,9 @@
       <c r="F37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -7308,6 +7404,9 @@
       <c r="F38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -7326,6 +7425,9 @@
       <c r="F39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -7346,6 +7448,9 @@
       <c r="F40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -7364,6 +7469,9 @@
       <c r="F41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -7382,6 +7490,9 @@
       <c r="F42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -7398,6 +7509,9 @@
       <c r="F43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -7414,6 +7528,9 @@
       <c r="F44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -7430,6 +7547,9 @@
       <c r="F45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -7446,6 +7566,9 @@
       <c r="F46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -7462,6 +7585,9 @@
       <c r="F47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -7478,6 +7604,9 @@
       <c r="F48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -7494,6 +7623,9 @@
       <c r="F49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -7510,6 +7642,9 @@
       <c r="F50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -7526,6 +7661,9 @@
       <c r="F51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -7542,6 +7680,9 @@
       <c r="F52" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -7558,6 +7699,9 @@
       <c r="F53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -7576,6 +7720,9 @@
       <c r="F54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -7592,6 +7739,9 @@
       <c r="F55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -7608,6 +7758,9 @@
       <c r="F56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -7624,6 +7777,9 @@
       <c r="F57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -7640,6 +7796,9 @@
       <c r="F58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -7656,6 +7815,9 @@
       <c r="F59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -7674,6 +7836,9 @@
       <c r="F60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -7690,6 +7855,9 @@
       <c r="F61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -7706,6 +7874,9 @@
       <c r="F62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -7722,6 +7893,9 @@
       <c r="F63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -7738,6 +7912,9 @@
       <c r="F64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -7754,6 +7931,9 @@
       <c r="F65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -7770,6 +7950,9 @@
       <c r="F66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -7786,6 +7969,9 @@
       <c r="F67" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G67" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -7802,6 +7988,9 @@
       <c r="F68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -7818,6 +8007,9 @@
       <c r="F69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -7834,6 +8026,9 @@
       <c r="F70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -7850,6 +8045,9 @@
       <c r="F71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -7866,6 +8064,9 @@
       <c r="F72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -7881,6 +8082,9 @@
       <c r="F73" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G73" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -7894,6 +8098,9 @@
       <c r="F74" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -7907,6 +8114,9 @@
       <c r="F75" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G75" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -7920,8 +8130,11 @@
       <c r="F76" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>72</v>
       </c>
@@ -7933,8 +8146,11 @@
       <c r="F77" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
@@ -7946,6 +8162,9 @@
       <c r="F78" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -7959,6 +8178,9 @@
       <c r="F79" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G79" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -7972,6 +8194,9 @@
       <c r="F80" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G80" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
@@ -7985,6 +8210,9 @@
       </c>
       <c r="D81" s="9"/>
       <c r="F81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -8964,13 +9192,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:F72 F73:F81">
+  <conditionalFormatting sqref="D7:D172 E7:G72 F73:G81">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F72 D73:D82 F73:F81 D83:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:G72 D73:D82 F73:G81 D83:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2195,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305640</xdr:colOff>
+      <xdr:colOff>305280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010120" cy="1624320"/>
+          <a:ext cx="5009760" cy="1623960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305640</xdr:colOff>
+      <xdr:colOff>305280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5010120" cy="1624320"/>
+          <a:ext cx="5009760" cy="1623960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>459360</xdr:colOff>
+      <xdr:colOff>459000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5010480" cy="1624320"/>
+          <a:ext cx="5010120" cy="1623960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>264960</xdr:colOff>
+      <xdr:colOff>264600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5068080" cy="1661760"/>
+          <a:ext cx="5067720" cy="1661400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78840</xdr:colOff>
+      <xdr:colOff>78480</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="198000" cy="2228760"/>
+          <a:ext cx="197640" cy="2228400"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>407520</xdr:colOff>
+      <xdr:colOff>407160</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4620240" cy="1159920"/>
+          <a:ext cx="4619880" cy="1159560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>284040</xdr:colOff>
+      <xdr:colOff>283680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14582520" y="0"/>
-          <a:ext cx="5031720" cy="1647000"/>
+          <a:off x="14727960" y="0"/>
+          <a:ext cx="5031000" cy="1646640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>206280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067720" cy="3107160"/>
+          <a:ext cx="5067360" cy="3106800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>206280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067720" cy="2688120"/>
+          <a:ext cx="5067360" cy="2687760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6663,10 +6663,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G172"/>
+  <dimension ref="A1:H172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A58" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G74" activeCellId="0" sqref="G74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6676,7 +6676,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="106.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6726,8 +6727,11 @@
       <c r="F6" s="17" t="n">
         <v>45405</v>
       </c>
-      <c r="G6" s="20" t="n">
+      <c r="G6" s="17" t="n">
         <v>45406</v>
+      </c>
+      <c r="H6" s="20" t="n">
+        <v>45407</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6752,6 +6756,9 @@
       <c r="G7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6773,6 +6780,9 @@
       <c r="G8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6794,6 +6804,9 @@
       <c r="G9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6817,6 +6830,9 @@
       <c r="G10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6838,6 +6854,9 @@
       <c r="G11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6859,6 +6878,9 @@
       <c r="G12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -6880,6 +6902,9 @@
       <c r="G13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -6901,6 +6926,9 @@
       <c r="G14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -6922,6 +6950,9 @@
       <c r="G15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -6943,6 +6974,9 @@
       <c r="G16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -6964,6 +6998,9 @@
       <c r="G17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -6985,6 +7022,9 @@
       <c r="G18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -7006,6 +7046,9 @@
       <c r="G19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -7027,6 +7070,9 @@
       <c r="G20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -7048,6 +7094,9 @@
       <c r="G21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -7069,6 +7118,9 @@
       <c r="G22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -7090,6 +7142,9 @@
       <c r="G23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -7111,6 +7166,9 @@
       <c r="G24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -7132,6 +7190,9 @@
       <c r="G25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -7153,6 +7214,9 @@
       <c r="G26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -7174,6 +7238,9 @@
       <c r="G27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -7195,6 +7262,9 @@
       <c r="G28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -7216,6 +7286,9 @@
       <c r="G29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -7237,6 +7310,9 @@
       <c r="G30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -7258,6 +7334,9 @@
       <c r="G31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -7281,6 +7360,9 @@
       <c r="G32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -7302,6 +7384,9 @@
       <c r="G33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -7323,6 +7408,9 @@
       <c r="G34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -7344,6 +7432,9 @@
       <c r="G35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -7365,6 +7456,9 @@
       <c r="G36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -7386,6 +7480,9 @@
       <c r="G37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -7407,6 +7504,9 @@
       <c r="G38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -7428,6 +7528,9 @@
       <c r="G39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -7451,6 +7554,9 @@
       <c r="G40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -7472,6 +7578,9 @@
       <c r="G41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -7493,6 +7602,9 @@
       <c r="G42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -7512,6 +7624,9 @@
       <c r="G43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -7531,6 +7646,9 @@
       <c r="G44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -7550,6 +7668,9 @@
       <c r="G45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -7569,6 +7690,9 @@
       <c r="G46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -7588,6 +7712,9 @@
       <c r="G47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -7607,6 +7734,9 @@
       <c r="G48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -7626,6 +7756,9 @@
       <c r="G49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -7645,6 +7778,9 @@
       <c r="G50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -7664,6 +7800,9 @@
       <c r="G51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -7683,6 +7822,9 @@
       <c r="G52" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -7702,6 +7844,9 @@
       <c r="G53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -7723,6 +7868,9 @@
       <c r="G54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -7742,6 +7890,9 @@
       <c r="G55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -7761,6 +7912,9 @@
       <c r="G56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -7780,6 +7934,9 @@
       <c r="G57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -7799,6 +7956,9 @@
       <c r="G58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -7818,6 +7978,9 @@
       <c r="G59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -7839,6 +8002,9 @@
       <c r="G60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -7858,6 +8024,9 @@
       <c r="G61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -7877,6 +8046,9 @@
       <c r="G62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -7896,6 +8068,9 @@
       <c r="G63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -7915,6 +8090,9 @@
       <c r="G64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -7934,6 +8112,9 @@
       <c r="G65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -7953,6 +8134,9 @@
       <c r="G66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -7972,6 +8156,9 @@
       <c r="G67" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H67" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -7991,6 +8178,9 @@
       <c r="G68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -8010,6 +8200,9 @@
       <c r="G69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -8029,6 +8222,9 @@
       <c r="G70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -8048,6 +8244,9 @@
       <c r="G71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -8067,6 +8266,9 @@
       <c r="G72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -8085,8 +8287,11 @@
       <c r="G73" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H73" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>69</v>
       </c>
@@ -8101,6 +8306,9 @@
       <c r="G74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -8117,6 +8325,9 @@
       <c r="G75" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H75" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -8133,6 +8344,9 @@
       <c r="G76" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H76" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -8149,6 +8363,9 @@
       <c r="G77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -8165,6 +8382,9 @@
       <c r="G78" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -8181,6 +8401,9 @@
       <c r="G79" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H79" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -8197,6 +8420,9 @@
       <c r="G80" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H80" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
@@ -8213,6 +8439,9 @@
         <v>16</v>
       </c>
       <c r="G81" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H81" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -9192,13 +9421,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:G72 F73:G81">
+  <conditionalFormatting sqref="D7:D172 E7:H72 F73:H81">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:G72 D73:D82 F73:G81 D83:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:H72 D73:D82 F73:H81 D83:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2195,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009760" cy="1623960"/>
+          <a:ext cx="5009400" cy="1623600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>305280</xdr:colOff>
+      <xdr:colOff>304920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009760" cy="1623960"/>
+          <a:ext cx="5009400" cy="1623600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>459000</xdr:colOff>
+      <xdr:colOff>458640</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5010120" cy="1623960"/>
+          <a:ext cx="5009760" cy="1623600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>264600</xdr:colOff>
+      <xdr:colOff>264240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5067720" cy="1661400"/>
+          <a:ext cx="5067360" cy="1661040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78480</xdr:colOff>
+      <xdr:colOff>78120</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="197640" cy="2228400"/>
+          <a:ext cx="197280" cy="2228040"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>407160</xdr:colOff>
+      <xdr:colOff>406800</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4619880" cy="1159560"/>
+          <a:ext cx="4619520" cy="1159200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>283680</xdr:colOff>
+      <xdr:colOff>283320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14727960" y="0"/>
-          <a:ext cx="5031000" cy="1646640"/>
+          <a:off x="14910840" y="0"/>
+          <a:ext cx="5030640" cy="1646280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>206280</xdr:rowOff>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067360" cy="3106800"/>
+          <a:ext cx="5067000" cy="3106440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>206280</xdr:rowOff>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067360" cy="2687760"/>
+          <a:ext cx="5067000" cy="2687400"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6663,10 +6663,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H172"/>
+  <dimension ref="A1:I172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A13" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H81" activeCellId="0" sqref="H81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A81" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I90" activeCellId="0" sqref="I90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6677,7 +6677,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="10" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6730,8 +6731,11 @@
       <c r="G6" s="17" t="n">
         <v>45406</v>
       </c>
-      <c r="H6" s="20" t="n">
+      <c r="H6" s="17" t="n">
         <v>45407</v>
+      </c>
+      <c r="I6" s="20" t="n">
+        <v>45408</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6759,6 +6763,9 @@
       <c r="H7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6783,6 +6790,9 @@
       <c r="H8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6807,6 +6817,9 @@
       <c r="H9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6833,6 +6846,9 @@
       <c r="H10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6857,6 +6873,9 @@
       <c r="H11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6881,6 +6900,9 @@
       <c r="H12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -6905,6 +6927,9 @@
       <c r="H13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -6929,6 +6954,9 @@
       <c r="H14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -6953,6 +6981,9 @@
       <c r="H15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -6977,6 +7008,9 @@
       <c r="H16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -7001,6 +7035,9 @@
       <c r="H17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -7025,6 +7062,9 @@
       <c r="H18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -7049,6 +7089,9 @@
       <c r="H19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -7073,6 +7116,9 @@
       <c r="H20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -7097,6 +7143,9 @@
       <c r="H21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -7121,6 +7170,9 @@
       <c r="H22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -7145,6 +7197,9 @@
       <c r="H23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -7169,6 +7224,9 @@
       <c r="H24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -7193,6 +7251,9 @@
       <c r="H25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -7217,6 +7278,9 @@
       <c r="H26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -7241,6 +7305,9 @@
       <c r="H27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -7265,6 +7332,9 @@
       <c r="H28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -7289,6 +7359,9 @@
       <c r="H29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -7313,6 +7386,9 @@
       <c r="H30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -7337,6 +7413,9 @@
       <c r="H31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -7363,6 +7442,9 @@
       <c r="H32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -7387,6 +7469,9 @@
       <c r="H33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -7411,6 +7496,9 @@
       <c r="H34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -7435,6 +7523,9 @@
       <c r="H35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -7459,6 +7550,9 @@
       <c r="H36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -7483,6 +7577,9 @@
       <c r="H37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -7507,6 +7604,9 @@
       <c r="H38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -7531,6 +7631,9 @@
       <c r="H39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -7557,6 +7660,9 @@
       <c r="H40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -7581,6 +7687,9 @@
       <c r="H41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -7605,6 +7714,9 @@
       <c r="H42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -7627,6 +7739,9 @@
       <c r="H43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -7649,6 +7764,9 @@
       <c r="H44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -7671,6 +7789,9 @@
       <c r="H45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -7693,6 +7814,9 @@
       <c r="H46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -7715,6 +7839,9 @@
       <c r="H47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -7737,6 +7864,9 @@
       <c r="H48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -7759,6 +7889,9 @@
       <c r="H49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -7781,6 +7914,9 @@
       <c r="H50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -7803,6 +7939,9 @@
       <c r="H51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -7825,6 +7964,9 @@
       <c r="H52" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -7847,6 +7989,9 @@
       <c r="H53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -7871,6 +8016,9 @@
       <c r="H54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -7893,6 +8041,9 @@
       <c r="H55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -7915,6 +8066,9 @@
       <c r="H56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -7937,6 +8091,9 @@
       <c r="H57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -7959,6 +8116,9 @@
       <c r="H58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -7981,6 +8141,9 @@
       <c r="H59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -8005,6 +8168,9 @@
       <c r="H60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -8027,6 +8193,9 @@
       <c r="H61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -8049,6 +8218,9 @@
       <c r="H62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -8071,6 +8243,9 @@
       <c r="H63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -8093,6 +8268,9 @@
       <c r="H64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -8115,6 +8293,9 @@
       <c r="H65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -8137,6 +8318,9 @@
       <c r="H66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -8159,6 +8343,9 @@
       <c r="H67" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I67" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -8181,6 +8368,9 @@
       <c r="H68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -8203,6 +8393,9 @@
       <c r="H69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -8225,6 +8418,9 @@
       <c r="H70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -8247,6 +8443,9 @@
       <c r="H71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -8269,6 +8468,9 @@
       <c r="H72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -8290,6 +8492,9 @@
       <c r="H73" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I73" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -8309,6 +8514,9 @@
       <c r="H74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -8328,6 +8536,9 @@
       <c r="H75" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I75" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -8347,6 +8558,9 @@
       <c r="H76" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I76" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -8366,6 +8580,9 @@
       <c r="H77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -8385,6 +8602,9 @@
       <c r="H78" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -8404,6 +8624,9 @@
       <c r="H79" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="I79" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -8423,8 +8646,11 @@
       <c r="H80" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I80" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>76</v>
       </c>
@@ -8444,8 +8670,11 @@
       <c r="H81" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I81" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>77</v>
       </c>
@@ -8456,8 +8685,11 @@
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I82" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>78</v>
       </c>
@@ -8466,8 +8698,11 @@
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
-    </row>
-    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I83" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>79</v>
       </c>
@@ -8476,8 +8711,11 @@
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I84" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>80</v>
       </c>
@@ -8486,8 +8724,11 @@
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
-    </row>
-    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I85" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>81</v>
       </c>
@@ -8496,8 +8737,11 @@
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
-    </row>
-    <row r="87" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I86" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
         <v>82</v>
       </c>
@@ -8506,8 +8750,11 @@
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
-    </row>
-    <row r="88" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I87" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
         <v>83</v>
       </c>
@@ -8518,8 +8765,11 @@
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
-    </row>
-    <row r="89" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I88" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
         <v>84</v>
       </c>
@@ -8528,8 +8778,11 @@
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
-    </row>
-    <row r="90" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I89" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>85</v>
       </c>
@@ -8538,8 +8791,11 @@
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
-    </row>
-    <row r="91" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I90" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
@@ -8548,8 +8804,11 @@
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
-    </row>
-    <row r="92" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I91" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
         <v>87</v>
       </c>
@@ -8558,8 +8817,11 @@
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
-    </row>
-    <row r="93" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I92" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
         <v>88</v>
       </c>
@@ -8568,8 +8830,11 @@
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
-    </row>
-    <row r="94" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I93" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>89</v>
       </c>
@@ -8580,8 +8845,11 @@
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
-    </row>
-    <row r="95" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I94" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
@@ -8590,8 +8858,11 @@
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
-    </row>
-    <row r="96" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I95" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
         <v>91</v>
       </c>
@@ -8600,8 +8871,11 @@
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
-    </row>
-    <row r="97" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I96" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
         <v>92</v>
       </c>
@@ -8610,8 +8884,11 @@
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
-    </row>
-    <row r="98" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I97" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
         <v>93</v>
       </c>
@@ -8620,8 +8897,11 @@
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
-    </row>
-    <row r="99" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I98" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>94</v>
       </c>
@@ -8630,8 +8910,11 @@
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
-    </row>
-    <row r="100" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I99" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
@@ -8640,8 +8923,11 @@
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
-    </row>
-    <row r="101" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I100" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
@@ -8650,6 +8936,9 @@
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
+      <c r="I101" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
@@ -9421,13 +9710,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:H72 F73:H81">
+  <conditionalFormatting sqref="D7:D172 E7:I72 F73:I81 I82:I101">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:H72 D73:D82 F73:H81 D83:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:I72 D73:D102 F73:I81 I82:I101 D103:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2195,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009400" cy="1623600"/>
+          <a:ext cx="5009040" cy="1623240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304920</xdr:colOff>
+      <xdr:colOff>304560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009400" cy="1623600"/>
+          <a:ext cx="5009040" cy="1623240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>458640</xdr:colOff>
+      <xdr:colOff>458280</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5009760" cy="1623600"/>
+          <a:ext cx="5009400" cy="1623240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>264240</xdr:colOff>
+      <xdr:colOff>263880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5067360" cy="1661040"/>
+          <a:ext cx="5067000" cy="1660680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>78120</xdr:colOff>
+      <xdr:colOff>77760</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="197280" cy="2228040"/>
+          <a:ext cx="196920" cy="2227680"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406800</xdr:colOff>
+      <xdr:colOff>406440</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4619520" cy="1159200"/>
+          <a:ext cx="4619160" cy="1158840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>283320</xdr:colOff>
+      <xdr:colOff>282960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14910840" y="0"/>
-          <a:ext cx="5030640" cy="1646280"/>
+          <a:off x="15093720" y="0"/>
+          <a:ext cx="5030280" cy="1645920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067000" cy="3106440"/>
+          <a:ext cx="5066640" cy="3106080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5067000" cy="2687400"/>
+          <a:ext cx="5066640" cy="2687040"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6663,10 +6663,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I172"/>
+  <dimension ref="A1:J172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A81" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I90" activeCellId="0" sqref="I90"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J110" activeCellId="0" sqref="J110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6677,8 +6677,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="10" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="11" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6734,8 +6734,11 @@
       <c r="H6" s="17" t="n">
         <v>45407</v>
       </c>
-      <c r="I6" s="20" t="n">
+      <c r="I6" s="17" t="n">
         <v>45408</v>
+      </c>
+      <c r="J6" s="20" t="n">
+        <v>45439</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,6 +6769,9 @@
       <c r="I7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6793,6 +6799,9 @@
       <c r="I8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6820,6 +6829,9 @@
       <c r="I9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6849,6 +6861,9 @@
       <c r="I10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6876,6 +6891,9 @@
       <c r="I11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6903,6 +6921,9 @@
       <c r="I12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -6930,6 +6951,9 @@
       <c r="I13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -6957,6 +6981,9 @@
       <c r="I14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -6984,6 +7011,9 @@
       <c r="I15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -7011,6 +7041,9 @@
       <c r="I16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -7038,6 +7071,9 @@
       <c r="I17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -7065,6 +7101,9 @@
       <c r="I18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -7092,6 +7131,9 @@
       <c r="I19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -7119,6 +7161,9 @@
       <c r="I20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -7146,6 +7191,9 @@
       <c r="I21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -7173,6 +7221,9 @@
       <c r="I22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -7200,6 +7251,9 @@
       <c r="I23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -7227,6 +7281,9 @@
       <c r="I24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -7254,6 +7311,9 @@
       <c r="I25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -7281,6 +7341,9 @@
       <c r="I26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -7308,6 +7371,9 @@
       <c r="I27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -7335,6 +7401,9 @@
       <c r="I28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -7362,6 +7431,9 @@
       <c r="I29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -7389,6 +7461,9 @@
       <c r="I30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -7416,6 +7491,9 @@
       <c r="I31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -7445,6 +7523,9 @@
       <c r="I32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -7472,6 +7553,9 @@
       <c r="I33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -7499,6 +7583,9 @@
       <c r="I34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -7526,6 +7613,9 @@
       <c r="I35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -7553,6 +7643,9 @@
       <c r="I36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -7580,6 +7673,9 @@
       <c r="I37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -7607,6 +7703,9 @@
       <c r="I38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -7634,6 +7733,9 @@
       <c r="I39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -7663,6 +7765,9 @@
       <c r="I40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -7690,6 +7795,9 @@
       <c r="I41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -7717,6 +7825,9 @@
       <c r="I42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -7742,6 +7853,9 @@
       <c r="I43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -7767,6 +7881,9 @@
       <c r="I44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -7792,6 +7909,9 @@
       <c r="I45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -7817,6 +7937,9 @@
       <c r="I46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -7842,6 +7965,9 @@
       <c r="I47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -7867,6 +7993,9 @@
       <c r="I48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -7892,6 +8021,9 @@
       <c r="I49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -7917,6 +8049,9 @@
       <c r="I50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -7942,6 +8077,9 @@
       <c r="I51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -7967,6 +8105,9 @@
       <c r="I52" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -7992,6 +8133,9 @@
       <c r="I53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -8019,6 +8163,9 @@
       <c r="I54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -8044,6 +8191,9 @@
       <c r="I55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -8069,6 +8219,9 @@
       <c r="I56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -8094,6 +8247,9 @@
       <c r="I57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -8119,6 +8275,9 @@
       <c r="I58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -8144,6 +8303,9 @@
       <c r="I59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -8171,6 +8333,9 @@
       <c r="I60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -8196,6 +8361,9 @@
       <c r="I61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -8221,6 +8389,9 @@
       <c r="I62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -8246,6 +8417,9 @@
       <c r="I63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -8271,6 +8445,9 @@
       <c r="I64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -8296,6 +8473,9 @@
       <c r="I65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -8321,6 +8501,9 @@
       <c r="I66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -8346,6 +8529,9 @@
       <c r="I67" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J67" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -8371,6 +8557,9 @@
       <c r="I68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -8396,6 +8585,9 @@
       <c r="I69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -8421,6 +8613,9 @@
       <c r="I70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -8446,6 +8641,9 @@
       <c r="I71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -8471,6 +8669,9 @@
       <c r="I72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -8495,6 +8696,9 @@
       <c r="I73" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J73" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -8517,6 +8721,9 @@
       <c r="I74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -8539,6 +8746,9 @@
       <c r="I75" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J75" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -8561,6 +8771,9 @@
       <c r="I76" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J76" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -8583,6 +8796,9 @@
       <c r="I77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -8605,6 +8821,9 @@
       <c r="I78" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -8627,6 +8846,9 @@
       <c r="I79" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J79" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -8649,6 +8871,9 @@
       <c r="I80" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J80" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
@@ -8673,6 +8898,9 @@
       <c r="I81" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J81" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -8688,6 +8916,9 @@
       <c r="I82" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J82" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
@@ -8701,6 +8932,9 @@
       <c r="I83" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J83" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
@@ -8714,6 +8948,9 @@
       <c r="I84" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J84" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
@@ -8727,6 +8964,9 @@
       <c r="I85" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J85" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
@@ -8740,6 +8980,9 @@
       <c r="I86" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J86" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
@@ -8753,6 +8996,9 @@
       <c r="I87" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J87" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
@@ -8768,6 +9014,9 @@
       <c r="I88" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J88" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
@@ -8781,8 +9030,11 @@
       <c r="I89" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J89" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
         <v>85</v>
       </c>
@@ -8794,6 +9046,9 @@
       <c r="I90" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J90" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
@@ -8807,6 +9062,9 @@
       <c r="I91" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J91" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
@@ -8820,6 +9078,9 @@
       <c r="I92" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J92" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
@@ -8833,8 +9094,11 @@
       <c r="I93" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J93" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
         <v>89</v>
       </c>
@@ -8848,6 +9112,9 @@
       <c r="I94" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J94" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
@@ -8861,6 +9128,9 @@
       <c r="I95" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J95" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
@@ -8874,6 +9144,9 @@
       <c r="I96" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J96" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
@@ -8887,6 +9160,9 @@
       <c r="I97" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J97" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
@@ -8900,8 +9176,11 @@
       <c r="I98" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J98" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
         <v>94</v>
       </c>
@@ -8913,8 +9192,11 @@
       <c r="I99" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J99" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
@@ -8926,8 +9208,11 @@
       <c r="I100" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J100" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
@@ -8939,8 +9224,11 @@
       <c r="I101" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J101" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
         <v>97</v>
       </c>
@@ -8951,8 +9239,11 @@
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
-    </row>
-    <row r="103" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J102" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
         <v>98</v>
       </c>
@@ -8961,8 +9252,11 @@
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
-    </row>
-    <row r="104" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J103" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
         <v>99</v>
       </c>
@@ -8971,8 +9265,11 @@
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
-    </row>
-    <row r="105" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J104" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>100</v>
       </c>
@@ -8981,8 +9278,11 @@
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
-    </row>
-    <row r="106" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J105" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
         <v>101</v>
       </c>
@@ -8993,8 +9293,11 @@
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
-    </row>
-    <row r="107" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J106" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
         <v>102</v>
       </c>
@@ -9003,8 +9306,11 @@
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
-    </row>
-    <row r="108" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J107" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>103</v>
       </c>
@@ -9015,8 +9321,11 @@
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
-    </row>
-    <row r="109" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J108" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
@@ -9025,8 +9334,11 @@
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
-    </row>
-    <row r="110" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J109" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>105</v>
       </c>
@@ -9035,8 +9347,11 @@
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
-    </row>
-    <row r="111" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J110" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
@@ -9045,8 +9360,11 @@
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
-    </row>
-    <row r="112" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J111" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
         <v>107</v>
       </c>
@@ -9055,8 +9373,11 @@
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
-    </row>
-    <row r="113" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J112" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
         <v>108</v>
       </c>
@@ -9065,8 +9386,11 @@
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
-    </row>
-    <row r="114" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J113" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>109</v>
       </c>
@@ -9077,8 +9401,11 @@
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
-    </row>
-    <row r="115" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J114" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
@@ -9087,8 +9414,11 @@
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
-    </row>
-    <row r="116" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J115" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
@@ -9097,8 +9427,11 @@
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
-    </row>
-    <row r="117" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J116" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
@@ -9107,8 +9440,11 @@
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
-    </row>
-    <row r="118" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J117" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
@@ -9117,6 +9453,9 @@
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
+      <c r="J118" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
@@ -9710,13 +10049,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:I72 F73:I81 I82:I101">
+  <conditionalFormatting sqref="D7:D172 E7:J72 F73:J81 I82:J101 J102:J118">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:I72 D73:D102 F73:I81 I82:I101 D103:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:J72 D73:D119 F73:J81 I82:J101 J102:J118 D120:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2195,9 +2195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2207,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009040" cy="1623240"/>
+          <a:ext cx="5008680" cy="1622880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5009040" cy="1623240"/>
+          <a:ext cx="5008680" cy="1622880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>458280</xdr:colOff>
+      <xdr:colOff>457920</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2563,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5009400" cy="1623240"/>
+          <a:ext cx="5009040" cy="1622880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2729,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>263880</xdr:colOff>
+      <xdr:colOff>263520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2741,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5067000" cy="1660680"/>
+          <a:ext cx="5066640" cy="1660320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77760</xdr:colOff>
+      <xdr:colOff>77400</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="196920" cy="2227680"/>
+          <a:ext cx="196560" cy="2227320"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406440</xdr:colOff>
+      <xdr:colOff>406080</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4619160" cy="1158840"/>
+          <a:ext cx="4618800" cy="1158480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3067,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>282960</xdr:colOff>
+      <xdr:colOff>282600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,8 +3078,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15093720" y="0"/>
-          <a:ext cx="5030280" cy="1645920"/>
+          <a:off x="15276600" y="0"/>
+          <a:ext cx="5029920" cy="1645560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>205560</xdr:rowOff>
+      <xdr:rowOff>205200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066640" cy="3106080"/>
+          <a:ext cx="5066280" cy="3105720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205560</xdr:rowOff>
+      <xdr:rowOff>205200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066640" cy="2687040"/>
+          <a:ext cx="5066280" cy="2686680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6663,10 +6663,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:K172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A91" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J110" activeCellId="0" sqref="J110"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K119" activeCellId="0" sqref="K119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6677,8 +6677,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="11" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6737,8 +6737,11 @@
       <c r="I6" s="17" t="n">
         <v>45408</v>
       </c>
-      <c r="J6" s="20" t="n">
+      <c r="J6" s="17" t="n">
         <v>45439</v>
+      </c>
+      <c r="K6" s="20" t="n">
+        <v>45440</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6772,6 +6775,9 @@
       <c r="J7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6802,6 +6808,9 @@
       <c r="J8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6832,6 +6841,9 @@
       <c r="J9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6864,6 +6876,9 @@
       <c r="J10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6894,6 +6909,9 @@
       <c r="J11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6924,6 +6942,9 @@
       <c r="J12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -6954,6 +6975,9 @@
       <c r="J13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -6984,6 +7008,9 @@
       <c r="J14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -7014,6 +7041,9 @@
       <c r="J15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -7044,6 +7074,9 @@
       <c r="J16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -7074,6 +7107,9 @@
       <c r="J17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -7104,6 +7140,9 @@
       <c r="J18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -7134,6 +7173,9 @@
       <c r="J19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -7164,6 +7206,9 @@
       <c r="J20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -7194,6 +7239,9 @@
       <c r="J21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -7224,6 +7272,9 @@
       <c r="J22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -7254,6 +7305,9 @@
       <c r="J23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -7284,6 +7338,9 @@
       <c r="J24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -7314,6 +7371,9 @@
       <c r="J25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -7344,6 +7404,9 @@
       <c r="J26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -7374,6 +7437,9 @@
       <c r="J27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -7404,6 +7470,9 @@
       <c r="J28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -7434,6 +7503,9 @@
       <c r="J29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -7464,6 +7536,9 @@
       <c r="J30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -7494,6 +7569,9 @@
       <c r="J31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -7526,6 +7604,9 @@
       <c r="J32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -7556,6 +7637,9 @@
       <c r="J33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -7586,6 +7670,9 @@
       <c r="J34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -7616,6 +7703,9 @@
       <c r="J35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -7646,6 +7736,9 @@
       <c r="J36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -7676,6 +7769,9 @@
       <c r="J37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -7706,6 +7802,9 @@
       <c r="J38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -7736,6 +7835,9 @@
       <c r="J39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -7768,6 +7870,9 @@
       <c r="J40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -7798,6 +7903,9 @@
       <c r="J41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -7828,6 +7936,9 @@
       <c r="J42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -7856,6 +7967,9 @@
       <c r="J43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -7884,6 +7998,9 @@
       <c r="J44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -7912,6 +8029,9 @@
       <c r="J45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -7940,6 +8060,9 @@
       <c r="J46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -7968,6 +8091,9 @@
       <c r="J47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -7996,6 +8122,9 @@
       <c r="J48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -8024,6 +8153,9 @@
       <c r="J49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -8052,6 +8184,9 @@
       <c r="J50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -8080,6 +8215,9 @@
       <c r="J51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -8108,6 +8246,9 @@
       <c r="J52" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -8136,6 +8277,9 @@
       <c r="J53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -8166,6 +8310,9 @@
       <c r="J54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -8194,6 +8341,9 @@
       <c r="J55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -8222,6 +8372,9 @@
       <c r="J56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -8250,6 +8403,9 @@
       <c r="J57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -8278,6 +8434,9 @@
       <c r="J58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -8306,6 +8465,9 @@
       <c r="J59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -8336,6 +8498,9 @@
       <c r="J60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -8364,6 +8529,9 @@
       <c r="J61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -8392,6 +8560,9 @@
       <c r="J62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -8420,6 +8591,9 @@
       <c r="J63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -8448,6 +8622,9 @@
       <c r="J64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -8476,6 +8653,9 @@
       <c r="J65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -8504,6 +8684,9 @@
       <c r="J66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -8532,6 +8715,9 @@
       <c r="J67" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K67" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -8560,6 +8746,9 @@
       <c r="J68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -8588,6 +8777,9 @@
       <c r="J69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -8616,6 +8808,9 @@
       <c r="J70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -8644,6 +8839,9 @@
       <c r="J71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -8672,6 +8870,9 @@
       <c r="J72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -8699,6 +8900,9 @@
       <c r="J73" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K73" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -8724,6 +8928,9 @@
       <c r="J74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -8749,6 +8956,9 @@
       <c r="J75" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K75" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -8774,6 +8984,9 @@
       <c r="J76" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K76" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -8799,6 +9012,9 @@
       <c r="J77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -8824,6 +9040,9 @@
       <c r="J78" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -8849,6 +9068,9 @@
       <c r="J79" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K79" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -8874,6 +9096,9 @@
       <c r="J80" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K80" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
@@ -8901,6 +9126,9 @@
       <c r="J81" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K81" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -8919,6 +9147,9 @@
       <c r="J82" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K82" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
@@ -8935,6 +9166,9 @@
       <c r="J83" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K83" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
@@ -8951,6 +9185,9 @@
       <c r="J84" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K84" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
@@ -8967,6 +9204,9 @@
       <c r="J85" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K85" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
@@ -8983,6 +9223,9 @@
       <c r="J86" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K86" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="n">
@@ -8999,6 +9242,9 @@
       <c r="J87" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K87" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="n">
@@ -9017,6 +9263,9 @@
       <c r="J88" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K88" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="n">
@@ -9033,6 +9282,9 @@
       <c r="J89" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K89" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="n">
@@ -9049,6 +9301,9 @@
       <c r="J90" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K90" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
@@ -9065,6 +9320,9 @@
       <c r="J91" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K91" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="n">
@@ -9081,6 +9339,9 @@
       <c r="J92" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K92" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="n">
@@ -9097,6 +9358,9 @@
       <c r="J93" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K93" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="n">
@@ -9115,6 +9379,9 @@
       <c r="J94" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K94" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
@@ -9131,6 +9398,9 @@
       <c r="J95" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K95" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="n">
@@ -9147,6 +9417,9 @@
       <c r="J96" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K96" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6" t="n">
@@ -9163,6 +9436,9 @@
       <c r="J97" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K97" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6" t="n">
@@ -9179,6 +9455,9 @@
       <c r="J98" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K98" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6" t="n">
@@ -9195,6 +9474,9 @@
       <c r="J99" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K99" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
@@ -9211,6 +9493,9 @@
       <c r="J100" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K100" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
@@ -9227,6 +9512,9 @@
       <c r="J101" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K101" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
@@ -9242,6 +9530,9 @@
       <c r="J102" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K102" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="6" t="n">
@@ -9255,6 +9546,9 @@
       <c r="J103" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K103" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="6" t="n">
@@ -9268,8 +9562,11 @@
       <c r="J104" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K104" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="6" t="n">
         <v>100</v>
       </c>
@@ -9281,6 +9578,9 @@
       <c r="J105" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="K105" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
@@ -9296,6 +9596,9 @@
       <c r="J106" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K106" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="6" t="n">
@@ -9309,6 +9612,9 @@
       <c r="J107" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K107" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
@@ -9324,6 +9630,9 @@
       <c r="J108" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="K108" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
@@ -9337,6 +9646,9 @@
       <c r="J109" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K109" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
@@ -9350,6 +9662,9 @@
       <c r="J110" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="K110" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
@@ -9363,6 +9678,9 @@
       <c r="J111" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K111" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="6" t="n">
@@ -9376,6 +9694,9 @@
       <c r="J112" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="K112" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="6" t="n">
@@ -9389,8 +9710,11 @@
       <c r="J113" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K113" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="6" t="n">
         <v>109</v>
       </c>
@@ -9404,8 +9728,11 @@
       <c r="J114" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K114" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
@@ -9417,8 +9744,11 @@
       <c r="J115" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K115" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
@@ -9430,6 +9760,9 @@
       <c r="J116" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="K116" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
@@ -9443,8 +9776,11 @@
       <c r="J117" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K117" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
@@ -9456,8 +9792,11 @@
       <c r="J118" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K118" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>114</v>
       </c>
@@ -9468,8 +9807,11 @@
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
-    </row>
-    <row r="120" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K119" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>115</v>
       </c>
@@ -9478,8 +9820,11 @@
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
-    </row>
-    <row r="121" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K120" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
@@ -9488,8 +9833,11 @@
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
-    </row>
-    <row r="122" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K121" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
@@ -9498,8 +9846,11 @@
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
-    </row>
-    <row r="123" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K122" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
@@ -9508,6 +9859,9 @@
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
+      <c r="K123" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
@@ -9933,7 +10287,7 @@
       </c>
       <c r="D164" s="9"/>
     </row>
-    <row r="165" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>160</v>
       </c>
@@ -9942,8 +10296,9 @@
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
-    </row>
-    <row r="166" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K165" s="0"/>
+    </row>
+    <row r="166" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
@@ -9953,7 +10308,7 @@
       </c>
       <c r="D166" s="9"/>
     </row>
-    <row r="167" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>162</v>
       </c>
@@ -10049,13 +10404,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:J72 F73:J81 I82:J101 J102:J118">
+  <conditionalFormatting sqref="D7:D172 E7:K72 F73:K81 I82:K101 J102:K118 K119:K123">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:J72 D73:D119 F73:J81 I82:J101 J102:J118 D120:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:K72 D73:D124 F73:K81 I82:K101 J102:K118 K119:K123 D125:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,13 +1632,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -2036,11 +2035,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2195,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2207,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5008680" cy="1622880"/>
+          <a:ext cx="5008320" cy="1622520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2373,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>304200</xdr:colOff>
+      <xdr:colOff>303840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2385,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5008680" cy="1622880"/>
+          <a:ext cx="5008320" cy="1622520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2551,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>457920</xdr:colOff>
+      <xdr:colOff>457560</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2563,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5009040" cy="1622880"/>
+          <a:ext cx="5008680" cy="1622520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2729,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>263520</xdr:colOff>
+      <xdr:colOff>263160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2741,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5066640" cy="1660320"/>
+          <a:ext cx="5066280" cy="1659960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2902,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>77040</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2914,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="196560" cy="2227320"/>
+          <a:ext cx="196200" cy="2226960"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2954,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>406080</xdr:colOff>
+      <xdr:colOff>405720</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2966,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4618800" cy="1158480"/>
+          <a:ext cx="4618440" cy="1158120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3067,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>282600</xdr:colOff>
+      <xdr:colOff>282240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>54720</xdr:rowOff>
+      <xdr:rowOff>54360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,8 +3077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15276600" y="0"/>
-          <a:ext cx="5029920" cy="1645560"/>
+          <a:off x="15459480" y="0"/>
+          <a:ext cx="5029560" cy="1645200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3245,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>315360</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>205200</xdr:rowOff>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3257,7 +3256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066280" cy="3105720"/>
+          <a:ext cx="5065920" cy="3105360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3423,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>315360</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>205200</xdr:rowOff>
+      <xdr:rowOff>204840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3435,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5066280" cy="2686680"/>
+          <a:ext cx="5065920" cy="2686320"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6663,10 +6662,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K172"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K119" activeCellId="0" sqref="K119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A120" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L132" activeCellId="0" sqref="L132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6677,8 +6676,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="9" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="12" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6740,8 +6739,11 @@
       <c r="J6" s="17" t="n">
         <v>45439</v>
       </c>
-      <c r="K6" s="20" t="n">
+      <c r="K6" s="17" t="n">
         <v>45440</v>
+      </c>
+      <c r="L6" s="17" t="n">
+        <v>45441</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6778,6 +6780,9 @@
       <c r="K7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6811,6 +6816,9 @@
       <c r="K8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6844,6 +6852,9 @@
       <c r="K9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6879,6 +6890,9 @@
       <c r="K10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6912,6 +6926,9 @@
       <c r="K11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6945,13 +6962,16 @@
       <c r="K12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9" t="n">
@@ -6976,6 +6996,9 @@
         <v>0</v>
       </c>
       <c r="K13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6984,7 +7007,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9" t="n">
@@ -7009,6 +7032,9 @@
         <v>0</v>
       </c>
       <c r="K14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7017,7 +7043,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9" t="n">
@@ -7042,6 +7068,9 @@
         <v>0</v>
       </c>
       <c r="K15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7050,7 +7079,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -7075,6 +7104,9 @@
         <v>0</v>
       </c>
       <c r="K16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7083,7 +7115,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -7108,6 +7140,9 @@
         <v>0</v>
       </c>
       <c r="K17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7116,7 +7151,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -7141,6 +7176,9 @@
         <v>0</v>
       </c>
       <c r="K18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7149,7 +7187,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -7174,6 +7212,9 @@
         <v>0</v>
       </c>
       <c r="K19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7182,7 +7223,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9" t="n">
@@ -7207,6 +7248,9 @@
         <v>0</v>
       </c>
       <c r="K20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7215,7 +7259,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9" t="n">
@@ -7240,6 +7284,9 @@
         <v>0</v>
       </c>
       <c r="K21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7248,7 +7295,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9" t="n">
@@ -7273,6 +7320,9 @@
         <v>0</v>
       </c>
       <c r="K22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7281,7 +7331,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -7306,6 +7356,9 @@
         <v>0</v>
       </c>
       <c r="K23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7314,7 +7367,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9" t="n">
@@ -7339,6 +7392,9 @@
         <v>0</v>
       </c>
       <c r="K24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7347,7 +7403,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9" t="n">
@@ -7372,6 +7428,9 @@
         <v>0</v>
       </c>
       <c r="K25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7380,7 +7439,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9" t="n">
@@ -7405,6 +7464,9 @@
         <v>0</v>
       </c>
       <c r="K26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7413,7 +7475,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9" t="n">
@@ -7438,6 +7500,9 @@
         <v>0</v>
       </c>
       <c r="K27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7446,7 +7511,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9" t="n">
@@ -7471,6 +7536,9 @@
         <v>0</v>
       </c>
       <c r="K28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7479,7 +7547,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9" t="n">
@@ -7504,6 +7572,9 @@
         <v>0</v>
       </c>
       <c r="K29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7512,7 +7583,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9" t="n">
@@ -7537,6 +7608,9 @@
         <v>0</v>
       </c>
       <c r="K30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7545,7 +7619,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9" t="n">
@@ -7570,6 +7644,9 @@
         <v>0</v>
       </c>
       <c r="K31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7580,7 +7657,7 @@
       <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9" t="n">
@@ -7605,6 +7682,9 @@
         <v>0</v>
       </c>
       <c r="K32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7613,7 +7693,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9" t="n">
@@ -7638,6 +7718,9 @@
         <v>0</v>
       </c>
       <c r="K33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7646,7 +7729,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="18"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9" t="n">
@@ -7671,6 +7754,9 @@
         <v>0</v>
       </c>
       <c r="K34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7679,7 +7765,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="18"/>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9" t="n">
@@ -7704,6 +7790,9 @@
         <v>0</v>
       </c>
       <c r="K35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7712,7 +7801,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9" t="n">
@@ -7737,6 +7826,9 @@
         <v>0</v>
       </c>
       <c r="K36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7745,7 +7837,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9" t="n">
@@ -7770,6 +7862,9 @@
         <v>0</v>
       </c>
       <c r="K37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7778,7 +7873,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
@@ -7803,6 +7898,9 @@
         <v>0</v>
       </c>
       <c r="K38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7811,7 +7909,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9" t="n">
@@ -7836,6 +7934,9 @@
         <v>0</v>
       </c>
       <c r="K39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7846,7 +7947,7 @@
       <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -7871,6 +7972,9 @@
         <v>0</v>
       </c>
       <c r="K40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7879,7 +7983,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -7904,6 +8008,9 @@
         <v>0</v>
       </c>
       <c r="K41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7914,7 +8021,7 @@
       <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -7937,6 +8044,9 @@
         <v>0</v>
       </c>
       <c r="K42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7945,7 +8055,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -7968,6 +8078,9 @@
         <v>0</v>
       </c>
       <c r="K43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7976,7 +8089,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -7999,6 +8112,9 @@
         <v>0</v>
       </c>
       <c r="K44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8007,7 +8123,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -8032,13 +8148,16 @@
       <c r="K45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -8063,13 +8182,16 @@
       <c r="K46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -8092,6 +8214,9 @@
         <v>0</v>
       </c>
       <c r="K47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8100,7 +8225,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -8123,6 +8248,9 @@
         <v>0</v>
       </c>
       <c r="K48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8131,7 +8259,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -8154,6 +8282,9 @@
         <v>0</v>
       </c>
       <c r="K49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8162,7 +8293,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="18"/>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -8185,6 +8316,9 @@
         <v>0</v>
       </c>
       <c r="K50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8193,7 +8327,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -8216,6 +8350,9 @@
         <v>0</v>
       </c>
       <c r="K51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8224,7 +8361,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -8247,6 +8384,9 @@
         <v>0</v>
       </c>
       <c r="K52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8255,7 +8395,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -8278,6 +8418,9 @@
         <v>0</v>
       </c>
       <c r="K53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8288,7 +8431,7 @@
       <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -8311,6 +8454,9 @@
         <v>0</v>
       </c>
       <c r="K54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8319,7 +8465,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -8342,6 +8488,9 @@
         <v>0</v>
       </c>
       <c r="K55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8350,7 +8499,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -8373,6 +8522,9 @@
         <v>0</v>
       </c>
       <c r="K56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8381,7 +8533,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -8404,6 +8556,9 @@
         <v>0</v>
       </c>
       <c r="K57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8412,7 +8567,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -8435,6 +8590,9 @@
         <v>0</v>
       </c>
       <c r="K58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8443,7 +8601,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -8466,6 +8624,9 @@
         <v>0</v>
       </c>
       <c r="K59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8476,7 +8637,7 @@
       <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -8499,6 +8660,9 @@
         <v>0</v>
       </c>
       <c r="K60" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8507,7 +8671,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -8530,6 +8694,9 @@
         <v>0</v>
       </c>
       <c r="K61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8538,7 +8705,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -8561,6 +8728,9 @@
         <v>0</v>
       </c>
       <c r="K62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8569,7 +8739,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -8592,6 +8762,9 @@
         <v>0</v>
       </c>
       <c r="K63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8600,7 +8773,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="18"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -8623,6 +8796,9 @@
         <v>0</v>
       </c>
       <c r="K64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8631,7 +8807,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -8654,6 +8830,9 @@
         <v>0</v>
       </c>
       <c r="K65" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8662,7 +8841,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -8685,6 +8864,9 @@
         <v>0</v>
       </c>
       <c r="K66" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8693,7 +8875,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -8716,6 +8898,9 @@
         <v>0</v>
       </c>
       <c r="K67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8724,7 +8909,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -8749,13 +8934,16 @@
       <c r="K68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -8780,13 +8968,16 @@
       <c r="K69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -8811,13 +9002,16 @@
       <c r="K70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -8840,6 +9034,9 @@
         <v>0</v>
       </c>
       <c r="K71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8848,7 +9045,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -8871,6 +9068,9 @@
         <v>0</v>
       </c>
       <c r="K72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8881,7 +9081,7 @@
       <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -8901,6 +9101,9 @@
         <v>0</v>
       </c>
       <c r="K73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8909,7 +9112,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -8931,13 +9134,16 @@
       <c r="K74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -8957,6 +9163,9 @@
         <v>0</v>
       </c>
       <c r="K75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8965,7 +9174,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -8985,6 +9194,9 @@
         <v>0</v>
       </c>
       <c r="K76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8993,7 +9205,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -9015,13 +9227,16 @@
       <c r="K77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -9043,13 +9258,16 @@
       <c r="K78" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -9069,6 +9287,9 @@
         <v>0</v>
       </c>
       <c r="K79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9077,7 +9298,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="18"/>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -9097,6 +9318,9 @@
         <v>0</v>
       </c>
       <c r="K80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9107,7 +9331,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -9129,6 +9353,9 @@
       <c r="K81" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L81" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -9137,7 +9364,7 @@
       <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -9148,6 +9375,9 @@
         <v>0</v>
       </c>
       <c r="K82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9156,7 +9386,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="18"/>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -9167,6 +9397,9 @@
         <v>0</v>
       </c>
       <c r="K83" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9175,7 +9408,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="18"/>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -9186,6 +9419,9 @@
         <v>0</v>
       </c>
       <c r="K84" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9194,7 +9430,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="18"/>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -9205,6 +9441,9 @@
         <v>0</v>
       </c>
       <c r="K85" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9213,7 +9452,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="18"/>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -9224,6 +9463,9 @@
         <v>0</v>
       </c>
       <c r="K86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9232,7 +9474,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18"/>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -9243,6 +9485,9 @@
         <v>0</v>
       </c>
       <c r="K87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9253,7 +9498,7 @@
       <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -9264,6 +9509,9 @@
         <v>0</v>
       </c>
       <c r="K88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9272,7 +9520,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="18"/>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -9283,6 +9531,9 @@
         <v>0</v>
       </c>
       <c r="K89" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9291,7 +9542,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="18"/>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -9304,13 +9555,16 @@
       <c r="K90" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L90" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
       <c r="B91" s="18"/>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -9321,6 +9575,9 @@
         <v>0</v>
       </c>
       <c r="K91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9329,7 +9586,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="18"/>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -9340,6 +9597,9 @@
         <v>0</v>
       </c>
       <c r="K92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9348,7 +9608,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="18"/>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -9359,6 +9619,9 @@
         <v>0</v>
       </c>
       <c r="K93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9369,7 +9632,7 @@
       <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -9382,13 +9645,16 @@
       <c r="K94" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L94" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
       <c r="B95" s="18"/>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -9399,6 +9665,9 @@
         <v>0</v>
       </c>
       <c r="K95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9407,7 +9676,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="18"/>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -9418,6 +9687,9 @@
         <v>0</v>
       </c>
       <c r="K96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9426,7 +9698,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="18"/>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -9437,6 +9709,9 @@
         <v>0</v>
       </c>
       <c r="K97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9445,7 +9720,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="18"/>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -9456,6 +9731,9 @@
         <v>0</v>
       </c>
       <c r="K98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9464,7 +9742,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="18"/>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -9477,13 +9755,16 @@
       <c r="K99" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L99" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
       <c r="B100" s="18"/>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -9496,13 +9777,16 @@
       <c r="K100" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L100" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
       <c r="B101" s="18"/>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="20" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -9515,6 +9799,9 @@
       <c r="K101" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L101" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
@@ -9523,7 +9810,7 @@
       <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="20" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -9531,6 +9818,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9539,7 +9829,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="18"/>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -9547,6 +9837,9 @@
         <v>0</v>
       </c>
       <c r="K103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9555,7 +9848,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="18"/>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -9563,6 +9856,9 @@
         <v>0</v>
       </c>
       <c r="K104" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9571,7 +9867,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="18"/>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="20" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -9581,6 +9877,9 @@
       <c r="K105" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="L105" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
@@ -9589,7 +9888,7 @@
       <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -9597,6 +9896,9 @@
         <v>0</v>
       </c>
       <c r="K106" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9605,7 +9907,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="18"/>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -9615,15 +9917,18 @@
       <c r="K107" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L107" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="6" t="n">
         <v>103</v>
       </c>
       <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -9633,13 +9938,16 @@
       <c r="K108" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="L108" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
       <c r="B109" s="18"/>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="20" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -9649,13 +9957,16 @@
       <c r="K109" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L109" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="6" t="n">
         <v>105</v>
       </c>
       <c r="B110" s="18"/>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -9665,13 +9976,16 @@
       <c r="K110" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="L110" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
       <c r="B111" s="18"/>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="20" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -9679,6 +9993,9 @@
         <v>0</v>
       </c>
       <c r="K111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9687,7 +10004,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="18"/>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -9695,6 +10012,9 @@
         <v>0</v>
       </c>
       <c r="K112" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9703,7 +10023,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="18"/>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="20" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -9711,6 +10031,9 @@
         <v>0</v>
       </c>
       <c r="K113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9721,7 +10044,7 @@
       <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="20" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -9731,13 +10054,16 @@
       <c r="K114" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L114" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
       <c r="B115" s="18"/>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -9747,13 +10073,16 @@
       <c r="K115" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L115" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
       <c r="B116" s="18"/>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="20" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -9763,13 +10092,16 @@
       <c r="K116" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="L116" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
       <c r="B117" s="18"/>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="20" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -9779,13 +10111,16 @@
       <c r="K117" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L117" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
       <c r="B118" s="18"/>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -9795,393 +10130,504 @@
       <c r="K118" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L118" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
         <v>114</v>
       </c>
       <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="20" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
       <c r="K119" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L119" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="6" t="n">
         <v>115</v>
       </c>
       <c r="B120" s="18"/>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="20" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
       <c r="K120" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L120" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
       <c r="B121" s="18"/>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
       <c r="K121" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L121" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
       <c r="B122" s="18"/>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="20" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
       <c r="K122" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L122" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
       <c r="B123" s="18"/>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
       <c r="K123" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L123" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
         <v>119</v>
       </c>
       <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
-    </row>
-    <row r="125" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L124" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="6" t="n">
         <v>120</v>
       </c>
       <c r="B125" s="18"/>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
-    </row>
-    <row r="126" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L125" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="6" t="n">
         <v>121</v>
       </c>
       <c r="B126" s="18"/>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="20" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
-    </row>
-    <row r="127" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L126" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="6" t="n">
         <v>122</v>
       </c>
       <c r="B127" s="18"/>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="20" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
-    </row>
-    <row r="128" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L127" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="6" t="n">
         <v>123</v>
       </c>
       <c r="B128" s="18"/>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
-    </row>
-    <row r="129" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L128" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="6" t="n">
         <v>124</v>
       </c>
       <c r="B129" s="18"/>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
-    </row>
-    <row r="130" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L129" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="6" t="n">
         <v>125</v>
       </c>
       <c r="B130" s="18"/>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
-    </row>
-    <row r="131" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L130" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="6" t="n">
         <v>126</v>
       </c>
       <c r="B131" s="18"/>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
-    </row>
-    <row r="132" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L131" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>127</v>
       </c>
       <c r="B132" s="18"/>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
-    </row>
-    <row r="133" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L132" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
       <c r="B133" s="18"/>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
-    </row>
-    <row r="134" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L133" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="6" t="n">
         <v>129</v>
       </c>
       <c r="B134" s="18"/>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="20" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
-    </row>
-    <row r="135" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L134" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="6" t="n">
         <v>130</v>
       </c>
       <c r="B135" s="18"/>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
-    </row>
-    <row r="136" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L135" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="20" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
-    </row>
-    <row r="137" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L136" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
-    </row>
-    <row r="138" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L137" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="6" t="n">
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
-    </row>
-    <row r="139" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L138" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="6" t="n">
         <v>134</v>
       </c>
       <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="20" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
-    </row>
-    <row r="140" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L139" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="6" t="n">
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
-    </row>
-    <row r="141" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L140" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="20" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
-    </row>
-    <row r="142" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L141" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>137</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
-    </row>
-    <row r="143" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L142" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
       <c r="B143" s="18"/>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
-    </row>
-    <row r="144" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L143" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
       <c r="B144" s="18"/>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
-    </row>
-    <row r="145" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L144" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
       <c r="B145" s="18"/>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="20" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
-    </row>
-    <row r="146" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L145" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
       <c r="B146" s="18"/>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
-    </row>
-    <row r="147" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L146" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
       <c r="B147" s="18"/>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
-    </row>
-    <row r="148" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L147" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>143</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
-    </row>
-    <row r="149" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L148" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="6" t="n">
         <v>144</v>
       </c>
       <c r="B149" s="18"/>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="20" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
-    </row>
-    <row r="150" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L149" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>145</v>
       </c>
       <c r="B150" s="18"/>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
-    </row>
-    <row r="151" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L150" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="6" t="n">
         <v>146</v>
       </c>
       <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="20" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
-    </row>
-    <row r="152" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L151" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="6" t="n">
         <v>147</v>
       </c>
       <c r="B152" s="18"/>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
-    </row>
-    <row r="153" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L152" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>148</v>
       </c>
       <c r="B153" s="18"/>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
-    </row>
-    <row r="154" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L153" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
       <c r="B154" s="18"/>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
+      <c r="L154" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
@@ -10190,7 +10636,7 @@
       <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="20" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
@@ -10200,7 +10646,7 @@
         <v>151</v>
       </c>
       <c r="B156" s="18"/>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
@@ -10210,7 +10656,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="20" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
@@ -10220,7 +10666,7 @@
         <v>153</v>
       </c>
       <c r="B158" s="18"/>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="20" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
@@ -10230,7 +10676,7 @@
         <v>154</v>
       </c>
       <c r="B159" s="18"/>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
@@ -10240,7 +10686,7 @@
         <v>155</v>
       </c>
       <c r="B160" s="18"/>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
@@ -10250,7 +10696,7 @@
         <v>156</v>
       </c>
       <c r="B161" s="18"/>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="20" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
@@ -10260,7 +10706,7 @@
         <v>157</v>
       </c>
       <c r="B162" s="18"/>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="20" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
@@ -10272,7 +10718,7 @@
       <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="20" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
@@ -10282,7 +10728,7 @@
         <v>159</v>
       </c>
       <c r="B164" s="18"/>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="20" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
@@ -10292,18 +10738,18 @@
         <v>160</v>
       </c>
       <c r="B165" s="18"/>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="20" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="K165" s="0"/>
+      <c r="K165" s="21"/>
     </row>
     <row r="166" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
       <c r="B166" s="18"/>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
@@ -10313,7 +10759,7 @@
         <v>162</v>
       </c>
       <c r="B167" s="18"/>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="20" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
@@ -10323,7 +10769,7 @@
         <v>163</v>
       </c>
       <c r="B168" s="18"/>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="20" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
@@ -10335,7 +10781,7 @@
       <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
@@ -10345,7 +10791,7 @@
         <v>165</v>
       </c>
       <c r="B170" s="18"/>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="20" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
@@ -10357,7 +10803,7 @@
       <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
@@ -10367,7 +10813,7 @@
         <v>167</v>
       </c>
       <c r="B172" s="18"/>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
@@ -10404,13 +10850,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:K72 F73:K81 I82:K101 J102:K118 K119:K123">
+  <conditionalFormatting sqref="D7:D172 E7:L72 F73:L81 I82:L101 J102:L118 K119:L123 L124:L154">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:K72 D73:D124 F73:K81 I82:K101 J102:K118 K119:K123 D125:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:L72 D73:D155 F73:L81 I82:L101 J102:L118 K119:L123 L124:L154 D156:D172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10497,7 +10943,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -11094,7 +11540,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -11105,7 +11551,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -11116,7 +11562,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -11127,7 +11573,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -11138,7 +11584,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -11149,7 +11595,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -11160,7 +11606,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -11171,7 +11617,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -11184,7 +11630,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -11197,7 +11643,7 @@
       <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -11208,7 +11654,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -11219,7 +11665,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -11230,7 +11676,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -11241,7 +11687,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -11252,7 +11698,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -11263,7 +11709,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -11274,7 +11720,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -11285,7 +11731,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -11296,7 +11742,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -11307,7 +11753,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -11697,7 +12143,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -11708,7 +12154,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -11719,7 +12165,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -11730,7 +12176,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,12 +1632,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1954,7 +1955,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2033,6 +2034,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2194,9 +2199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5008320" cy="1622520"/>
+          <a:ext cx="5007960" cy="1622160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303840</xdr:colOff>
+      <xdr:colOff>303480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176760</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5008320" cy="1622520"/>
+          <a:ext cx="5007960" cy="1622160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>457560</xdr:colOff>
+      <xdr:colOff>457200</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5008680" cy="1622520"/>
+          <a:ext cx="5008320" cy="1622160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>263160</xdr:colOff>
+      <xdr:colOff>262800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5066280" cy="1659960"/>
+          <a:ext cx="5065920" cy="1659600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>77040</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="196200" cy="2226960"/>
+          <a:ext cx="195840" cy="2226600"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>405720</xdr:colOff>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4618440" cy="1158120"/>
+          <a:ext cx="4618080" cy="1157760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3059,16 +3064,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>405360</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33120</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3237480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>54360</xdr:rowOff>
+      <xdr:rowOff>54000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3077,8 +3082,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15459480" y="0"/>
-          <a:ext cx="5029560" cy="1645200"/>
+          <a:off x="461160" y="0"/>
+          <a:ext cx="5029200" cy="1644840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315360</xdr:colOff>
+      <xdr:colOff>315000</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3256,7 +3261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065920" cy="3105360"/>
+          <a:ext cx="5065560" cy="3105000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315360</xdr:colOff>
+      <xdr:colOff>315000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204840</xdr:rowOff>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3439,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065920" cy="2686320"/>
+          <a:ext cx="5065560" cy="2685960"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6662,10 +6667,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L172"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A120" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L132" activeCellId="0" sqref="L132"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6676,8 +6681,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="9" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="13" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -6737,13 +6742,16 @@
         <v>45408</v>
       </c>
       <c r="J6" s="17" t="n">
-        <v>45439</v>
+        <v>45419</v>
       </c>
       <c r="K6" s="17" t="n">
-        <v>45440</v>
+        <v>45420</v>
       </c>
       <c r="L6" s="17" t="n">
-        <v>45441</v>
+        <v>45421</v>
+      </c>
+      <c r="M6" s="20" t="n">
+        <v>45422</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6783,6 +6791,9 @@
       <c r="L7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -6819,6 +6830,9 @@
       <c r="L8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6855,6 +6869,9 @@
       <c r="L9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6893,6 +6910,9 @@
       <c r="L10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6929,6 +6949,9 @@
       <c r="L11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6965,13 +6988,16 @@
       <c r="L12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9" t="n">
@@ -6999,6 +7025,9 @@
         <v>0</v>
       </c>
       <c r="L13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7007,7 +7036,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9" t="n">
@@ -7035,6 +7064,9 @@
         <v>0</v>
       </c>
       <c r="L14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7043,7 +7075,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9" t="n">
@@ -7071,6 +7103,9 @@
         <v>0</v>
       </c>
       <c r="L15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7079,7 +7114,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -7107,6 +7142,9 @@
         <v>0</v>
       </c>
       <c r="L16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7115,7 +7153,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -7143,6 +7181,9 @@
         <v>0</v>
       </c>
       <c r="L17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7151,7 +7192,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -7179,6 +7220,9 @@
         <v>0</v>
       </c>
       <c r="L18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7187,7 +7231,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -7215,6 +7259,9 @@
         <v>0</v>
       </c>
       <c r="L19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7223,7 +7270,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9" t="n">
@@ -7251,6 +7298,9 @@
         <v>0</v>
       </c>
       <c r="L20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7259,7 +7309,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9" t="n">
@@ -7287,6 +7337,9 @@
         <v>0</v>
       </c>
       <c r="L21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7295,7 +7348,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9" t="n">
@@ -7323,6 +7376,9 @@
         <v>0</v>
       </c>
       <c r="L22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7331,7 +7387,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -7359,6 +7415,9 @@
         <v>0</v>
       </c>
       <c r="L23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7367,7 +7426,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9" t="n">
@@ -7395,6 +7454,9 @@
         <v>0</v>
       </c>
       <c r="L24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7403,7 +7465,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9" t="n">
@@ -7431,6 +7493,9 @@
         <v>0</v>
       </c>
       <c r="L25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7439,7 +7504,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9" t="n">
@@ -7467,6 +7532,9 @@
         <v>0</v>
       </c>
       <c r="L26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7475,7 +7543,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9" t="n">
@@ -7503,6 +7571,9 @@
         <v>0</v>
       </c>
       <c r="L27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7511,7 +7582,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9" t="n">
@@ -7539,6 +7610,9 @@
         <v>0</v>
       </c>
       <c r="L28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7547,7 +7621,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9" t="n">
@@ -7575,6 +7649,9 @@
         <v>0</v>
       </c>
       <c r="L29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7583,7 +7660,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9" t="n">
@@ -7611,6 +7688,9 @@
         <v>0</v>
       </c>
       <c r="L30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7619,7 +7699,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9" t="n">
@@ -7647,6 +7727,9 @@
         <v>0</v>
       </c>
       <c r="L31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7657,7 +7740,7 @@
       <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9" t="n">
@@ -7685,6 +7768,9 @@
         <v>0</v>
       </c>
       <c r="L32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7693,7 +7779,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9" t="n">
@@ -7721,6 +7807,9 @@
         <v>0</v>
       </c>
       <c r="L33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7729,7 +7818,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="18"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9" t="n">
@@ -7757,6 +7846,9 @@
         <v>0</v>
       </c>
       <c r="L34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7765,7 +7857,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="18"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9" t="n">
@@ -7793,6 +7885,9 @@
         <v>0</v>
       </c>
       <c r="L35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7801,7 +7896,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9" t="n">
@@ -7829,6 +7924,9 @@
         <v>0</v>
       </c>
       <c r="L36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7837,7 +7935,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9" t="n">
@@ -7865,6 +7963,9 @@
         <v>0</v>
       </c>
       <c r="L37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7873,7 +7974,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
@@ -7901,6 +8002,9 @@
         <v>0</v>
       </c>
       <c r="L38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7909,7 +8013,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9" t="n">
@@ -7937,6 +8041,9 @@
         <v>0</v>
       </c>
       <c r="L39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7947,7 +8054,7 @@
       <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -7975,6 +8082,9 @@
         <v>0</v>
       </c>
       <c r="L40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7983,7 +8093,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -8011,6 +8121,9 @@
         <v>0</v>
       </c>
       <c r="L41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8021,7 +8134,7 @@
       <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -8047,6 +8160,9 @@
         <v>0</v>
       </c>
       <c r="L42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8055,7 +8171,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -8081,6 +8197,9 @@
         <v>0</v>
       </c>
       <c r="L43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8089,7 +8208,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -8115,6 +8234,9 @@
         <v>0</v>
       </c>
       <c r="L44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8123,7 +8245,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -8151,13 +8273,16 @@
       <c r="L45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -8185,13 +8310,16 @@
       <c r="L46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -8217,6 +8345,9 @@
         <v>0</v>
       </c>
       <c r="L47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8225,7 +8356,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -8251,6 +8382,9 @@
         <v>0</v>
       </c>
       <c r="L48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8259,7 +8393,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -8285,6 +8419,9 @@
         <v>0</v>
       </c>
       <c r="L49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8293,7 +8430,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="18"/>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -8319,6 +8456,9 @@
         <v>0</v>
       </c>
       <c r="L50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8327,7 +8467,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -8353,6 +8493,9 @@
         <v>0</v>
       </c>
       <c r="L51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8361,7 +8504,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -8387,6 +8530,9 @@
         <v>0</v>
       </c>
       <c r="L52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8395,7 +8541,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -8421,6 +8567,9 @@
         <v>0</v>
       </c>
       <c r="L53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8431,7 +8580,7 @@
       <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="21" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -8457,6 +8606,9 @@
         <v>0</v>
       </c>
       <c r="L54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8465,7 +8617,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -8491,6 +8643,9 @@
         <v>0</v>
       </c>
       <c r="L55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8499,7 +8654,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -8525,6 +8680,9 @@
         <v>0</v>
       </c>
       <c r="L56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8533,7 +8691,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -8559,6 +8717,9 @@
         <v>0</v>
       </c>
       <c r="L57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8567,7 +8728,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="21" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -8593,6 +8754,9 @@
         <v>0</v>
       </c>
       <c r="L58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8601,7 +8765,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="21" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -8627,6 +8791,9 @@
         <v>0</v>
       </c>
       <c r="L59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8637,7 +8804,7 @@
       <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -8663,6 +8830,9 @@
         <v>0</v>
       </c>
       <c r="L60" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8671,7 +8841,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -8697,6 +8867,9 @@
         <v>0</v>
       </c>
       <c r="L61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8705,7 +8878,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -8731,6 +8904,9 @@
         <v>0</v>
       </c>
       <c r="L62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8739,7 +8915,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -8765,6 +8941,9 @@
         <v>0</v>
       </c>
       <c r="L63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8773,7 +8952,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="18"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -8799,6 +8978,9 @@
         <v>0</v>
       </c>
       <c r="L64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8807,7 +8989,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -8833,6 +9015,9 @@
         <v>0</v>
       </c>
       <c r="L65" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8841,7 +9026,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -8867,6 +9052,9 @@
         <v>0</v>
       </c>
       <c r="L66" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8875,7 +9063,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -8901,6 +9089,9 @@
         <v>0</v>
       </c>
       <c r="L67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8909,7 +9100,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -8937,13 +9128,16 @@
       <c r="L68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -8971,13 +9165,16 @@
       <c r="L69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -9005,13 +9202,16 @@
       <c r="L70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="21" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -9037,6 +9237,9 @@
         <v>0</v>
       </c>
       <c r="L71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9045,7 +9248,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -9071,6 +9274,9 @@
         <v>0</v>
       </c>
       <c r="L72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9081,7 +9287,7 @@
       <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -9104,6 +9310,9 @@
         <v>0</v>
       </c>
       <c r="L73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9112,7 +9321,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -9137,13 +9346,16 @@
       <c r="L74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -9166,6 +9378,9 @@
         <v>0</v>
       </c>
       <c r="L75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9174,7 +9389,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -9197,6 +9412,9 @@
         <v>0</v>
       </c>
       <c r="L76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9205,7 +9423,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -9230,13 +9448,16 @@
       <c r="L77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -9261,13 +9482,16 @@
       <c r="L78" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -9290,6 +9514,9 @@
         <v>0</v>
       </c>
       <c r="L79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9298,7 +9525,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="18"/>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -9321,6 +9548,9 @@
         <v>0</v>
       </c>
       <c r="L80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9331,7 +9561,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -9356,6 +9586,9 @@
       <c r="L81" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M81" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -9364,7 +9597,7 @@
       <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -9378,6 +9611,9 @@
         <v>0</v>
       </c>
       <c r="L82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9386,7 +9622,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="18"/>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="21" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -9400,6 +9636,9 @@
         <v>0</v>
       </c>
       <c r="L83" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9408,7 +9647,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="18"/>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="21" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -9422,6 +9661,9 @@
         <v>0</v>
       </c>
       <c r="L84" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9430,7 +9672,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="18"/>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="21" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -9444,6 +9686,9 @@
         <v>0</v>
       </c>
       <c r="L85" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9452,7 +9697,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="18"/>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -9466,6 +9711,9 @@
         <v>0</v>
       </c>
       <c r="L86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9474,7 +9722,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18"/>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="21" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -9488,6 +9736,9 @@
         <v>0</v>
       </c>
       <c r="L87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9498,7 +9749,7 @@
       <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -9512,6 +9763,9 @@
         <v>0</v>
       </c>
       <c r="L88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M88" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9520,7 +9774,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="18"/>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="21" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -9534,6 +9788,9 @@
         <v>0</v>
       </c>
       <c r="L89" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9542,7 +9799,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="18"/>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -9558,13 +9815,16 @@
       <c r="L90" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M90" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
       <c r="B91" s="18"/>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="21" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -9578,6 +9838,9 @@
         <v>0</v>
       </c>
       <c r="L91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M91" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9586,7 +9849,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="18"/>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -9600,6 +9863,9 @@
         <v>0</v>
       </c>
       <c r="L92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M92" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9608,7 +9874,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="18"/>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="21" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -9622,6 +9888,9 @@
         <v>0</v>
       </c>
       <c r="L93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9632,7 +9901,7 @@
       <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="21" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -9648,13 +9917,16 @@
       <c r="L94" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M94" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
       <c r="B95" s="18"/>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="21" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -9668,6 +9940,9 @@
         <v>0</v>
       </c>
       <c r="L95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9676,7 +9951,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="18"/>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="21" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -9690,6 +9965,9 @@
         <v>0</v>
       </c>
       <c r="L96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9698,7 +9976,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="18"/>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="21" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -9712,6 +9990,9 @@
         <v>0</v>
       </c>
       <c r="L97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9720,7 +10001,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="18"/>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -9734,6 +10015,9 @@
         <v>0</v>
       </c>
       <c r="L98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9742,7 +10026,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="18"/>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="21" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -9758,13 +10042,16 @@
       <c r="L99" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M99" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
       <c r="B100" s="18"/>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="21" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -9780,13 +10067,16 @@
       <c r="L100" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M100" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
       <c r="B101" s="18"/>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="21" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -9802,6 +10092,9 @@
       <c r="L101" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M101" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
@@ -9810,7 +10103,7 @@
       <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="21" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -9821,6 +10114,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9829,7 +10125,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="18"/>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="21" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -9840,6 +10136,9 @@
         <v>0</v>
       </c>
       <c r="L103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9848,7 +10147,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="18"/>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="21" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -9859,6 +10158,9 @@
         <v>0</v>
       </c>
       <c r="L104" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9867,7 +10169,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="18"/>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="21" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -9880,6 +10182,9 @@
       <c r="L105" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M105" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
@@ -9888,7 +10193,7 @@
       <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="21" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -9899,6 +10204,9 @@
         <v>0</v>
       </c>
       <c r="L106" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9907,7 +10215,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="18"/>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="21" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -9918,6 +10226,9 @@
         <v>0</v>
       </c>
       <c r="L107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9928,7 +10239,7 @@
       <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="21" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -9941,13 +10252,16 @@
       <c r="L108" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M108" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
       <c r="B109" s="18"/>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="21" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -9958,6 +10272,9 @@
         <v>0</v>
       </c>
       <c r="L109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9966,7 +10283,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="18"/>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="21" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -9979,13 +10296,16 @@
       <c r="L110" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M110" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
       <c r="B111" s="18"/>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="21" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -9996,6 +10316,9 @@
         <v>0</v>
       </c>
       <c r="L111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M111" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10004,7 +10327,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="18"/>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="21" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -10015,6 +10338,9 @@
         <v>0</v>
       </c>
       <c r="L112" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10023,7 +10349,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="18"/>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="21" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -10034,6 +10360,9 @@
         <v>0</v>
       </c>
       <c r="L113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10044,7 +10373,7 @@
       <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="21" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -10057,13 +10386,16 @@
       <c r="L114" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M114" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
       <c r="B115" s="18"/>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="21" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -10076,13 +10408,16 @@
       <c r="L115" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M115" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
       <c r="B116" s="18"/>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="21" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -10095,13 +10430,16 @@
       <c r="L116" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M116" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
       <c r="B117" s="18"/>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="21" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -10114,13 +10452,16 @@
       <c r="L117" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M117" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
       <c r="B118" s="18"/>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="21" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -10133,6 +10474,9 @@
       <c r="L118" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M118" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
@@ -10141,7 +10485,7 @@
       <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="21" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -10149,6 +10493,9 @@
         <v>0</v>
       </c>
       <c r="L119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10157,7 +10504,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="18"/>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="21" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -10167,13 +10514,16 @@
       <c r="L120" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M120" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
       <c r="B121" s="18"/>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="21" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -10183,13 +10533,16 @@
       <c r="L121" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M121" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
       <c r="B122" s="18"/>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="21" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -10199,13 +10552,16 @@
       <c r="L122" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M122" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
       <c r="B123" s="18"/>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="21" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -10215,6 +10571,9 @@
       <c r="L123" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="M123" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
@@ -10223,11 +10582,14 @@
       <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="21" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
       <c r="L124" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10236,11 +10598,14 @@
         <v>120</v>
       </c>
       <c r="B125" s="18"/>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="21" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
       <c r="L125" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10249,11 +10614,14 @@
         <v>121</v>
       </c>
       <c r="B126" s="18"/>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="21" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
       <c r="L126" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10262,11 +10630,14 @@
         <v>122</v>
       </c>
       <c r="B127" s="18"/>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
       <c r="L127" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10275,11 +10646,14 @@
         <v>123</v>
       </c>
       <c r="B128" s="18"/>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="21" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
       <c r="L128" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M128" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10288,11 +10662,14 @@
         <v>124</v>
       </c>
       <c r="B129" s="18"/>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="21" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
       <c r="L129" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M129" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10301,11 +10678,14 @@
         <v>125</v>
       </c>
       <c r="B130" s="18"/>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="21" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
       <c r="L130" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10314,37 +10694,46 @@
         <v>126</v>
       </c>
       <c r="B131" s="18"/>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="21" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
       <c r="L131" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M131" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="6" t="n">
         <v>127</v>
       </c>
       <c r="B132" s="18"/>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="21" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
       <c r="L132" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="M132" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
       <c r="B133" s="18"/>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="21" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
       <c r="L133" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M133" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10353,11 +10742,14 @@
         <v>129</v>
       </c>
       <c r="B134" s="18"/>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="21" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
       <c r="L134" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10366,37 +10758,46 @@
         <v>130</v>
       </c>
       <c r="B135" s="18"/>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="21" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
       <c r="L135" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M135" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="6" t="n">
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="21" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
       <c r="L136" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="M136" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="21" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
       <c r="L137" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M137" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10405,11 +10806,14 @@
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="21" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
       <c r="L138" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M138" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10420,11 +10824,14 @@
       <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="21" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
       <c r="L139" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10433,106 +10840,130 @@
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="21" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
       <c r="L140" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M140" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="6" t="n">
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="21" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
       <c r="L141" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M141" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
         <v>137</v>
       </c>
       <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="21" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
       <c r="L142" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M142" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
       <c r="B143" s="18"/>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="21" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
       <c r="L143" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M143" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
       <c r="B144" s="18"/>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="21" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
       <c r="L144" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M144" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
       <c r="B145" s="18"/>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="21" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
       <c r="L145" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M145" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
       <c r="B146" s="18"/>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="21" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
       <c r="L146" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M146" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
       <c r="B147" s="18"/>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="21" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
       <c r="L147" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="M147" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
@@ -10541,11 +10972,14 @@
       <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="21" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
       <c r="L148" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M148" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10554,11 +10988,14 @@
         <v>144</v>
       </c>
       <c r="B149" s="18"/>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="21" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
       <c r="L149" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10567,11 +11004,14 @@
         <v>145</v>
       </c>
       <c r="B150" s="18"/>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="21" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
       <c r="L150" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M150" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10582,11 +11022,14 @@
       <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="21" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
       <c r="L151" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M151" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10595,228 +11038,291 @@
         <v>147</v>
       </c>
       <c r="B152" s="18"/>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="21" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
       <c r="L152" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M152" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="6" t="n">
         <v>148</v>
       </c>
       <c r="B153" s="18"/>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="21" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
       <c r="L153" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="M153" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
       <c r="B154" s="18"/>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="21" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
       <c r="L154" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M154" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="6" t="n">
         <v>150</v>
       </c>
       <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="21" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
-    </row>
-    <row r="156" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M155" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="6" t="n">
         <v>151</v>
       </c>
       <c r="B156" s="18"/>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="21" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
-    </row>
-    <row r="157" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M156" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>152</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="21" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
-    </row>
-    <row r="158" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M157" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>153</v>
       </c>
       <c r="B158" s="18"/>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="21" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
-    </row>
-    <row r="159" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M158" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="6" t="n">
         <v>154</v>
       </c>
       <c r="B159" s="18"/>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="21" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
-    </row>
-    <row r="160" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M159" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>155</v>
       </c>
       <c r="B160" s="18"/>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="21" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
-    </row>
-    <row r="161" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M160" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="6" t="n">
         <v>156</v>
       </c>
       <c r="B161" s="18"/>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="21" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
-    </row>
-    <row r="162" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M161" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>157</v>
       </c>
       <c r="B162" s="18"/>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="21" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
-    </row>
-    <row r="163" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M162" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="6" t="n">
         <v>158</v>
       </c>
       <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="21" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
-    </row>
-    <row r="164" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M163" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>159</v>
       </c>
       <c r="B164" s="18"/>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
-    </row>
-    <row r="165" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M164" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>160</v>
       </c>
       <c r="B165" s="18"/>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="21" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="K165" s="21"/>
+      <c r="K165" s="22"/>
+      <c r="M165" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="166" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
       <c r="B166" s="18"/>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="21" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
-    </row>
-    <row r="167" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M166" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>162</v>
       </c>
       <c r="B167" s="18"/>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="21" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
-    </row>
-    <row r="168" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M167" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="6" t="n">
         <v>163</v>
       </c>
       <c r="B168" s="18"/>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="21" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
-    </row>
-    <row r="169" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M168" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>164</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="21" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
-    </row>
-    <row r="170" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M169" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>165</v>
       </c>
       <c r="B170" s="18"/>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="21" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
-    </row>
-    <row r="171" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M170" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="6" t="n">
         <v>166</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="21" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
-    </row>
-    <row r="172" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="M171" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="6" t="n">
         <v>167</v>
       </c>
       <c r="B172" s="18"/>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="21" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
+      <c r="M172" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -10850,13 +11356,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:L72 F73:L81 I82:L101 J102:L118 K119:L123 L124:L154">
+  <conditionalFormatting sqref="D7:D172 E7:M72 F73:M81 I82:M101 J102:M118 K119:M123 L124:M154 M155:M172">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:L72 D73:D155 F73:L81 I82:L101 J102:L118 K119:L123 L124:L154 D156:D172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:M72 D73:D172 F73:M81 I82:M101 J102:M118 K119:M123 L124:M154 M155:M172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -10943,7 +11449,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -11540,7 +12046,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -11551,7 +12057,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -11562,7 +12068,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -11573,7 +12079,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -11584,7 +12090,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -11595,7 +12101,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -11606,7 +12112,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -11617,7 +12123,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -11630,7 +12136,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -11643,7 +12149,7 @@
       <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -11654,7 +12160,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -11665,7 +12171,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="21" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -11676,7 +12182,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -11687,7 +12193,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -11698,7 +12204,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -11709,7 +12215,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -11720,7 +12226,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -11731,7 +12237,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -11742,7 +12248,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -11753,7 +12259,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -11864,7 +12370,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -11877,7 +12383,7 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -11888,7 +12394,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -11899,7 +12405,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -11910,7 +12416,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -11921,7 +12427,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -11932,7 +12438,7 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -11945,7 +12451,7 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
@@ -11956,7 +12462,7 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
@@ -11967,7 +12473,7 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
@@ -11978,7 +12484,7 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
@@ -11989,7 +12495,7 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
@@ -12000,7 +12506,7 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -12013,7 +12519,7 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
@@ -12024,7 +12530,7 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
@@ -12035,7 +12541,7 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
@@ -12046,7 +12552,7 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
@@ -12057,7 +12563,7 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
@@ -12068,7 +12574,7 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -12081,7 +12587,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -12092,7 +12598,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -12105,7 +12611,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
@@ -12143,7 +12649,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -12154,7 +12660,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -12165,7 +12671,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -12176,7 +12682,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,13 +1632,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1955,7 +1954,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2034,10 +2033,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2199,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2211,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007960" cy="1622160"/>
+          <a:ext cx="5007600" cy="1621800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2377,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303480</xdr:colOff>
+      <xdr:colOff>303120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>176040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2389,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007960" cy="1622160"/>
+          <a:ext cx="5007600" cy="1621800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2555,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>456840</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2567,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5008320" cy="1622160"/>
+          <a:ext cx="5007960" cy="1621800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2733,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>262800</xdr:colOff>
+      <xdr:colOff>262440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2745,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5065920" cy="1659600"/>
+          <a:ext cx="5065560" cy="1659240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2906,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76680</xdr:colOff>
+      <xdr:colOff>76320</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2918,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="16295400"/>
-          <a:ext cx="195840" cy="2226600"/>
+          <a:ext cx="195480" cy="2226240"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2958,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>405360</xdr:colOff>
+      <xdr:colOff>405000</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2970,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4618080" cy="1157760"/>
+          <a:ext cx="4617720" cy="1157400"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3071,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3237480</xdr:colOff>
+      <xdr:colOff>3237120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>54000</xdr:rowOff>
+      <xdr:rowOff>53640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3083,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5029200" cy="1644840"/>
+          <a:ext cx="5028840" cy="1650600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3249,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315000</xdr:colOff>
+      <xdr:colOff>314640</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3261,7 +3256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065560" cy="3105000"/>
+          <a:ext cx="5065200" cy="3104640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3427,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315000</xdr:colOff>
+      <xdr:colOff>314640</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3439,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065560" cy="2685960"/>
+          <a:ext cx="5065200" cy="2685600"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -6667,13 +6662,13 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N150" activeCellId="0" sqref="N150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
@@ -6681,12 +6676,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.95"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="13" min="9" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="14" style="1" width="5.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1006" min="18" style="1" width="8.88"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="9" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="15" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1007" min="19" style="1" width="8.88"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>215</v>
       </c>
@@ -6750,11 +6745,14 @@
       <c r="L6" s="17" t="n">
         <v>45421</v>
       </c>
-      <c r="M6" s="20" t="n">
+      <c r="M6" s="17" t="n">
         <v>45422</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N6" s="17" t="n">
+        <v>45425</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>1</v>
       </c>
@@ -6792,6 +6790,9 @@
         <v>0</v>
       </c>
       <c r="M7" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6833,6 +6834,9 @@
       <c r="M8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -6872,6 +6876,9 @@
       <c r="M9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -6913,6 +6920,9 @@
       <c r="M10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -6952,6 +6962,9 @@
       <c r="M11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -6991,13 +7004,16 @@
       <c r="M12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9" t="n">
@@ -7028,6 +7044,9 @@
         <v>0</v>
       </c>
       <c r="M13" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7036,7 +7055,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9" t="n">
@@ -7067,6 +7086,9 @@
         <v>0</v>
       </c>
       <c r="M14" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7075,7 +7097,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9" t="n">
@@ -7106,6 +7128,9 @@
         <v>0</v>
       </c>
       <c r="M15" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7114,7 +7139,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -7145,6 +7170,9 @@
         <v>0</v>
       </c>
       <c r="M16" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7153,7 +7181,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -7184,6 +7212,9 @@
         <v>0</v>
       </c>
       <c r="M17" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7192,7 +7223,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -7223,6 +7254,9 @@
         <v>0</v>
       </c>
       <c r="M18" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7231,7 +7265,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -7262,6 +7296,9 @@
         <v>0</v>
       </c>
       <c r="M19" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7270,7 +7307,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9" t="n">
@@ -7301,6 +7338,9 @@
         <v>0</v>
       </c>
       <c r="M20" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7309,7 +7349,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9" t="n">
@@ -7340,6 +7380,9 @@
         <v>0</v>
       </c>
       <c r="M21" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7348,7 +7391,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9" t="n">
@@ -7379,6 +7422,9 @@
         <v>0</v>
       </c>
       <c r="M22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7387,7 +7433,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -7418,6 +7464,9 @@
         <v>0</v>
       </c>
       <c r="M23" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7426,7 +7475,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9" t="n">
@@ -7457,6 +7506,9 @@
         <v>0</v>
       </c>
       <c r="M24" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7465,7 +7517,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9" t="n">
@@ -7496,6 +7548,9 @@
         <v>0</v>
       </c>
       <c r="M25" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7504,7 +7559,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9" t="n">
@@ -7535,6 +7590,9 @@
         <v>0</v>
       </c>
       <c r="M26" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7543,7 +7601,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9" t="n">
@@ -7574,6 +7632,9 @@
         <v>0</v>
       </c>
       <c r="M27" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7582,7 +7643,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9" t="n">
@@ -7613,6 +7674,9 @@
         <v>0</v>
       </c>
       <c r="M28" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7621,7 +7685,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9" t="n">
@@ -7652,6 +7716,9 @@
         <v>0</v>
       </c>
       <c r="M29" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7660,7 +7727,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9" t="n">
@@ -7691,6 +7758,9 @@
         <v>0</v>
       </c>
       <c r="M30" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7699,7 +7769,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9" t="n">
@@ -7730,6 +7800,9 @@
         <v>0</v>
       </c>
       <c r="M31" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7740,7 +7813,7 @@
       <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9" t="n">
@@ -7771,6 +7844,9 @@
         <v>0</v>
       </c>
       <c r="M32" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7779,7 +7855,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9" t="n">
@@ -7810,6 +7886,9 @@
         <v>0</v>
       </c>
       <c r="M33" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7818,7 +7897,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="18"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9" t="n">
@@ -7849,6 +7928,9 @@
         <v>0</v>
       </c>
       <c r="M34" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7857,7 +7939,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="18"/>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9" t="n">
@@ -7888,6 +7970,9 @@
         <v>0</v>
       </c>
       <c r="M35" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7896,7 +7981,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9" t="n">
@@ -7927,6 +8012,9 @@
         <v>0</v>
       </c>
       <c r="M36" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7935,7 +8023,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9" t="n">
@@ -7966,6 +8054,9 @@
         <v>0</v>
       </c>
       <c r="M37" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7974,7 +8065,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
@@ -8005,6 +8096,9 @@
         <v>0</v>
       </c>
       <c r="M38" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8013,7 +8107,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9" t="n">
@@ -8044,6 +8138,9 @@
         <v>0</v>
       </c>
       <c r="M39" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8054,7 +8151,7 @@
       <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -8085,6 +8182,9 @@
         <v>0</v>
       </c>
       <c r="M40" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8093,7 +8193,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -8124,6 +8224,9 @@
         <v>0</v>
       </c>
       <c r="M41" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8134,7 +8237,7 @@
       <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -8163,6 +8266,9 @@
         <v>0</v>
       </c>
       <c r="M42" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8171,7 +8277,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -8200,6 +8306,9 @@
         <v>0</v>
       </c>
       <c r="M43" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8208,7 +8317,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -8237,6 +8346,9 @@
         <v>0</v>
       </c>
       <c r="M44" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8245,7 +8357,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -8276,13 +8388,16 @@
       <c r="M45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>41</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -8313,13 +8428,16 @@
       <c r="M46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>42</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -8348,6 +8466,9 @@
         <v>0</v>
       </c>
       <c r="M47" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8356,7 +8477,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -8385,6 +8506,9 @@
         <v>0</v>
       </c>
       <c r="M48" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8393,7 +8517,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -8422,6 +8546,9 @@
         <v>0</v>
       </c>
       <c r="M49" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8430,7 +8557,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="18"/>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -8459,6 +8586,9 @@
         <v>0</v>
       </c>
       <c r="M50" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8467,7 +8597,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -8496,6 +8626,9 @@
         <v>0</v>
       </c>
       <c r="M51" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8504,7 +8637,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -8533,6 +8666,9 @@
         <v>0</v>
       </c>
       <c r="M52" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8541,7 +8677,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -8570,6 +8706,9 @@
         <v>0</v>
       </c>
       <c r="M53" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8580,7 +8719,7 @@
       <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -8609,6 +8748,9 @@
         <v>0</v>
       </c>
       <c r="M54" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8617,7 +8759,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -8646,6 +8788,9 @@
         <v>0</v>
       </c>
       <c r="M55" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8654,7 +8799,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -8683,6 +8828,9 @@
         <v>0</v>
       </c>
       <c r="M56" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8691,7 +8839,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -8720,6 +8868,9 @@
         <v>0</v>
       </c>
       <c r="M57" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N57" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8728,7 +8879,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -8757,6 +8908,9 @@
         <v>0</v>
       </c>
       <c r="M58" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8765,7 +8919,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -8794,6 +8948,9 @@
         <v>0</v>
       </c>
       <c r="M59" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8804,7 +8961,7 @@
       <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -8833,6 +8990,9 @@
         <v>0</v>
       </c>
       <c r="M60" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N60" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8841,7 +9001,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -8870,6 +9030,9 @@
         <v>0</v>
       </c>
       <c r="M61" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8878,7 +9041,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -8907,6 +9070,9 @@
         <v>0</v>
       </c>
       <c r="M62" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8915,7 +9081,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -8944,6 +9110,9 @@
         <v>0</v>
       </c>
       <c r="M63" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8952,7 +9121,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="18"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -8981,6 +9150,9 @@
         <v>0</v>
       </c>
       <c r="M64" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8989,7 +9161,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -9018,6 +9190,9 @@
         <v>0</v>
       </c>
       <c r="M65" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9026,7 +9201,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -9055,6 +9230,9 @@
         <v>0</v>
       </c>
       <c r="M66" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9063,7 +9241,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -9092,6 +9270,9 @@
         <v>0</v>
       </c>
       <c r="M67" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9100,7 +9281,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -9131,13 +9312,16 @@
       <c r="M68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>64</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -9168,13 +9352,16 @@
       <c r="M69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>65</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -9205,13 +9392,16 @@
       <c r="M70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>66</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -9240,6 +9430,9 @@
         <v>0</v>
       </c>
       <c r="M71" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9248,7 +9441,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -9277,6 +9470,9 @@
         <v>0</v>
       </c>
       <c r="M72" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9287,7 +9483,7 @@
       <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -9313,6 +9509,9 @@
         <v>0</v>
       </c>
       <c r="M73" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9321,7 +9520,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -9349,13 +9548,16 @@
       <c r="M74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>70</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -9381,6 +9583,9 @@
         <v>0</v>
       </c>
       <c r="M75" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9389,7 +9594,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -9415,6 +9620,9 @@
         <v>0</v>
       </c>
       <c r="M76" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9423,7 +9631,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -9451,13 +9659,16 @@
       <c r="M77" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>73</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -9485,13 +9696,16 @@
       <c r="M78" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>74</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -9517,6 +9731,9 @@
         <v>0</v>
       </c>
       <c r="M79" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9525,7 +9742,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="18"/>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -9551,6 +9768,9 @@
         <v>0</v>
       </c>
       <c r="M80" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9561,7 +9781,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -9589,6 +9809,9 @@
       <c r="M81" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N81" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -9597,7 +9820,7 @@
       <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -9614,6 +9837,9 @@
         <v>0</v>
       </c>
       <c r="M82" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9622,7 +9848,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="18"/>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -9639,6 +9865,9 @@
         <v>0</v>
       </c>
       <c r="M83" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9647,7 +9876,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="18"/>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -9664,6 +9893,9 @@
         <v>0</v>
       </c>
       <c r="M84" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9672,7 +9904,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="18"/>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -9689,6 +9921,9 @@
         <v>0</v>
       </c>
       <c r="M85" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9697,7 +9932,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="18"/>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -9714,6 +9949,9 @@
         <v>0</v>
       </c>
       <c r="M86" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9722,7 +9960,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18"/>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -9739,6 +9977,9 @@
         <v>0</v>
       </c>
       <c r="M87" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9749,7 +9990,7 @@
       <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -9766,6 +10007,9 @@
         <v>0</v>
       </c>
       <c r="M88" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9774,7 +10018,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="18"/>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -9791,6 +10035,9 @@
         <v>0</v>
       </c>
       <c r="M89" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9799,7 +10046,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="18"/>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -9818,13 +10065,16 @@
       <c r="M90" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N90" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="n">
         <v>86</v>
       </c>
       <c r="B91" s="18"/>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -9841,6 +10091,9 @@
         <v>0</v>
       </c>
       <c r="M91" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9849,7 +10102,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="18"/>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -9866,6 +10119,9 @@
         <v>0</v>
       </c>
       <c r="M92" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9874,7 +10130,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="18"/>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -9891,6 +10147,9 @@
         <v>0</v>
       </c>
       <c r="M93" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9901,7 +10160,7 @@
       <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -9920,13 +10179,16 @@
       <c r="M94" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N94" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="n">
         <v>90</v>
       </c>
       <c r="B95" s="18"/>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -9943,6 +10205,9 @@
         <v>0</v>
       </c>
       <c r="M95" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9951,7 +10216,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="18"/>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -9968,6 +10233,9 @@
         <v>0</v>
       </c>
       <c r="M96" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9976,7 +10244,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="18"/>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -9993,6 +10261,9 @@
         <v>0</v>
       </c>
       <c r="M97" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10001,7 +10272,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="18"/>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -10018,6 +10289,9 @@
         <v>0</v>
       </c>
       <c r="M98" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10026,7 +10300,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="18"/>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -10045,13 +10319,16 @@
       <c r="M99" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N99" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6" t="n">
         <v>95</v>
       </c>
       <c r="B100" s="18"/>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -10070,13 +10347,16 @@
       <c r="M100" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N100" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6" t="n">
         <v>96</v>
       </c>
       <c r="B101" s="18"/>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="20" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -10095,6 +10375,9 @@
       <c r="M101" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N101" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="6" t="n">
@@ -10103,7 +10386,7 @@
       <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="20" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -10117,6 +10400,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10125,7 +10411,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="18"/>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -10139,6 +10425,9 @@
         <v>0</v>
       </c>
       <c r="M103" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10147,7 +10436,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="18"/>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -10161,6 +10450,9 @@
         <v>0</v>
       </c>
       <c r="M104" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10169,7 +10461,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="18"/>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="20" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -10185,6 +10477,9 @@
       <c r="M105" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N105" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="6" t="n">
@@ -10193,7 +10488,7 @@
       <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -10207,6 +10502,9 @@
         <v>0</v>
       </c>
       <c r="M106" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10215,7 +10513,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="18"/>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -10229,6 +10527,9 @@
         <v>0</v>
       </c>
       <c r="M107" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10239,7 +10540,7 @@
       <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -10255,13 +10556,16 @@
       <c r="M108" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N108" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="6" t="n">
         <v>104</v>
       </c>
       <c r="B109" s="18"/>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="20" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -10275,6 +10579,9 @@
         <v>0</v>
       </c>
       <c r="M109" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10283,7 +10590,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="18"/>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -10299,13 +10606,16 @@
       <c r="M110" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N110" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="6" t="n">
         <v>106</v>
       </c>
       <c r="B111" s="18"/>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="20" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -10319,6 +10629,9 @@
         <v>0</v>
       </c>
       <c r="M111" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10327,7 +10640,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="18"/>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -10341,6 +10654,9 @@
         <v>0</v>
       </c>
       <c r="M112" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10349,7 +10665,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="18"/>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="20" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -10363,6 +10679,9 @@
         <v>0</v>
       </c>
       <c r="M113" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10373,7 +10692,7 @@
       <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="20" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -10389,13 +10708,16 @@
       <c r="M114" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N114" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="6" t="n">
         <v>110</v>
       </c>
       <c r="B115" s="18"/>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -10411,13 +10733,16 @@
       <c r="M115" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N115" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="n">
         <v>111</v>
       </c>
       <c r="B116" s="18"/>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="20" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -10433,13 +10758,16 @@
       <c r="M116" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N116" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="6" t="n">
         <v>112</v>
       </c>
       <c r="B117" s="18"/>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="20" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -10455,13 +10783,16 @@
       <c r="M117" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N117" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="6" t="n">
         <v>113</v>
       </c>
       <c r="B118" s="18"/>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -10477,6 +10808,9 @@
       <c r="M118" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N118" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="6" t="n">
@@ -10485,7 +10819,7 @@
       <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="20" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -10496,6 +10830,9 @@
         <v>0</v>
       </c>
       <c r="M119" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10504,7 +10841,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="18"/>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="20" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -10517,13 +10854,16 @@
       <c r="M120" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N120" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="6" t="n">
         <v>116</v>
       </c>
       <c r="B121" s="18"/>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -10536,13 +10876,16 @@
       <c r="M121" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N121" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="6" t="n">
         <v>117</v>
       </c>
       <c r="B122" s="18"/>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="20" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -10555,13 +10898,16 @@
       <c r="M122" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N122" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="6" t="n">
         <v>118</v>
       </c>
       <c r="B123" s="18"/>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -10574,6 +10920,9 @@
       <c r="M123" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N123" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="6" t="n">
@@ -10582,7 +10931,7 @@
       <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
@@ -10590,6 +10939,9 @@
         <v>0</v>
       </c>
       <c r="M124" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10598,7 +10950,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="18"/>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
@@ -10606,6 +10958,9 @@
         <v>0</v>
       </c>
       <c r="M125" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10614,7 +10969,7 @@
         <v>121</v>
       </c>
       <c r="B126" s="18"/>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="20" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
@@ -10622,6 +10977,9 @@
         <v>0</v>
       </c>
       <c r="M126" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10630,7 +10988,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="18"/>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="20" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
@@ -10638,6 +10996,9 @@
         <v>0</v>
       </c>
       <c r="M127" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10646,7 +11007,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="18"/>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
@@ -10654,6 +11015,9 @@
         <v>0</v>
       </c>
       <c r="M128" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N128" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10662,7 +11026,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="18"/>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
@@ -10670,6 +11034,9 @@
         <v>0</v>
       </c>
       <c r="M129" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N129" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10678,7 +11045,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="18"/>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
@@ -10686,6 +11053,9 @@
         <v>0</v>
       </c>
       <c r="M130" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10694,7 +11064,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="18"/>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
@@ -10702,6 +11072,9 @@
         <v>0</v>
       </c>
       <c r="M131" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10710,7 +11083,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="18"/>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
@@ -10720,13 +11093,16 @@
       <c r="M132" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N132" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="6" t="n">
         <v>128</v>
       </c>
       <c r="B133" s="18"/>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
@@ -10734,6 +11110,9 @@
         <v>0</v>
       </c>
       <c r="M133" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N133" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10742,7 +11121,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="18"/>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="20" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
@@ -10750,6 +11129,9 @@
         <v>0</v>
       </c>
       <c r="M134" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10758,7 +11140,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="18"/>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
@@ -10766,6 +11148,9 @@
         <v>0</v>
       </c>
       <c r="M135" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N135" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10774,7 +11159,7 @@
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="20" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
@@ -10784,13 +11169,16 @@
       <c r="M136" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N136" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="6" t="n">
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
@@ -10798,6 +11186,9 @@
         <v>0</v>
       </c>
       <c r="M137" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N137" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10806,7 +11197,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
@@ -10814,6 +11205,9 @@
         <v>0</v>
       </c>
       <c r="M138" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N138" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10824,7 +11218,7 @@
       <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="20" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
@@ -10832,6 +11226,9 @@
         <v>0</v>
       </c>
       <c r="M139" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N139" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10840,7 +11237,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
@@ -10848,6 +11245,9 @@
         <v>0</v>
       </c>
       <c r="M140" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10856,7 +11256,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="20" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
@@ -10866,6 +11266,9 @@
       <c r="M141" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N141" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="6" t="n">
@@ -10874,7 +11277,7 @@
       <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
@@ -10884,13 +11287,16 @@
       <c r="M142" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N142" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="6" t="n">
         <v>138</v>
       </c>
       <c r="B143" s="18"/>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
@@ -10900,13 +11306,16 @@
       <c r="M143" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N143" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="n">
         <v>139</v>
       </c>
       <c r="B144" s="18"/>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
@@ -10916,13 +11325,16 @@
       <c r="M144" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N144" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="6" t="n">
         <v>140</v>
       </c>
       <c r="B145" s="18"/>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="20" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
@@ -10932,13 +11344,16 @@
       <c r="M145" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N145" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="6" t="n">
         <v>141</v>
       </c>
       <c r="B146" s="18"/>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
@@ -10948,13 +11363,16 @@
       <c r="M146" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N146" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="6" t="n">
         <v>142</v>
       </c>
       <c r="B147" s="18"/>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
@@ -10964,15 +11382,18 @@
       <c r="M147" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N147" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="6" t="n">
         <v>143</v>
       </c>
       <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
@@ -10981,6 +11402,9 @@
       </c>
       <c r="M148" s="9" t="n">
         <v>0</v>
+      </c>
+      <c r="N148" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10988,7 +11412,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="18"/>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="20" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
@@ -10998,13 +11422,16 @@
       <c r="M149" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N149" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="6" t="n">
         <v>145</v>
       </c>
       <c r="B150" s="18"/>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
@@ -11013,6 +11440,9 @@
       </c>
       <c r="M150" s="9" t="n">
         <v>0</v>
+      </c>
+      <c r="N150" s="9" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11022,7 +11452,7 @@
       <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="20" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
@@ -11030,6 +11460,9 @@
         <v>0</v>
       </c>
       <c r="M151" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N151" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11038,7 +11471,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="18"/>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
@@ -11046,6 +11479,9 @@
         <v>0</v>
       </c>
       <c r="M152" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N152" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11054,7 +11490,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="18"/>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
@@ -11064,13 +11500,16 @@
       <c r="M153" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="N153" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="6" t="n">
         <v>149</v>
       </c>
       <c r="B154" s="18"/>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
@@ -11078,6 +11517,9 @@
         <v>0</v>
       </c>
       <c r="M154" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11088,11 +11530,14 @@
       <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="20" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
       <c r="M155" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11101,37 +11546,46 @@
         <v>151</v>
       </c>
       <c r="B156" s="18"/>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
       <c r="M156" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="N156" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="6" t="n">
         <v>152</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="20" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
       <c r="M157" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="N157" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="158" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="6" t="n">
         <v>153</v>
       </c>
       <c r="B158" s="18"/>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="20" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
       <c r="M158" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11140,24 +11594,30 @@
         <v>154</v>
       </c>
       <c r="B159" s="18"/>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
       <c r="M159" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="N159" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="160" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="6" t="n">
         <v>155</v>
       </c>
       <c r="B160" s="18"/>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
       <c r="M160" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11166,24 +11626,30 @@
         <v>156</v>
       </c>
       <c r="B161" s="18"/>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="20" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
       <c r="M161" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="N161" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="162" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="6" t="n">
         <v>157</v>
       </c>
       <c r="B162" s="18"/>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="20" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
       <c r="M162" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11194,64 +11660,79 @@
       <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="20" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
       <c r="M163" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N163" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="n">
         <v>159</v>
       </c>
       <c r="B164" s="18"/>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="20" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
       <c r="M164" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="N164" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="6" t="n">
         <v>160</v>
       </c>
       <c r="B165" s="18"/>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="20" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="K165" s="22"/>
+      <c r="K165" s="21"/>
       <c r="M165" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N165" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="6" t="n">
         <v>161</v>
       </c>
       <c r="B166" s="18"/>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
       <c r="M166" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="N166" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="6" t="n">
         <v>162</v>
       </c>
       <c r="B167" s="18"/>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="20" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
       <c r="M167" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N167" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11260,39 +11741,48 @@
         <v>163</v>
       </c>
       <c r="B168" s="18"/>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="20" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
       <c r="M168" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="N168" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="6" t="n">
         <v>164</v>
       </c>
       <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
       <c r="M169" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="N169" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="6" t="n">
         <v>165</v>
       </c>
       <c r="B170" s="18"/>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="20" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
       <c r="M170" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11303,11 +11793,14 @@
       <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
       <c r="M171" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11316,11 +11809,14 @@
         <v>167</v>
       </c>
       <c r="B172" s="18"/>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
       <c r="M172" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11356,13 +11852,13 @@
     <mergeCell ref="B169:B170"/>
     <mergeCell ref="B171:B172"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D172 E7:M72 F73:M81 I82:M101 J102:M118 K119:M123 L124:M154 M155:M172">
+  <conditionalFormatting sqref="D7:D172 E7:N72 F73:N81 I82:N101 J102:N118 K119:N123 L124:N154 M155:N172">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:M72 D73:D172 F73:M81 I82:M101 J102:M118 K119:M123 L124:M154 M155:M172" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:N72 D73:D172 F73:N81 I82:N101 J102:N118 K119:N123 L124:N154 M155:N172" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -11449,7 +11945,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -12046,7 +12542,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -12057,7 +12553,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -12068,7 +12564,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -12079,7 +12575,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -12090,7 +12586,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -12101,7 +12597,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -12112,7 +12608,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -12123,7 +12619,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -12136,7 +12632,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -12149,7 +12645,7 @@
       <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -12160,7 +12656,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -12171,7 +12667,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -12182,7 +12678,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -12193,7 +12689,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -12204,7 +12700,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -12215,7 +12711,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -12226,7 +12722,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -12237,7 +12733,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -12248,7 +12744,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -12259,7 +12755,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -12370,7 +12866,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -12383,7 +12879,7 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -12394,7 +12890,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -12405,7 +12901,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -12416,7 +12912,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -12427,7 +12923,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -12438,7 +12934,7 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -12451,7 +12947,7 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
@@ -12462,7 +12958,7 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
@@ -12473,7 +12969,7 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
@@ -12484,7 +12980,7 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
@@ -12495,7 +12991,7 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
@@ -12506,7 +13002,7 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -12519,7 +13015,7 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
@@ -12530,7 +13026,7 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
@@ -12541,7 +13037,7 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
@@ -12552,7 +13048,7 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
@@ -12563,7 +13059,7 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
@@ -12574,7 +13070,7 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -12587,7 +13083,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -12598,7 +13094,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -12611,7 +13107,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
@@ -12649,7 +13145,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -12660,7 +13156,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -12671,7 +13167,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -12682,7 +13178,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303120</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007600" cy="1621800"/>
+          <a:ext cx="5007240" cy="1621440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>303120</xdr:colOff>
+      <xdr:colOff>302760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007600" cy="1621800"/>
+          <a:ext cx="5007240" cy="1621440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>456840</xdr:colOff>
+      <xdr:colOff>456480</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5007960" cy="1621800"/>
+          <a:ext cx="5007600" cy="1621440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>262440</xdr:colOff>
+      <xdr:colOff>262080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11522160" y="89640"/>
-          <a:ext cx="5065560" cy="1659240"/>
+          <a:ext cx="5065200" cy="1658880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>76320</xdr:colOff>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2912,8 +2912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11283480" y="16295400"/>
-          <a:ext cx="195480" cy="2226240"/>
+          <a:off x="11283480" y="16314120"/>
+          <a:ext cx="195120" cy="2225520"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>405000</xdr:colOff>
+      <xdr:colOff>404640</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2964,8 +2964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11702160" y="17115480"/>
-          <a:ext cx="4617720" cy="1157400"/>
+          <a:off x="11702160" y="17133840"/>
+          <a:ext cx="4617360" cy="1157040"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3237120</xdr:colOff>
+      <xdr:colOff>3236760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>53640</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5028840" cy="1650600"/>
+          <a:ext cx="5028480" cy="1650240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
+      <xdr:colOff>314280</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>203760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3256,7 +3256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065200" cy="3104640"/>
+          <a:ext cx="5064840" cy="3104280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314640</xdr:colOff>
+      <xdr:colOff>314280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>203760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5065200" cy="2685600"/>
+          <a:ext cx="5064840" cy="2685240"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5706,8 +5706,8 @@
   </sheetPr>
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5771,7 +5771,9 @@
       <c r="C7" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -5781,7 +5783,9 @@
       <c r="C8" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -5791,7 +5795,9 @@
       <c r="C9" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="9"/>
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -5801,7 +5807,9 @@
       <c r="C10" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="D10" s="9"/>
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -5813,7 +5821,9 @@
       <c r="C11" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D11" s="9"/>
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -5823,7 +5833,9 @@
       <c r="C12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -5833,7 +5845,9 @@
       <c r="C13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -5843,9 +5857,11 @@
       <c r="C14" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D14" s="9"/>
-    </row>
-    <row r="15" customFormat="false" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="31.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
@@ -5855,7 +5871,9 @@
       <c r="C15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -5865,7 +5883,9 @@
       <c r="C16" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -5875,7 +5895,9 @@
       <c r="C17" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -5885,7 +5907,9 @@
       <c r="C18" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -5895,7 +5919,9 @@
       <c r="C19" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -5905,7 +5931,9 @@
       <c r="C20" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -5917,7 +5945,9 @@
       <c r="C21" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -5927,7 +5957,9 @@
       <c r="C22" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -5939,7 +5971,9 @@
       <c r="C23" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="9"/>
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -5949,7 +5983,9 @@
       <c r="C24" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -5959,7 +5995,9 @@
       <c r="C25" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -5969,7 +6007,9 @@
       <c r="C26" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -5979,7 +6019,9 @@
       <c r="C27" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -5989,9 +6031,11 @@
       <c r="C28" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
@@ -5999,7 +6043,9 @@
       <c r="C29" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -6011,9 +6057,11 @@
       <c r="C30" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
@@ -6021,9 +6069,11 @@
       <c r="C31" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
@@ -6033,9 +6083,11 @@
       <c r="C32" s="19" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
@@ -6043,9 +6095,11 @@
       <c r="C33" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
@@ -6053,7 +6107,9 @@
       <c r="C34" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="D34" s="9"/>
+      <c r="D34" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -6664,7 +6720,7 @@
   </sheetPr>
   <dimension ref="A1:N172"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="D1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection pane="topLeft" activeCell="N150" activeCellId="0" sqref="N150"/>
     </sheetView>
   </sheetViews>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,12 +1632,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1954,7 +1955,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2033,6 +2034,10 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2194,9 +2199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007240" cy="1621440"/>
+          <a:ext cx="5006880" cy="1621080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302760</xdr:colOff>
+      <xdr:colOff>302400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5007240" cy="1621440"/>
+          <a:ext cx="5006880" cy="1621080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>456480</xdr:colOff>
+      <xdr:colOff>456120</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5007600" cy="1621440"/>
+          <a:ext cx="5007240" cy="1621080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2721,16 +2726,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>119520</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>153720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>262080</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>75960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>67680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2739,8 +2744,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11522160" y="89640"/>
-          <a:ext cx="5065200" cy="1658880"/>
+          <a:off x="13790520" y="0"/>
+          <a:ext cx="5064840" cy="1658520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>166680</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2912,8 +2917,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11283480" y="16314120"/>
-          <a:ext cx="195120" cy="2225520"/>
+          <a:off x="11283480" y="16410960"/>
+          <a:ext cx="194760" cy="2225520"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>404640</xdr:colOff>
+      <xdr:colOff>404280</xdr:colOff>
       <xdr:row>84</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2964,8 +2969,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11702160" y="17133840"/>
-          <a:ext cx="4617360" cy="1157040"/>
+          <a:off x="11702160" y="17231040"/>
+          <a:ext cx="4799880" cy="1156680"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3236760</xdr:colOff>
+      <xdr:colOff>3236400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5028480" cy="1650240"/>
+          <a:ext cx="5028120" cy="1649880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>313920</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3256,7 +3261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064840" cy="3104280"/>
+          <a:ext cx="5064480" cy="3103920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>314280</xdr:colOff>
+      <xdr:colOff>313920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3439,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064840" cy="2685240"/>
+          <a:ext cx="5064480" cy="2684880"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5704,10 +5709,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A11" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D29" activeCellId="0" sqref="D29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5716,7 +5721,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="21.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1005" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -5760,6 +5766,9 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
+      <c r="E6" s="20" t="n">
+        <v>45428</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -5774,6 +5783,9 @@
       <c r="D7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -5786,6 +5798,9 @@
       <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -5798,6 +5813,9 @@
       <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -5810,6 +5828,9 @@
       <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -5824,6 +5845,9 @@
       <c r="D11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -5836,6 +5860,9 @@
       <c r="D12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -5848,6 +5875,9 @@
       <c r="D13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -5860,6 +5890,9 @@
       <c r="D14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="31.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -5874,8 +5907,11 @@
       <c r="D15" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
@@ -5886,8 +5922,11 @@
       <c r="D16" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
@@ -5898,8 +5937,11 @@
       <c r="D17" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
@@ -5910,8 +5952,11 @@
       <c r="D18" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
@@ -5922,8 +5967,11 @@
       <c r="D19" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
@@ -5934,8 +5982,11 @@
       <c r="D20" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
@@ -5948,8 +5999,11 @@
       <c r="D21" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
@@ -5960,8 +6014,11 @@
       <c r="D22" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
@@ -5974,8 +6031,11 @@
       <c r="D23" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
@@ -5986,8 +6046,11 @@
       <c r="D24" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
@@ -5998,8 +6061,11 @@
       <c r="D25" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
@@ -6010,8 +6076,11 @@
       <c r="D26" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
@@ -6022,8 +6091,11 @@
       <c r="D27" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
@@ -6034,8 +6106,11 @@
       <c r="D28" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
@@ -6046,8 +6121,11 @@
       <c r="D29" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
@@ -6060,8 +6138,11 @@
       <c r="D30" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
@@ -6072,8 +6153,11 @@
       <c r="D31" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
@@ -6086,8 +6170,11 @@
       <c r="D32" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
@@ -6098,8 +6185,11 @@
       <c r="D33" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
@@ -6110,8 +6200,11 @@
       <c r="D34" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
@@ -6122,8 +6215,11 @@
         <v>147</v>
       </c>
       <c r="D35" s="9"/>
-    </row>
-    <row r="36" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
@@ -6132,8 +6228,11 @@
         <v>148</v>
       </c>
       <c r="D36" s="9"/>
-    </row>
-    <row r="37" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
@@ -6142,8 +6241,11 @@
         <v>149</v>
       </c>
       <c r="D37" s="9"/>
-    </row>
-    <row r="38" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
@@ -6152,8 +6254,11 @@
         <v>150</v>
       </c>
       <c r="D38" s="9"/>
-    </row>
-    <row r="39" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
@@ -6162,8 +6267,11 @@
         <v>151</v>
       </c>
       <c r="D39" s="9"/>
-    </row>
-    <row r="40" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
@@ -6172,8 +6280,11 @@
         <v>152</v>
       </c>
       <c r="D40" s="9"/>
-    </row>
-    <row r="41" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
@@ -6184,8 +6295,11 @@
         <v>154</v>
       </c>
       <c r="D41" s="9"/>
-    </row>
-    <row r="42" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
@@ -6194,8 +6308,11 @@
         <v>155</v>
       </c>
       <c r="D42" s="9"/>
-    </row>
-    <row r="43" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
@@ -6204,8 +6321,11 @@
         <v>156</v>
       </c>
       <c r="D43" s="9"/>
-    </row>
-    <row r="44" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
@@ -6214,8 +6334,11 @@
         <v>157</v>
       </c>
       <c r="D44" s="9"/>
-    </row>
-    <row r="45" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
@@ -6224,8 +6347,11 @@
         <v>158</v>
       </c>
       <c r="D45" s="9"/>
-    </row>
-    <row r="46" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
@@ -6234,8 +6360,11 @@
         <v>159</v>
       </c>
       <c r="D46" s="9"/>
-    </row>
-    <row r="47" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
@@ -6244,8 +6373,11 @@
         <v>160</v>
       </c>
       <c r="D47" s="9"/>
-    </row>
-    <row r="48" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
@@ -6254,8 +6386,11 @@
         <v>161</v>
       </c>
       <c r="D48" s="9"/>
-    </row>
-    <row r="49" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
@@ -6264,8 +6399,11 @@
         <v>162</v>
       </c>
       <c r="D49" s="9"/>
-    </row>
-    <row r="50" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
@@ -6274,8 +6412,11 @@
         <v>163</v>
       </c>
       <c r="D50" s="9"/>
-    </row>
-    <row r="51" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
@@ -6286,8 +6427,11 @@
         <v>165</v>
       </c>
       <c r="D51" s="9"/>
-    </row>
-    <row r="52" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
@@ -6296,8 +6440,11 @@
         <v>166</v>
       </c>
       <c r="D52" s="9"/>
-    </row>
-    <row r="53" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
@@ -6306,8 +6453,11 @@
         <v>167</v>
       </c>
       <c r="D53" s="9"/>
-    </row>
-    <row r="54" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E53" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
@@ -6316,8 +6466,11 @@
         <v>168</v>
       </c>
       <c r="D54" s="9"/>
-    </row>
-    <row r="55" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
@@ -6326,8 +6479,11 @@
         <v>169</v>
       </c>
       <c r="D55" s="9"/>
-    </row>
-    <row r="56" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
@@ -6338,8 +6494,11 @@
         <v>171</v>
       </c>
       <c r="D56" s="9"/>
-    </row>
-    <row r="57" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
@@ -6348,8 +6507,11 @@
         <v>172</v>
       </c>
       <c r="D57" s="9"/>
-    </row>
-    <row r="58" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
@@ -6358,8 +6520,11 @@
         <v>173</v>
       </c>
       <c r="D58" s="9"/>
-    </row>
-    <row r="59" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
@@ -6368,8 +6533,11 @@
         <v>174</v>
       </c>
       <c r="D59" s="9"/>
-    </row>
-    <row r="60" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E59" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
@@ -6380,8 +6548,11 @@
         <v>176</v>
       </c>
       <c r="D60" s="9"/>
-    </row>
-    <row r="61" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
@@ -6390,8 +6561,11 @@
         <v>177</v>
       </c>
       <c r="D61" s="9"/>
-    </row>
-    <row r="62" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
@@ -6402,8 +6576,11 @@
         <v>179</v>
       </c>
       <c r="D62" s="9"/>
-    </row>
-    <row r="63" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
@@ -6412,8 +6589,11 @@
         <v>180</v>
       </c>
       <c r="D63" s="9"/>
-    </row>
-    <row r="64" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>58</v>
       </c>
@@ -6422,8 +6602,11 @@
         <v>181</v>
       </c>
       <c r="D64" s="9"/>
-    </row>
-    <row r="65" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E64" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>59</v>
       </c>
@@ -6432,8 +6615,11 @@
         <v>182</v>
       </c>
       <c r="D65" s="9"/>
-    </row>
-    <row r="66" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E65" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>60</v>
       </c>
@@ -6444,8 +6630,11 @@
         <v>184</v>
       </c>
       <c r="D66" s="9"/>
-    </row>
-    <row r="67" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E66" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>61</v>
       </c>
@@ -6454,8 +6643,11 @@
         <v>185</v>
       </c>
       <c r="D67" s="9"/>
-    </row>
-    <row r="68" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E67" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>62</v>
       </c>
@@ -6464,8 +6656,11 @@
         <v>186</v>
       </c>
       <c r="D68" s="9"/>
-    </row>
-    <row r="69" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E68" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>63</v>
       </c>
@@ -6474,8 +6669,11 @@
         <v>187</v>
       </c>
       <c r="D69" s="9"/>
-    </row>
-    <row r="70" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E69" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>64</v>
       </c>
@@ -6486,8 +6684,11 @@
         <v>189</v>
       </c>
       <c r="D70" s="9"/>
-    </row>
-    <row r="71" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E70" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>65</v>
       </c>
@@ -6496,6 +6697,9 @@
         <v>190</v>
       </c>
       <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -6690,13 +6894,13 @@
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B80:B81"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D86">
+  <conditionalFormatting sqref="D7:D86 E7:E71">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:D86" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:E71 D72:D86" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7069,7 +7273,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="21" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9" t="n">
@@ -7111,7 +7315,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9" t="n">
@@ -7153,7 +7357,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="21" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9" t="n">
@@ -7195,7 +7399,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -7237,7 +7441,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="21" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -7279,7 +7483,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="21" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -7321,7 +7525,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="21" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -7363,7 +7567,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9" t="n">
@@ -7405,7 +7609,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="21" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9" t="n">
@@ -7447,7 +7651,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9" t="n">
@@ -7489,7 +7693,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="21" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -7531,7 +7735,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9" t="n">
@@ -7573,7 +7777,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="21" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9" t="n">
@@ -7615,7 +7819,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9" t="n">
@@ -7657,7 +7861,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="21" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9" t="n">
@@ -7699,7 +7903,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9" t="n">
@@ -7741,7 +7945,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="21" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9" t="n">
@@ -7783,7 +7987,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="21" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9" t="n">
@@ -7825,7 +8029,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9" t="n">
@@ -7869,7 +8073,7 @@
       <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9" t="n">
@@ -7911,7 +8115,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9" t="n">
@@ -7953,7 +8157,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="18"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9" t="n">
@@ -7995,7 +8199,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="18"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="21" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9" t="n">
@@ -8037,7 +8241,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9" t="n">
@@ -8079,7 +8283,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="21" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9" t="n">
@@ -8121,7 +8325,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
@@ -8163,7 +8367,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="21" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9" t="n">
@@ -8207,7 +8411,7 @@
       <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -8249,7 +8453,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="21" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -8293,7 +8497,7 @@
       <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="21" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -8333,7 +8537,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="21" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -8373,7 +8577,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -8413,7 +8617,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="21" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -8453,7 +8657,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -8493,7 +8697,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="21" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -8533,7 +8737,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -8573,7 +8777,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="21" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -8613,7 +8817,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="18"/>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -8653,7 +8857,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="21" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -8693,7 +8897,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -8733,7 +8937,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="21" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -8775,7 +8979,7 @@
       <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="21" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -8815,7 +9019,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="21" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -8855,7 +9059,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -8895,7 +9099,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="20" t="s">
+      <c r="C57" s="21" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -8935,7 +9139,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="21" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -8975,7 +9179,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="21" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -9017,7 +9221,7 @@
       <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -9057,7 +9261,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -9097,7 +9301,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -9137,7 +9341,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -9177,7 +9381,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="18"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -9217,7 +9421,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -9257,7 +9461,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -9297,7 +9501,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -9337,7 +9541,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -9377,7 +9581,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -9417,7 +9621,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -9457,7 +9661,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="21" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -9497,7 +9701,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -9539,7 +9743,7 @@
       <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -9576,7 +9780,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -9613,7 +9817,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -9650,7 +9854,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -9687,7 +9891,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -9724,7 +9928,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -9761,7 +9965,7 @@
         <v>74</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -9798,7 +10002,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="18"/>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="21" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -9837,7 +10041,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="21" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -9876,7 +10080,7 @@
       <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="21" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -9904,7 +10108,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="18"/>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="21" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -9932,7 +10136,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="18"/>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="21" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -9960,7 +10164,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="18"/>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="21" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -9988,7 +10192,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="18"/>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="21" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -10016,7 +10220,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18"/>
-      <c r="C87" s="20" t="s">
+      <c r="C87" s="21" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -10046,7 +10250,7 @@
       <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="21" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -10074,7 +10278,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="18"/>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="21" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -10102,7 +10306,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="18"/>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="21" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -10130,7 +10334,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="18"/>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="21" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -10158,7 +10362,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="18"/>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="21" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -10186,7 +10390,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="18"/>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="21" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -10216,7 +10420,7 @@
       <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="C94" s="21" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -10244,7 +10448,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="18"/>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="21" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -10272,7 +10476,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="18"/>
-      <c r="C96" s="20" t="s">
+      <c r="C96" s="21" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -10300,7 +10504,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="18"/>
-      <c r="C97" s="20" t="s">
+      <c r="C97" s="21" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -10328,7 +10532,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="18"/>
-      <c r="C98" s="20" t="s">
+      <c r="C98" s="21" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -10356,7 +10560,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="18"/>
-      <c r="C99" s="20" t="s">
+      <c r="C99" s="21" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -10384,7 +10588,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="18"/>
-      <c r="C100" s="20" t="s">
+      <c r="C100" s="21" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -10412,7 +10616,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="18"/>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="21" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -10442,7 +10646,7 @@
       <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="C102" s="21" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -10467,7 +10671,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="18"/>
-      <c r="C103" s="20" t="s">
+      <c r="C103" s="21" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -10492,7 +10696,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="18"/>
-      <c r="C104" s="20" t="s">
+      <c r="C104" s="21" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -10517,7 +10721,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="18"/>
-      <c r="C105" s="20" t="s">
+      <c r="C105" s="21" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -10544,7 +10748,7 @@
       <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="C106" s="21" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -10569,7 +10773,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="18"/>
-      <c r="C107" s="20" t="s">
+      <c r="C107" s="21" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -10596,7 +10800,7 @@
       <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="C108" s="21" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -10621,7 +10825,7 @@
         <v>104</v>
       </c>
       <c r="B109" s="18"/>
-      <c r="C109" s="20" t="s">
+      <c r="C109" s="21" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -10646,7 +10850,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="18"/>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="21" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -10671,7 +10875,7 @@
         <v>106</v>
       </c>
       <c r="B111" s="18"/>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="21" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -10696,7 +10900,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="18"/>
-      <c r="C112" s="20" t="s">
+      <c r="C112" s="21" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -10721,7 +10925,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="18"/>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="21" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -10748,7 +10952,7 @@
       <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="21" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -10773,7 +10977,7 @@
         <v>110</v>
       </c>
       <c r="B115" s="18"/>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="21" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -10798,7 +11002,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="18"/>
-      <c r="C116" s="20" t="s">
+      <c r="C116" s="21" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -10823,7 +11027,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="18"/>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="21" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -10848,7 +11052,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="18"/>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="21" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -10875,7 +11079,7 @@
       <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="21" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -10897,7 +11101,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="18"/>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="21" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -10919,7 +11123,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="18"/>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="21" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -10941,7 +11145,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="18"/>
-      <c r="C122" s="20" t="s">
+      <c r="C122" s="21" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -10963,7 +11167,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="18"/>
-      <c r="C123" s="20" t="s">
+      <c r="C123" s="21" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -10987,7 +11191,7 @@
       <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="20" t="s">
+      <c r="C124" s="21" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
@@ -11006,7 +11210,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="18"/>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="21" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
@@ -11025,7 +11229,7 @@
         <v>121</v>
       </c>
       <c r="B126" s="18"/>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="21" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
@@ -11044,7 +11248,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="18"/>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="21" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
@@ -11063,7 +11267,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="18"/>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="21" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
@@ -11082,7 +11286,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="18"/>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="21" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
@@ -11101,7 +11305,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="18"/>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="21" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
@@ -11120,7 +11324,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="18"/>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="21" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
@@ -11139,7 +11343,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="18"/>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="21" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
@@ -11158,7 +11362,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="18"/>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="21" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
@@ -11177,7 +11381,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="18"/>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="21" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
@@ -11196,7 +11400,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="18"/>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="21" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
@@ -11215,7 +11419,7 @@
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="21" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
@@ -11234,7 +11438,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
-      <c r="C137" s="20" t="s">
+      <c r="C137" s="21" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
@@ -11253,7 +11457,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="21" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
@@ -11274,7 +11478,7 @@
       <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="21" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
@@ -11293,7 +11497,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="21" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
@@ -11312,7 +11516,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
-      <c r="C141" s="20" t="s">
+      <c r="C141" s="21" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
@@ -11333,7 +11537,7 @@
       <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="20" t="s">
+      <c r="C142" s="21" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
@@ -11352,7 +11556,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="18"/>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="21" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
@@ -11371,7 +11575,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="18"/>
-      <c r="C144" s="20" t="s">
+      <c r="C144" s="21" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
@@ -11390,7 +11594,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="18"/>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="21" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
@@ -11409,7 +11613,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="18"/>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="21" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
@@ -11428,7 +11632,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="18"/>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="21" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
@@ -11449,7 +11653,7 @@
       <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="21" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
@@ -11468,7 +11672,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="18"/>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="21" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
@@ -11487,7 +11691,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="18"/>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="21" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
@@ -11508,7 +11712,7 @@
       <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="21" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
@@ -11527,7 +11731,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="18"/>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="21" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
@@ -11546,7 +11750,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="18"/>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="21" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
@@ -11565,7 +11769,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="18"/>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="21" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
@@ -11586,7 +11790,7 @@
       <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="21" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
@@ -11602,7 +11806,7 @@
         <v>151</v>
       </c>
       <c r="B156" s="18"/>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="21" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
@@ -11618,7 +11822,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="21" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
@@ -11634,7 +11838,7 @@
         <v>153</v>
       </c>
       <c r="B158" s="18"/>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="21" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
@@ -11650,7 +11854,7 @@
         <v>154</v>
       </c>
       <c r="B159" s="18"/>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="21" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
@@ -11666,7 +11870,7 @@
         <v>155</v>
       </c>
       <c r="B160" s="18"/>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="21" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
@@ -11682,7 +11886,7 @@
         <v>156</v>
       </c>
       <c r="B161" s="18"/>
-      <c r="C161" s="20" t="s">
+      <c r="C161" s="21" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
@@ -11698,7 +11902,7 @@
         <v>157</v>
       </c>
       <c r="B162" s="18"/>
-      <c r="C162" s="20" t="s">
+      <c r="C162" s="21" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
@@ -11716,7 +11920,7 @@
       <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="21" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
@@ -11732,7 +11936,7 @@
         <v>159</v>
       </c>
       <c r="B164" s="18"/>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="21" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
@@ -11748,11 +11952,11 @@
         <v>160</v>
       </c>
       <c r="B165" s="18"/>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="21" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="K165" s="21"/>
+      <c r="K165" s="22"/>
       <c r="M165" s="9" t="n">
         <v>0</v>
       </c>
@@ -11765,7 +11969,7 @@
         <v>161</v>
       </c>
       <c r="B166" s="18"/>
-      <c r="C166" s="20" t="s">
+      <c r="C166" s="21" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
@@ -11781,7 +11985,7 @@
         <v>162</v>
       </c>
       <c r="B167" s="18"/>
-      <c r="C167" s="20" t="s">
+      <c r="C167" s="21" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
@@ -11797,7 +12001,7 @@
         <v>163</v>
       </c>
       <c r="B168" s="18"/>
-      <c r="C168" s="20" t="s">
+      <c r="C168" s="21" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
@@ -11815,7 +12019,7 @@
       <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="20" t="s">
+      <c r="C169" s="21" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
@@ -11831,7 +12035,7 @@
         <v>165</v>
       </c>
       <c r="B170" s="18"/>
-      <c r="C170" s="20" t="s">
+      <c r="C170" s="21" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
@@ -11849,7 +12053,7 @@
       <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="20" t="s">
+      <c r="C171" s="21" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
@@ -11865,7 +12069,7 @@
         <v>167</v>
       </c>
       <c r="B172" s="18"/>
-      <c r="C172" s="20" t="s">
+      <c r="C172" s="21" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
@@ -12001,7 +12205,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="21" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -12598,7 +12802,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -12609,7 +12813,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="21" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -12620,7 +12824,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -12631,7 +12835,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="20" t="s">
+      <c r="C63" s="21" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -12642,7 +12846,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -12653,7 +12857,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="21" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -12664,7 +12868,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -12675,7 +12879,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="21" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -12688,7 +12892,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -12701,7 +12905,7 @@
       <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="21" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -12712,7 +12916,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -12723,7 +12927,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="20" t="s">
+      <c r="C71" s="21" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -12734,7 +12938,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -12745,7 +12949,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="20" t="s">
+      <c r="C73" s="21" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -12756,7 +12960,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -12767,7 +12971,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="21" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -12778,7 +12982,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -12789,7 +12993,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="21" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -12800,7 +13004,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="21" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -12811,7 +13015,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="21" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -12922,7 +13126,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -12935,7 +13139,7 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -12946,7 +13150,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -12957,7 +13161,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -12968,7 +13172,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -12979,7 +13183,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -12990,7 +13194,7 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -13003,7 +13207,7 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
@@ -13014,7 +13218,7 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
@@ -13025,7 +13229,7 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
@@ -13036,7 +13240,7 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
@@ -13047,7 +13251,7 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
@@ -13058,7 +13262,7 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -13071,7 +13275,7 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
@@ -13082,7 +13286,7 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
@@ -13093,7 +13297,7 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
@@ -13104,7 +13308,7 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
@@ -13115,7 +13319,7 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
@@ -13126,7 +13330,7 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -13139,7 +13343,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -13150,7 +13354,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -13163,7 +13367,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
@@ -13201,7 +13405,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="21" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -13212,7 +13416,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -13223,7 +13427,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="21" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -13234,7 +13438,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,13 +1632,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1955,7 +1954,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2034,10 +2033,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -2199,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>302040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2211,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006880" cy="1621080"/>
+          <a:ext cx="5006520" cy="1620720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2377,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
+      <xdr:colOff>302040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2389,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006880" cy="1621080"/>
+          <a:ext cx="5006520" cy="1620720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2555,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>456120</xdr:colOff>
+      <xdr:colOff>455760</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2567,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5007240" cy="1621080"/>
+          <a:ext cx="5006880" cy="1620720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2733,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>75960</xdr:colOff>
+      <xdr:colOff>75600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:rowOff>67320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2744,8 +2739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13790520" y="0"/>
-          <a:ext cx="5064840" cy="1658520"/>
+          <a:off x="14001840" y="0"/>
+          <a:ext cx="5064840" cy="1658160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2906,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2917,8 +2912,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11283480" y="16410960"/>
-          <a:ext cx="194760" cy="2225520"/>
+          <a:off x="11283480" y="17472240"/>
+          <a:ext cx="194400" cy="2341800"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2951,16 +2946,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>299520</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>11880</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>404280</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>60120</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>220320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2969,8 +2964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11702160" y="17231040"/>
-          <a:ext cx="4799880" cy="1156680"/>
+          <a:off x="21484440" y="16889400"/>
+          <a:ext cx="5011200" cy="1215000"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3071,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3236400</xdr:colOff>
+      <xdr:colOff>3236040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3083,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5028120" cy="1649880"/>
+          <a:ext cx="5027760" cy="1649520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3249,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>203400</xdr:rowOff>
+      <xdr:rowOff>203040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3261,7 +3256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064480" cy="3103920"/>
+          <a:ext cx="5064120" cy="3103560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3427,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313920</xdr:colOff>
+      <xdr:colOff>313560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203400</xdr:rowOff>
+      <xdr:rowOff>203040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3439,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064480" cy="2684880"/>
+          <a:ext cx="5064120" cy="2684520"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5709,10 +5704,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E63" activeCellId="0" sqref="E63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A54" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5722,7 +5717,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1005" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -5766,8 +5762,11 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="20" t="n">
+      <c r="E6" s="17" t="n">
         <v>45428</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>45429</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5786,8 +5785,11 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>2</v>
       </c>
@@ -5801,8 +5803,11 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <v>3</v>
       </c>
@@ -5816,8 +5821,11 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>4</v>
       </c>
@@ -5831,6 +5839,9 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -5848,8 +5859,11 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>6</v>
       </c>
@@ -5863,8 +5877,11 @@
       <c r="E12" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <v>7</v>
       </c>
@@ -5878,8 +5895,11 @@
       <c r="E13" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>8</v>
       </c>
@@ -5893,8 +5913,11 @@
       <c r="E14" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="31.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>9</v>
       </c>
@@ -5910,8 +5933,11 @@
       <c r="E15" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <v>10</v>
       </c>
@@ -5925,8 +5951,11 @@
       <c r="E16" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>11</v>
       </c>
@@ -5940,8 +5969,11 @@
       <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <v>12</v>
       </c>
@@ -5955,8 +5987,11 @@
       <c r="E18" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <v>13</v>
       </c>
@@ -5970,8 +6005,11 @@
       <c r="E19" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <v>14</v>
       </c>
@@ -5985,8 +6023,11 @@
       <c r="E20" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <v>15</v>
       </c>
@@ -6002,8 +6043,11 @@
       <c r="E21" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <v>16</v>
       </c>
@@ -6017,8 +6061,11 @@
       <c r="E22" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <v>17</v>
       </c>
@@ -6034,8 +6081,11 @@
       <c r="E23" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <v>18</v>
       </c>
@@ -6049,8 +6099,11 @@
       <c r="E24" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <v>19</v>
       </c>
@@ -6064,8 +6117,11 @@
       <c r="E25" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <v>20</v>
       </c>
@@ -6079,8 +6135,11 @@
       <c r="E26" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <v>21</v>
       </c>
@@ -6094,8 +6153,11 @@
       <c r="E27" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
         <v>22</v>
       </c>
@@ -6109,8 +6171,11 @@
       <c r="E28" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <v>23</v>
       </c>
@@ -6124,8 +6189,11 @@
       <c r="E29" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>24</v>
       </c>
@@ -6141,8 +6209,11 @@
       <c r="E30" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
         <v>25</v>
       </c>
@@ -6156,8 +6227,11 @@
       <c r="E31" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <v>26</v>
       </c>
@@ -6173,8 +6247,11 @@
       <c r="E32" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <v>27</v>
       </c>
@@ -6188,8 +6265,11 @@
       <c r="E33" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F33" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <v>28</v>
       </c>
@@ -6203,8 +6283,11 @@
       <c r="E34" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F34" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>29</v>
       </c>
@@ -6218,8 +6301,11 @@
       <c r="E35" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <v>30</v>
       </c>
@@ -6231,8 +6317,11 @@
       <c r="E36" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F36" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <v>31</v>
       </c>
@@ -6244,8 +6333,11 @@
       <c r="E37" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <v>32</v>
       </c>
@@ -6257,8 +6349,11 @@
       <c r="E38" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
         <v>33</v>
       </c>
@@ -6270,8 +6365,11 @@
       <c r="E39" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <v>34</v>
       </c>
@@ -6283,8 +6381,11 @@
       <c r="E40" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <v>35</v>
       </c>
@@ -6298,8 +6399,11 @@
       <c r="E41" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <v>36</v>
       </c>
@@ -6311,8 +6415,11 @@
       <c r="E42" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>37</v>
       </c>
@@ -6324,8 +6431,11 @@
       <c r="E43" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>38</v>
       </c>
@@ -6337,8 +6447,11 @@
       <c r="E44" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F44" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>39</v>
       </c>
@@ -6350,8 +6463,11 @@
       <c r="E45" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>40</v>
       </c>
@@ -6363,8 +6479,11 @@
       <c r="E46" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>41</v>
       </c>
@@ -6376,8 +6495,11 @@
       <c r="E47" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>42</v>
       </c>
@@ -6389,8 +6511,11 @@
       <c r="E48" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F48" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>43</v>
       </c>
@@ -6402,8 +6527,11 @@
       <c r="E49" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>44</v>
       </c>
@@ -6415,8 +6543,11 @@
       <c r="E50" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <v>45</v>
       </c>
@@ -6430,8 +6561,11 @@
       <c r="E51" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>46</v>
       </c>
@@ -6443,8 +6577,11 @@
       <c r="E52" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>47</v>
       </c>
@@ -6456,8 +6593,11 @@
       <c r="E53" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F53" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>48</v>
       </c>
@@ -6469,8 +6609,11 @@
       <c r="E54" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>49</v>
       </c>
@@ -6482,8 +6625,11 @@
       <c r="E55" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>50</v>
       </c>
@@ -6497,8 +6643,11 @@
       <c r="E56" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>51</v>
       </c>
@@ -6510,8 +6659,11 @@
       <c r="E57" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>52</v>
       </c>
@@ -6523,8 +6675,11 @@
       <c r="E58" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>53</v>
       </c>
@@ -6536,8 +6691,11 @@
       <c r="E59" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>54</v>
       </c>
@@ -6551,8 +6709,11 @@
       <c r="E60" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>55</v>
       </c>
@@ -6564,8 +6725,11 @@
       <c r="E61" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>56</v>
       </c>
@@ -6579,8 +6743,11 @@
       <c r="E62" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>57</v>
       </c>
@@ -6592,8 +6759,11 @@
       <c r="E63" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>58</v>
       </c>
@@ -6605,8 +6775,11 @@
       <c r="E64" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>59</v>
       </c>
@@ -6618,8 +6791,11 @@
       <c r="E65" s="9" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>60</v>
       </c>
@@ -6633,8 +6809,11 @@
       <c r="E66" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>61</v>
       </c>
@@ -6646,8 +6825,11 @@
       <c r="E67" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>62</v>
       </c>
@@ -6659,8 +6841,11 @@
       <c r="E68" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>63</v>
       </c>
@@ -6672,8 +6857,11 @@
       <c r="E69" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>64</v>
       </c>
@@ -6687,8 +6875,11 @@
       <c r="E70" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="16.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>65</v>
       </c>
@@ -6700,8 +6891,11 @@
       <c r="E71" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>66</v>
       </c>
@@ -6712,8 +6906,11 @@
         <v>192</v>
       </c>
       <c r="D72" s="9"/>
-    </row>
-    <row r="73" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>67</v>
       </c>
@@ -6722,8 +6919,11 @@
         <v>193</v>
       </c>
       <c r="D73" s="9"/>
-    </row>
-    <row r="74" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>68</v>
       </c>
@@ -6732,8 +6932,11 @@
         <v>194</v>
       </c>
       <c r="D74" s="9"/>
-    </row>
-    <row r="75" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <v>69</v>
       </c>
@@ -6742,8 +6945,11 @@
         <v>195</v>
       </c>
       <c r="D75" s="9"/>
-    </row>
-    <row r="76" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <v>70</v>
       </c>
@@ -6754,8 +6960,11 @@
         <v>197</v>
       </c>
       <c r="D76" s="9"/>
-    </row>
-    <row r="77" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <v>71</v>
       </c>
@@ -6766,8 +6975,11 @@
         <v>199</v>
       </c>
       <c r="D77" s="9"/>
-    </row>
-    <row r="78" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <v>72</v>
       </c>
@@ -6776,8 +6988,11 @@
         <v>200</v>
       </c>
       <c r="D78" s="9"/>
-    </row>
-    <row r="79" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <v>73</v>
       </c>
@@ -6786,8 +7001,11 @@
         <v>201</v>
       </c>
       <c r="D79" s="9"/>
-    </row>
-    <row r="80" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
         <v>74</v>
       </c>
@@ -6798,8 +7016,11 @@
         <v>203</v>
       </c>
       <c r="D80" s="9"/>
-    </row>
-    <row r="81" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
         <v>75</v>
       </c>
@@ -6808,8 +7029,11 @@
         <v>204</v>
       </c>
       <c r="D81" s="9"/>
-    </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
         <v>76</v>
       </c>
@@ -6820,8 +7044,11 @@
         <v>206</v>
       </c>
       <c r="D82" s="9"/>
-    </row>
-    <row r="83" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
         <v>77</v>
       </c>
@@ -6832,6 +7059,9 @@
         <v>208</v>
       </c>
       <c r="D83" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
@@ -6894,13 +7124,13 @@
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B80:B81"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D86 E7:E71">
+  <conditionalFormatting sqref="D7:D86 E7:F71 F72:F83">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:E71 D72:D86" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F71 D72:D84 F72:F83 D85:D86" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -7273,7 +7503,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="18"/>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>224</v>
       </c>
       <c r="D13" s="9" t="n">
@@ -7315,7 +7545,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="18"/>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>225</v>
       </c>
       <c r="D14" s="9" t="n">
@@ -7357,7 +7587,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="18"/>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>226</v>
       </c>
       <c r="D15" s="9" t="n">
@@ -7399,7 +7629,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="18"/>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>227</v>
       </c>
       <c r="D16" s="9" t="n">
@@ -7441,7 +7671,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="18"/>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>228</v>
       </c>
       <c r="D17" s="9" t="n">
@@ -7483,7 +7713,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="18"/>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>229</v>
       </c>
       <c r="D18" s="9" t="n">
@@ -7525,7 +7755,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="18"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>230</v>
       </c>
       <c r="D19" s="9" t="n">
@@ -7567,7 +7797,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>231</v>
       </c>
       <c r="D20" s="9" t="n">
@@ -7609,7 +7839,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="18"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>232</v>
       </c>
       <c r="D21" s="9" t="n">
@@ -7651,7 +7881,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="18"/>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>233</v>
       </c>
       <c r="D22" s="9" t="n">
@@ -7693,7 +7923,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>234</v>
       </c>
       <c r="D23" s="9" t="n">
@@ -7735,7 +7965,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="18"/>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>235</v>
       </c>
       <c r="D24" s="9" t="n">
@@ -7777,7 +8007,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="18"/>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>236</v>
       </c>
       <c r="D25" s="9" t="n">
@@ -7819,7 +8049,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="18"/>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>237</v>
       </c>
       <c r="D26" s="9" t="n">
@@ -7861,7 +8091,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="18"/>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>238</v>
       </c>
       <c r="D27" s="9" t="n">
@@ -7903,7 +8133,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="18"/>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>239</v>
       </c>
       <c r="D28" s="9" t="n">
@@ -7945,7 +8175,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="18"/>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>240</v>
       </c>
       <c r="D29" s="9" t="n">
@@ -7987,7 +8217,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="18"/>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>241</v>
       </c>
       <c r="D30" s="9" t="n">
@@ -8029,7 +8259,7 @@
         <v>26</v>
       </c>
       <c r="B31" s="18"/>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>242</v>
       </c>
       <c r="D31" s="9" t="n">
@@ -8073,7 +8303,7 @@
       <c r="B32" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>244</v>
       </c>
       <c r="D32" s="9" t="n">
@@ -8115,7 +8345,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="18"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>245</v>
       </c>
       <c r="D33" s="9" t="n">
@@ -8157,7 +8387,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="18"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>246</v>
       </c>
       <c r="D34" s="9" t="n">
@@ -8199,7 +8429,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="18"/>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="20" t="s">
         <v>247</v>
       </c>
       <c r="D35" s="9" t="n">
@@ -8241,7 +8471,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="18"/>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="20" t="s">
         <v>248</v>
       </c>
       <c r="D36" s="9" t="n">
@@ -8283,7 +8513,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="18"/>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="20" t="s">
         <v>249</v>
       </c>
       <c r="D37" s="9" t="n">
@@ -8325,7 +8555,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="18"/>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="20" t="s">
         <v>250</v>
       </c>
       <c r="D38" s="9" t="n">
@@ -8367,7 +8597,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="18"/>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="20" t="s">
         <v>251</v>
       </c>
       <c r="D39" s="9" t="n">
@@ -8411,7 +8641,7 @@
       <c r="B40" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C40" s="20" t="s">
         <v>253</v>
       </c>
       <c r="D40" s="9" t="s">
@@ -8453,7 +8683,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="18"/>
-      <c r="C41" s="21" t="s">
+      <c r="C41" s="20" t="s">
         <v>254</v>
       </c>
       <c r="D41" s="9" t="s">
@@ -8497,7 +8727,7 @@
       <c r="B42" s="18" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="21" t="s">
+      <c r="C42" s="20" t="s">
         <v>255</v>
       </c>
       <c r="D42" s="9"/>
@@ -8537,7 +8767,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="18"/>
-      <c r="C43" s="21" t="s">
+      <c r="C43" s="20" t="s">
         <v>256</v>
       </c>
       <c r="D43" s="9"/>
@@ -8577,7 +8807,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="18"/>
-      <c r="C44" s="21" t="s">
+      <c r="C44" s="20" t="s">
         <v>257</v>
       </c>
       <c r="D44" s="9"/>
@@ -8617,7 +8847,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="18"/>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>258</v>
       </c>
       <c r="D45" s="9"/>
@@ -8657,7 +8887,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="18"/>
-      <c r="C46" s="21" t="s">
+      <c r="C46" s="20" t="s">
         <v>259</v>
       </c>
       <c r="D46" s="9"/>
@@ -8697,7 +8927,7 @@
         <v>42</v>
       </c>
       <c r="B47" s="18"/>
-      <c r="C47" s="21" t="s">
+      <c r="C47" s="20" t="s">
         <v>260</v>
       </c>
       <c r="D47" s="9"/>
@@ -8737,7 +8967,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="18"/>
-      <c r="C48" s="21" t="s">
+      <c r="C48" s="20" t="s">
         <v>261</v>
       </c>
       <c r="D48" s="9"/>
@@ -8777,7 +9007,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="18"/>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="20" t="s">
         <v>262</v>
       </c>
       <c r="D49" s="9"/>
@@ -8817,7 +9047,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="18"/>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="20" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="9"/>
@@ -8857,7 +9087,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="18"/>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="20" t="s">
         <v>264</v>
       </c>
       <c r="D51" s="9"/>
@@ -8897,7 +9127,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="18"/>
-      <c r="C52" s="21" t="s">
+      <c r="C52" s="20" t="s">
         <v>265</v>
       </c>
       <c r="D52" s="9"/>
@@ -8937,7 +9167,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="18"/>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="20" t="s">
         <v>266</v>
       </c>
       <c r="D53" s="9"/>
@@ -8979,7 +9209,7 @@
       <c r="B54" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C54" s="21" t="s">
+      <c r="C54" s="20" t="s">
         <v>268</v>
       </c>
       <c r="D54" s="9"/>
@@ -9019,7 +9249,7 @@
         <v>50</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="21" t="s">
+      <c r="C55" s="20" t="s">
         <v>269</v>
       </c>
       <c r="D55" s="9"/>
@@ -9059,7 +9289,7 @@
         <v>51</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="21" t="s">
+      <c r="C56" s="20" t="s">
         <v>270</v>
       </c>
       <c r="D56" s="9"/>
@@ -9099,7 +9329,7 @@
         <v>52</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="21" t="s">
+      <c r="C57" s="20" t="s">
         <v>271</v>
       </c>
       <c r="D57" s="9"/>
@@ -9139,7 +9369,7 @@
         <v>53</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="20" t="s">
         <v>272</v>
       </c>
       <c r="D58" s="9"/>
@@ -9179,7 +9409,7 @@
         <v>54</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="20" t="s">
         <v>273</v>
       </c>
       <c r="D59" s="9"/>
@@ -9221,7 +9451,7 @@
       <c r="B60" s="18" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>275</v>
       </c>
       <c r="D60" s="9"/>
@@ -9261,7 +9491,7 @@
         <v>56</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>276</v>
       </c>
       <c r="D61" s="9"/>
@@ -9301,7 +9531,7 @@
         <v>57</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>277</v>
       </c>
       <c r="D62" s="9"/>
@@ -9341,7 +9571,7 @@
         <v>58</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>278</v>
       </c>
       <c r="D63" s="9"/>
@@ -9381,7 +9611,7 @@
         <v>59</v>
       </c>
       <c r="B64" s="18"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>279</v>
       </c>
       <c r="D64" s="9"/>
@@ -9421,7 +9651,7 @@
         <v>60</v>
       </c>
       <c r="B65" s="18"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>280</v>
       </c>
       <c r="D65" s="9"/>
@@ -9461,7 +9691,7 @@
         <v>61</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>281</v>
       </c>
       <c r="D66" s="9"/>
@@ -9501,7 +9731,7 @@
         <v>62</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>282</v>
       </c>
       <c r="D67" s="9"/>
@@ -9541,7 +9771,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>283</v>
       </c>
       <c r="D68" s="9"/>
@@ -9581,7 +9811,7 @@
         <v>64</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>284</v>
       </c>
       <c r="D69" s="9"/>
@@ -9621,7 +9851,7 @@
         <v>65</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>285</v>
       </c>
       <c r="D70" s="9"/>
@@ -9661,7 +9891,7 @@
         <v>66</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>286</v>
       </c>
       <c r="D71" s="9"/>
@@ -9701,7 +9931,7 @@
         <v>67</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>287</v>
       </c>
       <c r="D72" s="9"/>
@@ -9743,7 +9973,7 @@
       <c r="B73" s="18" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>289</v>
       </c>
       <c r="D73" s="9"/>
@@ -9780,7 +10010,7 @@
         <v>69</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>290</v>
       </c>
       <c r="D74" s="9"/>
@@ -9817,7 +10047,7 @@
         <v>70</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>291</v>
       </c>
       <c r="D75" s="9"/>
@@ -9854,7 +10084,7 @@
         <v>71</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>292</v>
       </c>
       <c r="D76" s="9"/>
@@ -9891,7 +10121,7 @@
         <v>72</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>293</v>
       </c>
       <c r="D77" s="9"/>
@@ -9928,7 +10158,7 @@
         <v>73</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>294</v>
       </c>
       <c r="D78" s="9"/>
@@ -9965,7 +10195,7 @@
         <v>74</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>295</v>
       </c>
       <c r="D79" s="9"/>
@@ -10002,7 +10232,7 @@
         <v>75</v>
       </c>
       <c r="B80" s="18"/>
-      <c r="C80" s="21" t="s">
+      <c r="C80" s="20" t="s">
         <v>296</v>
       </c>
       <c r="D80" s="9"/>
@@ -10041,7 +10271,7 @@
       <c r="B81" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="C81" s="21" t="s">
+      <c r="C81" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D81" s="9"/>
@@ -10080,7 +10310,7 @@
       <c r="B82" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="C82" s="21" t="s">
+      <c r="C82" s="20" t="s">
         <v>300</v>
       </c>
       <c r="D82" s="9"/>
@@ -10108,7 +10338,7 @@
         <v>78</v>
       </c>
       <c r="B83" s="18"/>
-      <c r="C83" s="21" t="s">
+      <c r="C83" s="20" t="s">
         <v>301</v>
       </c>
       <c r="D83" s="9"/>
@@ -10136,7 +10366,7 @@
         <v>79</v>
       </c>
       <c r="B84" s="18"/>
-      <c r="C84" s="21" t="s">
+      <c r="C84" s="20" t="s">
         <v>302</v>
       </c>
       <c r="D84" s="9"/>
@@ -10164,7 +10394,7 @@
         <v>80</v>
       </c>
       <c r="B85" s="18"/>
-      <c r="C85" s="21" t="s">
+      <c r="C85" s="20" t="s">
         <v>303</v>
       </c>
       <c r="D85" s="9"/>
@@ -10192,7 +10422,7 @@
         <v>81</v>
       </c>
       <c r="B86" s="18"/>
-      <c r="C86" s="21" t="s">
+      <c r="C86" s="20" t="s">
         <v>304</v>
       </c>
       <c r="D86" s="9"/>
@@ -10220,7 +10450,7 @@
         <v>82</v>
       </c>
       <c r="B87" s="18"/>
-      <c r="C87" s="21" t="s">
+      <c r="C87" s="20" t="s">
         <v>305</v>
       </c>
       <c r="D87" s="9"/>
@@ -10250,7 +10480,7 @@
       <c r="B88" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="20" t="s">
         <v>307</v>
       </c>
       <c r="D88" s="9"/>
@@ -10278,7 +10508,7 @@
         <v>84</v>
       </c>
       <c r="B89" s="18"/>
-      <c r="C89" s="21" t="s">
+      <c r="C89" s="20" t="s">
         <v>308</v>
       </c>
       <c r="D89" s="9"/>
@@ -10306,7 +10536,7 @@
         <v>85</v>
       </c>
       <c r="B90" s="18"/>
-      <c r="C90" s="21" t="s">
+      <c r="C90" s="20" t="s">
         <v>309</v>
       </c>
       <c r="D90" s="9"/>
@@ -10334,7 +10564,7 @@
         <v>86</v>
       </c>
       <c r="B91" s="18"/>
-      <c r="C91" s="21" t="s">
+      <c r="C91" s="20" t="s">
         <v>310</v>
       </c>
       <c r="D91" s="9"/>
@@ -10362,7 +10592,7 @@
         <v>87</v>
       </c>
       <c r="B92" s="18"/>
-      <c r="C92" s="21" t="s">
+      <c r="C92" s="20" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="9"/>
@@ -10390,7 +10620,7 @@
         <v>88</v>
       </c>
       <c r="B93" s="18"/>
-      <c r="C93" s="21" t="s">
+      <c r="C93" s="20" t="s">
         <v>312</v>
       </c>
       <c r="D93" s="9"/>
@@ -10420,7 +10650,7 @@
       <c r="B94" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="C94" s="21" t="s">
+      <c r="C94" s="20" t="s">
         <v>314</v>
       </c>
       <c r="D94" s="9"/>
@@ -10448,7 +10678,7 @@
         <v>90</v>
       </c>
       <c r="B95" s="18"/>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="20" t="s">
         <v>315</v>
       </c>
       <c r="D95" s="9"/>
@@ -10476,7 +10706,7 @@
         <v>91</v>
       </c>
       <c r="B96" s="18"/>
-      <c r="C96" s="21" t="s">
+      <c r="C96" s="20" t="s">
         <v>316</v>
       </c>
       <c r="D96" s="9"/>
@@ -10504,7 +10734,7 @@
         <v>92</v>
       </c>
       <c r="B97" s="18"/>
-      <c r="C97" s="21" t="s">
+      <c r="C97" s="20" t="s">
         <v>317</v>
       </c>
       <c r="D97" s="9"/>
@@ -10532,7 +10762,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="18"/>
-      <c r="C98" s="21" t="s">
+      <c r="C98" s="20" t="s">
         <v>318</v>
       </c>
       <c r="D98" s="9"/>
@@ -10560,7 +10790,7 @@
         <v>94</v>
       </c>
       <c r="B99" s="18"/>
-      <c r="C99" s="21" t="s">
+      <c r="C99" s="20" t="s">
         <v>319</v>
       </c>
       <c r="D99" s="9"/>
@@ -10588,7 +10818,7 @@
         <v>95</v>
       </c>
       <c r="B100" s="18"/>
-      <c r="C100" s="21" t="s">
+      <c r="C100" s="20" t="s">
         <v>320</v>
       </c>
       <c r="D100" s="9"/>
@@ -10616,7 +10846,7 @@
         <v>96</v>
       </c>
       <c r="B101" s="18"/>
-      <c r="C101" s="21" t="s">
+      <c r="C101" s="20" t="s">
         <v>321</v>
       </c>
       <c r="D101" s="9"/>
@@ -10646,7 +10876,7 @@
       <c r="B102" s="18" t="s">
         <v>322</v>
       </c>
-      <c r="C102" s="21" t="s">
+      <c r="C102" s="20" t="s">
         <v>323</v>
       </c>
       <c r="D102" s="9"/>
@@ -10671,7 +10901,7 @@
         <v>98</v>
       </c>
       <c r="B103" s="18"/>
-      <c r="C103" s="21" t="s">
+      <c r="C103" s="20" t="s">
         <v>324</v>
       </c>
       <c r="D103" s="9"/>
@@ -10696,7 +10926,7 @@
         <v>99</v>
       </c>
       <c r="B104" s="18"/>
-      <c r="C104" s="21" t="s">
+      <c r="C104" s="20" t="s">
         <v>325</v>
       </c>
       <c r="D104" s="9"/>
@@ -10721,7 +10951,7 @@
         <v>100</v>
       </c>
       <c r="B105" s="18"/>
-      <c r="C105" s="21" t="s">
+      <c r="C105" s="20" t="s">
         <v>326</v>
       </c>
       <c r="D105" s="9"/>
@@ -10748,7 +10978,7 @@
       <c r="B106" s="18" t="s">
         <v>327</v>
       </c>
-      <c r="C106" s="21" t="s">
+      <c r="C106" s="20" t="s">
         <v>328</v>
       </c>
       <c r="D106" s="9"/>
@@ -10773,7 +11003,7 @@
         <v>102</v>
       </c>
       <c r="B107" s="18"/>
-      <c r="C107" s="21" t="s">
+      <c r="C107" s="20" t="s">
         <v>329</v>
       </c>
       <c r="D107" s="9"/>
@@ -10800,7 +11030,7 @@
       <c r="B108" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="21" t="s">
+      <c r="C108" s="20" t="s">
         <v>331</v>
       </c>
       <c r="D108" s="9"/>
@@ -10825,7 +11055,7 @@
         <v>104</v>
       </c>
       <c r="B109" s="18"/>
-      <c r="C109" s="21" t="s">
+      <c r="C109" s="20" t="s">
         <v>332</v>
       </c>
       <c r="D109" s="9"/>
@@ -10850,7 +11080,7 @@
         <v>105</v>
       </c>
       <c r="B110" s="18"/>
-      <c r="C110" s="21" t="s">
+      <c r="C110" s="20" t="s">
         <v>333</v>
       </c>
       <c r="D110" s="9"/>
@@ -10875,7 +11105,7 @@
         <v>106</v>
       </c>
       <c r="B111" s="18"/>
-      <c r="C111" s="21" t="s">
+      <c r="C111" s="20" t="s">
         <v>334</v>
       </c>
       <c r="D111" s="9"/>
@@ -10900,7 +11130,7 @@
         <v>107</v>
       </c>
       <c r="B112" s="18"/>
-      <c r="C112" s="21" t="s">
+      <c r="C112" s="20" t="s">
         <v>335</v>
       </c>
       <c r="D112" s="9"/>
@@ -10925,7 +11155,7 @@
         <v>108</v>
       </c>
       <c r="B113" s="18"/>
-      <c r="C113" s="21" t="s">
+      <c r="C113" s="20" t="s">
         <v>336</v>
       </c>
       <c r="D113" s="9"/>
@@ -10952,7 +11182,7 @@
       <c r="B114" s="18" t="s">
         <v>337</v>
       </c>
-      <c r="C114" s="21" t="s">
+      <c r="C114" s="20" t="s">
         <v>338</v>
       </c>
       <c r="D114" s="9"/>
@@ -10977,7 +11207,7 @@
         <v>110</v>
       </c>
       <c r="B115" s="18"/>
-      <c r="C115" s="21" t="s">
+      <c r="C115" s="20" t="s">
         <v>339</v>
       </c>
       <c r="D115" s="9"/>
@@ -11002,7 +11232,7 @@
         <v>111</v>
       </c>
       <c r="B116" s="18"/>
-      <c r="C116" s="21" t="s">
+      <c r="C116" s="20" t="s">
         <v>340</v>
       </c>
       <c r="D116" s="9"/>
@@ -11027,7 +11257,7 @@
         <v>112</v>
       </c>
       <c r="B117" s="18"/>
-      <c r="C117" s="21" t="s">
+      <c r="C117" s="20" t="s">
         <v>341</v>
       </c>
       <c r="D117" s="9"/>
@@ -11052,7 +11282,7 @@
         <v>113</v>
       </c>
       <c r="B118" s="18"/>
-      <c r="C118" s="21" t="s">
+      <c r="C118" s="20" t="s">
         <v>342</v>
       </c>
       <c r="D118" s="9"/>
@@ -11079,7 +11309,7 @@
       <c r="B119" s="18" t="s">
         <v>343</v>
       </c>
-      <c r="C119" s="21" t="s">
+      <c r="C119" s="20" t="s">
         <v>344</v>
       </c>
       <c r="D119" s="9"/>
@@ -11101,7 +11331,7 @@
         <v>115</v>
       </c>
       <c r="B120" s="18"/>
-      <c r="C120" s="21" t="s">
+      <c r="C120" s="20" t="s">
         <v>345</v>
       </c>
       <c r="D120" s="9"/>
@@ -11123,7 +11353,7 @@
         <v>116</v>
       </c>
       <c r="B121" s="18"/>
-      <c r="C121" s="21" t="s">
+      <c r="C121" s="20" t="s">
         <v>346</v>
       </c>
       <c r="D121" s="9"/>
@@ -11145,7 +11375,7 @@
         <v>117</v>
       </c>
       <c r="B122" s="18"/>
-      <c r="C122" s="21" t="s">
+      <c r="C122" s="20" t="s">
         <v>347</v>
       </c>
       <c r="D122" s="9"/>
@@ -11167,7 +11397,7 @@
         <v>118</v>
       </c>
       <c r="B123" s="18"/>
-      <c r="C123" s="21" t="s">
+      <c r="C123" s="20" t="s">
         <v>348</v>
       </c>
       <c r="D123" s="9"/>
@@ -11191,7 +11421,7 @@
       <c r="B124" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C124" s="21" t="s">
+      <c r="C124" s="20" t="s">
         <v>350</v>
       </c>
       <c r="D124" s="9"/>
@@ -11210,7 +11440,7 @@
         <v>120</v>
       </c>
       <c r="B125" s="18"/>
-      <c r="C125" s="21" t="s">
+      <c r="C125" s="20" t="s">
         <v>351</v>
       </c>
       <c r="D125" s="9"/>
@@ -11229,7 +11459,7 @@
         <v>121</v>
       </c>
       <c r="B126" s="18"/>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="20" t="s">
         <v>352</v>
       </c>
       <c r="D126" s="9"/>
@@ -11248,7 +11478,7 @@
         <v>122</v>
       </c>
       <c r="B127" s="18"/>
-      <c r="C127" s="21" t="s">
+      <c r="C127" s="20" t="s">
         <v>353</v>
       </c>
       <c r="D127" s="9"/>
@@ -11267,7 +11497,7 @@
         <v>123</v>
       </c>
       <c r="B128" s="18"/>
-      <c r="C128" s="21" t="s">
+      <c r="C128" s="20" t="s">
         <v>354</v>
       </c>
       <c r="D128" s="9"/>
@@ -11286,7 +11516,7 @@
         <v>124</v>
       </c>
       <c r="B129" s="18"/>
-      <c r="C129" s="21" t="s">
+      <c r="C129" s="20" t="s">
         <v>355</v>
       </c>
       <c r="D129" s="9"/>
@@ -11305,7 +11535,7 @@
         <v>125</v>
       </c>
       <c r="B130" s="18"/>
-      <c r="C130" s="21" t="s">
+      <c r="C130" s="20" t="s">
         <v>356</v>
       </c>
       <c r="D130" s="9"/>
@@ -11324,7 +11554,7 @@
         <v>126</v>
       </c>
       <c r="B131" s="18"/>
-      <c r="C131" s="21" t="s">
+      <c r="C131" s="20" t="s">
         <v>357</v>
       </c>
       <c r="D131" s="9"/>
@@ -11343,7 +11573,7 @@
         <v>127</v>
       </c>
       <c r="B132" s="18"/>
-      <c r="C132" s="21" t="s">
+      <c r="C132" s="20" t="s">
         <v>358</v>
       </c>
       <c r="D132" s="9"/>
@@ -11362,7 +11592,7 @@
         <v>128</v>
       </c>
       <c r="B133" s="18"/>
-      <c r="C133" s="21" t="s">
+      <c r="C133" s="20" t="s">
         <v>359</v>
       </c>
       <c r="D133" s="9"/>
@@ -11381,7 +11611,7 @@
         <v>129</v>
       </c>
       <c r="B134" s="18"/>
-      <c r="C134" s="21" t="s">
+      <c r="C134" s="20" t="s">
         <v>360</v>
       </c>
       <c r="D134" s="9"/>
@@ -11400,7 +11630,7 @@
         <v>130</v>
       </c>
       <c r="B135" s="18"/>
-      <c r="C135" s="21" t="s">
+      <c r="C135" s="20" t="s">
         <v>361</v>
       </c>
       <c r="D135" s="9"/>
@@ -11419,7 +11649,7 @@
         <v>131</v>
       </c>
       <c r="B136" s="18"/>
-      <c r="C136" s="21" t="s">
+      <c r="C136" s="20" t="s">
         <v>362</v>
       </c>
       <c r="D136" s="9"/>
@@ -11438,7 +11668,7 @@
         <v>132</v>
       </c>
       <c r="B137" s="18"/>
-      <c r="C137" s="21" t="s">
+      <c r="C137" s="20" t="s">
         <v>363</v>
       </c>
       <c r="D137" s="9"/>
@@ -11457,7 +11687,7 @@
         <v>133</v>
       </c>
       <c r="B138" s="18"/>
-      <c r="C138" s="21" t="s">
+      <c r="C138" s="20" t="s">
         <v>364</v>
       </c>
       <c r="D138" s="9"/>
@@ -11478,7 +11708,7 @@
       <c r="B139" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="C139" s="21" t="s">
+      <c r="C139" s="20" t="s">
         <v>366</v>
       </c>
       <c r="D139" s="9"/>
@@ -11497,7 +11727,7 @@
         <v>135</v>
       </c>
       <c r="B140" s="18"/>
-      <c r="C140" s="21" t="s">
+      <c r="C140" s="20" t="s">
         <v>367</v>
       </c>
       <c r="D140" s="9"/>
@@ -11516,7 +11746,7 @@
         <v>136</v>
       </c>
       <c r="B141" s="18"/>
-      <c r="C141" s="21" t="s">
+      <c r="C141" s="20" t="s">
         <v>368</v>
       </c>
       <c r="D141" s="9"/>
@@ -11537,7 +11767,7 @@
       <c r="B142" s="18" t="s">
         <v>369</v>
       </c>
-      <c r="C142" s="21" t="s">
+      <c r="C142" s="20" t="s">
         <v>370</v>
       </c>
       <c r="D142" s="9"/>
@@ -11556,7 +11786,7 @@
         <v>138</v>
       </c>
       <c r="B143" s="18"/>
-      <c r="C143" s="21" t="s">
+      <c r="C143" s="20" t="s">
         <v>371</v>
       </c>
       <c r="D143" s="9"/>
@@ -11575,7 +11805,7 @@
         <v>139</v>
       </c>
       <c r="B144" s="18"/>
-      <c r="C144" s="21" t="s">
+      <c r="C144" s="20" t="s">
         <v>372</v>
       </c>
       <c r="D144" s="9"/>
@@ -11594,7 +11824,7 @@
         <v>140</v>
       </c>
       <c r="B145" s="18"/>
-      <c r="C145" s="21" t="s">
+      <c r="C145" s="20" t="s">
         <v>373</v>
       </c>
       <c r="D145" s="9"/>
@@ -11613,7 +11843,7 @@
         <v>141</v>
       </c>
       <c r="B146" s="18"/>
-      <c r="C146" s="21" t="s">
+      <c r="C146" s="20" t="s">
         <v>374</v>
       </c>
       <c r="D146" s="9"/>
@@ -11632,7 +11862,7 @@
         <v>142</v>
       </c>
       <c r="B147" s="18"/>
-      <c r="C147" s="21" t="s">
+      <c r="C147" s="20" t="s">
         <v>375</v>
       </c>
       <c r="D147" s="9"/>
@@ -11653,7 +11883,7 @@
       <c r="B148" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="C148" s="21" t="s">
+      <c r="C148" s="20" t="s">
         <v>377</v>
       </c>
       <c r="D148" s="9"/>
@@ -11672,7 +11902,7 @@
         <v>144</v>
       </c>
       <c r="B149" s="18"/>
-      <c r="C149" s="21" t="s">
+      <c r="C149" s="20" t="s">
         <v>378</v>
       </c>
       <c r="D149" s="9"/>
@@ -11691,7 +11921,7 @@
         <v>145</v>
       </c>
       <c r="B150" s="18"/>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="20" t="s">
         <v>379</v>
       </c>
       <c r="D150" s="9"/>
@@ -11712,7 +11942,7 @@
       <c r="B151" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="C151" s="21" t="s">
+      <c r="C151" s="20" t="s">
         <v>381</v>
       </c>
       <c r="D151" s="9"/>
@@ -11731,7 +11961,7 @@
         <v>147</v>
       </c>
       <c r="B152" s="18"/>
-      <c r="C152" s="21" t="s">
+      <c r="C152" s="20" t="s">
         <v>382</v>
       </c>
       <c r="D152" s="9"/>
@@ -11750,7 +11980,7 @@
         <v>148</v>
       </c>
       <c r="B153" s="18"/>
-      <c r="C153" s="21" t="s">
+      <c r="C153" s="20" t="s">
         <v>383</v>
       </c>
       <c r="D153" s="9"/>
@@ -11769,7 +11999,7 @@
         <v>149</v>
       </c>
       <c r="B154" s="18"/>
-      <c r="C154" s="21" t="s">
+      <c r="C154" s="20" t="s">
         <v>384</v>
       </c>
       <c r="D154" s="9"/>
@@ -11790,7 +12020,7 @@
       <c r="B155" s="18" t="s">
         <v>385</v>
       </c>
-      <c r="C155" s="21" t="s">
+      <c r="C155" s="20" t="s">
         <v>386</v>
       </c>
       <c r="D155" s="9"/>
@@ -11806,7 +12036,7 @@
         <v>151</v>
       </c>
       <c r="B156" s="18"/>
-      <c r="C156" s="21" t="s">
+      <c r="C156" s="20" t="s">
         <v>387</v>
       </c>
       <c r="D156" s="9"/>
@@ -11822,7 +12052,7 @@
         <v>152</v>
       </c>
       <c r="B157" s="18"/>
-      <c r="C157" s="21" t="s">
+      <c r="C157" s="20" t="s">
         <v>388</v>
       </c>
       <c r="D157" s="9"/>
@@ -11838,7 +12068,7 @@
         <v>153</v>
       </c>
       <c r="B158" s="18"/>
-      <c r="C158" s="21" t="s">
+      <c r="C158" s="20" t="s">
         <v>389</v>
       </c>
       <c r="D158" s="9"/>
@@ -11854,7 +12084,7 @@
         <v>154</v>
       </c>
       <c r="B159" s="18"/>
-      <c r="C159" s="21" t="s">
+      <c r="C159" s="20" t="s">
         <v>390</v>
       </c>
       <c r="D159" s="9"/>
@@ -11870,7 +12100,7 @@
         <v>155</v>
       </c>
       <c r="B160" s="18"/>
-      <c r="C160" s="21" t="s">
+      <c r="C160" s="20" t="s">
         <v>391</v>
       </c>
       <c r="D160" s="9"/>
@@ -11886,7 +12116,7 @@
         <v>156</v>
       </c>
       <c r="B161" s="18"/>
-      <c r="C161" s="21" t="s">
+      <c r="C161" s="20" t="s">
         <v>392</v>
       </c>
       <c r="D161" s="9"/>
@@ -11902,7 +12132,7 @@
         <v>157</v>
       </c>
       <c r="B162" s="18"/>
-      <c r="C162" s="21" t="s">
+      <c r="C162" s="20" t="s">
         <v>393</v>
       </c>
       <c r="D162" s="9"/>
@@ -11920,7 +12150,7 @@
       <c r="B163" s="18" t="s">
         <v>394</v>
       </c>
-      <c r="C163" s="21" t="s">
+      <c r="C163" s="20" t="s">
         <v>395</v>
       </c>
       <c r="D163" s="9"/>
@@ -11936,7 +12166,7 @@
         <v>159</v>
       </c>
       <c r="B164" s="18"/>
-      <c r="C164" s="21" t="s">
+      <c r="C164" s="20" t="s">
         <v>396</v>
       </c>
       <c r="D164" s="9"/>
@@ -11952,11 +12182,11 @@
         <v>160</v>
       </c>
       <c r="B165" s="18"/>
-      <c r="C165" s="21" t="s">
+      <c r="C165" s="20" t="s">
         <v>397</v>
       </c>
       <c r="D165" s="9"/>
-      <c r="K165" s="22"/>
+      <c r="K165" s="21"/>
       <c r="M165" s="9" t="n">
         <v>0</v>
       </c>
@@ -11969,7 +12199,7 @@
         <v>161</v>
       </c>
       <c r="B166" s="18"/>
-      <c r="C166" s="21" t="s">
+      <c r="C166" s="20" t="s">
         <v>398</v>
       </c>
       <c r="D166" s="9"/>
@@ -11985,7 +12215,7 @@
         <v>162</v>
       </c>
       <c r="B167" s="18"/>
-      <c r="C167" s="21" t="s">
+      <c r="C167" s="20" t="s">
         <v>399</v>
       </c>
       <c r="D167" s="9"/>
@@ -12001,7 +12231,7 @@
         <v>163</v>
       </c>
       <c r="B168" s="18"/>
-      <c r="C168" s="21" t="s">
+      <c r="C168" s="20" t="s">
         <v>400</v>
       </c>
       <c r="D168" s="9"/>
@@ -12019,7 +12249,7 @@
       <c r="B169" s="18" t="s">
         <v>401</v>
       </c>
-      <c r="C169" s="21" t="s">
+      <c r="C169" s="20" t="s">
         <v>402</v>
       </c>
       <c r="D169" s="9"/>
@@ -12035,7 +12265,7 @@
         <v>165</v>
       </c>
       <c r="B170" s="18"/>
-      <c r="C170" s="21" t="s">
+      <c r="C170" s="20" t="s">
         <v>403</v>
       </c>
       <c r="D170" s="9"/>
@@ -12053,7 +12283,7 @@
       <c r="B171" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="C171" s="21" t="s">
+      <c r="C171" s="20" t="s">
         <v>405</v>
       </c>
       <c r="D171" s="9"/>
@@ -12069,7 +12299,7 @@
         <v>167</v>
       </c>
       <c r="B172" s="18"/>
-      <c r="C172" s="21" t="s">
+      <c r="C172" s="20" t="s">
         <v>406</v>
       </c>
       <c r="D172" s="9"/>
@@ -12205,7 +12435,7 @@
       <c r="B7" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>408</v>
       </c>
       <c r="D7" s="9"/>
@@ -12802,7 +13032,7 @@
       <c r="B60" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="20" t="s">
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
@@ -12813,7 +13043,7 @@
         <v>55</v>
       </c>
       <c r="B61" s="9"/>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="20" t="s">
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
@@ -12824,7 +13054,7 @@
         <v>56</v>
       </c>
       <c r="B62" s="9"/>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="20" t="s">
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
@@ -12835,7 +13065,7 @@
         <v>57</v>
       </c>
       <c r="B63" s="9"/>
-      <c r="C63" s="21" t="s">
+      <c r="C63" s="20" t="s">
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
@@ -12846,7 +13076,7 @@
         <v>58</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="21" t="s">
+      <c r="C64" s="20" t="s">
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
@@ -12857,7 +13087,7 @@
         <v>59</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="21" t="s">
+      <c r="C65" s="20" t="s">
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
@@ -12868,7 +13098,7 @@
         <v>60</v>
       </c>
       <c r="B66" s="9"/>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
@@ -12879,7 +13109,7 @@
         <v>61</v>
       </c>
       <c r="B67" s="9"/>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
@@ -12892,7 +13122,7 @@
       <c r="B68" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
@@ -12905,7 +13135,7 @@
       <c r="B69" s="18" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
@@ -12916,7 +13146,7 @@
         <v>64</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="21" t="s">
+      <c r="C70" s="20" t="s">
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
@@ -12927,7 +13157,7 @@
         <v>65</v>
       </c>
       <c r="B71" s="18"/>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="20" t="s">
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
@@ -12938,7 +13168,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="18"/>
-      <c r="C72" s="21" t="s">
+      <c r="C72" s="20" t="s">
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
@@ -12949,7 +13179,7 @@
         <v>67</v>
       </c>
       <c r="B73" s="18"/>
-      <c r="C73" s="21" t="s">
+      <c r="C73" s="20" t="s">
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
@@ -12960,7 +13190,7 @@
         <v>68</v>
       </c>
       <c r="B74" s="18"/>
-      <c r="C74" s="21" t="s">
+      <c r="C74" s="20" t="s">
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
@@ -12971,7 +13201,7 @@
         <v>69</v>
       </c>
       <c r="B75" s="18"/>
-      <c r="C75" s="21" t="s">
+      <c r="C75" s="20" t="s">
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
@@ -12982,7 +13212,7 @@
         <v>70</v>
       </c>
       <c r="B76" s="18"/>
-      <c r="C76" s="21" t="s">
+      <c r="C76" s="20" t="s">
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
@@ -12993,7 +13223,7 @@
         <v>71</v>
       </c>
       <c r="B77" s="18"/>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="20" t="s">
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
@@ -13004,7 +13234,7 @@
         <v>72</v>
       </c>
       <c r="B78" s="18"/>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="20" t="s">
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
@@ -13015,7 +13245,7 @@
         <v>73</v>
       </c>
       <c r="B79" s="18"/>
-      <c r="C79" s="21" t="s">
+      <c r="C79" s="20" t="s">
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
@@ -13126,7 +13356,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13139,7 +13369,7 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -13150,7 +13380,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -13161,7 +13391,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -13172,7 +13402,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -13183,7 +13413,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -13194,7 +13424,7 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -13207,7 +13437,7 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
@@ -13218,7 +13448,7 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
@@ -13229,7 +13459,7 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
@@ -13240,7 +13470,7 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
@@ -13251,7 +13481,7 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
@@ -13262,7 +13492,7 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -13275,7 +13505,7 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
@@ -13286,7 +13516,7 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
@@ -13297,7 +13527,7 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
@@ -13308,7 +13538,7 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
@@ -13319,7 +13549,7 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
@@ -13330,7 +13560,7 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -13343,7 +13573,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -13354,7 +13584,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -13367,7 +13597,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
@@ -13405,7 +13635,7 @@
       <c r="B31" s="9" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>522</v>
       </c>
       <c r="D31" s="9"/>
@@ -13416,7 +13646,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="9"/>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="20" t="s">
         <v>523</v>
       </c>
       <c r="D32" s="9"/>
@@ -13427,7 +13657,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="9"/>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="20" t="s">
         <v>524</v>
       </c>
       <c r="D33" s="9"/>
@@ -13438,7 +13668,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="9"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="20" t="s">
         <v>525</v>
       </c>
       <c r="D34" s="9"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006520" cy="1620720"/>
+          <a:ext cx="5006160" cy="1620360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>302040</xdr:colOff>
+      <xdr:colOff>301680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006520" cy="1620720"/>
+          <a:ext cx="5006160" cy="1620360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>455760</xdr:colOff>
+      <xdr:colOff>455400</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5006880" cy="1620720"/>
+          <a:ext cx="5006520" cy="1620360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>75600</xdr:colOff>
+      <xdr:colOff>75240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2739,8 +2739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14001840" y="0"/>
-          <a:ext cx="5064840" cy="1658160"/>
+          <a:off x="14213160" y="0"/>
+          <a:ext cx="5064480" cy="1657800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="194400" cy="2341800"/>
+          <a:ext cx="194040" cy="2370600"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>60120</xdr:colOff>
+      <xdr:colOff>59760</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>220320</xdr:rowOff>
+      <xdr:rowOff>219960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2964,8 +2964,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21484440" y="16889400"/>
-          <a:ext cx="5011200" cy="1215000"/>
+          <a:off x="21695760" y="16889400"/>
+          <a:ext cx="5011200" cy="1214640"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3236040</xdr:colOff>
+      <xdr:colOff>3235680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5027760" cy="1649520"/>
+          <a:ext cx="5027400" cy="1649160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3256,7 +3256,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064120" cy="3103560"/>
+          <a:ext cx="5063760" cy="3103200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5064120" cy="2684520"/>
+          <a:ext cx="5063760" cy="2684160"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5704,10 +5704,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A54" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F68" activeCellId="0" sqref="F68"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A36" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5717,8 +5717,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1005" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -5768,6 +5768,9 @@
       <c r="F6" s="17" t="n">
         <v>45429</v>
       </c>
+      <c r="G6" s="17" t="n">
+        <v>45430</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -5788,6 +5791,9 @@
       <c r="F7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -5806,6 +5812,9 @@
       <c r="F8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -5824,6 +5833,9 @@
       <c r="F9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -5842,6 +5854,9 @@
       <c r="F10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -5862,6 +5877,9 @@
       <c r="F11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -5880,6 +5898,9 @@
       <c r="F12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -5898,6 +5919,9 @@
       <c r="F13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -5916,6 +5940,9 @@
       <c r="F14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -5936,6 +5963,9 @@
       <c r="F15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -5954,6 +5984,9 @@
       <c r="F16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -5972,6 +6005,9 @@
       <c r="F17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -5990,6 +6026,9 @@
       <c r="F18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -6008,6 +6047,9 @@
       <c r="F19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -6026,6 +6068,9 @@
       <c r="F20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -6046,6 +6091,9 @@
       <c r="F21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -6064,6 +6112,9 @@
       <c r="F22" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
@@ -6084,6 +6135,9 @@
       <c r="F23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -6102,6 +6156,9 @@
       <c r="F24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -6120,6 +6177,9 @@
       <c r="F25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -6138,6 +6198,9 @@
       <c r="F26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -6156,6 +6219,9 @@
       <c r="F27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -6174,6 +6240,9 @@
       <c r="F28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -6192,6 +6261,9 @@
       <c r="F29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -6212,6 +6284,9 @@
       <c r="F30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -6230,6 +6305,9 @@
       <c r="F31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -6250,6 +6328,9 @@
       <c r="F32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -6268,6 +6349,9 @@
       <c r="F33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -6286,6 +6370,9 @@
       <c r="F34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -6304,6 +6391,9 @@
       <c r="F35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -6320,6 +6410,9 @@
       <c r="F36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -6336,6 +6429,9 @@
       <c r="F37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -6352,6 +6448,9 @@
       <c r="F38" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -6368,6 +6467,9 @@
       <c r="F39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -6384,6 +6486,9 @@
       <c r="F40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -6402,6 +6507,9 @@
       <c r="F41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -6418,6 +6526,9 @@
       <c r="F42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -6434,6 +6545,9 @@
       <c r="F43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -6450,6 +6564,9 @@
       <c r="F44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -6466,6 +6583,9 @@
       <c r="F45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -6482,6 +6602,9 @@
       <c r="F46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -6498,6 +6621,9 @@
       <c r="F47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -6514,6 +6640,9 @@
       <c r="F48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -6530,6 +6659,9 @@
       <c r="F49" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -6546,6 +6678,9 @@
       <c r="F50" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -6564,6 +6699,9 @@
       <c r="F51" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -6580,6 +6718,9 @@
       <c r="F52" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -6596,6 +6737,9 @@
       <c r="F53" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -6612,6 +6756,9 @@
       <c r="F54" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -6628,6 +6775,9 @@
       <c r="F55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -6646,6 +6796,9 @@
       <c r="F56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -6662,6 +6815,9 @@
       <c r="F57" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -6678,6 +6834,9 @@
       <c r="F58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -6694,6 +6853,9 @@
       <c r="F59" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -6712,6 +6874,9 @@
       <c r="F60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -6728,6 +6893,9 @@
       <c r="F61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -6746,6 +6914,9 @@
       <c r="F62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -6762,6 +6933,9 @@
       <c r="F63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -6778,6 +6952,9 @@
       <c r="F64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -6794,6 +6971,9 @@
       <c r="F65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -6812,6 +6992,9 @@
       <c r="F66" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -6828,6 +7011,9 @@
       <c r="F67" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G67" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -6844,6 +7030,9 @@
       <c r="F68" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -6860,6 +7049,9 @@
       <c r="F69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -6878,6 +7070,9 @@
       <c r="F70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -6894,6 +7089,9 @@
       <c r="F71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -6909,6 +7107,9 @@
       <c r="F72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -6922,6 +7123,9 @@
       <c r="F73" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G73" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -6935,6 +7139,9 @@
       <c r="F74" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G74" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -6948,6 +7155,9 @@
       <c r="F75" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G75" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -6963,6 +7173,9 @@
       <c r="F76" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G76" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -6978,6 +7191,9 @@
       <c r="F77" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G77" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -6991,6 +7207,9 @@
       <c r="F78" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G78" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -7004,6 +7223,9 @@
       <c r="F79" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G79" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="n">
@@ -7019,6 +7241,9 @@
       <c r="F80" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G80" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="n">
@@ -7032,6 +7257,9 @@
       <c r="F81" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G81" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="n">
@@ -7047,6 +7275,9 @@
       <c r="F82" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G82" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="n">
@@ -7062,8 +7293,11 @@
       <c r="F83" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G83" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="n">
         <v>78</v>
       </c>
@@ -7074,8 +7308,11 @@
         <v>210</v>
       </c>
       <c r="D84" s="9"/>
-    </row>
-    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G84" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="n">
         <v>79</v>
       </c>
@@ -7086,8 +7323,11 @@
         <v>212</v>
       </c>
       <c r="D85" s="9"/>
-    </row>
-    <row r="86" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G85" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="n">
         <v>80</v>
       </c>
@@ -7098,6 +7338,9 @@
         <v>214</v>
       </c>
       <c r="D86" s="9"/>
+      <c r="G86" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -7124,13 +7367,13 @@
     <mergeCell ref="B77:B79"/>
     <mergeCell ref="B80:B81"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D86 E7:F71 F72:F83">
+  <conditionalFormatting sqref="D7:D86 E7:G71 F72:G83 G84:G86">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F71 D72:D84 F72:F83 D85:D86" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:G71 D72:D86 F72:G83 G84:G86" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006160" cy="1620360"/>
+          <a:ext cx="5005800" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301680</xdr:colOff>
+      <xdr:colOff>301320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5006160" cy="1620360"/>
+          <a:ext cx="5005800" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>455400</xdr:colOff>
+      <xdr:colOff>455040</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5006520" cy="1620360"/>
+          <a:ext cx="5006160" cy="1620000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>75240</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5064480" cy="1657800"/>
+          <a:ext cx="5064120" cy="1657440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="194040" cy="2370600"/>
+          <a:ext cx="193680" cy="2370240"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>59760</xdr:colOff>
+      <xdr:colOff>59400</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>219960</xdr:rowOff>
+      <xdr:rowOff>219600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5011200" cy="1214640"/>
+          <a:ext cx="5010840" cy="1214280"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3235680</xdr:colOff>
+      <xdr:colOff>3235320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>52200</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5027400" cy="1649160"/>
+          <a:ext cx="5027040" cy="1648800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3237,16 +3237,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>503280</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>202680</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>603360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3255,8 +3255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063760" cy="3103200"/>
+          <a:off x="18811440" y="544320"/>
+          <a:ext cx="5063400" cy="3205080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312840</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>202680</xdr:rowOff>
+      <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063760" cy="2684160"/>
+          <a:ext cx="5063400" cy="2683800"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -5706,7 +5706,7 @@
   </sheetPr>
   <dimension ref="A1:G86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A36" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A48" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
@@ -12615,8 +12615,8 @@
   </sheetPr>
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A30" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12681,9 +12681,11 @@
       <c r="C7" s="20" t="s">
         <v>408</v>
       </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>2</v>
@@ -12692,9 +12694,11 @@
       <c r="C8" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>3</v>
@@ -12703,9 +12707,11 @@
       <c r="C9" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>4</v>
@@ -12714,9 +12720,11 @@
       <c r="C10" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>5</v>
@@ -12725,9 +12733,11 @@
       <c r="C11" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>6</v>
@@ -12736,9 +12746,11 @@
       <c r="C12" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>7</v>
@@ -12747,9 +12759,11 @@
       <c r="C13" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="9"/>
-    </row>
-    <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>8</v>
@@ -12758,7 +12772,9 @@
       <c r="C14" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12771,9 +12787,11 @@
       <c r="C15" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>10</v>
@@ -12782,9 +12800,11 @@
       <c r="C16" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>11</v>
@@ -12793,9 +12813,11 @@
       <c r="C17" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>12</v>
@@ -12804,9 +12826,11 @@
       <c r="C18" s="19" t="s">
         <v>420</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>13</v>
@@ -12815,9 +12839,11 @@
       <c r="C19" s="19" t="s">
         <v>421</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>14</v>
@@ -12826,9 +12852,11 @@
       <c r="C20" s="19" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>15</v>
@@ -12837,9 +12865,11 @@
       <c r="C21" s="19" t="s">
         <v>423</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>16</v>
@@ -12848,9 +12878,11 @@
       <c r="C22" s="19" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>17</v>
@@ -12859,9 +12891,11 @@
       <c r="C23" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>18</v>
@@ -12870,9 +12904,11 @@
       <c r="C24" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>19</v>
@@ -12881,9 +12917,11 @@
       <c r="C25" s="19" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>20</v>
@@ -12892,9 +12930,11 @@
       <c r="C26" s="19" t="s">
         <v>428</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>21</v>
@@ -12903,7 +12943,9 @@
       <c r="C27" s="19" t="s">
         <v>429</v>
       </c>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -12916,9 +12958,11 @@
       <c r="C28" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>23</v>
@@ -12927,9 +12971,11 @@
       <c r="C29" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>24</v>
@@ -12938,7 +12984,9 @@
       <c r="C30" s="19" t="s">
         <v>433</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -12951,9 +12999,11 @@
       <c r="C31" s="19" t="s">
         <v>435</v>
       </c>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D31" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>26</v>
@@ -12962,9 +13012,11 @@
       <c r="C32" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>27</v>
@@ -12973,9 +13025,11 @@
       <c r="C33" s="19" t="s">
         <v>437</v>
       </c>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D33" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>28</v>
@@ -12984,9 +13038,11 @@
       <c r="C34" s="19" t="s">
         <v>438</v>
       </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D34" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>29</v>
@@ -12995,9 +13051,11 @@
       <c r="C35" s="19" t="s">
         <v>439</v>
       </c>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D35" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>30</v>
@@ -13006,9 +13064,11 @@
       <c r="C36" s="19" t="s">
         <v>440</v>
       </c>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>31</v>
@@ -13017,9 +13077,11 @@
       <c r="C37" s="19" t="s">
         <v>441</v>
       </c>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D37" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>32</v>
@@ -13028,7 +13090,9 @@
       <c r="C38" s="19" t="s">
         <v>442</v>
       </c>
-      <c r="D38" s="9"/>
+      <c r="D38" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,12 +1632,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1954,7 +1955,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2040,6 +2041,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2194,9 +2199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005800" cy="1620000"/>
+          <a:ext cx="5005440" cy="1619640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>301320</xdr:colOff>
+      <xdr:colOff>300960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005800" cy="1620000"/>
+          <a:ext cx="5005440" cy="1619640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>455040</xdr:colOff>
+      <xdr:colOff>454680</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5006160" cy="1620000"/>
+          <a:ext cx="5005800" cy="1619640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66600</xdr:rowOff>
+      <xdr:rowOff>66240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5064120" cy="1657440"/>
+          <a:ext cx="5063760" cy="1657080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>74160</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="193680" cy="2370240"/>
+          <a:ext cx="193320" cy="2369880"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>59400</xdr:colOff>
+      <xdr:colOff>59040</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>219600</xdr:rowOff>
+      <xdr:rowOff>219240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5010840" cy="1214280"/>
+          <a:ext cx="5010480" cy="1213920"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3235320</xdr:colOff>
+      <xdr:colOff>3234960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5027040" cy="1648800"/>
+          <a:ext cx="5026680" cy="1648440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
+      <xdr:colOff>603000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3255,8 +3260,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="18811440" y="544320"/>
-          <a:ext cx="5063400" cy="3205080"/>
+          <a:off x="19023120" y="544320"/>
+          <a:ext cx="5062680" cy="3204720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3427,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312840</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>201960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3439,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063400" cy="2683800"/>
+          <a:ext cx="5063040" cy="2683440"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12613,10 +12618,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A30" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A35" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12625,7 +12630,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -12669,6 +12675,9 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
+      <c r="E6" s="22" t="n">
+        <v>45434</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -12684,6 +12693,9 @@
       <c r="D7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12697,6 +12709,9 @@
       <c r="D8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12710,6 +12725,9 @@
       <c r="D9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12723,6 +12741,9 @@
       <c r="D10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12736,6 +12757,9 @@
       <c r="D11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12749,6 +12773,9 @@
       <c r="D12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12762,6 +12789,9 @@
       <c r="D13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12775,6 +12805,9 @@
       <c r="D14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12790,6 +12823,9 @@
       <c r="D15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12803,6 +12839,9 @@
       <c r="D16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -12816,6 +12855,9 @@
       <c r="D17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12829,6 +12871,9 @@
       <c r="D18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12842,6 +12887,9 @@
       <c r="D19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -12855,6 +12903,9 @@
       <c r="D20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -12868,6 +12919,9 @@
       <c r="D21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -12879,6 +12933,9 @@
         <v>424</v>
       </c>
       <c r="D22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12894,6 +12951,9 @@
       <c r="D23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -12907,6 +12967,9 @@
       <c r="D24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -12920,6 +12983,9 @@
       <c r="D25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -12933,6 +12999,9 @@
       <c r="D26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -12946,6 +13015,9 @@
       <c r="D27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -12961,6 +13033,9 @@
       <c r="D28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -12974,6 +13049,9 @@
       <c r="D29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -12987,6 +13065,9 @@
       <c r="D30" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13002,6 +13083,9 @@
       <c r="D31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13015,6 +13099,9 @@
       <c r="D32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="E32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13028,6 +13115,9 @@
       <c r="D33" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E33" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13041,6 +13131,9 @@
       <c r="D34" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -13054,6 +13147,9 @@
       <c r="D35" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -13067,6 +13163,9 @@
       <c r="D36" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E36" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -13080,6 +13179,9 @@
       <c r="D37" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -13093,6 +13195,9 @@
       <c r="D38" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="E38" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -13106,8 +13211,11 @@
         <v>444</v>
       </c>
       <c r="D39" s="9"/>
-    </row>
-    <row r="40" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E39" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>34</v>
@@ -13117,8 +13225,11 @@
         <v>445</v>
       </c>
       <c r="D40" s="9"/>
-    </row>
-    <row r="41" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E40" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>35</v>
@@ -13128,8 +13239,11 @@
         <v>446</v>
       </c>
       <c r="D41" s="9"/>
-    </row>
-    <row r="42" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E41" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>36</v>
@@ -13139,8 +13253,11 @@
         <v>447</v>
       </c>
       <c r="D42" s="9"/>
-    </row>
-    <row r="43" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E42" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="true" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>37</v>
@@ -13150,8 +13267,11 @@
         <v>448</v>
       </c>
       <c r="D43" s="9"/>
-    </row>
-    <row r="44" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E43" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>38</v>
@@ -13161,6 +13281,9 @@
         <v>449</v>
       </c>
       <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -13174,8 +13297,11 @@
         <v>451</v>
       </c>
       <c r="D45" s="9"/>
-    </row>
-    <row r="46" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E45" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>40</v>
@@ -13185,8 +13311,11 @@
         <v>452</v>
       </c>
       <c r="D46" s="9"/>
-    </row>
-    <row r="47" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E46" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>41</v>
@@ -13196,8 +13325,11 @@
         <v>453</v>
       </c>
       <c r="D47" s="9"/>
-    </row>
-    <row r="48" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E47" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>42</v>
@@ -13207,8 +13339,11 @@
         <v>454</v>
       </c>
       <c r="D48" s="9"/>
-    </row>
-    <row r="49" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E48" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>43</v>
@@ -13218,8 +13353,11 @@
         <v>455</v>
       </c>
       <c r="D49" s="9"/>
-    </row>
-    <row r="50" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>44</v>
@@ -13229,8 +13367,11 @@
         <v>456</v>
       </c>
       <c r="D50" s="9"/>
-    </row>
-    <row r="51" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E50" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>45</v>
@@ -13240,8 +13381,11 @@
         <v>457</v>
       </c>
       <c r="D51" s="9"/>
-    </row>
-    <row r="52" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E51" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>46</v>
@@ -13251,8 +13395,11 @@
         <v>458</v>
       </c>
       <c r="D52" s="9"/>
-    </row>
-    <row r="53" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E52" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>47</v>
@@ -13262,6 +13409,9 @@
         <v>459</v>
       </c>
       <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -13273,6 +13423,9 @@
         <v>460</v>
       </c>
       <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -13286,8 +13439,11 @@
         <v>462</v>
       </c>
       <c r="D55" s="9"/>
-    </row>
-    <row r="56" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E55" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>50</v>
@@ -13297,8 +13453,11 @@
         <v>463</v>
       </c>
       <c r="D56" s="9"/>
-    </row>
-    <row r="57" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E56" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>51</v>
@@ -13308,8 +13467,11 @@
         <v>464</v>
       </c>
       <c r="D57" s="9"/>
-    </row>
-    <row r="58" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E57" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>52</v>
@@ -13319,8 +13481,11 @@
         <v>465</v>
       </c>
       <c r="D58" s="9"/>
-    </row>
-    <row r="59" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E58" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>53</v>
@@ -13330,6 +13495,9 @@
         <v>466</v>
       </c>
       <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -13573,13 +13741,13 @@
     <mergeCell ref="B60:B67"/>
     <mergeCell ref="B69:B79"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D79">
+  <conditionalFormatting sqref="D7:D79 E7:E59">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:D79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:E59 D60:D79" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13663,7 +13831,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13676,7 +13844,7 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -13687,7 +13855,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -13698,7 +13866,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -13709,7 +13877,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -13720,7 +13888,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -13731,7 +13899,7 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -13744,7 +13912,7 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
@@ -13755,7 +13923,7 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
@@ -13766,7 +13934,7 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
@@ -13777,7 +13945,7 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
@@ -13788,7 +13956,7 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
@@ -13799,7 +13967,7 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -13812,7 +13980,7 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
@@ -13823,7 +13991,7 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
@@ -13834,7 +14002,7 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
@@ -13845,7 +14013,7 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
@@ -13856,7 +14024,7 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
@@ -13867,7 +14035,7 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -13880,7 +14048,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -13891,7 +14059,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -13904,7 +14072,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,13 +1632,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
-    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1955,7 +1954,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2041,10 +2040,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2199,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2211,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005440" cy="1619640"/>
+          <a:ext cx="5005080" cy="1619280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2377,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300960</xdr:colOff>
+      <xdr:colOff>300600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2389,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005440" cy="1619640"/>
+          <a:ext cx="5005080" cy="1619280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2555,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>454680</xdr:colOff>
+      <xdr:colOff>454320</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2567,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5005800" cy="1619640"/>
+          <a:ext cx="5005440" cy="1619280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2733,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>74520</xdr:colOff>
+      <xdr:colOff>74160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>66240</xdr:rowOff>
+      <xdr:rowOff>65880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2745,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5063760" cy="1657080"/>
+          <a:ext cx="5063400" cy="1656720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2906,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2918,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="193320" cy="2369880"/>
+          <a:ext cx="192960" cy="2369520"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2958,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>59040</xdr:colOff>
+      <xdr:colOff>58680</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>219240</xdr:rowOff>
+      <xdr:rowOff>218880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2970,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5010480" cy="1213920"/>
+          <a:ext cx="5010120" cy="1213560"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3071,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3234960</xdr:colOff>
+      <xdr:colOff>3234600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3083,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5026680" cy="1648440"/>
+          <a:ext cx="5026320" cy="1648080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3249,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3260,8 +3255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19023120" y="544320"/>
-          <a:ext cx="5062680" cy="3204720"/>
+          <a:off x="19234440" y="544320"/>
+          <a:ext cx="5062680" cy="3204360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3427,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:rowOff>201600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3439,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5063040" cy="2683440"/>
+          <a:ext cx="5062680" cy="2683080"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12618,10 +12613,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A35" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E46" activeCellId="0" sqref="E46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A42" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12630,8 +12625,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -12675,8 +12670,11 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="22" t="n">
+      <c r="E6" s="17" t="n">
         <v>45434</v>
+      </c>
+      <c r="F6" s="17" t="n">
+        <v>45435</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12696,6 +12694,9 @@
       <c r="E7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12712,6 +12713,9 @@
       <c r="E8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12728,6 +12732,9 @@
       <c r="E9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12744,6 +12751,9 @@
       <c r="E10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12760,6 +12770,9 @@
       <c r="E11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12776,6 +12789,9 @@
       <c r="E12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12792,6 +12808,9 @@
       <c r="E13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12808,6 +12827,9 @@
       <c r="E14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12826,6 +12848,9 @@
       <c r="E15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12842,6 +12867,9 @@
       <c r="E16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -12858,6 +12886,9 @@
       <c r="E17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12874,6 +12905,9 @@
       <c r="E18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12890,6 +12924,9 @@
       <c r="E19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -12906,6 +12943,9 @@
       <c r="E20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -12922,6 +12962,9 @@
       <c r="E21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -12936,6 +12979,9 @@
         <v>0</v>
       </c>
       <c r="E22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12954,6 +13000,9 @@
       <c r="E23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -12970,6 +13019,9 @@
       <c r="E24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -12986,6 +13038,9 @@
       <c r="E25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13002,6 +13057,9 @@
       <c r="E26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13018,6 +13076,9 @@
       <c r="E27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13036,6 +13097,9 @@
       <c r="E28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13052,6 +13116,9 @@
       <c r="E29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13068,6 +13135,9 @@
       <c r="E30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13086,6 +13156,9 @@
       <c r="E31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13102,6 +13175,9 @@
       <c r="E32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13118,6 +13194,9 @@
       <c r="E33" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F33" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13134,6 +13213,9 @@
       <c r="E34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -13150,6 +13232,9 @@
       <c r="E35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -13166,6 +13251,9 @@
       <c r="E36" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F36" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -13182,6 +13270,9 @@
       <c r="E37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -13198,6 +13289,9 @@
       <c r="E38" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F38" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -13214,6 +13308,9 @@
       <c r="E39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -13228,6 +13325,9 @@
       <c r="E40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -13242,6 +13342,9 @@
       <c r="E41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -13256,6 +13359,9 @@
       <c r="E42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -13270,6 +13376,9 @@
       <c r="E43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -13284,6 +13393,9 @@
       <c r="E44" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -13300,6 +13412,9 @@
       <c r="E45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -13314,6 +13429,9 @@
       <c r="E46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="F46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -13328,6 +13446,9 @@
       <c r="E47" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -13342,6 +13463,9 @@
       <c r="E48" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -13356,6 +13480,9 @@
       <c r="E49" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F49" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -13370,6 +13497,9 @@
       <c r="E50" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F50" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -13384,6 +13514,9 @@
       <c r="E51" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F51" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -13398,6 +13531,9 @@
       <c r="E52" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F52" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -13412,6 +13548,9 @@
       <c r="E53" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F53" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -13426,6 +13565,9 @@
       <c r="E54" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F54" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -13442,6 +13584,9 @@
       <c r="E55" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -13456,6 +13601,9 @@
       <c r="E56" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -13470,6 +13618,9 @@
       <c r="E57" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F57" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -13484,6 +13635,9 @@
       <c r="E58" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -13498,6 +13652,9 @@
       <c r="E59" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="F59" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -13511,8 +13668,11 @@
         <v>468</v>
       </c>
       <c r="D60" s="9"/>
-    </row>
-    <row r="61" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>55</v>
@@ -13522,8 +13682,11 @@
         <v>469</v>
       </c>
       <c r="D61" s="9"/>
-    </row>
-    <row r="62" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>56</v>
@@ -13533,8 +13696,11 @@
         <v>470</v>
       </c>
       <c r="D62" s="9"/>
-    </row>
-    <row r="63" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>57</v>
@@ -13544,8 +13710,11 @@
         <v>471</v>
       </c>
       <c r="D63" s="9"/>
-    </row>
-    <row r="64" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>58</v>
@@ -13555,8 +13724,11 @@
         <v>472</v>
       </c>
       <c r="D64" s="9"/>
-    </row>
-    <row r="65" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>59</v>
@@ -13566,8 +13738,11 @@
         <v>473</v>
       </c>
       <c r="D65" s="9"/>
-    </row>
-    <row r="66" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>60</v>
@@ -13577,8 +13752,11 @@
         <v>474</v>
       </c>
       <c r="D66" s="9"/>
-    </row>
-    <row r="67" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>61</v>
@@ -13588,8 +13766,11 @@
         <v>475</v>
       </c>
       <c r="D67" s="9"/>
-    </row>
-    <row r="68" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>62</v>
@@ -13601,8 +13782,11 @@
         <v>477</v>
       </c>
       <c r="D68" s="9"/>
-    </row>
-    <row r="69" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>63</v>
@@ -13614,6 +13798,9 @@
         <v>479</v>
       </c>
       <c r="D69" s="9"/>
+      <c r="F69" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -13741,13 +13928,13 @@
     <mergeCell ref="B60:B67"/>
     <mergeCell ref="B69:B79"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D79 E7:E59">
+  <conditionalFormatting sqref="D7:D79 E7:E59 F7:F69">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:E59 D60:D79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F59 D60:D70 F60:F69 D71:D79" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13831,7 +14018,7 @@
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -13844,7 +14031,7 @@
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -13855,7 +14042,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -13866,7 +14053,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -13877,7 +14064,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="23"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -13888,7 +14075,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -13899,7 +14086,7 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -13912,7 +14099,7 @@
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
@@ -13923,7 +14110,7 @@
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
@@ -13934,7 +14121,7 @@
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
@@ -13945,7 +14132,7 @@
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
@@ -13956,7 +14143,7 @@
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
@@ -13967,7 +14154,7 @@
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="22" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -13980,7 +14167,7 @@
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="23"/>
+      <c r="B20" s="22"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
@@ -13991,7 +14178,7 @@
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
@@ -14002,7 +14189,7 @@
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
@@ -14013,7 +14200,7 @@
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="23"/>
+      <c r="B23" s="22"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
@@ -14024,7 +14211,7 @@
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
@@ -14035,7 +14222,7 @@
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="23" t="s">
+      <c r="B25" s="22" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -14048,7 +14235,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="23"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -14059,7 +14246,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="22" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -14072,7 +14259,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="23"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300600</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005080" cy="1619280"/>
+          <a:ext cx="5004720" cy="1618920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300600</xdr:colOff>
+      <xdr:colOff>300240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5005080" cy="1619280"/>
+          <a:ext cx="5004720" cy="1618920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>454320</xdr:colOff>
+      <xdr:colOff>453960</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5005440" cy="1619280"/>
+          <a:ext cx="5005080" cy="1618920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>65880</xdr:rowOff>
+      <xdr:rowOff>65520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5063400" cy="1656720"/>
+          <a:ext cx="5063040" cy="1656360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="192960" cy="2369520"/>
+          <a:ext cx="192600" cy="2369160"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>58320</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>218880</xdr:rowOff>
+      <xdr:rowOff>218520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5010120" cy="1213560"/>
+          <a:ext cx="5009760" cy="1213200"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3234600</xdr:colOff>
+      <xdr:colOff>3234240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5026320" cy="1648080"/>
+          <a:ext cx="5025960" cy="1647720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3255,8 +3255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19234440" y="544320"/>
-          <a:ext cx="5062680" cy="3204360"/>
+          <a:off x="19446120" y="544320"/>
+          <a:ext cx="5061960" cy="3204000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201600</xdr:rowOff>
+      <xdr:rowOff>201240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5062680" cy="2683080"/>
+          <a:ext cx="5062320" cy="2682720"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12613,10 +12613,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A42" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F59" activeCellId="0" sqref="F59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A53" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12625,8 +12625,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="7" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -12676,6 +12676,9 @@
       <c r="F6" s="17" t="n">
         <v>45435</v>
       </c>
+      <c r="G6" s="17" t="n">
+        <v>45436</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -12697,6 +12700,9 @@
       <c r="F7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12716,6 +12722,9 @@
       <c r="F8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12735,6 +12744,9 @@
       <c r="F9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12754,6 +12766,9 @@
       <c r="F10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12773,6 +12788,9 @@
       <c r="F11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12792,6 +12810,9 @@
       <c r="F12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12811,6 +12832,9 @@
       <c r="F13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12830,6 +12854,9 @@
       <c r="F14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12851,6 +12878,9 @@
       <c r="F15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12870,6 +12900,9 @@
       <c r="F16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -12889,6 +12922,9 @@
       <c r="F17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12908,6 +12944,9 @@
       <c r="F18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12927,6 +12966,9 @@
       <c r="F19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -12946,6 +12988,9 @@
       <c r="F20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -12965,6 +13010,9 @@
       <c r="F21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -12982,6 +13030,9 @@
         <v>0</v>
       </c>
       <c r="F22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13003,6 +13054,9 @@
       <c r="F23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13022,6 +13076,9 @@
       <c r="F24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13041,6 +13098,9 @@
       <c r="F25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13060,6 +13120,9 @@
       <c r="F26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13079,6 +13142,9 @@
       <c r="F27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13100,6 +13166,9 @@
       <c r="F28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13119,6 +13188,9 @@
       <c r="F29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13138,6 +13210,9 @@
       <c r="F30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13159,6 +13234,9 @@
       <c r="F31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13178,6 +13256,9 @@
       <c r="F32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13197,6 +13278,9 @@
       <c r="F33" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13216,6 +13300,9 @@
       <c r="F34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -13235,6 +13322,9 @@
       <c r="F35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -13254,6 +13344,9 @@
       <c r="F36" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -13273,6 +13366,9 @@
       <c r="F37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -13292,6 +13388,9 @@
       <c r="F38" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G38" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -13311,6 +13410,9 @@
       <c r="F39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -13328,6 +13430,9 @@
       <c r="F40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -13345,6 +13450,9 @@
       <c r="F41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -13362,6 +13470,9 @@
       <c r="F42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -13379,6 +13490,9 @@
       <c r="F43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -13396,6 +13510,9 @@
       <c r="F44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -13415,6 +13532,9 @@
       <c r="F45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -13432,6 +13552,9 @@
       <c r="F46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -13449,6 +13572,9 @@
       <c r="F47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -13466,6 +13592,9 @@
       <c r="F48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -13483,6 +13612,9 @@
       <c r="F49" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G49" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -13500,6 +13632,9 @@
       <c r="F50" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G50" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -13517,6 +13652,9 @@
       <c r="F51" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G51" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -13534,6 +13672,9 @@
       <c r="F52" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G52" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -13551,6 +13692,9 @@
       <c r="F53" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G53" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -13568,6 +13712,9 @@
       <c r="F54" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G54" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -13587,6 +13734,9 @@
       <c r="F55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -13604,6 +13754,9 @@
       <c r="F56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -13621,6 +13774,9 @@
       <c r="F57" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G57" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -13638,6 +13794,9 @@
       <c r="F58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -13655,6 +13814,9 @@
       <c r="F59" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G59" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -13671,6 +13833,9 @@
       <c r="F60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -13685,6 +13850,9 @@
       <c r="F61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -13699,6 +13867,9 @@
       <c r="F62" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -13713,6 +13884,9 @@
       <c r="F63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -13727,6 +13901,9 @@
       <c r="F64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -13741,6 +13918,9 @@
       <c r="F65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -13755,6 +13935,9 @@
       <c r="F66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -13769,6 +13952,9 @@
       <c r="F67" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="G67" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -13785,6 +13971,9 @@
       <c r="F68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="G68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -13801,8 +13990,11 @@
       <c r="F69" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G69" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>64</v>
@@ -13812,8 +14004,11 @@
         <v>480</v>
       </c>
       <c r="D70" s="9"/>
-    </row>
-    <row r="71" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G70" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>65</v>
@@ -13823,8 +14018,11 @@
         <v>481</v>
       </c>
       <c r="D71" s="9"/>
-    </row>
-    <row r="72" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G71" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>66</v>
@@ -13834,8 +14032,11 @@
         <v>482</v>
       </c>
       <c r="D72" s="9"/>
-    </row>
-    <row r="73" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G72" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>67</v>
@@ -13845,8 +14046,11 @@
         <v>483</v>
       </c>
       <c r="D73" s="9"/>
-    </row>
-    <row r="74" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G73" s="9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>68</v>
@@ -13856,8 +14060,11 @@
         <v>484</v>
       </c>
       <c r="D74" s="9"/>
-    </row>
-    <row r="75" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G74" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>69</v>
@@ -13867,8 +14074,11 @@
         <v>485</v>
       </c>
       <c r="D75" s="9"/>
-    </row>
-    <row r="76" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G75" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>70</v>
@@ -13878,8 +14088,11 @@
         <v>486</v>
       </c>
       <c r="D76" s="9"/>
-    </row>
-    <row r="77" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G76" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>71</v>
@@ -13889,8 +14102,11 @@
         <v>487</v>
       </c>
       <c r="D77" s="9"/>
-    </row>
-    <row r="78" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G77" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>72</v>
@@ -13900,8 +14116,11 @@
         <v>488</v>
       </c>
       <c r="D78" s="9"/>
-    </row>
-    <row r="79" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G78" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>73</v>
@@ -13911,6 +14130,9 @@
         <v>489</v>
       </c>
       <c r="D79" s="9"/>
+      <c r="G79" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -13928,13 +14150,13 @@
     <mergeCell ref="B60:B67"/>
     <mergeCell ref="B69:B79"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D79 E7:E59 F7:F69">
+  <conditionalFormatting sqref="D7:D79 E7:E59 F7:F69 G7:G79">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:F59 D60:D70 F60:F69 D71:D79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:G59 D60:D79 F60:G69 G70:G79" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004720" cy="1618920"/>
+          <a:ext cx="5004360" cy="1618560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>300240</xdr:colOff>
+      <xdr:colOff>299880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004720" cy="1618920"/>
+          <a:ext cx="5004360" cy="1618560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>453960</xdr:colOff>
+      <xdr:colOff>453600</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5005080" cy="1618920"/>
+          <a:ext cx="5004720" cy="1618560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5063040" cy="1656360"/>
+          <a:ext cx="5062680" cy="1656000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="192600" cy="2369160"/>
+          <a:ext cx="192240" cy="2368800"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>58320</xdr:colOff>
+      <xdr:colOff>57960</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>218520</xdr:rowOff>
+      <xdr:rowOff>218160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5009760" cy="1213200"/>
+          <a:ext cx="5009400" cy="1212840"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3234240</xdr:colOff>
+      <xdr:colOff>3233880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5025960" cy="1647720"/>
+          <a:ext cx="5025600" cy="1647360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
+      <xdr:colOff>601920</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3255,8 +3255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19446120" y="544320"/>
-          <a:ext cx="5061960" cy="3204000"/>
+          <a:off x="19657440" y="544320"/>
+          <a:ext cx="5061960" cy="3203640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311760</xdr:colOff>
+      <xdr:colOff>311400</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>201240</xdr:rowOff>
+      <xdr:rowOff>200880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5062320" cy="2682720"/>
+          <a:ext cx="5061960" cy="2682360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12613,10 +12613,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A53" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12625,8 +12625,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="1" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="8" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -12679,6 +12679,9 @@
       <c r="G6" s="17" t="n">
         <v>45436</v>
       </c>
+      <c r="H6" s="17" t="n">
+        <v>45437</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -12703,6 +12706,9 @@
       <c r="G7" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
@@ -12725,6 +12731,9 @@
       <c r="G8" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H8" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
@@ -12747,6 +12756,9 @@
       <c r="G9" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H9" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
@@ -12769,6 +12781,9 @@
       <c r="G10" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H10" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
@@ -12791,6 +12806,9 @@
       <c r="G11" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H11" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
@@ -12813,6 +12831,9 @@
       <c r="G12" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H12" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -12835,6 +12856,9 @@
       <c r="G13" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
@@ -12857,6 +12881,9 @@
       <c r="G14" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
@@ -12881,6 +12908,9 @@
       <c r="G15" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
@@ -12903,6 +12933,9 @@
       <c r="G16" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -12925,6 +12958,9 @@
       <c r="G17" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
@@ -12947,6 +12983,9 @@
       <c r="G18" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -12969,6 +13008,9 @@
       <c r="G19" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
@@ -12991,6 +13033,9 @@
       <c r="G20" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H20" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
@@ -13013,6 +13058,9 @@
       <c r="G21" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H21" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
@@ -13033,6 +13081,9 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13057,6 +13108,9 @@
       <c r="G23" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H23" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
@@ -13079,6 +13133,9 @@
       <c r="G24" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H24" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
@@ -13101,6 +13158,9 @@
       <c r="G25" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H25" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="n">
@@ -13123,6 +13183,9 @@
       <c r="G26" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H26" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="n">
@@ -13145,6 +13208,9 @@
       <c r="G27" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H27" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="n">
@@ -13169,6 +13235,9 @@
       <c r="G28" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H28" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="n">
@@ -13191,6 +13260,9 @@
       <c r="G29" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H29" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
@@ -13213,6 +13285,9 @@
       <c r="G30" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H30" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="n">
@@ -13237,6 +13312,9 @@
       <c r="G31" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H31" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="n">
@@ -13259,6 +13337,9 @@
       <c r="G32" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H32" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="n">
@@ -13281,6 +13362,9 @@
       <c r="G33" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H33" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="n">
@@ -13303,6 +13387,9 @@
       <c r="G34" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H34" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
@@ -13325,6 +13412,9 @@
       <c r="G35" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H35" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="n">
@@ -13347,6 +13437,9 @@
       <c r="G36" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H36" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="n">
@@ -13369,6 +13462,9 @@
       <c r="G37" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H37" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="n">
@@ -13391,6 +13487,9 @@
       <c r="G38" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H38" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="n">
@@ -13413,6 +13512,9 @@
       <c r="G39" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H39" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="n">
@@ -13433,6 +13535,9 @@
       <c r="G40" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H40" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="n">
@@ -13453,6 +13558,9 @@
       <c r="G41" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H41" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="n">
@@ -13473,6 +13581,9 @@
       <c r="G42" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H42" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="33.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
@@ -13493,6 +13604,9 @@
       <c r="G43" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H43" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
@@ -13513,6 +13627,9 @@
       <c r="G44" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H44" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
@@ -13535,6 +13652,9 @@
       <c r="G45" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H45" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
@@ -13555,6 +13675,9 @@
       <c r="G46" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H46" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
@@ -13575,6 +13698,9 @@
       <c r="G47" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H47" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
@@ -13595,6 +13721,9 @@
       <c r="G48" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H48" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
@@ -13615,6 +13744,9 @@
       <c r="G49" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H49" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
@@ -13635,6 +13767,9 @@
       <c r="G50" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H50" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="n">
@@ -13655,6 +13790,9 @@
       <c r="G51" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H51" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
@@ -13675,6 +13813,9 @@
       <c r="G52" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H52" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
@@ -13695,6 +13836,9 @@
       <c r="G53" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H53" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="33" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
@@ -13715,6 +13859,9 @@
       <c r="G54" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H54" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
@@ -13737,6 +13884,9 @@
       <c r="G55" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H55" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
@@ -13757,6 +13907,9 @@
       <c r="G56" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H56" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
@@ -13777,6 +13930,9 @@
       <c r="G57" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H57" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
@@ -13797,6 +13953,9 @@
       <c r="G58" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H58" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
@@ -13817,6 +13976,9 @@
       <c r="G59" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H59" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
@@ -13836,6 +13998,9 @@
       <c r="G60" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H60" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
@@ -13853,6 +14018,9 @@
       <c r="G61" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H61" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
@@ -13870,6 +14038,9 @@
       <c r="G62" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H62" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
@@ -13887,6 +14058,9 @@
       <c r="G63" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H63" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
@@ -13904,6 +14078,9 @@
       <c r="G64" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H64" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
@@ -13921,6 +14098,9 @@
       <c r="G65" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H65" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
@@ -13938,6 +14118,9 @@
       <c r="G66" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H66" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
@@ -13955,6 +14138,9 @@
       <c r="G67" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H67" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
@@ -13974,6 +14160,9 @@
       <c r="G68" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H68" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
@@ -13993,6 +14182,9 @@
       <c r="G69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -14007,6 +14199,9 @@
       <c r="G70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -14021,6 +14216,9 @@
       <c r="G71" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H71" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -14035,6 +14233,9 @@
       <c r="G72" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H72" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -14049,6 +14250,9 @@
       <c r="G73" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="H73" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -14063,6 +14267,9 @@
       <c r="G74" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H74" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -14077,6 +14284,9 @@
       <c r="G75" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H75" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -14091,6 +14301,9 @@
       <c r="G76" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H76" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -14105,6 +14318,9 @@
       <c r="G77" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H77" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -14119,6 +14335,9 @@
       <c r="G78" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="H78" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -14131,6 +14350,9 @@
       </c>
       <c r="D79" s="9"/>
       <c r="G79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14150,13 +14372,13 @@
     <mergeCell ref="B60:B67"/>
     <mergeCell ref="B69:B79"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D79 E7:E59 F7:F69 G7:G79">
+  <conditionalFormatting sqref="D7:D79 E7:E59 F7:F69 G7:H79">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:G59 D60:D79 F60:G69 G70:G79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:H59 D60:D79 F60:H69 G70:H79" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>299520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004360" cy="1618560"/>
+          <a:ext cx="5004000" cy="1618200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299880</xdr:colOff>
+      <xdr:colOff>299520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004360" cy="1618560"/>
+          <a:ext cx="5004000" cy="1618200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>453600</xdr:colOff>
+      <xdr:colOff>453240</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5004720" cy="1618560"/>
+          <a:ext cx="5004360" cy="1618200"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>73080</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>65160</xdr:rowOff>
+      <xdr:rowOff>64800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5062680" cy="1656000"/>
+          <a:ext cx="5062320" cy="1655640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="192240" cy="2368800"/>
+          <a:ext cx="191880" cy="2368440"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>57960</xdr:colOff>
+      <xdr:colOff>57600</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>218160</xdr:rowOff>
+      <xdr:rowOff>217800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5009400" cy="1212840"/>
+          <a:ext cx="5009040" cy="1212480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3233880</xdr:colOff>
+      <xdr:colOff>3233520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5025600" cy="1647360"/>
+          <a:ext cx="5025240" cy="1647000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
+      <xdr:colOff>601560</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3255,8 +3255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19657440" y="544320"/>
-          <a:ext cx="5061960" cy="3203640"/>
+          <a:off x="19868760" y="544320"/>
+          <a:ext cx="5061600" cy="3203280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311400</xdr:colOff>
+      <xdr:colOff>311040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>200880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5061960" cy="2682360"/>
+          <a:ext cx="5061600" cy="2682000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -12613,10 +12613,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H79"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H75" activeCellId="0" sqref="H75"/>
+      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12625,8 +12625,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="1" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="8.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="10" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -12681,6 +12681,9 @@
       </c>
       <c r="H6" s="17" t="n">
         <v>45437</v>
+      </c>
+      <c r="I6" s="17" t="n">
+        <v>45440</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -2194,9 +2194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299520</xdr:colOff>
+      <xdr:colOff>299160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2206,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004000" cy="1618200"/>
+          <a:ext cx="5003640" cy="1617840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299520</xdr:colOff>
+      <xdr:colOff>299160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5004000" cy="1618200"/>
+          <a:ext cx="5003640" cy="1617840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>453240</xdr:colOff>
+      <xdr:colOff>452880</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5004360" cy="1618200"/>
+          <a:ext cx="5004000" cy="1617840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>73080</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>64800</xdr:rowOff>
+      <xdr:rowOff>64440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5062320" cy="1655640"/>
+          <a:ext cx="5061960" cy="1655280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2901,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="191880" cy="2368440"/>
+          <a:ext cx="191520" cy="2368080"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>57600</xdr:colOff>
+      <xdr:colOff>57240</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>217800</xdr:rowOff>
+      <xdr:rowOff>217440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5009040" cy="1212480"/>
+          <a:ext cx="5008680" cy="1212120"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3233520</xdr:colOff>
+      <xdr:colOff>3233160</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>49680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3078,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5025240" cy="1647000"/>
+          <a:ext cx="5024880" cy="1646640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>601560</xdr:colOff>
+      <xdr:colOff>601200</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3255,8 +3255,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19868760" y="544320"/>
-          <a:ext cx="5061600" cy="3203280"/>
+          <a:off x="20271600" y="544320"/>
+          <a:ext cx="5060880" cy="3202920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3422,9 +3422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>200520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3434,7 +3434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11906640" y="156960"/>
-          <a:ext cx="5061600" cy="2682000"/>
+          <a:ext cx="5061240" cy="2681640"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3785,7 +3785,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="J74:J79 D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4166,7 +4166,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="J74:J79 D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4384,7 +4384,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
+      <selection pane="topLeft" activeCell="G53" activeCellId="1" sqref="J74:J79 G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5707,7 +5707,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A48" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
+      <selection pane="topLeft" activeCell="G80" activeCellId="1" sqref="J74:J79 G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7398,7 +7398,7 @@
   <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N150" activeCellId="0" sqref="N150"/>
+      <selection pane="topLeft" activeCell="N150" activeCellId="1" sqref="J74:J79 N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12613,10 +12613,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I7" activeCellId="0" sqref="I7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A50" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J74" activeCellId="0" sqref="J74:J79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12626,7 +12626,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="10" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="11" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -12685,6 +12686,9 @@
       <c r="I6" s="17" t="n">
         <v>45440</v>
       </c>
+      <c r="J6" s="17" t="n">
+        <v>45441</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
@@ -14188,6 +14192,9 @@
       <c r="H69" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J69" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
@@ -14205,6 +14212,9 @@
       <c r="H70" s="9" t="n">
         <v>0</v>
       </c>
+      <c r="J70" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
@@ -14222,6 +14232,9 @@
       <c r="H71" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J71" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
@@ -14239,6 +14252,9 @@
       <c r="H72" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J72" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
@@ -14256,6 +14272,9 @@
       <c r="H73" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J73" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
@@ -14273,6 +14292,9 @@
       <c r="H74" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J74" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="n">
@@ -14290,6 +14312,9 @@
       <c r="H75" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J75" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="76" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="n">
@@ -14307,6 +14332,9 @@
       <c r="H76" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J76" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="77" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="n">
@@ -14324,6 +14352,9 @@
       <c r="H77" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J77" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="78" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="n">
@@ -14341,6 +14372,9 @@
       <c r="H78" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="J78" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="79" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="n">
@@ -14356,6 +14390,9 @@
         <v>16</v>
       </c>
       <c r="H79" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -14375,13 +14412,13 @@
     <mergeCell ref="B60:B67"/>
     <mergeCell ref="B69:B79"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D79 E7:E59 F7:F69 G7:H79">
+  <conditionalFormatting sqref="D7:D79 E7:E59 F7:F69 G7:H79 J69:J79">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:H59 D60:D79 F60:H69 G70:H79" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D7:H59 D60:D79 F60:H69 J69:J79 G70:H79" type="list">
       <formula1>"〇,×"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14406,7 +14443,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J74:J79 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/13_YudaiKita_目標管理シート.xlsx
+++ b/13_YudaiKita_目標管理シート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="学習目標チェックシート(ビジネスマナー)" sheetId="1" state="visible" r:id="rId3"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="526">
   <si>
     <t xml:space="preserve">学習目標自己チェックシート(ビジネスマナー)</t>
   </si>
@@ -1632,12 +1632,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="AAAA"/>
     <numFmt numFmtId="166" formatCode="dd"/>
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="m\月d\日"/>
+    <numFmt numFmtId="169" formatCode="m\月d\日"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1954,7 +1955,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2040,6 +2041,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2194,9 +2199,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299160</xdr:colOff>
+      <xdr:colOff>298800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2206,7 +2211,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5003640" cy="1617840"/>
+          <a:ext cx="5003280" cy="1617480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2372,9 +2377,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>299160</xdr:colOff>
+      <xdr:colOff>298800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2384,7 +2389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11673360" y="145080"/>
-          <a:ext cx="5003640" cy="1617840"/>
+          <a:ext cx="5003280" cy="1617480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2550,9 +2555,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2562,7 +2567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="18145800" y="0"/>
-          <a:ext cx="5004000" cy="1617840"/>
+          <a:ext cx="5003640" cy="1617480"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2728,9 +2733,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72360</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2740,7 +2745,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14213160" y="0"/>
-          <a:ext cx="5061960" cy="1655280"/>
+          <a:ext cx="5061600" cy="1654920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2901,9 +2906,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>72360</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2913,7 +2918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11283480" y="17472240"/>
-          <a:ext cx="191520" cy="2368080"/>
+          <a:ext cx="191160" cy="2367720"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -2953,9 +2958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>57240</xdr:colOff>
+      <xdr:colOff>56880</xdr:colOff>
       <xdr:row>77</xdr:row>
-      <xdr:rowOff>217440</xdr:rowOff>
+      <xdr:rowOff>217080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2965,7 +2970,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="21695760" y="16889400"/>
-          <a:ext cx="5008680" cy="1212120"/>
+          <a:ext cx="5008320" cy="1211760"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -3066,9 +3071,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>3233160</xdr:colOff>
+      <xdr:colOff>3232800</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>49680</xdr:rowOff>
+      <xdr:rowOff>49320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3078,7 +3083,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="461160" y="0"/>
-          <a:ext cx="5024880" cy="1646640"/>
+          <a:ext cx="5024520" cy="1646280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3244,9 +3249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>601200</xdr:colOff>
+      <xdr:colOff>600840</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3256,7 +3261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="20271600" y="544320"/>
-          <a:ext cx="5060880" cy="3202920"/>
+          <a:ext cx="5060520" cy="3202560"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3415,16 +3420,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>590400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>67680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>189360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3433,8 +3438,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11906640" y="156960"/>
-          <a:ext cx="5061240" cy="2681640"/>
+          <a:off x="25232760" y="775080"/>
+          <a:ext cx="5060880" cy="2681280"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3785,7 +3790,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A22" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="1" sqref="J74:J79 D12"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4166,7 +4171,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="B1" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="1" sqref="J74:J79 D16"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4384,7 +4389,7 @@
   <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A4" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G53" activeCellId="1" sqref="J74:J79 G53"/>
+      <selection pane="topLeft" activeCell="G53" activeCellId="0" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5707,7 +5712,7 @@
   <dimension ref="A1:G86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A48" colorId="64" zoomScale="75" zoomScaleNormal="70" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G80" activeCellId="1" sqref="J74:J79 G80"/>
+      <selection pane="topLeft" activeCell="G80" activeCellId="0" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7398,7 +7403,7 @@
   <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N150" activeCellId="1" sqref="J74:J79 N150"/>
+      <selection pane="topLeft" activeCell="N150" activeCellId="0" sqref="N150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12615,8 +12620,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A50" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J74" activeCellId="0" sqref="J74:J79"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A50" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J74" activeCellId="0" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14440,10 +14445,10 @@
     <tabColor rgb="FF9DC3E6"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="J74:J79 A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="85" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.45703125" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14452,7 +14457,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="126.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="5" style="1" width="5.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="6" style="1" width="5.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1004" min="18" style="1" width="8.88"/>
   </cols>
   <sheetData>
@@ -14496,26 +14502,31 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
+      <c r="E6" s="22" t="n">
+        <v>45449</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>491</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
         <v>493</v>
       </c>
@@ -14526,7 +14537,7 @@
         <f aca="false">ROW()-6</f>
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="19" t="s">
         <v>494</v>
       </c>
@@ -14537,7 +14548,7 @@
         <f aca="false">ROW()-6</f>
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="19" t="s">
         <v>495</v>
       </c>
@@ -14548,7 +14559,7 @@
         <f aca="false">ROW()-6</f>
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="19" t="s">
         <v>496</v>
       </c>
@@ -14559,7 +14570,7 @@
         <f aca="false">ROW()-6</f>
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="19" t="s">
         <v>497</v>
       </c>
@@ -14570,143 +14581,167 @@
         <f aca="false">ROW()-6</f>
         <v>7</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>498</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>499</v>
       </c>
-      <c r="D13" s="9"/>
+      <c r="D13" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="19" t="s">
         <v>500</v>
       </c>
-      <c r="D14" s="9"/>
+      <c r="D14" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="19" t="s">
         <v>501</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>10</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="19" t="s">
         <v>502</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="19" t="s">
         <v>503</v>
       </c>
-      <c r="D17" s="9"/>
+      <c r="D17" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="19" t="s">
         <v>504</v>
       </c>
-      <c r="D18" s="9"/>
+      <c r="D18" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>13</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="23" t="s">
         <v>505</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>506</v>
       </c>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>14</v>
       </c>
-      <c r="B20" s="22"/>
+      <c r="B20" s="23"/>
       <c r="C20" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="19" t="s">
         <v>508</v>
       </c>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>16</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="19" t="s">
         <v>509</v>
       </c>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>17</v>
       </c>
-      <c r="B23" s="22"/>
+      <c r="B23" s="23"/>
       <c r="C23" s="19" t="s">
         <v>510</v>
       </c>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="true" ht="17.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>18</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="19" t="s">
         <v>511</v>
       </c>
-      <c r="D24" s="9"/>
+      <c r="D24" s="9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <f aca="false">ROW()-6</f>
         <v>19</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="23" t="s">
         <v>512</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -14719,7 +14754,7 @@
         <f aca="false">ROW()-6</f>
         <v>20</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="19" t="s">
         <v>514</v>
       </c>
@@ -14730,7 +14765,7 @@
         <f aca="false">ROW()-6</f>
         <v>21</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>515</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -14743,7 +14778,7 @@
         <f aca="false">ROW()-6</f>
         <v>22</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="19" t="s">
         <v>517</v>
       </c>
